--- a/vak vezet vilagtalant.xlsx
+++ b/vak vezet vilagtalant.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bence\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E035B7B-29B9-4825-85D8-D154E01E0619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACFDFFA-9014-446B-9E00-E4C0F35BA659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E6EA86CA-E58C-4D75-AC13-17473B008D05}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E6EA86CA-E58C-4D75-AC13-17473B008D05}"/>
   </bookViews>
   <sheets>
     <sheet name="IP címek" sheetId="1" r:id="rId1"/>
     <sheet name="Határidők" sheetId="2" r:id="rId2"/>
+    <sheet name="datumok vagy mi yip yap" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="161">
   <si>
     <t>192.168.1.0</t>
   </si>
@@ -488,6 +489,36 @@
   </si>
   <si>
     <t>Kolos</t>
+  </si>
+  <si>
+    <t>SITE 3</t>
+  </si>
+  <si>
+    <t>Hétfő</t>
+  </si>
+  <si>
+    <t>Kedd</t>
+  </si>
+  <si>
+    <t>Szerda</t>
+  </si>
+  <si>
+    <t>Csütörtök</t>
+  </si>
+  <si>
+    <t>Péntek</t>
+  </si>
+  <si>
+    <t>Szombat</t>
+  </si>
+  <si>
+    <t>Vasárnap</t>
+  </si>
+  <si>
+    <t>Ide irjatok amit akartok, lehetoleg amikor elore latjatok, hogy nem tudtok dolgozni a vizsgaremeken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bence </t>
   </si>
 </sst>
 </file>
@@ -536,7 +567,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -609,8 +640,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="37">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1082,11 +1137,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1193,54 +1406,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1252,27 +1417,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1297,21 +1441,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1321,15 +1456,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1355,12 +1481,230 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFA20000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1671,61 +2015,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B758846-9D45-4F65-A4A7-543A1E8CEAFB}">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="55" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="55" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="55"/>
-    <col min="8" max="8" width="16" style="55" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="55"/>
+    <col min="1" max="1" width="15.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="39"/>
+    <col min="8" max="8" width="16" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.28515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="62" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="H1" s="64" t="s">
+      <c r="E1" s="95"/>
+      <c r="H1" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="64" t="s">
+      <c r="I1" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="59"/>
+      <c r="K1" s="80"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="42"/>
+      <c r="C2" s="91"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="H2" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="38" t="s">
         <v>92</v>
       </c>
       <c r="J2" s="4" t="s">
@@ -1739,8 +2083,8 @@
       <c r="A3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="43"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="93"/>
       <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1748,7 +2092,7 @@
       <c r="H3" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="I3" s="54" t="s">
+      <c r="I3" s="38" t="s">
         <v>93</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -1762,10 +2106,10 @@
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="42"/>
+      <c r="C4" s="91"/>
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
       <c r="H4" s="29" t="s">
@@ -1796,10 +2140,10 @@
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="47"/>
+      <c r="C6" s="83"/>
       <c r="D6" s="22" t="s">
         <v>17</v>
       </c>
@@ -1809,32 +2153,32 @@
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="47"/>
+      <c r="C7" s="83"/>
       <c r="D7" s="22" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="51"/>
+      <c r="C8" s="99"/>
       <c r="D8" s="6"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="49"/>
-      <c r="B9" s="45" t="s">
+      <c r="A9" s="101"/>
+      <c r="B9" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="43"/>
+      <c r="C9" s="93"/>
       <c r="D9" s="7" t="s">
         <v>25</v>
       </c>
@@ -1861,7 +2205,7 @@
       <c r="A11" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="84" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -1873,21 +2217,21 @@
       <c r="E11" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="57" t="s">
-        <v>105</v>
-      </c>
-      <c r="I11" s="58"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="57" t="s">
+      <c r="H11" s="79" t="s">
+        <v>151</v>
+      </c>
+      <c r="I11" s="81"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="L11" s="59"/>
+      <c r="L11" s="80"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="37"/>
+      <c r="B12" s="85"/>
       <c r="C12" s="11" t="s">
         <v>38</v>
       </c>
@@ -1897,13 +2241,13 @@
       <c r="E12" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="53" t="s">
+      <c r="H12" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="46" t="s">
+      <c r="I12" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="47"/>
+      <c r="J12" s="83"/>
       <c r="K12" s="26" t="s">
         <v>8</v>
       </c>
@@ -1913,7 +2257,7 @@
       <c r="A13" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="38"/>
+      <c r="B13" s="86"/>
       <c r="C13" s="13" t="s">
         <v>39</v>
       </c>
@@ -1923,53 +2267,53 @@
       <c r="E13" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="53" t="s">
+      <c r="H13" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="I13" s="46" t="s">
+      <c r="I13" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="47"/>
+      <c r="J13" s="83"/>
       <c r="K13" s="26" t="s">
         <v>8</v>
       </c>
       <c r="L13" s="26"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H14" s="53" t="s">
+      <c r="H14" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="I14" s="46" t="s">
+      <c r="I14" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="J14" s="47"/>
+      <c r="J14" s="83"/>
       <c r="K14" s="26" t="s">
         <v>8</v>
       </c>
       <c r="L14" s="26"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H15" s="39" t="s">
+      <c r="H15" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="44" t="s">
+      <c r="I15" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="42"/>
+      <c r="J15" s="91"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:12" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="58" t="s">
+      <c r="B16" s="81"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="59"/>
-      <c r="H16" s="40"/>
+      <c r="E16" s="80"/>
+      <c r="H16" s="88"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8" t="s">
         <v>8</v>
@@ -1983,13 +2327,13 @@
       <c r="A17" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="42"/>
+      <c r="C17" s="91"/>
       <c r="D17" s="3"/>
       <c r="E17" s="14"/>
-      <c r="H17" s="40"/>
+      <c r="H17" s="88"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10" t="s">
         <v>63</v>
@@ -2003,13 +2347,13 @@
       <c r="A18" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="43"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="93"/>
       <c r="D18" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="7"/>
-      <c r="H18" s="40"/>
+      <c r="H18" s="88"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10" t="s">
         <v>64</v>
@@ -2023,13 +2367,13 @@
       <c r="A19" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="42"/>
+      <c r="C19" s="91"/>
       <c r="D19" s="3"/>
       <c r="E19" s="14"/>
-      <c r="H19" s="40"/>
+      <c r="H19" s="88"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10" t="s">
         <v>65</v>
@@ -2043,13 +2387,13 @@
       <c r="A20" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="43"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="93"/>
       <c r="D20" s="22" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="7"/>
-      <c r="H20" s="41"/>
+      <c r="H20" s="89"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12" t="s">
         <v>66</v>
@@ -2063,16 +2407,16 @@
       <c r="A21" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="42"/>
+      <c r="C21" s="91"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="H21" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="36" t="s">
+      <c r="I21" s="84" t="s">
         <v>26</v>
       </c>
       <c r="J21" s="31" t="s">
@@ -2087,10 +2431,10 @@
       <c r="A22" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="43"/>
+      <c r="C22" s="93"/>
       <c r="D22" s="5" t="s">
         <v>33</v>
       </c>
@@ -2098,7 +2442,7 @@
       <c r="H22" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="I22" s="37"/>
+      <c r="I22" s="85"/>
       <c r="J22" s="21" t="s">
         <v>2</v>
       </c>
@@ -2126,7 +2470,7 @@
       <c r="H23" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="I23" s="38"/>
+      <c r="I23" s="86"/>
       <c r="J23" s="32" t="s">
         <v>68</v>
       </c>
@@ -2139,7 +2483,7 @@
       <c r="A24" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="84" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -2154,7 +2498,7 @@
       <c r="H24" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="I24" s="36" t="s">
+      <c r="I24" s="84" t="s">
         <v>13</v>
       </c>
       <c r="J24" s="31" t="s">
@@ -2171,7 +2515,7 @@
       <c r="A25" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="37"/>
+      <c r="B25" s="85"/>
       <c r="C25" s="10" t="s">
         <v>41</v>
       </c>
@@ -2184,7 +2528,7 @@
       <c r="H25" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="I25" s="37"/>
+      <c r="I25" s="85"/>
       <c r="J25" s="21" t="s">
         <v>81</v>
       </c>
@@ -2199,7 +2543,7 @@
       <c r="A26" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="38"/>
+      <c r="B26" s="86"/>
       <c r="C26" s="12" t="s">
         <v>42</v>
       </c>
@@ -2212,7 +2556,7 @@
       <c r="H26" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="I26" s="38"/>
+      <c r="I26" s="86"/>
       <c r="J26" s="32" t="s">
         <v>82</v>
       </c>
@@ -2224,39 +2568,39 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="O32" s="56"/>
+      <c r="I32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="O32" s="40"/>
     </row>
     <row r="33" spans="9:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I33" s="56"/>
-      <c r="L33" s="56"/>
-      <c r="O33" s="56"/>
+      <c r="I33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="O33" s="40"/>
     </row>
     <row r="34" spans="9:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="O34" s="56"/>
+      <c r="I34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="O34" s="40"/>
     </row>
     <row r="35" spans="9:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I35" s="56"/>
-      <c r="L35" s="56"/>
-      <c r="O35" s="56"/>
+      <c r="I35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="O35" s="40"/>
     </row>
     <row r="36" spans="9:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I36" s="56"/>
-      <c r="L36" s="56"/>
-      <c r="O36" s="56"/>
+      <c r="I36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="O36" s="40"/>
     </row>
     <row r="37" spans="9:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I37" s="56"/>
-      <c r="L37" s="56"/>
-      <c r="O37" s="56"/>
+      <c r="I37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="O37" s="40"/>
     </row>
     <row r="38" spans="9:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I38" s="56"/>
-      <c r="L38" s="56"/>
-      <c r="O38" s="56"/>
+      <c r="I38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="O38" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -2276,20 +2620,20 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B11:B13"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B24:B26"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="H11:J11"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="H15:H20"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="H11:J11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2313,317 +2657,317 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65"/>
+      <c r="A1" s="42"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="105" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="90"/>
-      <c r="F2" s="93"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="107"/>
+      <c r="F2" s="64"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="F3" s="103" t="s">
+      <c r="D3" s="60"/>
+      <c r="F3" s="74" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="F4" s="52" t="s">
+      <c r="D4" s="47"/>
+      <c r="F4" s="36" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="73"/>
-      <c r="F5" s="106" t="s">
+      <c r="D5" s="50"/>
+      <c r="F5" s="77" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="65"/>
-      <c r="F6" s="93"/>
+      <c r="A6" s="42"/>
+      <c r="F6" s="64"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="102" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="F7" s="93"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="F7" s="64"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="97" t="s">
+      <c r="C8" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="98"/>
-      <c r="F8" s="103" t="s">
+      <c r="D8" s="69"/>
+      <c r="F8" s="74" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="83" t="s">
+      <c r="A9" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="99" t="s">
+      <c r="B9" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="94"/>
-      <c r="F9" s="52" t="s">
+      <c r="D9" s="65"/>
+      <c r="F9" s="36" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="99" t="s">
+      <c r="B10" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="78"/>
-      <c r="D10" s="94"/>
-      <c r="F10" s="106" t="s">
+      <c r="C10" s="53"/>
+      <c r="D10" s="65"/>
+      <c r="F10" s="77" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="80"/>
-      <c r="D11" s="95"/>
-      <c r="F11" s="52" t="s">
+      <c r="C11" s="55"/>
+      <c r="D11" s="66"/>
+      <c r="F11" s="36" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="65"/>
-      <c r="F12" s="93"/>
+      <c r="A12" s="42"/>
+      <c r="F12" s="64"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="65"/>
-      <c r="F13" s="93"/>
+      <c r="A13" s="42"/>
+      <c r="F13" s="64"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="102" t="s">
         <v>126</v>
       </c>
-      <c r="C14" s="82"/>
-      <c r="D14" s="75"/>
-      <c r="F14" s="93"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="104"/>
+      <c r="F14" s="64"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="C15" s="76"/>
-      <c r="D15" s="77"/>
-      <c r="F15" s="93"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="52"/>
+      <c r="F15" s="64"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="C16" s="78" t="s">
+      <c r="C16" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="D16" s="79" t="s">
+      <c r="D16" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="F16" s="104" t="s">
+      <c r="F16" s="75" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="D17" s="79"/>
-      <c r="F17" s="107" t="s">
+      <c r="D17" s="54"/>
+      <c r="F17" s="78" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="C18" s="78" t="s">
+      <c r="C18" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="D18" s="79"/>
-      <c r="F18" s="105" t="s">
+      <c r="D18" s="54"/>
+      <c r="F18" s="76" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="68" t="s">
+      <c r="A19" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="D19" s="79"/>
-      <c r="F19" s="104" t="s">
+      <c r="D19" s="54"/>
+      <c r="F19" s="75" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="71" t="s">
+      <c r="A20" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="B20" s="80" t="s">
+      <c r="B20" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="80" t="s">
+      <c r="C20" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="D20" s="81"/>
-      <c r="F20" s="107" t="s">
+      <c r="D20" s="56"/>
+      <c r="F20" s="78" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="65"/>
-      <c r="F21" s="93"/>
+      <c r="A21" s="42"/>
+      <c r="F21" s="64"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65"/>
-      <c r="F22" s="93"/>
+      <c r="A22" s="42"/>
+      <c r="F22" s="64"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66" t="s">
+      <c r="A23" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="B23" s="74" t="s">
+      <c r="B23" s="102" t="s">
         <v>140</v>
       </c>
-      <c r="C23" s="82"/>
-      <c r="D23" s="75"/>
-      <c r="F23" s="93"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="104"/>
+      <c r="F23" s="64"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="101" t="s">
+      <c r="A24" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="B24" s="96" t="s">
+      <c r="B24" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="C24" s="97" t="s">
+      <c r="C24" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="D24" s="102"/>
-      <c r="F24" s="106" t="s">
+      <c r="D24" s="73"/>
+      <c r="F24" s="77" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="83" t="s">
+      <c r="A25" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="B25" s="99" t="s">
+      <c r="B25" s="70" t="s">
         <v>142</v>
       </c>
-      <c r="C25" s="78" t="s">
+      <c r="C25" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="D25" s="79"/>
-      <c r="F25" s="103" t="s">
+      <c r="D25" s="54"/>
+      <c r="F25" s="74" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="83" t="s">
+      <c r="A26" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="B26" s="99" t="s">
+      <c r="B26" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="78"/>
-      <c r="D26" s="79"/>
-      <c r="F26" s="52" t="s">
+      <c r="C26" s="53"/>
+      <c r="D26" s="54"/>
+      <c r="F26" s="36" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="83" t="s">
+      <c r="A27" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="B27" s="99"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="79"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="54"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="84" t="s">
+      <c r="A28" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="B28" s="100"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="81"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2635,4 +2979,473 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FADE9CDE-7E54-481D-8CA0-47D915E8AF28}">
+  <dimension ref="C1:T26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="146" t="s">
+        <v>159</v>
+      </c>
+      <c r="M2" s="147"/>
+      <c r="N2" s="144"/>
+      <c r="O2" s="144"/>
+      <c r="P2" s="144"/>
+      <c r="Q2" s="144"/>
+      <c r="R2" s="144"/>
+      <c r="S2" s="144"/>
+      <c r="T2" s="145"/>
+    </row>
+    <row r="3" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="117" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="119"/>
+      <c r="L3" s="148" t="s">
+        <v>160</v>
+      </c>
+      <c r="M3" s="149"/>
+    </row>
+    <row r="4" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="134" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="135" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="135" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="135" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="136" t="s">
+        <v>156</v>
+      </c>
+      <c r="H4" s="137" t="s">
+        <v>157</v>
+      </c>
+      <c r="I4" s="138" t="s">
+        <v>158</v>
+      </c>
+      <c r="L4" s="150" t="s">
+        <v>149</v>
+      </c>
+      <c r="M4" s="151"/>
+    </row>
+    <row r="5" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="114">
+        <v>10</v>
+      </c>
+      <c r="D5" s="115">
+        <v>11</v>
+      </c>
+      <c r="E5" s="115">
+        <v>12</v>
+      </c>
+      <c r="F5" s="115">
+        <v>13</v>
+      </c>
+      <c r="G5" s="120">
+        <v>14</v>
+      </c>
+      <c r="H5" s="127">
+        <v>15</v>
+      </c>
+      <c r="I5" s="116">
+        <v>16</v>
+      </c>
+      <c r="L5" s="152" t="s">
+        <v>150</v>
+      </c>
+      <c r="M5" s="153"/>
+    </row>
+    <row r="6" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="109">
+        <v>17</v>
+      </c>
+      <c r="D6" s="108">
+        <v>18</v>
+      </c>
+      <c r="E6" s="108">
+        <v>19</v>
+      </c>
+      <c r="F6" s="108">
+        <v>20</v>
+      </c>
+      <c r="G6" s="121">
+        <v>21</v>
+      </c>
+      <c r="H6" s="125">
+        <v>22</v>
+      </c>
+      <c r="I6" s="110">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="111">
+        <v>24</v>
+      </c>
+      <c r="D7" s="112">
+        <v>25</v>
+      </c>
+      <c r="E7" s="112">
+        <v>26</v>
+      </c>
+      <c r="F7" s="112">
+        <v>27</v>
+      </c>
+      <c r="G7" s="122">
+        <v>28</v>
+      </c>
+      <c r="H7" s="126">
+        <v>1</v>
+      </c>
+      <c r="I7" s="113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="128" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="130"/>
+    </row>
+    <row r="11" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="139" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="140" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" s="140" t="s">
+        <v>154</v>
+      </c>
+      <c r="F11" s="140" t="s">
+        <v>155</v>
+      </c>
+      <c r="G11" s="141" t="s">
+        <v>156</v>
+      </c>
+      <c r="H11" s="142" t="s">
+        <v>157</v>
+      </c>
+      <c r="I11" s="143" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="131"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="123">
+        <v>1</v>
+      </c>
+      <c r="I12" s="124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="109">
+        <v>3</v>
+      </c>
+      <c r="D13" s="108">
+        <v>4</v>
+      </c>
+      <c r="E13" s="108">
+        <v>5</v>
+      </c>
+      <c r="F13" s="108">
+        <v>6</v>
+      </c>
+      <c r="G13" s="121">
+        <v>7</v>
+      </c>
+      <c r="H13" s="125">
+        <v>8</v>
+      </c>
+      <c r="I13" s="110">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="109">
+        <v>10</v>
+      </c>
+      <c r="D14" s="108">
+        <v>11</v>
+      </c>
+      <c r="E14" s="108">
+        <v>12</v>
+      </c>
+      <c r="F14" s="108">
+        <v>13</v>
+      </c>
+      <c r="G14" s="121">
+        <v>14</v>
+      </c>
+      <c r="H14" s="125">
+        <v>15</v>
+      </c>
+      <c r="I14" s="110">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="109">
+        <v>17</v>
+      </c>
+      <c r="D15" s="108">
+        <v>18</v>
+      </c>
+      <c r="E15" s="108">
+        <v>19</v>
+      </c>
+      <c r="F15" s="108">
+        <v>20</v>
+      </c>
+      <c r="G15" s="121">
+        <v>21</v>
+      </c>
+      <c r="H15" s="125">
+        <v>22</v>
+      </c>
+      <c r="I15" s="110">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="109">
+        <v>24</v>
+      </c>
+      <c r="D16" s="108">
+        <v>25</v>
+      </c>
+      <c r="E16" s="108">
+        <v>26</v>
+      </c>
+      <c r="F16" s="108">
+        <v>27</v>
+      </c>
+      <c r="G16" s="121">
+        <v>28</v>
+      </c>
+      <c r="H16" s="125">
+        <v>29</v>
+      </c>
+      <c r="I16" s="110">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="111">
+        <v>31</v>
+      </c>
+      <c r="D17" s="112">
+        <v>1</v>
+      </c>
+      <c r="E17" s="112">
+        <v>2</v>
+      </c>
+      <c r="F17" s="112">
+        <v>3</v>
+      </c>
+      <c r="G17" s="122">
+        <v>4</v>
+      </c>
+      <c r="H17" s="126">
+        <v>5</v>
+      </c>
+      <c r="I17" s="113">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="3:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="3:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="128" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="129"/>
+      <c r="E20" s="129"/>
+      <c r="F20" s="129"/>
+      <c r="G20" s="129"/>
+      <c r="H20" s="129"/>
+      <c r="I20" s="130"/>
+    </row>
+    <row r="21" spans="3:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="139" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" s="140" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" s="140" t="s">
+        <v>154</v>
+      </c>
+      <c r="F21" s="140" t="s">
+        <v>155</v>
+      </c>
+      <c r="G21" s="141" t="s">
+        <v>156</v>
+      </c>
+      <c r="H21" s="142" t="s">
+        <v>157</v>
+      </c>
+      <c r="I21" s="143" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="131"/>
+      <c r="D22" s="132">
+        <v>1</v>
+      </c>
+      <c r="E22" s="132">
+        <v>2</v>
+      </c>
+      <c r="F22" s="132">
+        <v>3</v>
+      </c>
+      <c r="G22" s="133">
+        <v>4</v>
+      </c>
+      <c r="H22" s="123">
+        <v>5</v>
+      </c>
+      <c r="I22" s="124">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="109">
+        <v>7</v>
+      </c>
+      <c r="D23" s="108">
+        <v>8</v>
+      </c>
+      <c r="E23" s="108">
+        <v>9</v>
+      </c>
+      <c r="F23" s="108">
+        <v>10</v>
+      </c>
+      <c r="G23" s="121">
+        <v>11</v>
+      </c>
+      <c r="H23" s="125">
+        <v>12</v>
+      </c>
+      <c r="I23" s="110">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="109">
+        <v>14</v>
+      </c>
+      <c r="D24" s="108">
+        <v>15</v>
+      </c>
+      <c r="E24" s="108">
+        <v>16</v>
+      </c>
+      <c r="F24" s="108">
+        <v>17</v>
+      </c>
+      <c r="G24" s="121">
+        <v>18</v>
+      </c>
+      <c r="H24" s="125">
+        <v>19</v>
+      </c>
+      <c r="I24" s="110">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="109">
+        <v>21</v>
+      </c>
+      <c r="D25" s="108">
+        <v>22</v>
+      </c>
+      <c r="E25" s="108">
+        <v>23</v>
+      </c>
+      <c r="F25" s="108">
+        <v>24</v>
+      </c>
+      <c r="G25" s="121">
+        <v>25</v>
+      </c>
+      <c r="H25" s="125">
+        <v>26</v>
+      </c>
+      <c r="I25" s="110">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="111">
+        <v>28</v>
+      </c>
+      <c r="D26" s="112">
+        <v>29</v>
+      </c>
+      <c r="E26" s="112">
+        <v>30</v>
+      </c>
+      <c r="F26" s="112">
+        <v>1</v>
+      </c>
+      <c r="G26" s="122">
+        <v>2</v>
+      </c>
+      <c r="H26" s="126">
+        <v>3</v>
+      </c>
+      <c r="I26" s="113">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="L2:T2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/vak vezet vilagtalant.xlsx
+++ b/vak vezet vilagtalant.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bence\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\VIZSGAREMEK\Vizsgaremek-D-K-B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACFDFFA-9014-446B-9E00-E4C0F35BA659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597F0E33-BCD2-475A-8B91-47F9E5481D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E6EA86CA-E58C-4D75-AC13-17473B008D05}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="162">
   <si>
     <t>192.168.1.0</t>
   </si>
@@ -519,6 +519,9 @@
   </si>
   <si>
     <t xml:space="preserve">Bence </t>
+  </si>
+  <si>
+    <t>Itt lesz Fruzsi :3</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1481,93 +1484,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1595,15 +1511,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1628,15 +1535,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1674,18 +1572,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
@@ -1694,6 +1580,135 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -2036,34 +2051,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="124" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="94" t="s">
+      <c r="B1" s="124"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="95"/>
+      <c r="E1" s="123"/>
       <c r="H1" s="41" t="s">
         <v>89</v>
       </c>
       <c r="I1" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="79" t="s">
+      <c r="J1" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="80"/>
+      <c r="K1" s="116"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="91"/>
+      <c r="C2" s="120"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="H2" s="28" t="s">
@@ -2083,8 +2098,8 @@
       <c r="A3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="93"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="118"/>
       <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
@@ -2106,10 +2121,10 @@
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="91"/>
+      <c r="C4" s="120"/>
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
       <c r="H4" s="29" t="s">
@@ -2140,10 +2155,10 @@
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="83"/>
+      <c r="C6" s="129"/>
       <c r="D6" s="22" t="s">
         <v>17</v>
       </c>
@@ -2153,32 +2168,32 @@
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="83"/>
+      <c r="C7" s="129"/>
       <c r="D7" s="22" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="99"/>
+      <c r="C8" s="127"/>
       <c r="D8" s="6"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="101"/>
-      <c r="B9" s="92" t="s">
+      <c r="A9" s="131"/>
+      <c r="B9" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="93"/>
+      <c r="C9" s="118"/>
       <c r="D9" s="7" t="s">
         <v>25</v>
       </c>
@@ -2205,7 +2220,7 @@
       <c r="A11" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="132" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -2217,21 +2232,21 @@
       <c r="E11" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="79" t="s">
+      <c r="H11" s="115" t="s">
         <v>151</v>
       </c>
-      <c r="I11" s="81"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="79" t="s">
+      <c r="I11" s="121"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="L11" s="80"/>
+      <c r="L11" s="116"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="85"/>
+      <c r="B12" s="133"/>
       <c r="C12" s="11" t="s">
         <v>38</v>
       </c>
@@ -2244,10 +2259,10 @@
       <c r="H12" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="82" t="s">
+      <c r="I12" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="83"/>
+      <c r="J12" s="129"/>
       <c r="K12" s="26" t="s">
         <v>8</v>
       </c>
@@ -2257,7 +2272,7 @@
       <c r="A13" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="86"/>
+      <c r="B13" s="134"/>
       <c r="C13" s="13" t="s">
         <v>39</v>
       </c>
@@ -2270,10 +2285,10 @@
       <c r="H13" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="I13" s="82" t="s">
+      <c r="I13" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="83"/>
+      <c r="J13" s="129"/>
       <c r="K13" s="26" t="s">
         <v>8</v>
       </c>
@@ -2283,37 +2298,37 @@
       <c r="H14" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="I14" s="82" t="s">
+      <c r="I14" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="J14" s="83"/>
+      <c r="J14" s="129"/>
       <c r="K14" s="26" t="s">
         <v>8</v>
       </c>
       <c r="L14" s="26"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H15" s="87" t="s">
+      <c r="H15" s="135" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="90" t="s">
+      <c r="I15" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="91"/>
+      <c r="J15" s="120"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:12" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="79" t="s">
+      <c r="A16" s="115" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="81" t="s">
+      <c r="B16" s="121"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="80"/>
-      <c r="H16" s="88"/>
+      <c r="E16" s="116"/>
+      <c r="H16" s="136"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8" t="s">
         <v>8</v>
@@ -2327,13 +2342,13 @@
       <c r="A17" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="90" t="s">
+      <c r="B17" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="91"/>
+      <c r="C17" s="120"/>
       <c r="D17" s="3"/>
       <c r="E17" s="14"/>
-      <c r="H17" s="88"/>
+      <c r="H17" s="136"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10" t="s">
         <v>63</v>
@@ -2347,13 +2362,13 @@
       <c r="A18" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="92"/>
-      <c r="C18" s="93"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="118"/>
       <c r="D18" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="7"/>
-      <c r="H18" s="88"/>
+      <c r="H18" s="136"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10" t="s">
         <v>64</v>
@@ -2367,13 +2382,13 @@
       <c r="A19" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="90" t="s">
+      <c r="B19" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="91"/>
+      <c r="C19" s="120"/>
       <c r="D19" s="3"/>
       <c r="E19" s="14"/>
-      <c r="H19" s="88"/>
+      <c r="H19" s="136"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10" t="s">
         <v>65</v>
@@ -2387,13 +2402,13 @@
       <c r="A20" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="92"/>
-      <c r="C20" s="93"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="118"/>
       <c r="D20" s="22" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="7"/>
-      <c r="H20" s="89"/>
+      <c r="H20" s="137"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12" t="s">
         <v>66</v>
@@ -2407,16 +2422,16 @@
       <c r="A21" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="90" t="s">
+      <c r="B21" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="91"/>
+      <c r="C21" s="120"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="H21" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="84" t="s">
+      <c r="I21" s="132" t="s">
         <v>26</v>
       </c>
       <c r="J21" s="31" t="s">
@@ -2431,10 +2446,10 @@
       <c r="A22" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="92" t="s">
+      <c r="B22" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="93"/>
+      <c r="C22" s="118"/>
       <c r="D22" s="5" t="s">
         <v>33</v>
       </c>
@@ -2442,7 +2457,7 @@
       <c r="H22" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="I22" s="85"/>
+      <c r="I22" s="133"/>
       <c r="J22" s="21" t="s">
         <v>2</v>
       </c>
@@ -2470,7 +2485,7 @@
       <c r="H23" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="I23" s="86"/>
+      <c r="I23" s="134"/>
       <c r="J23" s="32" t="s">
         <v>68</v>
       </c>
@@ -2483,7 +2498,7 @@
       <c r="A24" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="84" t="s">
+      <c r="B24" s="132" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -2498,7 +2513,7 @@
       <c r="H24" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="I24" s="84" t="s">
+      <c r="I24" s="132" t="s">
         <v>13</v>
       </c>
       <c r="J24" s="31" t="s">
@@ -2515,7 +2530,7 @@
       <c r="A25" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="85"/>
+      <c r="B25" s="133"/>
       <c r="C25" s="10" t="s">
         <v>41</v>
       </c>
@@ -2528,7 +2543,7 @@
       <c r="H25" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="I25" s="85"/>
+      <c r="I25" s="133"/>
       <c r="J25" s="21" t="s">
         <v>81</v>
       </c>
@@ -2543,7 +2558,7 @@
       <c r="A26" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="86"/>
+      <c r="B26" s="134"/>
       <c r="C26" s="12" t="s">
         <v>42</v>
       </c>
@@ -2556,7 +2571,7 @@
       <c r="H26" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="I26" s="86"/>
+      <c r="I26" s="134"/>
       <c r="J26" s="32" t="s">
         <v>82</v>
       </c>
@@ -2604,6 +2619,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="H15:H20"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B24:B26"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B17:C17"/>
@@ -2620,20 +2649,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="H15:H20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2663,11 +2678,11 @@
       <c r="A2" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="141" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="107"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="143"/>
       <c r="F2" s="64"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2721,11 +2736,11 @@
       <c r="A7" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="138" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
       <c r="F7" s="64"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2796,11 +2811,11 @@
       <c r="A14" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="102" t="s">
+      <c r="B14" s="138" t="s">
         <v>126</v>
       </c>
-      <c r="C14" s="103"/>
-      <c r="D14" s="104"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="140"/>
       <c r="F14" s="64"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2903,11 +2918,11 @@
       <c r="A23" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="B23" s="102" t="s">
+      <c r="B23" s="138" t="s">
         <v>140</v>
       </c>
-      <c r="C23" s="103"/>
-      <c r="D23" s="104"/>
+      <c r="C23" s="139"/>
+      <c r="D23" s="140"/>
       <c r="F23" s="64"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2986,455 +3001,459 @@
   <dimension ref="C1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="9" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
     <col min="12" max="12" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L2" s="146" t="s">
+      <c r="L2" s="150" t="s">
         <v>159</v>
       </c>
-      <c r="M2" s="147"/>
-      <c r="N2" s="144"/>
-      <c r="O2" s="144"/>
-      <c r="P2" s="144"/>
-      <c r="Q2" s="144"/>
-      <c r="R2" s="144"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="145"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="152"/>
+      <c r="P2" s="152"/>
+      <c r="Q2" s="152"/>
+      <c r="R2" s="152"/>
+      <c r="S2" s="152"/>
+      <c r="T2" s="153"/>
     </row>
     <row r="3" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="117" t="s">
+      <c r="C3" s="144" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="119"/>
-      <c r="L3" s="148" t="s">
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="146"/>
+      <c r="L3" s="109" t="s">
         <v>160</v>
       </c>
-      <c r="M3" s="149"/>
+      <c r="M3" s="110"/>
     </row>
     <row r="4" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="134" t="s">
+      <c r="C4" s="99" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="135" t="s">
+      <c r="D4" s="100" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="135" t="s">
+      <c r="E4" s="100" t="s">
         <v>154</v>
       </c>
-      <c r="F4" s="135" t="s">
+      <c r="F4" s="100" t="s">
         <v>155</v>
       </c>
-      <c r="G4" s="136" t="s">
+      <c r="G4" s="101" t="s">
         <v>156</v>
       </c>
-      <c r="H4" s="137" t="s">
+      <c r="H4" s="102" t="s">
         <v>157</v>
       </c>
-      <c r="I4" s="138" t="s">
+      <c r="I4" s="103" t="s">
         <v>158</v>
       </c>
-      <c r="L4" s="150" t="s">
+      <c r="L4" s="111" t="s">
         <v>149</v>
       </c>
-      <c r="M4" s="151"/>
+      <c r="M4" s="112"/>
     </row>
     <row r="5" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="114">
+      <c r="C5" s="85">
         <v>10</v>
       </c>
-      <c r="D5" s="115">
+      <c r="D5" s="86">
         <v>11</v>
       </c>
-      <c r="E5" s="115">
+      <c r="E5" s="86">
         <v>12</v>
       </c>
-      <c r="F5" s="115">
+      <c r="F5" s="86">
         <v>13</v>
       </c>
-      <c r="G5" s="120">
+      <c r="G5" s="88">
         <v>14</v>
       </c>
-      <c r="H5" s="127">
+      <c r="H5" s="95">
         <v>15</v>
       </c>
-      <c r="I5" s="116">
+      <c r="I5" s="87">
         <v>16</v>
       </c>
-      <c r="L5" s="152" t="s">
+      <c r="L5" s="113" t="s">
         <v>150</v>
       </c>
-      <c r="M5" s="153"/>
+      <c r="M5" s="114"/>
     </row>
     <row r="6" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="109">
+      <c r="C6" s="80">
         <v>17</v>
       </c>
-      <c r="D6" s="108">
+      <c r="D6" s="79">
         <v>18</v>
       </c>
-      <c r="E6" s="108">
+      <c r="E6" s="79">
         <v>19</v>
       </c>
-      <c r="F6" s="108">
+      <c r="F6" s="79">
         <v>20</v>
       </c>
-      <c r="G6" s="121">
+      <c r="G6" s="89">
         <v>21</v>
       </c>
-      <c r="H6" s="125">
+      <c r="H6" s="93">
         <v>22</v>
       </c>
-      <c r="I6" s="110">
+      <c r="I6" s="81">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="111">
+      <c r="C7" s="82">
         <v>24</v>
       </c>
-      <c r="D7" s="112">
+      <c r="D7" s="83">
         <v>25</v>
       </c>
-      <c r="E7" s="112">
+      <c r="E7" s="83">
         <v>26</v>
       </c>
-      <c r="F7" s="112">
+      <c r="F7" s="83">
         <v>27</v>
       </c>
-      <c r="G7" s="122">
+      <c r="G7" s="90">
         <v>28</v>
       </c>
-      <c r="H7" s="126">
+      <c r="H7" s="94">
         <v>1</v>
       </c>
-      <c r="I7" s="113">
+      <c r="I7" s="84">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="128" t="s">
+      <c r="C10" s="147" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="129"/>
-      <c r="G10" s="129"/>
-      <c r="H10" s="129"/>
-      <c r="I10" s="130"/>
+      <c r="D10" s="148"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="148"/>
+      <c r="I10" s="149"/>
     </row>
     <row r="11" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="139" t="s">
+      <c r="C11" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="140" t="s">
+      <c r="D11" s="105" t="s">
         <v>153</v>
       </c>
-      <c r="E11" s="140" t="s">
+      <c r="E11" s="105" t="s">
         <v>154</v>
       </c>
-      <c r="F11" s="140" t="s">
+      <c r="F11" s="105" t="s">
         <v>155</v>
       </c>
-      <c r="G11" s="141" t="s">
+      <c r="G11" s="106" t="s">
         <v>156</v>
       </c>
-      <c r="H11" s="142" t="s">
+      <c r="H11" s="107" t="s">
         <v>157</v>
       </c>
-      <c r="I11" s="143" t="s">
+      <c r="I11" s="108" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="12" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="131"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="123">
+      <c r="C12" s="96"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="91">
         <v>1</v>
       </c>
-      <c r="I12" s="124">
+      <c r="I12" s="92">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="109">
+      <c r="C13" s="154">
         <v>3</v>
       </c>
-      <c r="D13" s="108">
+      <c r="D13" s="155">
         <v>4</v>
       </c>
-      <c r="E13" s="108">
+      <c r="E13" s="155">
         <v>5</v>
       </c>
-      <c r="F13" s="108">
+      <c r="F13" s="155">
         <v>6</v>
       </c>
-      <c r="G13" s="121">
+      <c r="G13" s="156">
         <v>7</v>
       </c>
-      <c r="H13" s="125">
+      <c r="H13" s="154">
         <v>8</v>
       </c>
-      <c r="I13" s="110">
+      <c r="I13" s="157">
         <v>9</v>
       </c>
+      <c r="K13" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="14" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="109">
+      <c r="C14" s="80">
         <v>10</v>
       </c>
-      <c r="D14" s="108">
+      <c r="D14" s="79">
         <v>11</v>
       </c>
-      <c r="E14" s="108">
+      <c r="E14" s="79">
         <v>12</v>
       </c>
-      <c r="F14" s="108">
+      <c r="F14" s="79">
         <v>13</v>
       </c>
-      <c r="G14" s="121">
+      <c r="G14" s="89">
         <v>14</v>
       </c>
-      <c r="H14" s="125">
+      <c r="H14" s="93">
         <v>15</v>
       </c>
-      <c r="I14" s="110">
+      <c r="I14" s="81">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="109">
+      <c r="C15" s="80">
         <v>17</v>
       </c>
-      <c r="D15" s="108">
+      <c r="D15" s="79">
         <v>18</v>
       </c>
-      <c r="E15" s="108">
+      <c r="E15" s="79">
         <v>19</v>
       </c>
-      <c r="F15" s="108">
+      <c r="F15" s="79">
         <v>20</v>
       </c>
-      <c r="G15" s="121">
+      <c r="G15" s="89">
         <v>21</v>
       </c>
-      <c r="H15" s="125">
+      <c r="H15" s="93">
         <v>22</v>
       </c>
-      <c r="I15" s="110">
+      <c r="I15" s="81">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="109">
+      <c r="C16" s="80">
         <v>24</v>
       </c>
-      <c r="D16" s="108">
+      <c r="D16" s="79">
         <v>25</v>
       </c>
-      <c r="E16" s="108">
+      <c r="E16" s="79">
         <v>26</v>
       </c>
-      <c r="F16" s="108">
+      <c r="F16" s="79">
         <v>27</v>
       </c>
-      <c r="G16" s="121">
+      <c r="G16" s="89">
         <v>28</v>
       </c>
-      <c r="H16" s="125">
+      <c r="H16" s="93">
         <v>29</v>
       </c>
-      <c r="I16" s="110">
+      <c r="I16" s="81">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="3:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="111">
+      <c r="C17" s="82">
         <v>31</v>
       </c>
-      <c r="D17" s="112">
+      <c r="D17" s="83">
         <v>1</v>
       </c>
-      <c r="E17" s="112">
+      <c r="E17" s="83">
         <v>2</v>
       </c>
-      <c r="F17" s="112">
+      <c r="F17" s="83">
         <v>3</v>
       </c>
-      <c r="G17" s="122">
+      <c r="G17" s="90">
         <v>4</v>
       </c>
-      <c r="H17" s="126">
+      <c r="H17" s="94">
         <v>5</v>
       </c>
-      <c r="I17" s="113">
+      <c r="I17" s="84">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="3:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="3:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="128" t="s">
+      <c r="C20" s="147" t="s">
         <v>140</v>
       </c>
-      <c r="D20" s="129"/>
-      <c r="E20" s="129"/>
-      <c r="F20" s="129"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="129"/>
-      <c r="I20" s="130"/>
+      <c r="D20" s="148"/>
+      <c r="E20" s="148"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="149"/>
     </row>
     <row r="21" spans="3:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="139" t="s">
+      <c r="C21" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="D21" s="140" t="s">
+      <c r="D21" s="105" t="s">
         <v>153</v>
       </c>
-      <c r="E21" s="140" t="s">
+      <c r="E21" s="105" t="s">
         <v>154</v>
       </c>
-      <c r="F21" s="140" t="s">
+      <c r="F21" s="105" t="s">
         <v>155</v>
       </c>
-      <c r="G21" s="141" t="s">
+      <c r="G21" s="106" t="s">
         <v>156</v>
       </c>
-      <c r="H21" s="142" t="s">
+      <c r="H21" s="107" t="s">
         <v>157</v>
       </c>
-      <c r="I21" s="143" t="s">
+      <c r="I21" s="108" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="22" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="131"/>
-      <c r="D22" s="132">
+      <c r="C22" s="96"/>
+      <c r="D22" s="97">
         <v>1</v>
       </c>
-      <c r="E22" s="132">
+      <c r="E22" s="97">
         <v>2</v>
       </c>
-      <c r="F22" s="132">
+      <c r="F22" s="97">
         <v>3</v>
       </c>
-      <c r="G22" s="133">
+      <c r="G22" s="98">
         <v>4</v>
       </c>
-      <c r="H22" s="123">
+      <c r="H22" s="91">
         <v>5</v>
       </c>
-      <c r="I22" s="124">
+      <c r="I22" s="92">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="109">
+      <c r="C23" s="80">
         <v>7</v>
       </c>
-      <c r="D23" s="108">
+      <c r="D23" s="79">
         <v>8</v>
       </c>
-      <c r="E23" s="108">
+      <c r="E23" s="79">
         <v>9</v>
       </c>
-      <c r="F23" s="108">
+      <c r="F23" s="79">
         <v>10</v>
       </c>
-      <c r="G23" s="121">
+      <c r="G23" s="89">
         <v>11</v>
       </c>
-      <c r="H23" s="125">
+      <c r="H23" s="93">
         <v>12</v>
       </c>
-      <c r="I23" s="110">
+      <c r="I23" s="81">
         <v>13</v>
       </c>
     </row>
     <row r="24" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="109">
+      <c r="C24" s="80">
         <v>14</v>
       </c>
-      <c r="D24" s="108">
+      <c r="D24" s="79">
         <v>15</v>
       </c>
-      <c r="E24" s="108">
+      <c r="E24" s="79">
         <v>16</v>
       </c>
-      <c r="F24" s="108">
+      <c r="F24" s="79">
         <v>17</v>
       </c>
-      <c r="G24" s="121">
+      <c r="G24" s="89">
         <v>18</v>
       </c>
-      <c r="H24" s="125">
+      <c r="H24" s="93">
         <v>19</v>
       </c>
-      <c r="I24" s="110">
+      <c r="I24" s="81">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="109">
+      <c r="C25" s="80">
         <v>21</v>
       </c>
-      <c r="D25" s="108">
+      <c r="D25" s="79">
         <v>22</v>
       </c>
-      <c r="E25" s="108">
+      <c r="E25" s="79">
         <v>23</v>
       </c>
-      <c r="F25" s="108">
+      <c r="F25" s="79">
         <v>24</v>
       </c>
-      <c r="G25" s="121">
+      <c r="G25" s="89">
         <v>25</v>
       </c>
-      <c r="H25" s="125">
+      <c r="H25" s="93">
         <v>26</v>
       </c>
-      <c r="I25" s="110">
+      <c r="I25" s="81">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="3:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="111">
+      <c r="C26" s="82">
         <v>28</v>
       </c>
-      <c r="D26" s="112">
+      <c r="D26" s="83">
         <v>29</v>
       </c>
-      <c r="E26" s="112">
+      <c r="E26" s="83">
         <v>30</v>
       </c>
-      <c r="F26" s="112">
+      <c r="F26" s="83">
         <v>1</v>
       </c>
-      <c r="G26" s="122">
+      <c r="G26" s="90">
         <v>2</v>
       </c>
-      <c r="H26" s="126">
+      <c r="H26" s="94">
         <v>3</v>
       </c>
-      <c r="I26" s="113">
+      <c r="I26" s="84">
         <v>4</v>
       </c>
     </row>

--- a/vak vezet vilagtalant.xlsx
+++ b/vak vezet vilagtalant.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\VIZSGAREMEK\Vizsgaremek-D-K-B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Asztali gép\Minden is\Suli\github\Vizsgaremek-D-K-B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597F0E33-BCD2-475A-8B91-47F9E5481D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E6EA86CA-E58C-4D75-AC13-17473B008D05}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IP címek" sheetId="1" r:id="rId1"/>
@@ -527,7 +526,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1302,7 +1301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1580,27 +1579,63 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1619,34 +1654,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1697,16 +1708,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2027,7 +2035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B758846-9D45-4F65-A4A7-543A1E8CEAFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2051,34 +2059,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="122" t="s">
+      <c r="B1" s="136"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="123"/>
+      <c r="E1" s="135"/>
       <c r="H1" s="41" t="s">
         <v>89</v>
       </c>
       <c r="I1" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="115" t="s">
+      <c r="J1" s="119" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="116"/>
+      <c r="K1" s="120"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="120"/>
+      <c r="C2" s="131"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="H2" s="28" t="s">
@@ -2098,8 +2106,8 @@
       <c r="A3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="118"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="133"/>
       <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
@@ -2121,10 +2129,10 @@
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="120"/>
+      <c r="C4" s="131"/>
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
       <c r="H4" s="29" t="s">
@@ -2155,10 +2163,10 @@
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="128" t="s">
+      <c r="B6" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="129"/>
+      <c r="C6" s="123"/>
       <c r="D6" s="22" t="s">
         <v>17</v>
       </c>
@@ -2168,32 +2176,32 @@
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="128" t="s">
+      <c r="B7" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="129"/>
+      <c r="C7" s="123"/>
       <c r="D7" s="22" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="130" t="s">
+      <c r="A8" s="140" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="126" t="s">
+      <c r="B8" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="127"/>
+      <c r="C8" s="139"/>
       <c r="D8" s="6"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="131"/>
-      <c r="B9" s="117" t="s">
+      <c r="A9" s="141"/>
+      <c r="B9" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="118"/>
+      <c r="C9" s="133"/>
       <c r="D9" s="7" t="s">
         <v>25</v>
       </c>
@@ -2220,7 +2228,7 @@
       <c r="A11" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="132" t="s">
+      <c r="B11" s="124" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -2232,21 +2240,21 @@
       <c r="E11" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="115" t="s">
+      <c r="H11" s="119" t="s">
         <v>151</v>
       </c>
       <c r="I11" s="121"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="115" t="s">
+      <c r="J11" s="120"/>
+      <c r="K11" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="L11" s="116"/>
+      <c r="L11" s="120"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="133"/>
+      <c r="B12" s="125"/>
       <c r="C12" s="11" t="s">
         <v>38</v>
       </c>
@@ -2259,10 +2267,10 @@
       <c r="H12" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="128" t="s">
+      <c r="I12" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="129"/>
+      <c r="J12" s="123"/>
       <c r="K12" s="26" t="s">
         <v>8</v>
       </c>
@@ -2272,7 +2280,7 @@
       <c r="A13" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="134"/>
+      <c r="B13" s="126"/>
       <c r="C13" s="13" t="s">
         <v>39</v>
       </c>
@@ -2285,10 +2293,10 @@
       <c r="H13" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="I13" s="128" t="s">
+      <c r="I13" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="129"/>
+      <c r="J13" s="123"/>
       <c r="K13" s="26" t="s">
         <v>8</v>
       </c>
@@ -2298,37 +2306,37 @@
       <c r="H14" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="I14" s="128" t="s">
+      <c r="I14" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="J14" s="129"/>
+      <c r="J14" s="123"/>
       <c r="K14" s="26" t="s">
         <v>8</v>
       </c>
       <c r="L14" s="26"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H15" s="135" t="s">
+      <c r="H15" s="127" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="119" t="s">
+      <c r="I15" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="120"/>
+      <c r="J15" s="131"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:12" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="119" t="s">
         <v>104</v>
       </c>
       <c r="B16" s="121"/>
-      <c r="C16" s="116"/>
+      <c r="C16" s="120"/>
       <c r="D16" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="116"/>
-      <c r="H16" s="136"/>
+      <c r="E16" s="120"/>
+      <c r="H16" s="128"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8" t="s">
         <v>8</v>
@@ -2342,13 +2350,13 @@
       <c r="A17" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="119" t="s">
+      <c r="B17" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="120"/>
+      <c r="C17" s="131"/>
       <c r="D17" s="3"/>
       <c r="E17" s="14"/>
-      <c r="H17" s="136"/>
+      <c r="H17" s="128"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10" t="s">
         <v>63</v>
@@ -2362,13 +2370,13 @@
       <c r="A18" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="117"/>
-      <c r="C18" s="118"/>
+      <c r="B18" s="132"/>
+      <c r="C18" s="133"/>
       <c r="D18" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="7"/>
-      <c r="H18" s="136"/>
+      <c r="H18" s="128"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10" t="s">
         <v>64</v>
@@ -2382,13 +2390,13 @@
       <c r="A19" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="119" t="s">
+      <c r="B19" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="120"/>
+      <c r="C19" s="131"/>
       <c r="D19" s="3"/>
       <c r="E19" s="14"/>
-      <c r="H19" s="136"/>
+      <c r="H19" s="128"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10" t="s">
         <v>65</v>
@@ -2402,13 +2410,13 @@
       <c r="A20" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="117"/>
-      <c r="C20" s="118"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="133"/>
       <c r="D20" s="22" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="7"/>
-      <c r="H20" s="137"/>
+      <c r="H20" s="129"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12" t="s">
         <v>66</v>
@@ -2422,16 +2430,16 @@
       <c r="A21" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="119" t="s">
+      <c r="B21" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="120"/>
+      <c r="C21" s="131"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="H21" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="132" t="s">
+      <c r="I21" s="124" t="s">
         <v>26</v>
       </c>
       <c r="J21" s="31" t="s">
@@ -2446,10 +2454,10 @@
       <c r="A22" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="117" t="s">
+      <c r="B22" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="118"/>
+      <c r="C22" s="133"/>
       <c r="D22" s="5" t="s">
         <v>33</v>
       </c>
@@ -2457,7 +2465,7 @@
       <c r="H22" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="I22" s="133"/>
+      <c r="I22" s="125"/>
       <c r="J22" s="21" t="s">
         <v>2</v>
       </c>
@@ -2485,7 +2493,7 @@
       <c r="H23" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="I23" s="134"/>
+      <c r="I23" s="126"/>
       <c r="J23" s="32" t="s">
         <v>68</v>
       </c>
@@ -2498,7 +2506,7 @@
       <c r="A24" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="132" t="s">
+      <c r="B24" s="124" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -2513,7 +2521,7 @@
       <c r="H24" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="I24" s="132" t="s">
+      <c r="I24" s="124" t="s">
         <v>13</v>
       </c>
       <c r="J24" s="31" t="s">
@@ -2530,7 +2538,7 @@
       <c r="A25" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="133"/>
+      <c r="B25" s="125"/>
       <c r="C25" s="10" t="s">
         <v>41</v>
       </c>
@@ -2543,7 +2551,7 @@
       <c r="H25" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="I25" s="133"/>
+      <c r="I25" s="125"/>
       <c r="J25" s="21" t="s">
         <v>81</v>
       </c>
@@ -2558,7 +2566,7 @@
       <c r="A26" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="134"/>
+      <c r="B26" s="126"/>
       <c r="C26" s="12" t="s">
         <v>42</v>
       </c>
@@ -2571,7 +2579,7 @@
       <c r="H26" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="I26" s="134"/>
+      <c r="I26" s="126"/>
       <c r="J26" s="32" t="s">
         <v>82</v>
       </c>
@@ -2619,20 +2627,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="H15:H20"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B24:B26"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B17:C17"/>
@@ -2649,6 +2643,20 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B11:B13"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="H15:H20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2657,7 +2665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9080C5-0883-4588-929C-C2F43E02CFA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2678,11 +2686,11 @@
       <c r="A2" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="141" t="s">
+      <c r="B2" s="145" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="142"/>
-      <c r="D2" s="143"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="147"/>
       <c r="F2" s="64"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2736,11 +2744,11 @@
       <c r="A7" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="138" t="s">
+      <c r="B7" s="142" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="143"/>
       <c r="F7" s="64"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2811,11 +2819,11 @@
       <c r="A14" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="138" t="s">
+      <c r="B14" s="142" t="s">
         <v>126</v>
       </c>
-      <c r="C14" s="139"/>
-      <c r="D14" s="140"/>
+      <c r="C14" s="143"/>
+      <c r="D14" s="144"/>
       <c r="F14" s="64"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2918,11 +2926,11 @@
       <c r="A23" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="B23" s="138" t="s">
+      <c r="B23" s="142" t="s">
         <v>140</v>
       </c>
-      <c r="C23" s="139"/>
-      <c r="D23" s="140"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="144"/>
       <c r="F23" s="64"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2997,11 +3005,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FADE9CDE-7E54-481D-8CA0-47D915E8AF28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3014,28 +3022,28 @@
   <sheetData>
     <row r="1" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L2" s="150" t="s">
+      <c r="L2" s="154" t="s">
         <v>159</v>
       </c>
-      <c r="M2" s="151"/>
-      <c r="N2" s="152"/>
-      <c r="O2" s="152"/>
-      <c r="P2" s="152"/>
-      <c r="Q2" s="152"/>
-      <c r="R2" s="152"/>
-      <c r="S2" s="152"/>
-      <c r="T2" s="153"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="156"/>
+      <c r="P2" s="156"/>
+      <c r="Q2" s="156"/>
+      <c r="R2" s="156"/>
+      <c r="S2" s="156"/>
+      <c r="T2" s="157"/>
     </row>
     <row r="3" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="144" t="s">
+      <c r="C3" s="148" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="146"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="150"/>
       <c r="L3" s="109" t="s">
         <v>160</v>
       </c>
@@ -3131,28 +3139,28 @@
       <c r="F7" s="83">
         <v>27</v>
       </c>
-      <c r="G7" s="90">
+      <c r="G7" s="158">
         <v>28</v>
       </c>
-      <c r="H7" s="94">
+      <c r="H7" s="159">
         <v>1</v>
       </c>
-      <c r="I7" s="84">
+      <c r="I7" s="160">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="147" t="s">
+      <c r="C10" s="151" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="148"/>
-      <c r="E10" s="148"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="148"/>
-      <c r="H10" s="148"/>
-      <c r="I10" s="149"/>
+      <c r="D10" s="152"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="152"/>
+      <c r="G10" s="152"/>
+      <c r="H10" s="152"/>
+      <c r="I10" s="153"/>
     </row>
     <row r="11" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="104" t="s">
@@ -3191,25 +3199,25 @@
       </c>
     </row>
     <row r="13" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="154">
+      <c r="C13" s="115">
         <v>3</v>
       </c>
-      <c r="D13" s="155">
+      <c r="D13" s="116">
         <v>4</v>
       </c>
-      <c r="E13" s="155">
+      <c r="E13" s="116">
         <v>5</v>
       </c>
-      <c r="F13" s="155">
+      <c r="F13" s="116">
         <v>6</v>
       </c>
-      <c r="G13" s="156">
+      <c r="G13" s="117">
         <v>7</v>
       </c>
-      <c r="H13" s="154">
+      <c r="H13" s="115">
         <v>8</v>
       </c>
-      <c r="I13" s="157">
+      <c r="I13" s="118">
         <v>9</v>
       </c>
       <c r="K13" t="s">
@@ -3311,15 +3319,15 @@
     <row r="18" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="3:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="3:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="147" t="s">
+      <c r="C20" s="151" t="s">
         <v>140</v>
       </c>
-      <c r="D20" s="148"/>
-      <c r="E20" s="148"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="149"/>
+      <c r="D20" s="152"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="152"/>
+      <c r="I20" s="153"/>
     </row>
     <row r="21" spans="3:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="104" t="s">

--- a/vak vezet vilagtalant.xlsx
+++ b/vak vezet vilagtalant.xlsx
@@ -1301,7 +1301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1507,9 +1507,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1591,21 +1588,66 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1622,42 +1664,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1708,13 +1714,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2059,34 +2062,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="130" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="134" t="s">
+      <c r="B1" s="130"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="135"/>
+      <c r="E1" s="129"/>
       <c r="H1" s="41" t="s">
         <v>89</v>
       </c>
       <c r="I1" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="119" t="s">
+      <c r="J1" s="121" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="120"/>
+      <c r="K1" s="122"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="131"/>
+      <c r="C2" s="126"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="H2" s="28" t="s">
@@ -2106,8 +2109,8 @@
       <c r="A3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="132"/>
-      <c r="C3" s="133"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="124"/>
       <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
@@ -2129,10 +2132,10 @@
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="130" t="s">
+      <c r="B4" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="131"/>
+      <c r="C4" s="126"/>
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
       <c r="H4" s="29" t="s">
@@ -2163,10 +2166,10 @@
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="122" t="s">
+      <c r="B6" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="123"/>
+      <c r="C6" s="135"/>
       <c r="D6" s="22" t="s">
         <v>17</v>
       </c>
@@ -2176,32 +2179,32 @@
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="123"/>
+      <c r="C7" s="135"/>
       <c r="D7" s="22" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="140" t="s">
+      <c r="A8" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="138" t="s">
+      <c r="B8" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="139"/>
+      <c r="C8" s="133"/>
       <c r="D8" s="6"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="141"/>
-      <c r="B9" s="132" t="s">
+      <c r="A9" s="137"/>
+      <c r="B9" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="133"/>
+      <c r="C9" s="124"/>
       <c r="D9" s="7" t="s">
         <v>25</v>
       </c>
@@ -2228,7 +2231,7 @@
       <c r="A11" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="124" t="s">
+      <c r="B11" s="138" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -2240,21 +2243,21 @@
       <c r="E11" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="119" t="s">
+      <c r="H11" s="121" t="s">
         <v>151</v>
       </c>
-      <c r="I11" s="121"/>
-      <c r="J11" s="120"/>
-      <c r="K11" s="119" t="s">
+      <c r="I11" s="127"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="L11" s="120"/>
+      <c r="L11" s="122"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="125"/>
+      <c r="B12" s="139"/>
       <c r="C12" s="11" t="s">
         <v>38</v>
       </c>
@@ -2267,10 +2270,10 @@
       <c r="H12" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="122" t="s">
+      <c r="I12" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="123"/>
+      <c r="J12" s="135"/>
       <c r="K12" s="26" t="s">
         <v>8</v>
       </c>
@@ -2280,7 +2283,7 @@
       <c r="A13" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="126"/>
+      <c r="B13" s="140"/>
       <c r="C13" s="13" t="s">
         <v>39</v>
       </c>
@@ -2293,10 +2296,10 @@
       <c r="H13" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="I13" s="122" t="s">
+      <c r="I13" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="123"/>
+      <c r="J13" s="135"/>
       <c r="K13" s="26" t="s">
         <v>8</v>
       </c>
@@ -2306,37 +2309,37 @@
       <c r="H14" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="I14" s="122" t="s">
+      <c r="I14" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="J14" s="123"/>
+      <c r="J14" s="135"/>
       <c r="K14" s="26" t="s">
         <v>8</v>
       </c>
       <c r="L14" s="26"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H15" s="127" t="s">
+      <c r="H15" s="141" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="130" t="s">
+      <c r="I15" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="131"/>
+      <c r="J15" s="126"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:12" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="119" t="s">
+      <c r="A16" s="121" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="121"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="121" t="s">
+      <c r="B16" s="127"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="120"/>
-      <c r="H16" s="128"/>
+      <c r="E16" s="122"/>
+      <c r="H16" s="142"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8" t="s">
         <v>8</v>
@@ -2350,13 +2353,13 @@
       <c r="A17" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="130" t="s">
+      <c r="B17" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="131"/>
+      <c r="C17" s="126"/>
       <c r="D17" s="3"/>
       <c r="E17" s="14"/>
-      <c r="H17" s="128"/>
+      <c r="H17" s="142"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10" t="s">
         <v>63</v>
@@ -2370,13 +2373,13 @@
       <c r="A18" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="132"/>
-      <c r="C18" s="133"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="124"/>
       <c r="D18" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="7"/>
-      <c r="H18" s="128"/>
+      <c r="H18" s="142"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10" t="s">
         <v>64</v>
@@ -2390,13 +2393,13 @@
       <c r="A19" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="130" t="s">
+      <c r="B19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="131"/>
+      <c r="C19" s="126"/>
       <c r="D19" s="3"/>
       <c r="E19" s="14"/>
-      <c r="H19" s="128"/>
+      <c r="H19" s="142"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10" t="s">
         <v>65</v>
@@ -2410,13 +2413,13 @@
       <c r="A20" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="132"/>
-      <c r="C20" s="133"/>
+      <c r="B20" s="123"/>
+      <c r="C20" s="124"/>
       <c r="D20" s="22" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="7"/>
-      <c r="H20" s="129"/>
+      <c r="H20" s="143"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12" t="s">
         <v>66</v>
@@ -2430,16 +2433,16 @@
       <c r="A21" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="130" t="s">
+      <c r="B21" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="131"/>
+      <c r="C21" s="126"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="H21" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="124" t="s">
+      <c r="I21" s="138" t="s">
         <v>26</v>
       </c>
       <c r="J21" s="31" t="s">
@@ -2454,10 +2457,10 @@
       <c r="A22" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="132" t="s">
+      <c r="B22" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="133"/>
+      <c r="C22" s="124"/>
       <c r="D22" s="5" t="s">
         <v>33</v>
       </c>
@@ -2465,7 +2468,7 @@
       <c r="H22" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="I22" s="125"/>
+      <c r="I22" s="139"/>
       <c r="J22" s="21" t="s">
         <v>2</v>
       </c>
@@ -2493,7 +2496,7 @@
       <c r="H23" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="I23" s="126"/>
+      <c r="I23" s="140"/>
       <c r="J23" s="32" t="s">
         <v>68</v>
       </c>
@@ -2506,7 +2509,7 @@
       <c r="A24" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="124" t="s">
+      <c r="B24" s="138" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -2521,7 +2524,7 @@
       <c r="H24" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="I24" s="124" t="s">
+      <c r="I24" s="138" t="s">
         <v>13</v>
       </c>
       <c r="J24" s="31" t="s">
@@ -2538,7 +2541,7 @@
       <c r="A25" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="125"/>
+      <c r="B25" s="139"/>
       <c r="C25" s="10" t="s">
         <v>41</v>
       </c>
@@ -2551,7 +2554,7 @@
       <c r="H25" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="I25" s="125"/>
+      <c r="I25" s="139"/>
       <c r="J25" s="21" t="s">
         <v>81</v>
       </c>
@@ -2566,7 +2569,7 @@
       <c r="A26" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="126"/>
+      <c r="B26" s="140"/>
       <c r="C26" s="12" t="s">
         <v>42</v>
       </c>
@@ -2579,7 +2582,7 @@
       <c r="H26" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="I26" s="126"/>
+      <c r="I26" s="140"/>
       <c r="J26" s="32" t="s">
         <v>82</v>
       </c>
@@ -2627,6 +2630,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="H15:H20"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B24:B26"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B17:C17"/>
@@ -2643,20 +2660,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="H15:H20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2686,11 +2689,11 @@
       <c r="A2" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="147" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="147"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="149"/>
       <c r="F2" s="64"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2744,11 +2747,11 @@
       <c r="A7" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="142" t="s">
+      <c r="B7" s="144" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="143"/>
-      <c r="D7" s="143"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="145"/>
       <c r="F7" s="64"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2819,11 +2822,11 @@
       <c r="A14" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="142" t="s">
+      <c r="B14" s="144" t="s">
         <v>126</v>
       </c>
-      <c r="C14" s="143"/>
-      <c r="D14" s="144"/>
+      <c r="C14" s="145"/>
+      <c r="D14" s="146"/>
       <c r="F14" s="64"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2926,11 +2929,11 @@
       <c r="A23" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="B23" s="142" t="s">
+      <c r="B23" s="144" t="s">
         <v>140</v>
       </c>
-      <c r="C23" s="143"/>
-      <c r="D23" s="144"/>
+      <c r="C23" s="145"/>
+      <c r="D23" s="146"/>
       <c r="F23" s="64"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -3009,7 +3012,7 @@
   <dimension ref="C1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3022,59 +3025,59 @@
   <sheetData>
     <row r="1" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L2" s="154" t="s">
+      <c r="L2" s="156" t="s">
         <v>159</v>
       </c>
-      <c r="M2" s="155"/>
-      <c r="N2" s="156"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="156"/>
-      <c r="Q2" s="156"/>
-      <c r="R2" s="156"/>
-      <c r="S2" s="156"/>
-      <c r="T2" s="157"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="158"/>
+      <c r="O2" s="158"/>
+      <c r="P2" s="158"/>
+      <c r="Q2" s="158"/>
+      <c r="R2" s="158"/>
+      <c r="S2" s="158"/>
+      <c r="T2" s="159"/>
     </row>
     <row r="3" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="148" t="s">
+      <c r="C3" s="150" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="150"/>
-      <c r="L3" s="109" t="s">
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="152"/>
+      <c r="L3" s="108" t="s">
         <v>160</v>
       </c>
-      <c r="M3" s="110"/>
+      <c r="M3" s="109"/>
     </row>
     <row r="4" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="98" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="100" t="s">
+      <c r="D4" s="99" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="100" t="s">
+      <c r="E4" s="99" t="s">
         <v>154</v>
       </c>
-      <c r="F4" s="100" t="s">
+      <c r="F4" s="99" t="s">
         <v>155</v>
       </c>
-      <c r="G4" s="101" t="s">
+      <c r="G4" s="100" t="s">
         <v>156</v>
       </c>
-      <c r="H4" s="102" t="s">
+      <c r="H4" s="101" t="s">
         <v>157</v>
       </c>
-      <c r="I4" s="103" t="s">
+      <c r="I4" s="102" t="s">
         <v>158</v>
       </c>
-      <c r="L4" s="111" t="s">
+      <c r="L4" s="110" t="s">
         <v>149</v>
       </c>
-      <c r="M4" s="112"/>
+      <c r="M4" s="111"/>
     </row>
     <row r="5" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="85">
@@ -3083,25 +3086,25 @@
       <c r="D5" s="86">
         <v>11</v>
       </c>
-      <c r="E5" s="86">
+      <c r="E5" s="160">
         <v>12</v>
       </c>
       <c r="F5" s="86">
         <v>13</v>
       </c>
-      <c r="G5" s="88">
+      <c r="G5" s="87">
         <v>14</v>
       </c>
-      <c r="H5" s="95">
+      <c r="H5" s="94">
         <v>15</v>
       </c>
-      <c r="I5" s="87">
+      <c r="I5" s="161">
         <v>16</v>
       </c>
-      <c r="L5" s="113" t="s">
+      <c r="L5" s="112" t="s">
         <v>150</v>
       </c>
-      <c r="M5" s="114"/>
+      <c r="M5" s="113"/>
     </row>
     <row r="6" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="80">
@@ -3116,10 +3119,10 @@
       <c r="F6" s="79">
         <v>20</v>
       </c>
-      <c r="G6" s="89">
+      <c r="G6" s="88">
         <v>21</v>
       </c>
-      <c r="H6" s="93">
+      <c r="H6" s="92">
         <v>22</v>
       </c>
       <c r="I6" s="81">
@@ -3139,85 +3142,85 @@
       <c r="F7" s="83">
         <v>27</v>
       </c>
-      <c r="G7" s="158">
+      <c r="G7" s="118">
         <v>28</v>
       </c>
-      <c r="H7" s="159">
+      <c r="H7" s="119">
         <v>1</v>
       </c>
-      <c r="I7" s="160">
+      <c r="I7" s="120">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="151" t="s">
+      <c r="C10" s="153" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="152"/>
-      <c r="E10" s="152"/>
-      <c r="F10" s="152"/>
-      <c r="G10" s="152"/>
-      <c r="H10" s="152"/>
-      <c r="I10" s="153"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="154"/>
+      <c r="F10" s="154"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="155"/>
     </row>
     <row r="11" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="104" t="s">
+      <c r="C11" s="103" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="105" t="s">
+      <c r="D11" s="104" t="s">
         <v>153</v>
       </c>
-      <c r="E11" s="105" t="s">
+      <c r="E11" s="104" t="s">
         <v>154</v>
       </c>
-      <c r="F11" s="105" t="s">
+      <c r="F11" s="104" t="s">
         <v>155</v>
       </c>
-      <c r="G11" s="106" t="s">
+      <c r="G11" s="105" t="s">
         <v>156</v>
       </c>
-      <c r="H11" s="107" t="s">
+      <c r="H11" s="106" t="s">
         <v>157</v>
       </c>
-      <c r="I11" s="108" t="s">
+      <c r="I11" s="107" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="12" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="96"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="91">
+      <c r="C12" s="95"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="90">
         <v>1</v>
       </c>
-      <c r="I12" s="92">
+      <c r="I12" s="91">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="115">
+      <c r="C13" s="114">
         <v>3</v>
       </c>
-      <c r="D13" s="116">
+      <c r="D13" s="115">
         <v>4</v>
       </c>
-      <c r="E13" s="116">
+      <c r="E13" s="115">
         <v>5</v>
       </c>
-      <c r="F13" s="116">
+      <c r="F13" s="115">
         <v>6</v>
       </c>
-      <c r="G13" s="117">
+      <c r="G13" s="116">
         <v>7</v>
       </c>
-      <c r="H13" s="115">
+      <c r="H13" s="114">
         <v>8</v>
       </c>
-      <c r="I13" s="118">
+      <c r="I13" s="117">
         <v>9</v>
       </c>
       <c r="K13" t="s">
@@ -3237,10 +3240,10 @@
       <c r="F14" s="79">
         <v>13</v>
       </c>
-      <c r="G14" s="89">
+      <c r="G14" s="88">
         <v>14</v>
       </c>
-      <c r="H14" s="93">
+      <c r="H14" s="92">
         <v>15</v>
       </c>
       <c r="I14" s="81">
@@ -3260,10 +3263,10 @@
       <c r="F15" s="79">
         <v>20</v>
       </c>
-      <c r="G15" s="89">
+      <c r="G15" s="88">
         <v>21</v>
       </c>
-      <c r="H15" s="93">
+      <c r="H15" s="92">
         <v>22</v>
       </c>
       <c r="I15" s="81">
@@ -3283,10 +3286,10 @@
       <c r="F16" s="79">
         <v>27</v>
       </c>
-      <c r="G16" s="89">
+      <c r="G16" s="88">
         <v>28</v>
       </c>
-      <c r="H16" s="93">
+      <c r="H16" s="92">
         <v>29</v>
       </c>
       <c r="I16" s="81">
@@ -3306,10 +3309,10 @@
       <c r="F17" s="83">
         <v>3</v>
       </c>
-      <c r="G17" s="90">
+      <c r="G17" s="89">
         <v>4</v>
       </c>
-      <c r="H17" s="94">
+      <c r="H17" s="93">
         <v>5</v>
       </c>
       <c r="I17" s="84">
@@ -3319,57 +3322,57 @@
     <row r="18" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="3:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="3:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="151" t="s">
+      <c r="C20" s="153" t="s">
         <v>140</v>
       </c>
-      <c r="D20" s="152"/>
-      <c r="E20" s="152"/>
-      <c r="F20" s="152"/>
-      <c r="G20" s="152"/>
-      <c r="H20" s="152"/>
-      <c r="I20" s="153"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="154"/>
+      <c r="F20" s="154"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="154"/>
+      <c r="I20" s="155"/>
     </row>
     <row r="21" spans="3:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="104" t="s">
+      <c r="C21" s="103" t="s">
         <v>152</v>
       </c>
-      <c r="D21" s="105" t="s">
+      <c r="D21" s="104" t="s">
         <v>153</v>
       </c>
-      <c r="E21" s="105" t="s">
+      <c r="E21" s="104" t="s">
         <v>154</v>
       </c>
-      <c r="F21" s="105" t="s">
+      <c r="F21" s="104" t="s">
         <v>155</v>
       </c>
-      <c r="G21" s="106" t="s">
+      <c r="G21" s="105" t="s">
         <v>156</v>
       </c>
-      <c r="H21" s="107" t="s">
+      <c r="H21" s="106" t="s">
         <v>157</v>
       </c>
-      <c r="I21" s="108" t="s">
+      <c r="I21" s="107" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="22" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="96"/>
-      <c r="D22" s="97">
+      <c r="C22" s="95"/>
+      <c r="D22" s="96">
         <v>1</v>
       </c>
-      <c r="E22" s="97">
+      <c r="E22" s="96">
         <v>2</v>
       </c>
-      <c r="F22" s="97">
+      <c r="F22" s="96">
         <v>3</v>
       </c>
-      <c r="G22" s="98">
+      <c r="G22" s="97">
         <v>4</v>
       </c>
-      <c r="H22" s="91">
+      <c r="H22" s="90">
         <v>5</v>
       </c>
-      <c r="I22" s="92">
+      <c r="I22" s="91">
         <v>6</v>
       </c>
     </row>
@@ -3386,10 +3389,10 @@
       <c r="F23" s="79">
         <v>10</v>
       </c>
-      <c r="G23" s="89">
+      <c r="G23" s="88">
         <v>11</v>
       </c>
-      <c r="H23" s="93">
+      <c r="H23" s="92">
         <v>12</v>
       </c>
       <c r="I23" s="81">
@@ -3409,10 +3412,10 @@
       <c r="F24" s="79">
         <v>17</v>
       </c>
-      <c r="G24" s="89">
+      <c r="G24" s="88">
         <v>18</v>
       </c>
-      <c r="H24" s="93">
+      <c r="H24" s="92">
         <v>19</v>
       </c>
       <c r="I24" s="81">
@@ -3432,10 +3435,10 @@
       <c r="F25" s="79">
         <v>24</v>
       </c>
-      <c r="G25" s="89">
+      <c r="G25" s="88">
         <v>25</v>
       </c>
-      <c r="H25" s="93">
+      <c r="H25" s="92">
         <v>26</v>
       </c>
       <c r="I25" s="81">
@@ -3455,10 +3458,10 @@
       <c r="F26" s="83">
         <v>1</v>
       </c>
-      <c r="G26" s="90">
+      <c r="G26" s="89">
         <v>2</v>
       </c>
-      <c r="H26" s="94">
+      <c r="H26" s="93">
         <v>3</v>
       </c>
       <c r="I26" s="84">

--- a/vak vezet vilagtalant.xlsx
+++ b/vak vezet vilagtalant.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Asztali gép\Minden is\Suli\github\Vizsgaremek-D-K-B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\VIZSGAREMEK\Vizsgaremek-D-K-B\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6A5512-F749-4C52-8050-ED51640A35FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IP címek" sheetId="1" r:id="rId1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="167">
   <si>
     <t>192.168.1.0</t>
   </si>
@@ -355,63 +356,30 @@
     <t>SITE 1</t>
   </si>
   <si>
-    <t>Hét</t>
-  </si>
-  <si>
-    <t>Január</t>
-  </si>
-  <si>
-    <t>fizikai terv, 3 site 1-1-1 iroda onnan</t>
-  </si>
-  <si>
     <t>ip tervezés</t>
   </si>
   <si>
     <t>eszközigény</t>
   </si>
   <si>
-    <t>20-26</t>
-  </si>
-  <si>
     <t>rólunk</t>
   </si>
   <si>
-    <t>27-2</t>
-  </si>
-  <si>
-    <t>átfogó tervezési doksi</t>
-  </si>
-  <si>
     <t>Február</t>
   </si>
   <si>
-    <t>3-9</t>
-  </si>
-  <si>
     <t>statikus ip az eszközöknek</t>
   </si>
   <si>
     <t>stp</t>
   </si>
   <si>
-    <t>10-16</t>
-  </si>
-  <si>
     <t>vlanok</t>
   </si>
   <si>
     <t>vtp</t>
   </si>
   <si>
-    <t>17-23</t>
-  </si>
-  <si>
-    <t>switch alapkonfig</t>
-  </si>
-  <si>
-    <t>24-2</t>
-  </si>
-  <si>
     <t>ip telefonok</t>
   </si>
   <si>
@@ -439,48 +407,15 @@
     <t>nat</t>
   </si>
   <si>
-    <t>24-30</t>
-  </si>
-  <si>
     <t>portforward</t>
   </si>
   <si>
     <t>tűzfalak</t>
   </si>
   <si>
-    <t>31-6</t>
-  </si>
-  <si>
-    <t>szerverek</t>
-  </si>
-  <si>
-    <t>dhcp</t>
-  </si>
-  <si>
     <t>Április</t>
   </si>
   <si>
-    <t>7-13</t>
-  </si>
-  <si>
-    <t>dns</t>
-  </si>
-  <si>
-    <t>ftp</t>
-  </si>
-  <si>
-    <t>14-20</t>
-  </si>
-  <si>
-    <t>web</t>
-  </si>
-  <si>
-    <t>21-27</t>
-  </si>
-  <si>
-    <t>28-30</t>
-  </si>
-  <si>
     <t>Bence</t>
   </si>
   <si>
@@ -521,12 +456,93 @@
   </si>
   <si>
     <t>Itt lesz Fruzsi :3</t>
+  </si>
+  <si>
+    <t>Dátum</t>
+  </si>
+  <si>
+    <t>02.24 - 03.02</t>
+  </si>
+  <si>
+    <t>03.03 - 03.09</t>
+  </si>
+  <si>
+    <t>03.10 - 03.16</t>
+  </si>
+  <si>
+    <t>03.17 - 03.23</t>
+  </si>
+  <si>
+    <t>03.24 - 03.30</t>
+  </si>
+  <si>
+    <t>03.31 - 04.06</t>
+  </si>
+  <si>
+    <t>04.07 - 04.13</t>
+  </si>
+  <si>
+    <t>04.14 - 04.20</t>
+  </si>
+  <si>
+    <t>04.21 - 04.27</t>
+  </si>
+  <si>
+    <t>04.28 - 04.30</t>
+  </si>
+  <si>
+    <t>02.17 - 02.23</t>
+  </si>
+  <si>
+    <t>02.10 - 02.16</t>
+  </si>
+  <si>
+    <t>igényfelmérés</t>
+  </si>
+  <si>
+    <t>igényfelmérés megvalósítás</t>
+  </si>
+  <si>
+    <t>Tanárúr megnézte, rábólintott</t>
+  </si>
+  <si>
+    <t>Nem lett kész időben</t>
+  </si>
+  <si>
+    <t>Kész, Tanárúr majd még megnézi</t>
+  </si>
+  <si>
+    <t>logikai terv</t>
+  </si>
+  <si>
+    <t>switch alapkonfig (user, passwd,no ip domain lookup, password encription)</t>
+  </si>
+  <si>
+    <t>szerverek packet tracer</t>
+  </si>
+  <si>
+    <t>dhcp szerver megvalósítás virtuális gépen</t>
+  </si>
+  <si>
+    <t>dns szerver megvalósítás virtuális gépen</t>
+  </si>
+  <si>
+    <t>ftp szerver megvalósítás virtuális gépen</t>
+  </si>
+  <si>
+    <t>web szerver megvalósítás virtuális gépen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fizikai terv, 3 site 1-1-1 iroda </t>
+  </si>
+  <si>
+    <t>megyek Fruzsihoz :3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -569,7 +585,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -608,42 +624,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -666,8 +646,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="49">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -1129,7 +1139,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -1144,6 +1154,179 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1151,26 +1334,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1180,118 +1350,10 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1301,7 +1363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1408,7 +1470,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1424,177 +1485,125 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1603,21 +1612,45 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1636,52 +1669,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1714,11 +1705,86 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2038,7 +2104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2047,55 +2113,55 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="39" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="39"/>
-    <col min="8" max="8" width="16" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="39"/>
+    <col min="1" max="1" width="15.7109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="38"/>
+    <col min="8" max="8" width="16" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.28515625" style="38" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="38" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="103" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="128" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="129"/>
-      <c r="H1" s="41" t="s">
+      <c r="E1" s="102"/>
+      <c r="H1" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="121" t="s">
+      <c r="J1" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="122"/>
+      <c r="K1" s="87"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="126"/>
+      <c r="C2" s="98"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="H2" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="37" t="s">
         <v>92</v>
       </c>
       <c r="J2" s="4" t="s">
@@ -2109,8 +2175,8 @@
       <c r="A3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="123"/>
-      <c r="C3" s="124"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="100"/>
       <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
@@ -2118,7 +2184,7 @@
       <c r="H3" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="37" t="s">
         <v>93</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -2132,10 +2198,10 @@
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="125" t="s">
+      <c r="B4" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="126"/>
+      <c r="C4" s="98"/>
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
       <c r="H4" s="29" t="s">
@@ -2166,10 +2232,10 @@
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="134" t="s">
+      <c r="B6" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="135"/>
+      <c r="C6" s="90"/>
       <c r="D6" s="22" t="s">
         <v>17</v>
       </c>
@@ -2179,32 +2245,32 @@
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="135"/>
+      <c r="C7" s="90"/>
       <c r="D7" s="22" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="136" t="s">
+      <c r="A8" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="132" t="s">
+      <c r="B8" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="133"/>
+      <c r="C8" s="106"/>
       <c r="D8" s="6"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="137"/>
-      <c r="B9" s="123" t="s">
+      <c r="A9" s="108"/>
+      <c r="B9" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="124"/>
+      <c r="C9" s="100"/>
       <c r="D9" s="7" t="s">
         <v>25</v>
       </c>
@@ -2231,7 +2297,7 @@
       <c r="A11" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="138" t="s">
+      <c r="B11" s="91" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -2243,21 +2309,21 @@
       <c r="E11" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="121" t="s">
-        <v>151</v>
-      </c>
-      <c r="I11" s="127"/>
-      <c r="J11" s="122"/>
-      <c r="K11" s="121" t="s">
+      <c r="H11" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="I11" s="88"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="L11" s="122"/>
+      <c r="L11" s="87"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="139"/>
+      <c r="B12" s="92"/>
       <c r="C12" s="11" t="s">
         <v>38</v>
       </c>
@@ -2267,13 +2333,13 @@
       <c r="E12" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="37" t="s">
+      <c r="H12" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="134" t="s">
+      <c r="I12" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="135"/>
+      <c r="J12" s="90"/>
       <c r="K12" s="26" t="s">
         <v>8</v>
       </c>
@@ -2283,7 +2349,7 @@
       <c r="A13" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="140"/>
+      <c r="B13" s="93"/>
       <c r="C13" s="13" t="s">
         <v>39</v>
       </c>
@@ -2293,53 +2359,53 @@
       <c r="E13" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="37" t="s">
+      <c r="H13" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="I13" s="134" t="s">
+      <c r="I13" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="135"/>
+      <c r="J13" s="90"/>
       <c r="K13" s="26" t="s">
         <v>8</v>
       </c>
       <c r="L13" s="26"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H14" s="37" t="s">
+      <c r="H14" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="I14" s="134" t="s">
+      <c r="I14" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="J14" s="135"/>
+      <c r="J14" s="90"/>
       <c r="K14" s="26" t="s">
         <v>8</v>
       </c>
       <c r="L14" s="26"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H15" s="141" t="s">
+      <c r="H15" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="125" t="s">
+      <c r="I15" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="126"/>
+      <c r="J15" s="98"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:12" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="121" t="s">
+      <c r="A16" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="127"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="127" t="s">
+      <c r="B16" s="88"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="122"/>
-      <c r="H16" s="142"/>
+      <c r="E16" s="87"/>
+      <c r="H16" s="95"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8" t="s">
         <v>8</v>
@@ -2353,13 +2419,13 @@
       <c r="A17" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="125" t="s">
+      <c r="B17" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="126"/>
+      <c r="C17" s="98"/>
       <c r="D17" s="3"/>
       <c r="E17" s="14"/>
-      <c r="H17" s="142"/>
+      <c r="H17" s="95"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10" t="s">
         <v>63</v>
@@ -2373,13 +2439,13 @@
       <c r="A18" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="123"/>
-      <c r="C18" s="124"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="100"/>
       <c r="D18" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="7"/>
-      <c r="H18" s="142"/>
+      <c r="H18" s="95"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10" t="s">
         <v>64</v>
@@ -2393,13 +2459,13 @@
       <c r="A19" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="125" t="s">
+      <c r="B19" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="126"/>
+      <c r="C19" s="98"/>
       <c r="D19" s="3"/>
       <c r="E19" s="14"/>
-      <c r="H19" s="142"/>
+      <c r="H19" s="95"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10" t="s">
         <v>65</v>
@@ -2413,13 +2479,13 @@
       <c r="A20" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="123"/>
-      <c r="C20" s="124"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="100"/>
       <c r="D20" s="22" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="7"/>
-      <c r="H20" s="143"/>
+      <c r="H20" s="96"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12" t="s">
         <v>66</v>
@@ -2433,16 +2499,16 @@
       <c r="A21" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="125" t="s">
+      <c r="B21" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="126"/>
+      <c r="C21" s="98"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="H21" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="138" t="s">
+      <c r="I21" s="91" t="s">
         <v>26</v>
       </c>
       <c r="J21" s="31" t="s">
@@ -2457,10 +2523,10 @@
       <c r="A22" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="123" t="s">
+      <c r="B22" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="124"/>
+      <c r="C22" s="100"/>
       <c r="D22" s="5" t="s">
         <v>33</v>
       </c>
@@ -2468,7 +2534,7 @@
       <c r="H22" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="I22" s="139"/>
+      <c r="I22" s="92"/>
       <c r="J22" s="21" t="s">
         <v>2</v>
       </c>
@@ -2496,7 +2562,7 @@
       <c r="H23" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="I23" s="140"/>
+      <c r="I23" s="93"/>
       <c r="J23" s="32" t="s">
         <v>68</v>
       </c>
@@ -2509,7 +2575,7 @@
       <c r="A24" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="138" t="s">
+      <c r="B24" s="91" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -2524,7 +2590,7 @@
       <c r="H24" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="I24" s="138" t="s">
+      <c r="I24" s="91" t="s">
         <v>13</v>
       </c>
       <c r="J24" s="31" t="s">
@@ -2541,7 +2607,7 @@
       <c r="A25" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="139"/>
+      <c r="B25" s="92"/>
       <c r="C25" s="10" t="s">
         <v>41</v>
       </c>
@@ -2554,7 +2620,7 @@
       <c r="H25" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="I25" s="139"/>
+      <c r="I25" s="92"/>
       <c r="J25" s="21" t="s">
         <v>81</v>
       </c>
@@ -2569,7 +2635,7 @@
       <c r="A26" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="140"/>
+      <c r="B26" s="93"/>
       <c r="C26" s="12" t="s">
         <v>42</v>
       </c>
@@ -2582,7 +2648,7 @@
       <c r="H26" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="I26" s="140"/>
+      <c r="I26" s="93"/>
       <c r="J26" s="32" t="s">
         <v>82</v>
       </c>
@@ -2594,56 +2660,42 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="O32" s="40"/>
+      <c r="I32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="O32" s="39"/>
     </row>
     <row r="33" spans="9:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="O33" s="40"/>
+      <c r="I33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="O33" s="39"/>
     </row>
     <row r="34" spans="9:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I34" s="40"/>
-      <c r="L34" s="40"/>
-      <c r="O34" s="40"/>
+      <c r="I34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="O34" s="39"/>
     </row>
     <row r="35" spans="9:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I35" s="40"/>
-      <c r="L35" s="40"/>
-      <c r="O35" s="40"/>
+      <c r="I35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="O35" s="39"/>
     </row>
     <row r="36" spans="9:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I36" s="40"/>
-      <c r="L36" s="40"/>
-      <c r="O36" s="40"/>
+      <c r="I36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="O36" s="39"/>
     </row>
     <row r="37" spans="9:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="O37" s="40"/>
+      <c r="I37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="O37" s="39"/>
     </row>
     <row r="38" spans="9:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="O38" s="40"/>
+      <c r="I38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="O38" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="H15:H20"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B24:B26"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B17:C17"/>
@@ -2660,6 +2712,20 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B11:B13"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="H15:H20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2668,803 +2734,949 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="3" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="4" width="30.7109375" customWidth="1"/>
+    <col min="7" max="7" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" style="121" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" customWidth="1"/>
+    <col min="13" max="13" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="61" t="s">
+    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="130" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="131" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="131" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="132" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="128"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="142" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="133" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="134" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="147" t="s">
+      <c r="D2" s="135" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="149"/>
-      <c r="F2" s="64"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="E2" s="128"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="147" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="143"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="137" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="138" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="128"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="148" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="143"/>
+      <c r="B4" s="136" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="137" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="138" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="128"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="149" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="144"/>
+      <c r="B5" s="136" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="137" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="138" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="128"/>
+      <c r="F5" s="41"/>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="145" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="136" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="60"/>
-      <c r="F3" s="74" t="s">
+      <c r="C6" s="137" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="128"/>
+      <c r="F6" s="41"/>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="145" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="136" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="137" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="138" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="128"/>
+      <c r="F7" s="41"/>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="145" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="136" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="137" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="138" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="128"/>
+      <c r="F8" s="41"/>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="145" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="136" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="137" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="138" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="128"/>
+      <c r="F9" s="41"/>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="145" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="136" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="137" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="138" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="128"/>
+      <c r="F10" s="41"/>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="145" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="136" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="137" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="138" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" s="128"/>
+      <c r="F11" s="41"/>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" s="136"/>
+      <c r="C12" s="137"/>
+      <c r="D12" s="138" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="128"/>
+      <c r="F12" s="41"/>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="145" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" s="136"/>
+      <c r="C13" s="137"/>
+      <c r="D13" s="138" t="s">
+        <v>164</v>
+      </c>
+      <c r="E13" s="128"/>
+      <c r="F13" s="41"/>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="145" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" s="62" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="47"/>
-      <c r="F4" s="36" t="s">
+      <c r="B14" s="136"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="122"/>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="145" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="50"/>
-      <c r="F5" s="77" t="s">
+      <c r="B15" s="136"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="122"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="146" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42"/>
-      <c r="F6" s="64"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="B7" s="144" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
-      <c r="F7" s="64"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" s="67" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="68" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="69"/>
-      <c r="F8" s="74" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="B9" s="70" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="65"/>
-      <c r="F9" s="36" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="70" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="65"/>
-      <c r="F10" s="77" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="58" t="s">
-        <v>124</v>
-      </c>
-      <c r="B11" s="71" t="s">
-        <v>125</v>
-      </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="66"/>
-      <c r="F11" s="36" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="F12" s="64"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42"/>
-      <c r="F13" s="64"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="144" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" s="145"/>
-      <c r="D14" s="146"/>
-      <c r="F14" s="64"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="B15" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="52"/>
-      <c r="F15" s="64"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" s="53" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="D16" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="F16" s="75" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="B17" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="C17" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="D17" s="54"/>
-      <c r="F17" s="78" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="B18" s="53" t="s">
-        <v>132</v>
-      </c>
-      <c r="C18" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" s="54"/>
-      <c r="F18" s="76" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="B19" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="C19" s="53" t="s">
-        <v>136</v>
-      </c>
-      <c r="D19" s="54"/>
-      <c r="F19" s="75" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="B20" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="C20" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="D20" s="56"/>
-      <c r="F20" s="78" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
-      <c r="F21" s="64"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42"/>
-      <c r="F22" s="64"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" s="144" t="s">
-        <v>140</v>
-      </c>
-      <c r="C23" s="145"/>
-      <c r="D23" s="146"/>
-      <c r="F23" s="64"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="72" t="s">
-        <v>137</v>
-      </c>
-      <c r="B24" s="67" t="s">
-        <v>138</v>
-      </c>
-      <c r="C24" s="68" t="s">
-        <v>139</v>
-      </c>
-      <c r="D24" s="73"/>
-      <c r="F24" s="77" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="57" t="s">
-        <v>141</v>
-      </c>
-      <c r="B25" s="70" t="s">
-        <v>142</v>
-      </c>
-      <c r="C25" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="D25" s="54"/>
-      <c r="F25" s="74" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="B26" s="70" t="s">
-        <v>145</v>
-      </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="54"/>
-      <c r="F26" s="36" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="57" t="s">
-        <v>146</v>
-      </c>
-      <c r="B27" s="70"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="54"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="B28" s="71"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="56"/>
+      <c r="B16" s="139"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="122"/>
+    </row>
+    <row r="17" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="128"/>
+      <c r="B17" s="128"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="122"/>
+      <c r="L17" s="126"/>
+      <c r="M17" s="126"/>
+      <c r="N17" s="126"/>
+    </row>
+    <row r="18" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="128"/>
+      <c r="B18" s="128"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="122"/>
+    </row>
+    <row r="19" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="128"/>
+      <c r="B19" s="128"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="41"/>
+    </row>
+    <row r="20" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="128"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="41"/>
+    </row>
+    <row r="21" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="128"/>
+      <c r="B21" s="128"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="41"/>
+    </row>
+    <row r="22" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="128"/>
+      <c r="B22" s="128"/>
+      <c r="C22" s="128"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="41"/>
+    </row>
+    <row r="23" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="128"/>
+      <c r="B23" s="128"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="41"/>
+    </row>
+    <row r="24" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="128"/>
+      <c r="B24" s="128"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="41"/>
+    </row>
+    <row r="25" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="128"/>
+      <c r="B25" s="128"/>
+      <c r="C25" s="128"/>
+      <c r="D25" s="128"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="41"/>
+    </row>
+    <row r="26" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="128"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="128"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="41"/>
+    </row>
+    <row r="27" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="128"/>
+      <c r="B27" s="128"/>
+      <c r="C27" s="128"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="41"/>
+    </row>
+    <row r="28" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="128"/>
+      <c r="B28" s="128"/>
+      <c r="C28" s="128"/>
+      <c r="D28" s="128"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="41"/>
+    </row>
+    <row r="29" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="128"/>
+      <c r="B29" s="128"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="128"/>
+      <c r="E29" s="128"/>
+    </row>
+    <row r="30" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="128"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
+    </row>
+    <row r="31" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="128"/>
+      <c r="B31" s="128"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="128"/>
+    </row>
+    <row r="32" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="128"/>
+      <c r="B32" s="128"/>
+      <c r="C32" s="128"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="128"/>
+      <c r="I32" s="127"/>
+    </row>
+    <row r="33" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="128"/>
+      <c r="B33" s="128"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="128"/>
+      <c r="I33" s="127"/>
+    </row>
+    <row r="34" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I34" s="122"/>
+    </row>
+    <row r="35" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I35" s="122"/>
+    </row>
+    <row r="36" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I36" s="122"/>
+    </row>
+    <row r="37" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I37" s="122"/>
+    </row>
+    <row r="38" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I38" s="122"/>
+    </row>
+    <row r="39" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="128"/>
+    </row>
+    <row r="40" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I40" s="122"/>
+    </row>
+    <row r="41" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I41" s="122"/>
+    </row>
+    <row r="42" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I42" s="122"/>
+    </row>
+    <row r="43" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I43" s="122"/>
+    </row>
+    <row r="44" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I44" s="122"/>
+    </row>
+    <row r="45" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I45" s="129"/>
+    </row>
+    <row r="46" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I46" s="129"/>
+    </row>
+    <row r="47" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I47" s="122"/>
+    </row>
+    <row r="48" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I48" s="122"/>
+    </row>
+    <row r="49" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I49" s="122"/>
+    </row>
+    <row r="50" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I50" s="122"/>
+    </row>
+    <row r="51" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I51" s="122"/>
+    </row>
+    <row r="52" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I52" s="122"/>
+    </row>
+    <row r="53" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I53" s="122"/>
+    </row>
+    <row r="54" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I54" s="122"/>
+    </row>
+    <row r="55" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I55" s="122"/>
+    </row>
+    <row r="56" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I56" s="122"/>
+    </row>
+    <row r="57" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I57" s="122"/>
+    </row>
+    <row r="58" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I58" s="122"/>
+    </row>
+    <row r="59" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I59" s="122"/>
+    </row>
+    <row r="60" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I60" s="122"/>
+    </row>
+    <row r="61" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I61" s="122"/>
+    </row>
+    <row r="62" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I62" s="122"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B23:D23"/>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:T26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="C2:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="9" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L2" s="156" t="s">
-        <v>159</v>
-      </c>
-      <c r="M2" s="157"/>
-      <c r="N2" s="158"/>
-      <c r="O2" s="158"/>
-      <c r="P2" s="158"/>
-      <c r="Q2" s="158"/>
-      <c r="R2" s="158"/>
-      <c r="S2" s="158"/>
-      <c r="T2" s="159"/>
-    </row>
+    <row r="2" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="150" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="152"/>
-      <c r="L3" s="108" t="s">
-        <v>160</v>
-      </c>
-      <c r="M3" s="109"/>
+      <c r="C3" s="109" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="111"/>
+      <c r="L3" s="115" t="s">
+        <v>137</v>
+      </c>
+      <c r="M3" s="116"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="117"/>
+      <c r="Q3" s="117"/>
+      <c r="R3" s="117"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="118"/>
     </row>
     <row r="4" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="98" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" s="99" t="s">
-        <v>153</v>
-      </c>
-      <c r="E4" s="99" t="s">
-        <v>154</v>
-      </c>
-      <c r="F4" s="99" t="s">
-        <v>155</v>
-      </c>
-      <c r="G4" s="100" t="s">
-        <v>156</v>
-      </c>
-      <c r="H4" s="101" t="s">
-        <v>157</v>
-      </c>
-      <c r="I4" s="102" t="s">
-        <v>158</v>
-      </c>
-      <c r="L4" s="110" t="s">
-        <v>149</v>
-      </c>
-      <c r="M4" s="111"/>
-    </row>
-    <row r="5" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="85">
+      <c r="C4" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="H4" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="I4" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="L4" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="M4" s="72"/>
+    </row>
+    <row r="5" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="48">
         <v>10</v>
       </c>
-      <c r="D5" s="86">
+      <c r="D5" s="49">
         <v>11</v>
       </c>
-      <c r="E5" s="160">
+      <c r="E5" s="84">
         <v>12</v>
       </c>
-      <c r="F5" s="86">
+      <c r="F5" s="49">
         <v>13</v>
       </c>
-      <c r="G5" s="87">
+      <c r="G5" s="50">
         <v>14</v>
       </c>
-      <c r="H5" s="94">
+      <c r="H5" s="57">
         <v>15</v>
       </c>
-      <c r="I5" s="161">
+      <c r="I5" s="85">
         <v>16</v>
       </c>
-      <c r="L5" s="112" t="s">
-        <v>150</v>
-      </c>
-      <c r="M5" s="113"/>
-    </row>
-    <row r="6" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="80">
+      <c r="L5" s="73" t="s">
+        <v>127</v>
+      </c>
+      <c r="M5" s="74"/>
+    </row>
+    <row r="6" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="43">
         <v>17</v>
       </c>
-      <c r="D6" s="79">
+      <c r="D6" s="42">
         <v>18</v>
       </c>
-      <c r="E6" s="79">
+      <c r="E6" s="42">
         <v>19</v>
       </c>
-      <c r="F6" s="79">
+      <c r="F6" s="42">
         <v>20</v>
       </c>
-      <c r="G6" s="88">
+      <c r="G6" s="51">
         <v>21</v>
       </c>
-      <c r="H6" s="92">
+      <c r="H6" s="55">
         <v>22</v>
       </c>
-      <c r="I6" s="81">
+      <c r="I6" s="44">
         <v>23</v>
       </c>
+      <c r="L6" s="75" t="s">
+        <v>128</v>
+      </c>
+      <c r="M6" s="76"/>
     </row>
     <row r="7" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="82">
+      <c r="C7" s="45">
         <v>24</v>
       </c>
-      <c r="D7" s="83">
+      <c r="D7" s="46">
         <v>25</v>
       </c>
-      <c r="E7" s="83">
+      <c r="E7" s="46">
         <v>26</v>
       </c>
-      <c r="F7" s="83">
+      <c r="F7" s="46">
         <v>27</v>
       </c>
-      <c r="G7" s="118">
+      <c r="G7" s="81">
         <v>28</v>
       </c>
-      <c r="H7" s="119">
+      <c r="H7" s="82">
         <v>1</v>
       </c>
-      <c r="I7" s="120">
+      <c r="I7" s="83">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="153" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="154"/>
-      <c r="E10" s="154"/>
-      <c r="F10" s="154"/>
-      <c r="G10" s="154"/>
-      <c r="H10" s="154"/>
-      <c r="I10" s="155"/>
+      <c r="C10" s="112" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="114"/>
     </row>
     <row r="11" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="103" t="s">
-        <v>152</v>
-      </c>
-      <c r="D11" s="104" t="s">
-        <v>153</v>
-      </c>
-      <c r="E11" s="104" t="s">
-        <v>154</v>
-      </c>
-      <c r="F11" s="104" t="s">
-        <v>155</v>
-      </c>
-      <c r="G11" s="105" t="s">
-        <v>156</v>
-      </c>
-      <c r="H11" s="106" t="s">
-        <v>157</v>
-      </c>
-      <c r="I11" s="107" t="s">
-        <v>158</v>
+      <c r="C11" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="H11" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="I11" s="70" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="95"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="90">
+      <c r="C12" s="58"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="53">
         <v>1</v>
       </c>
-      <c r="I12" s="91">
+      <c r="I12" s="54">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="114">
+      <c r="C13" s="77">
         <v>3</v>
       </c>
-      <c r="D13" s="115">
+      <c r="D13" s="78">
         <v>4</v>
       </c>
-      <c r="E13" s="115">
+      <c r="E13" s="78">
         <v>5</v>
       </c>
-      <c r="F13" s="115">
+      <c r="F13" s="78">
         <v>6</v>
       </c>
-      <c r="G13" s="116">
+      <c r="G13" s="79">
         <v>7</v>
       </c>
-      <c r="H13" s="114">
+      <c r="H13" s="77">
         <v>8</v>
       </c>
-      <c r="I13" s="117">
+      <c r="I13" s="80">
         <v>9</v>
       </c>
       <c r="K13" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="80">
+      <c r="C14" s="43">
         <v>10</v>
       </c>
-      <c r="D14" s="79">
+      <c r="D14" s="42">
         <v>11</v>
       </c>
-      <c r="E14" s="79">
+      <c r="E14" s="42">
         <v>12</v>
       </c>
-      <c r="F14" s="79">
+      <c r="F14" s="42">
         <v>13</v>
       </c>
-      <c r="G14" s="88">
+      <c r="G14" s="51">
         <v>14</v>
       </c>
-      <c r="H14" s="92">
+      <c r="H14" s="55">
         <v>15</v>
       </c>
-      <c r="I14" s="81">
+      <c r="I14" s="44">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="80">
+      <c r="C15" s="43">
         <v>17</v>
       </c>
-      <c r="D15" s="79">
+      <c r="D15" s="42">
         <v>18</v>
       </c>
-      <c r="E15" s="79">
+      <c r="E15" s="42">
         <v>19</v>
       </c>
-      <c r="F15" s="79">
+      <c r="F15" s="42">
         <v>20</v>
       </c>
-      <c r="G15" s="88">
+      <c r="G15" s="51">
         <v>21</v>
       </c>
-      <c r="H15" s="92">
+      <c r="H15" s="55">
         <v>22</v>
       </c>
-      <c r="I15" s="81">
+      <c r="I15" s="44">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="80">
+      <c r="C16" s="43">
         <v>24</v>
       </c>
-      <c r="D16" s="79">
+      <c r="D16" s="42">
         <v>25</v>
       </c>
-      <c r="E16" s="79">
+      <c r="E16" s="42">
         <v>26</v>
       </c>
-      <c r="F16" s="79">
+      <c r="F16" s="42">
         <v>27</v>
       </c>
-      <c r="G16" s="88">
+      <c r="G16" s="51">
         <v>28</v>
       </c>
-      <c r="H16" s="92">
+      <c r="H16" s="55">
         <v>29</v>
       </c>
-      <c r="I16" s="81">
+      <c r="I16" s="44">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="3:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="82">
+    <row r="17" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="45">
         <v>31</v>
       </c>
-      <c r="D17" s="83">
+      <c r="D17" s="46">
         <v>1</v>
       </c>
-      <c r="E17" s="83">
+      <c r="E17" s="46">
         <v>2</v>
       </c>
-      <c r="F17" s="83">
+      <c r="F17" s="46">
         <v>3</v>
       </c>
-      <c r="G17" s="89">
+      <c r="G17" s="52">
         <v>4</v>
       </c>
-      <c r="H17" s="93">
+      <c r="H17" s="56">
         <v>5</v>
       </c>
-      <c r="I17" s="84">
+      <c r="I17" s="47">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="3:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="3:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="153" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20" s="154"/>
-      <c r="E20" s="154"/>
-      <c r="F20" s="154"/>
-      <c r="G20" s="154"/>
-      <c r="H20" s="154"/>
-      <c r="I20" s="155"/>
-    </row>
-    <row r="21" spans="3:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="103" t="s">
-        <v>152</v>
-      </c>
-      <c r="D21" s="104" t="s">
-        <v>153</v>
-      </c>
-      <c r="E21" s="104" t="s">
-        <v>154</v>
-      </c>
-      <c r="F21" s="104" t="s">
-        <v>155</v>
-      </c>
-      <c r="G21" s="105" t="s">
-        <v>156</v>
-      </c>
-      <c r="H21" s="106" t="s">
-        <v>157</v>
-      </c>
-      <c r="I21" s="107" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="95"/>
-      <c r="D22" s="96">
+    <row r="18" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="112" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="113"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="114"/>
+    </row>
+    <row r="21" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="H21" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="I21" s="70" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="58"/>
+      <c r="D22" s="59">
         <v>1</v>
       </c>
-      <c r="E22" s="96">
+      <c r="E22" s="59">
         <v>2</v>
       </c>
-      <c r="F22" s="96">
+      <c r="F22" s="59">
         <v>3</v>
       </c>
-      <c r="G22" s="97">
+      <c r="G22" s="60">
         <v>4</v>
       </c>
-      <c r="H22" s="90">
+      <c r="H22" s="53">
         <v>5</v>
       </c>
-      <c r="I22" s="91">
+      <c r="I22" s="54">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="80">
+    <row r="23" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="43">
         <v>7</v>
       </c>
-      <c r="D23" s="79">
+      <c r="D23" s="42">
         <v>8</v>
       </c>
-      <c r="E23" s="79">
+      <c r="E23" s="42">
         <v>9</v>
       </c>
-      <c r="F23" s="79">
+      <c r="F23" s="42">
         <v>10</v>
       </c>
-      <c r="G23" s="88">
+      <c r="G23" s="51">
         <v>11</v>
       </c>
-      <c r="H23" s="92">
+      <c r="H23" s="55">
         <v>12</v>
       </c>
-      <c r="I23" s="81">
+      <c r="I23" s="44">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="80">
+    <row r="24" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="43">
         <v>14</v>
       </c>
-      <c r="D24" s="79">
+      <c r="D24" s="42">
         <v>15</v>
       </c>
-      <c r="E24" s="79">
+      <c r="E24" s="42">
         <v>16</v>
       </c>
-      <c r="F24" s="79">
+      <c r="F24" s="42">
         <v>17</v>
       </c>
-      <c r="G24" s="88">
+      <c r="G24" s="51">
         <v>18</v>
       </c>
-      <c r="H24" s="92">
+      <c r="H24" s="55">
         <v>19</v>
       </c>
-      <c r="I24" s="81">
+      <c r="I24" s="44">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="80">
+    <row r="25" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="43">
         <v>21</v>
       </c>
-      <c r="D25" s="79">
+      <c r="D25" s="42">
         <v>22</v>
       </c>
-      <c r="E25" s="79">
+      <c r="E25" s="42">
         <v>23</v>
       </c>
-      <c r="F25" s="79">
+      <c r="F25" s="78">
         <v>24</v>
       </c>
-      <c r="G25" s="88">
+      <c r="G25" s="79">
         <v>25</v>
       </c>
-      <c r="H25" s="92">
+      <c r="H25" s="77">
         <v>26</v>
       </c>
-      <c r="I25" s="81">
+      <c r="I25" s="80">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="3:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="82">
+      <c r="K25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="119">
         <v>28</v>
       </c>
-      <c r="D26" s="83">
+      <c r="D26" s="120">
         <v>29</v>
       </c>
-      <c r="E26" s="83">
+      <c r="E26" s="46">
         <v>30</v>
       </c>
-      <c r="F26" s="83">
+      <c r="F26" s="46">
         <v>1</v>
       </c>
-      <c r="G26" s="89">
+      <c r="G26" s="52">
         <v>2</v>
       </c>
-      <c r="H26" s="93">
+      <c r="H26" s="56">
         <v>3</v>
       </c>
-      <c r="I26" s="84">
+      <c r="I26" s="47">
         <v>4</v>
       </c>
     </row>
@@ -3473,7 +3685,7 @@
     <mergeCell ref="C3:I3"/>
     <mergeCell ref="C10:I10"/>
     <mergeCell ref="C20:I20"/>
-    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="L3:T3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/vak vezet vilagtalant.xlsx
+++ b/vak vezet vilagtalant.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\VIZSGAREMEK\Vizsgaremek-D-K-B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Asztali gép\Minden is\Suli\github\Vizsgaremek-D-K-B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6A5512-F749-4C52-8050-ED51640A35FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IP címek" sheetId="1" r:id="rId1"/>
@@ -542,7 +541,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -585,7 +584,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -676,6 +675,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="53">
     <border>
@@ -1363,7 +1368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1597,112 +1602,10 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1762,6 +1665,90 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1771,20 +1758,41 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2104,7 +2112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2128,34 +2136,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="122" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="101" t="s">
+      <c r="B1" s="122"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="102"/>
+      <c r="E1" s="121"/>
       <c r="H1" s="40" t="s">
         <v>89</v>
       </c>
       <c r="I1" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="86" t="s">
+      <c r="J1" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="87"/>
+      <c r="K1" s="114"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="98"/>
+      <c r="C2" s="118"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="H2" s="28" t="s">
@@ -2175,8 +2183,8 @@
       <c r="A3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="116"/>
       <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
@@ -2198,10 +2206,10 @@
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="98"/>
+      <c r="C4" s="118"/>
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
       <c r="H4" s="29" t="s">
@@ -2232,10 +2240,10 @@
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="90"/>
+      <c r="C6" s="127"/>
       <c r="D6" s="22" t="s">
         <v>17</v>
       </c>
@@ -2245,32 +2253,32 @@
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="90"/>
+      <c r="C7" s="127"/>
       <c r="D7" s="22" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="105" t="s">
+      <c r="B8" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="106"/>
+      <c r="C8" s="125"/>
       <c r="D8" s="6"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="108"/>
-      <c r="B9" s="99" t="s">
+      <c r="A9" s="129"/>
+      <c r="B9" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="100"/>
+      <c r="C9" s="116"/>
       <c r="D9" s="7" t="s">
         <v>25</v>
       </c>
@@ -2297,7 +2305,7 @@
       <c r="A11" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="130" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -2309,21 +2317,21 @@
       <c r="E11" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="86" t="s">
+      <c r="H11" s="113" t="s">
         <v>129</v>
       </c>
-      <c r="I11" s="88"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="86" t="s">
+      <c r="I11" s="119"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="L11" s="87"/>
+      <c r="L11" s="114"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="92"/>
+      <c r="B12" s="131"/>
       <c r="C12" s="11" t="s">
         <v>38</v>
       </c>
@@ -2336,10 +2344,10 @@
       <c r="H12" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="89" t="s">
+      <c r="I12" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="90"/>
+      <c r="J12" s="127"/>
       <c r="K12" s="26" t="s">
         <v>8</v>
       </c>
@@ -2349,7 +2357,7 @@
       <c r="A13" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="93"/>
+      <c r="B13" s="132"/>
       <c r="C13" s="13" t="s">
         <v>39</v>
       </c>
@@ -2362,10 +2370,10 @@
       <c r="H13" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="I13" s="89" t="s">
+      <c r="I13" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="90"/>
+      <c r="J13" s="127"/>
       <c r="K13" s="26" t="s">
         <v>8</v>
       </c>
@@ -2375,37 +2383,37 @@
       <c r="H14" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="I14" s="89" t="s">
+      <c r="I14" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="J14" s="90"/>
+      <c r="J14" s="127"/>
       <c r="K14" s="26" t="s">
         <v>8</v>
       </c>
       <c r="L14" s="26"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H15" s="94" t="s">
+      <c r="H15" s="133" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="97" t="s">
+      <c r="I15" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="98"/>
+      <c r="J15" s="118"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:12" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="86" t="s">
+      <c r="A16" s="113" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="88"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="88" t="s">
+      <c r="B16" s="119"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="87"/>
-      <c r="H16" s="95"/>
+      <c r="E16" s="114"/>
+      <c r="H16" s="134"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8" t="s">
         <v>8</v>
@@ -2419,13 +2427,13 @@
       <c r="A17" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="97" t="s">
+      <c r="B17" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="98"/>
+      <c r="C17" s="118"/>
       <c r="D17" s="3"/>
       <c r="E17" s="14"/>
-      <c r="H17" s="95"/>
+      <c r="H17" s="134"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10" t="s">
         <v>63</v>
@@ -2439,13 +2447,13 @@
       <c r="A18" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="99"/>
-      <c r="C18" s="100"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="116"/>
       <c r="D18" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="7"/>
-      <c r="H18" s="95"/>
+      <c r="H18" s="134"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10" t="s">
         <v>64</v>
@@ -2459,13 +2467,13 @@
       <c r="A19" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="97" t="s">
+      <c r="B19" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="98"/>
+      <c r="C19" s="118"/>
       <c r="D19" s="3"/>
       <c r="E19" s="14"/>
-      <c r="H19" s="95"/>
+      <c r="H19" s="134"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10" t="s">
         <v>65</v>
@@ -2479,13 +2487,13 @@
       <c r="A20" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="99"/>
-      <c r="C20" s="100"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="116"/>
       <c r="D20" s="22" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="7"/>
-      <c r="H20" s="96"/>
+      <c r="H20" s="135"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12" t="s">
         <v>66</v>
@@ -2499,16 +2507,16 @@
       <c r="A21" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="97" t="s">
+      <c r="B21" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="98"/>
+      <c r="C21" s="118"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="H21" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="91" t="s">
+      <c r="I21" s="130" t="s">
         <v>26</v>
       </c>
       <c r="J21" s="31" t="s">
@@ -2523,10 +2531,10 @@
       <c r="A22" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="99" t="s">
+      <c r="B22" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="100"/>
+      <c r="C22" s="116"/>
       <c r="D22" s="5" t="s">
         <v>33</v>
       </c>
@@ -2534,7 +2542,7 @@
       <c r="H22" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="I22" s="92"/>
+      <c r="I22" s="131"/>
       <c r="J22" s="21" t="s">
         <v>2</v>
       </c>
@@ -2562,7 +2570,7 @@
       <c r="H23" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="I23" s="93"/>
+      <c r="I23" s="132"/>
       <c r="J23" s="32" t="s">
         <v>68</v>
       </c>
@@ -2575,7 +2583,7 @@
       <c r="A24" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="91" t="s">
+      <c r="B24" s="130" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -2590,7 +2598,7 @@
       <c r="H24" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="I24" s="91" t="s">
+      <c r="I24" s="130" t="s">
         <v>13</v>
       </c>
       <c r="J24" s="31" t="s">
@@ -2607,7 +2615,7 @@
       <c r="A25" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="92"/>
+      <c r="B25" s="131"/>
       <c r="C25" s="10" t="s">
         <v>41</v>
       </c>
@@ -2620,7 +2628,7 @@
       <c r="H25" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="I25" s="92"/>
+      <c r="I25" s="131"/>
       <c r="J25" s="21" t="s">
         <v>81</v>
       </c>
@@ -2635,7 +2643,7 @@
       <c r="A26" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="93"/>
+      <c r="B26" s="132"/>
       <c r="C26" s="12" t="s">
         <v>42</v>
       </c>
@@ -2648,7 +2656,7 @@
       <c r="H26" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="I26" s="93"/>
+      <c r="I26" s="132"/>
       <c r="J26" s="32" t="s">
         <v>82</v>
       </c>
@@ -2696,6 +2704,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="H15:H20"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B24:B26"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B17:C17"/>
@@ -2712,20 +2734,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="H15:H20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2734,7 +2742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -2749,464 +2757,464 @@
     <col min="8" max="8" width="9.7109375" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" customWidth="1"/>
     <col min="10" max="10" width="30.7109375" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" style="121" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" style="87" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" customWidth="1"/>
     <col min="13" max="13" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="38.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="96" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="131" t="s">
+      <c r="B1" s="97" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="131" t="s">
+      <c r="C1" s="97" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="132" t="s">
+      <c r="D1" s="98" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="128"/>
+      <c r="E1" s="94"/>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="136" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="99" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="134" t="s">
+      <c r="C2" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="135" t="s">
+      <c r="D2" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="128"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="147" t="s">
+      <c r="E2" s="94"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="110" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="143"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="137" t="s">
+      <c r="A3" s="137"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="103" t="s">
         <v>158</v>
       </c>
-      <c r="D3" s="138" t="s">
+      <c r="D3" s="104" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="128"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="148" t="s">
+      <c r="E3" s="94"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="111" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="143"/>
-      <c r="B4" s="136" t="s">
+      <c r="A4" s="137"/>
+      <c r="B4" s="102" t="s">
         <v>153</v>
       </c>
-      <c r="C4" s="137" t="s">
+      <c r="C4" s="103" t="s">
         <v>153</v>
       </c>
-      <c r="D4" s="138" t="s">
+      <c r="D4" s="104" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="128"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="149" t="s">
+      <c r="E4" s="94"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="112" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="144"/>
-      <c r="B5" s="136" t="s">
+      <c r="A5" s="138"/>
+      <c r="B5" s="102" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="137" t="s">
+      <c r="C5" s="103" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="138" t="s">
+      <c r="D5" s="104" t="s">
         <v>154</v>
       </c>
-      <c r="E5" s="128"/>
+      <c r="E5" s="94"/>
       <c r="F5" s="41"/>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="145" t="s">
+      <c r="A6" s="108" t="s">
         <v>151</v>
       </c>
-      <c r="B6" s="136" t="s">
+      <c r="B6" s="102" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="137" t="s">
+      <c r="C6" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="138" t="s">
+      <c r="D6" s="104" t="s">
         <v>117</v>
       </c>
-      <c r="E6" s="128"/>
+      <c r="E6" s="94"/>
       <c r="F6" s="41"/>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="145" t="s">
+      <c r="A7" s="108" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="102" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="137" t="s">
+      <c r="C7" s="103" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="138" t="s">
+      <c r="D7" s="104" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="128"/>
+      <c r="E7" s="94"/>
       <c r="F7" s="41"/>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="145" t="s">
+      <c r="A8" s="108" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="136" t="s">
+      <c r="B8" s="102" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="137" t="s">
+      <c r="C8" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="138" t="s">
+      <c r="D8" s="104" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="128"/>
+      <c r="E8" s="94"/>
       <c r="F8" s="41"/>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="145" t="s">
+      <c r="A9" s="108" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="136" t="s">
+      <c r="B9" s="102" t="s">
         <v>123</v>
       </c>
-      <c r="C9" s="137" t="s">
+      <c r="C9" s="103" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="138" t="s">
+      <c r="D9" s="104" t="s">
         <v>160</v>
       </c>
-      <c r="E9" s="128"/>
+      <c r="E9" s="94"/>
       <c r="F9" s="41"/>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="145" t="s">
+      <c r="A10" s="108" t="s">
         <v>144</v>
       </c>
-      <c r="B10" s="136" t="s">
+      <c r="B10" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="137" t="s">
+      <c r="C10" s="103" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="138" t="s">
+      <c r="D10" s="104" t="s">
         <v>161</v>
       </c>
-      <c r="E10" s="128"/>
+      <c r="E10" s="94"/>
       <c r="F10" s="41"/>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="145" t="s">
+      <c r="A11" s="108" t="s">
         <v>145</v>
       </c>
-      <c r="B11" s="136" t="s">
+      <c r="B11" s="102" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="137" t="s">
+      <c r="C11" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="D11" s="138" t="s">
+      <c r="D11" s="104" t="s">
         <v>162</v>
       </c>
-      <c r="E11" s="128"/>
+      <c r="E11" s="94"/>
       <c r="F11" s="41"/>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="145" t="s">
+      <c r="A12" s="108" t="s">
         <v>146</v>
       </c>
-      <c r="B12" s="136"/>
-      <c r="C12" s="137"/>
-      <c r="D12" s="138" t="s">
+      <c r="B12" s="102"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="104" t="s">
         <v>163</v>
       </c>
-      <c r="E12" s="128"/>
+      <c r="E12" s="94"/>
       <c r="F12" s="41"/>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="145" t="s">
+      <c r="A13" s="108" t="s">
         <v>147</v>
       </c>
-      <c r="B13" s="136"/>
-      <c r="C13" s="137"/>
-      <c r="D13" s="138" t="s">
+      <c r="B13" s="102"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="104" t="s">
         <v>164</v>
       </c>
-      <c r="E13" s="128"/>
+      <c r="E13" s="94"/>
       <c r="F13" s="41"/>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="145" t="s">
+      <c r="A14" s="108" t="s">
         <v>148</v>
       </c>
-      <c r="B14" s="136"/>
-      <c r="C14" s="137"/>
-      <c r="D14" s="138"/>
-      <c r="E14" s="128"/>
-      <c r="F14" s="122"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="88"/>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="145" t="s">
+      <c r="A15" s="108" t="s">
         <v>149</v>
       </c>
-      <c r="B15" s="136"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="138"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="122"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="88"/>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="146" t="s">
+      <c r="A16" s="109" t="s">
         <v>150</v>
       </c>
-      <c r="B16" s="139"/>
-      <c r="C16" s="140"/>
-      <c r="D16" s="141"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="122"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="88"/>
     </row>
     <row r="17" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="128"/>
-      <c r="B17" s="128"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="122"/>
-      <c r="L17" s="126"/>
-      <c r="M17" s="126"/>
-      <c r="N17" s="126"/>
+      <c r="A17" s="94"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="88"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
     </row>
     <row r="18" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="128"/>
-      <c r="B18" s="128"/>
-      <c r="C18" s="128"/>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="122"/>
+      <c r="A18" s="94"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="88"/>
     </row>
     <row r="19" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="128"/>
-      <c r="B19" s="128"/>
-      <c r="C19" s="128"/>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
+      <c r="A19" s="94"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
       <c r="F19" s="41"/>
     </row>
     <row r="20" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="128"/>
-      <c r="B20" s="128"/>
-      <c r="C20" s="128"/>
-      <c r="D20" s="128"/>
-      <c r="E20" s="128"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
       <c r="F20" s="41"/>
     </row>
     <row r="21" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="128"/>
-      <c r="B21" s="128"/>
-      <c r="C21" s="128"/>
-      <c r="D21" s="128"/>
-      <c r="E21" s="128"/>
+      <c r="A21" s="94"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
       <c r="F21" s="41"/>
     </row>
     <row r="22" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="128"/>
-      <c r="B22" s="128"/>
-      <c r="C22" s="128"/>
-      <c r="D22" s="128"/>
-      <c r="E22" s="128"/>
+      <c r="A22" s="94"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
       <c r="F22" s="41"/>
     </row>
     <row r="23" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="128"/>
-      <c r="B23" s="128"/>
-      <c r="C23" s="128"/>
-      <c r="D23" s="128"/>
-      <c r="E23" s="128"/>
+      <c r="A23" s="94"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
       <c r="F23" s="41"/>
     </row>
     <row r="24" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="128"/>
-      <c r="B24" s="128"/>
-      <c r="C24" s="128"/>
-      <c r="D24" s="128"/>
-      <c r="E24" s="128"/>
+      <c r="A24" s="94"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
       <c r="F24" s="41"/>
     </row>
     <row r="25" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="128"/>
-      <c r="B25" s="128"/>
-      <c r="C25" s="128"/>
-      <c r="D25" s="128"/>
-      <c r="E25" s="128"/>
+      <c r="A25" s="94"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
       <c r="F25" s="41"/>
     </row>
     <row r="26" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="128"/>
-      <c r="B26" s="128"/>
-      <c r="C26" s="128"/>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
+      <c r="A26" s="94"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="94"/>
       <c r="F26" s="41"/>
     </row>
     <row r="27" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="128"/>
-      <c r="B27" s="128"/>
-      <c r="C27" s="128"/>
-      <c r="D27" s="128"/>
-      <c r="E27" s="128"/>
+      <c r="A27" s="94"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="94"/>
       <c r="F27" s="41"/>
     </row>
     <row r="28" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="128"/>
-      <c r="B28" s="128"/>
-      <c r="C28" s="128"/>
-      <c r="D28" s="128"/>
-      <c r="E28" s="128"/>
+      <c r="A28" s="94"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
       <c r="F28" s="41"/>
     </row>
     <row r="29" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="128"/>
-      <c r="B29" s="128"/>
-      <c r="C29" s="128"/>
-      <c r="D29" s="128"/>
-      <c r="E29" s="128"/>
+      <c r="A29" s="94"/>
+      <c r="B29" s="94"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="94"/>
     </row>
     <row r="30" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="128"/>
-      <c r="B30" s="128"/>
-      <c r="C30" s="128"/>
-      <c r="D30" s="128"/>
-      <c r="E30" s="128"/>
+      <c r="A30" s="94"/>
+      <c r="B30" s="94"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="94"/>
     </row>
     <row r="31" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="128"/>
-      <c r="B31" s="128"/>
-      <c r="C31" s="128"/>
-      <c r="D31" s="128"/>
-      <c r="E31" s="128"/>
+      <c r="A31" s="94"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
     </row>
     <row r="32" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="128"/>
-      <c r="B32" s="128"/>
-      <c r="C32" s="128"/>
-      <c r="D32" s="128"/>
-      <c r="E32" s="128"/>
-      <c r="I32" s="127"/>
+      <c r="A32" s="94"/>
+      <c r="B32" s="94"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="94"/>
+      <c r="I32" s="93"/>
     </row>
     <row r="33" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="128"/>
-      <c r="B33" s="128"/>
-      <c r="C33" s="128"/>
-      <c r="D33" s="128"/>
-      <c r="E33" s="128"/>
-      <c r="I33" s="127"/>
+      <c r="A33" s="94"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="94"/>
+      <c r="I33" s="93"/>
     </row>
     <row r="34" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I34" s="122"/>
+      <c r="I34" s="88"/>
     </row>
     <row r="35" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I35" s="122"/>
+      <c r="I35" s="88"/>
     </row>
     <row r="36" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I36" s="122"/>
+      <c r="I36" s="88"/>
     </row>
     <row r="37" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I37" s="122"/>
+      <c r="I37" s="88"/>
     </row>
     <row r="38" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I38" s="122"/>
+      <c r="I38" s="88"/>
     </row>
     <row r="39" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I39" s="128"/>
+      <c r="I39" s="94"/>
     </row>
     <row r="40" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I40" s="122"/>
+      <c r="I40" s="88"/>
     </row>
     <row r="41" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I41" s="122"/>
+      <c r="I41" s="88"/>
     </row>
     <row r="42" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I42" s="122"/>
+      <c r="I42" s="88"/>
     </row>
     <row r="43" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I43" s="122"/>
+      <c r="I43" s="88"/>
     </row>
     <row r="44" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I44" s="122"/>
+      <c r="I44" s="88"/>
     </row>
     <row r="45" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I45" s="129"/>
+      <c r="I45" s="95"/>
     </row>
     <row r="46" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I46" s="129"/>
+      <c r="I46" s="95"/>
     </row>
     <row r="47" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I47" s="122"/>
+      <c r="I47" s="88"/>
     </row>
     <row r="48" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I48" s="122"/>
+      <c r="I48" s="88"/>
     </row>
     <row r="49" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I49" s="122"/>
+      <c r="I49" s="88"/>
     </row>
     <row r="50" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I50" s="122"/>
+      <c r="I50" s="88"/>
     </row>
     <row r="51" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I51" s="122"/>
+      <c r="I51" s="88"/>
     </row>
     <row r="52" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I52" s="122"/>
+      <c r="I52" s="88"/>
     </row>
     <row r="53" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I53" s="122"/>
+      <c r="I53" s="88"/>
     </row>
     <row r="54" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I54" s="122"/>
+      <c r="I54" s="88"/>
     </row>
     <row r="55" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I55" s="122"/>
+      <c r="I55" s="88"/>
     </row>
     <row r="56" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I56" s="122"/>
+      <c r="I56" s="88"/>
     </row>
     <row r="57" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I57" s="122"/>
+      <c r="I57" s="88"/>
     </row>
     <row r="58" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I58" s="122"/>
+      <c r="I58" s="88"/>
     </row>
     <row r="59" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I59" s="122"/>
+      <c r="I59" s="88"/>
     </row>
     <row r="60" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I60" s="122"/>
+      <c r="I60" s="88"/>
     </row>
     <row r="61" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I61" s="122"/>
+      <c r="I61" s="88"/>
     </row>
     <row r="62" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I62" s="122"/>
+      <c r="I62" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3219,11 +3227,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3236,26 +3244,26 @@
   <sheetData>
     <row r="2" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="109" t="s">
+      <c r="C3" s="139" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="111"/>
-      <c r="L3" s="115" t="s">
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="141"/>
+      <c r="L3" s="145" t="s">
         <v>137</v>
       </c>
-      <c r="M3" s="116"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="117"/>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="117"/>
-      <c r="R3" s="117"/>
-      <c r="S3" s="117"/>
-      <c r="T3" s="118"/>
+      <c r="M3" s="146"/>
+      <c r="N3" s="147"/>
+      <c r="O3" s="147"/>
+      <c r="P3" s="147"/>
+      <c r="Q3" s="147"/>
+      <c r="R3" s="147"/>
+      <c r="S3" s="147"/>
+      <c r="T3" s="148"/>
     </row>
     <row r="4" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="61" t="s">
@@ -3291,7 +3299,7 @@
       <c r="D5" s="49">
         <v>11</v>
       </c>
-      <c r="E5" s="84">
+      <c r="E5" s="83">
         <v>12</v>
       </c>
       <c r="F5" s="49">
@@ -3303,7 +3311,7 @@
       <c r="H5" s="57">
         <v>15</v>
       </c>
-      <c r="I5" s="85">
+      <c r="I5" s="84">
         <v>16</v>
       </c>
       <c r="L5" s="73" t="s">
@@ -3345,7 +3353,7 @@
       <c r="D7" s="46">
         <v>25</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="149">
         <v>26</v>
       </c>
       <c r="F7" s="46">
@@ -3357,22 +3365,22 @@
       <c r="H7" s="82">
         <v>1</v>
       </c>
-      <c r="I7" s="83">
+      <c r="I7" s="150">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="112" t="s">
+      <c r="C10" s="142" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="114"/>
+      <c r="D10" s="143"/>
+      <c r="E10" s="143"/>
+      <c r="F10" s="143"/>
+      <c r="G10" s="143"/>
+      <c r="H10" s="143"/>
+      <c r="I10" s="144"/>
     </row>
     <row r="11" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="66" t="s">
@@ -3531,15 +3539,15 @@
     <row r="18" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="112" t="s">
+      <c r="C20" s="142" t="s">
         <v>125</v>
       </c>
-      <c r="D20" s="113"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="114"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="144"/>
     </row>
     <row r="21" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="66" t="s">
@@ -3658,10 +3666,10 @@
       </c>
     </row>
     <row r="26" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="119">
+      <c r="C26" s="85">
         <v>28</v>
       </c>
-      <c r="D26" s="120">
+      <c r="D26" s="86">
         <v>29</v>
       </c>
       <c r="E26" s="46">

--- a/vak vezet vilagtalant.xlsx
+++ b/vak vezet vilagtalant.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Asztali gép\Minden is\Suli\github\Vizsgaremek-D-K-B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meste\OneDrive\Desktop\Új mappa\Vizsgaremek-D-K-B\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5812FB1F-7625-4E4D-957A-7DE379D5AFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IP címek" sheetId="1" r:id="rId1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="168">
   <si>
     <t>192.168.1.0</t>
   </si>
@@ -536,12 +537,15 @@
   </si>
   <si>
     <t>megyek Fruzsihoz :3</t>
+  </si>
+  <si>
+    <t>fizikai topológia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1368,7 +1372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1478,7 +1482,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1490,7 +1494,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1614,22 +1617,19 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1665,10 +1665,10 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1680,27 +1680,57 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1719,43 +1749,19 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1786,12 +1792,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2112,7 +2112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2136,34 +2136,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="128" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="120" t="s">
+      <c r="B1" s="128"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="121"/>
+      <c r="E1" s="127"/>
       <c r="H1" s="40" t="s">
         <v>89</v>
       </c>
       <c r="I1" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="113" t="s">
+      <c r="J1" s="111" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="114"/>
+      <c r="K1" s="112"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="118"/>
+      <c r="C2" s="123"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="H2" s="28" t="s">
@@ -2183,8 +2183,8 @@
       <c r="A3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="116"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="125"/>
       <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
@@ -2206,10 +2206,10 @@
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="118"/>
+      <c r="C4" s="123"/>
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
       <c r="H4" s="29" t="s">
@@ -2240,10 +2240,10 @@
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="126" t="s">
+      <c r="B6" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="127"/>
+      <c r="C6" s="115"/>
       <c r="D6" s="22" t="s">
         <v>17</v>
       </c>
@@ -2253,32 +2253,32 @@
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="127"/>
+      <c r="C7" s="115"/>
       <c r="D7" s="22" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="128" t="s">
+      <c r="A8" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="124" t="s">
+      <c r="B8" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="125"/>
+      <c r="C8" s="131"/>
       <c r="D8" s="6"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="129"/>
-      <c r="B9" s="115" t="s">
+      <c r="A9" s="133"/>
+      <c r="B9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="116"/>
+      <c r="C9" s="125"/>
       <c r="D9" s="7" t="s">
         <v>25</v>
       </c>
@@ -2305,7 +2305,7 @@
       <c r="A11" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="130" t="s">
+      <c r="B11" s="116" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -2317,21 +2317,21 @@
       <c r="E11" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="113" t="s">
+      <c r="H11" s="111" t="s">
         <v>129</v>
       </c>
-      <c r="I11" s="119"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="113" t="s">
+      <c r="I11" s="113"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="L11" s="114"/>
+      <c r="L11" s="112"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="131"/>
+      <c r="B12" s="117"/>
       <c r="C12" s="11" t="s">
         <v>38</v>
       </c>
@@ -2344,10 +2344,10 @@
       <c r="H12" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="126" t="s">
+      <c r="I12" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="127"/>
+      <c r="J12" s="115"/>
       <c r="K12" s="26" t="s">
         <v>8</v>
       </c>
@@ -2357,7 +2357,7 @@
       <c r="A13" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="132"/>
+      <c r="B13" s="118"/>
       <c r="C13" s="13" t="s">
         <v>39</v>
       </c>
@@ -2370,10 +2370,10 @@
       <c r="H13" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="I13" s="126" t="s">
+      <c r="I13" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="127"/>
+      <c r="J13" s="115"/>
       <c r="K13" s="26" t="s">
         <v>8</v>
       </c>
@@ -2383,37 +2383,37 @@
       <c r="H14" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="I14" s="126" t="s">
+      <c r="I14" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="J14" s="127"/>
+      <c r="J14" s="115"/>
       <c r="K14" s="26" t="s">
         <v>8</v>
       </c>
       <c r="L14" s="26"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H15" s="133" t="s">
+      <c r="H15" s="119" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="117" t="s">
+      <c r="I15" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="118"/>
+      <c r="J15" s="123"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:12" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="113" t="s">
+      <c r="A16" s="111" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="119"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="119" t="s">
+      <c r="B16" s="113"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="114"/>
-      <c r="H16" s="134"/>
+      <c r="E16" s="112"/>
+      <c r="H16" s="120"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8" t="s">
         <v>8</v>
@@ -2427,13 +2427,13 @@
       <c r="A17" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="117" t="s">
+      <c r="B17" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="118"/>
+      <c r="C17" s="123"/>
       <c r="D17" s="3"/>
       <c r="E17" s="14"/>
-      <c r="H17" s="134"/>
+      <c r="H17" s="120"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10" t="s">
         <v>63</v>
@@ -2447,13 +2447,13 @@
       <c r="A18" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="115"/>
-      <c r="C18" s="116"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="125"/>
       <c r="D18" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="7"/>
-      <c r="H18" s="134"/>
+      <c r="H18" s="120"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10" t="s">
         <v>64</v>
@@ -2467,13 +2467,13 @@
       <c r="A19" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="117" t="s">
+      <c r="B19" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="118"/>
+      <c r="C19" s="123"/>
       <c r="D19" s="3"/>
       <c r="E19" s="14"/>
-      <c r="H19" s="134"/>
+      <c r="H19" s="120"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10" t="s">
         <v>65</v>
@@ -2487,13 +2487,13 @@
       <c r="A20" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="115"/>
-      <c r="C20" s="116"/>
+      <c r="B20" s="124"/>
+      <c r="C20" s="125"/>
       <c r="D20" s="22" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="7"/>
-      <c r="H20" s="135"/>
+      <c r="H20" s="121"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12" t="s">
         <v>66</v>
@@ -2507,16 +2507,16 @@
       <c r="A21" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="117" t="s">
+      <c r="B21" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="118"/>
+      <c r="C21" s="123"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="H21" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="130" t="s">
+      <c r="I21" s="116" t="s">
         <v>26</v>
       </c>
       <c r="J21" s="31" t="s">
@@ -2531,10 +2531,10 @@
       <c r="A22" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="115" t="s">
+      <c r="B22" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="116"/>
+      <c r="C22" s="125"/>
       <c r="D22" s="5" t="s">
         <v>33</v>
       </c>
@@ -2542,7 +2542,7 @@
       <c r="H22" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="I22" s="131"/>
+      <c r="I22" s="117"/>
       <c r="J22" s="21" t="s">
         <v>2</v>
       </c>
@@ -2570,7 +2570,7 @@
       <c r="H23" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="I23" s="132"/>
+      <c r="I23" s="118"/>
       <c r="J23" s="32" t="s">
         <v>68</v>
       </c>
@@ -2583,7 +2583,7 @@
       <c r="A24" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="130" t="s">
+      <c r="B24" s="116" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -2598,7 +2598,7 @@
       <c r="H24" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="I24" s="130" t="s">
+      <c r="I24" s="116" t="s">
         <v>13</v>
       </c>
       <c r="J24" s="31" t="s">
@@ -2615,7 +2615,7 @@
       <c r="A25" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="131"/>
+      <c r="B25" s="117"/>
       <c r="C25" s="10" t="s">
         <v>41</v>
       </c>
@@ -2628,7 +2628,7 @@
       <c r="H25" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="I25" s="131"/>
+      <c r="I25" s="117"/>
       <c r="J25" s="21" t="s">
         <v>81</v>
       </c>
@@ -2643,7 +2643,7 @@
       <c r="A26" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="132"/>
+      <c r="B26" s="118"/>
       <c r="C26" s="12" t="s">
         <v>42</v>
       </c>
@@ -2656,7 +2656,7 @@
       <c r="H26" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="I26" s="132"/>
+      <c r="I26" s="118"/>
       <c r="J26" s="32" t="s">
         <v>82</v>
       </c>
@@ -2704,20 +2704,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="H15:H20"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B24:B26"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B17:C17"/>
@@ -2734,6 +2720,20 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B11:B13"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="H15:H20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2742,11 +2742,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2756,465 +2756,361 @@
     <col min="7" max="7" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" style="87" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" customWidth="1"/>
+    <col min="10" max="12" width="30.7109375" customWidth="1"/>
     <col min="13" max="13" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="38.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="92" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="93" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="93" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="94" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="94"/>
+      <c r="E1" s="90"/>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="134" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="95" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="96" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="101" t="s">
+      <c r="D2" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="94"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="110" t="s">
+      <c r="E2" s="90"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="106" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="137"/>
-      <c r="B3" s="102"/>
-      <c r="C3" s="103" t="s">
+      <c r="A3" s="135"/>
+      <c r="B3" s="98" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="99" t="s">
         <v>158</v>
       </c>
-      <c r="D3" s="104" t="s">
+      <c r="D3" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="94"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="111" t="s">
+      <c r="E3" s="90"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="107" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="137"/>
-      <c r="B4" s="102" t="s">
+      <c r="A4" s="135"/>
+      <c r="B4" s="98" t="s">
         <v>153</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="99" t="s">
         <v>153</v>
       </c>
-      <c r="D4" s="104" t="s">
+      <c r="D4" s="100" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="94"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="112" t="s">
+      <c r="E4" s="90"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="108" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="138"/>
-      <c r="B5" s="102" t="s">
+      <c r="A5" s="136"/>
+      <c r="B5" s="98" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="103" t="s">
+      <c r="C5" s="99" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="104" t="s">
+      <c r="D5" s="100" t="s">
         <v>154</v>
       </c>
-      <c r="E5" s="94"/>
-      <c r="F5" s="41"/>
+      <c r="E5" s="90"/>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="104" t="s">
+      <c r="D6" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="E6" s="94"/>
-      <c r="F6" s="41"/>
+      <c r="E6" s="90"/>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="104" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="98" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="103" t="s">
+      <c r="C7" s="99" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="104" t="s">
+      <c r="D7" s="100" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="94"/>
-      <c r="F7" s="41"/>
+      <c r="E7" s="90"/>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="108" t="s">
+      <c r="A8" s="104" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="98" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="103" t="s">
+      <c r="C8" s="99" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="104" t="s">
+      <c r="D8" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="94"/>
-      <c r="F8" s="41"/>
+      <c r="E8" s="90"/>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="108" t="s">
+      <c r="A9" s="104" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="98" t="s">
         <v>123</v>
       </c>
-      <c r="C9" s="103" t="s">
+      <c r="C9" s="99" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="100" t="s">
         <v>160</v>
       </c>
-      <c r="E9" s="94"/>
-      <c r="F9" s="41"/>
+      <c r="E9" s="90"/>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="B10" s="102" t="s">
+      <c r="B10" s="98" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="103" t="s">
+      <c r="C10" s="99" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="104" t="s">
+      <c r="D10" s="100" t="s">
         <v>161</v>
       </c>
-      <c r="E10" s="94"/>
-      <c r="F10" s="41"/>
+      <c r="E10" s="90"/>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="108" t="s">
+      <c r="A11" s="104" t="s">
         <v>145</v>
       </c>
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="103" t="s">
+      <c r="C11" s="99" t="s">
         <v>114</v>
       </c>
-      <c r="D11" s="104" t="s">
+      <c r="D11" s="100" t="s">
         <v>162</v>
       </c>
-      <c r="E11" s="94"/>
-      <c r="F11" s="41"/>
+      <c r="E11" s="90"/>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="104" t="s">
         <v>146</v>
       </c>
-      <c r="B12" s="102"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="104" t="s">
+      <c r="B12" s="98"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="100" t="s">
         <v>163</v>
       </c>
-      <c r="E12" s="94"/>
-      <c r="F12" s="41"/>
+      <c r="E12" s="90"/>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="108" t="s">
+      <c r="A13" s="104" t="s">
         <v>147</v>
       </c>
-      <c r="B13" s="102"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="104" t="s">
+      <c r="B13" s="98"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="100" t="s">
         <v>164</v>
       </c>
-      <c r="E13" s="94"/>
-      <c r="F13" s="41"/>
+      <c r="E13" s="90"/>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="108" t="s">
+      <c r="A14" s="104" t="s">
         <v>148</v>
       </c>
-      <c r="B14" s="102"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="88"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="90"/>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="108" t="s">
+      <c r="A15" s="104" t="s">
         <v>149</v>
       </c>
-      <c r="B15" s="102"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="88"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="90"/>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="109" t="s">
+      <c r="A16" s="105" t="s">
         <v>150</v>
       </c>
-      <c r="B16" s="105"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="88"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="90"/>
     </row>
     <row r="17" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="94"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="88"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="92"/>
+      <c r="A17" s="90"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="89"/>
     </row>
     <row r="18" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="94"/>
-      <c r="B18" s="94"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="88"/>
+      <c r="A18" s="90"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
     </row>
     <row r="19" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="94"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="41"/>
+      <c r="A19" s="90"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
     </row>
     <row r="20" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="94"/>
-      <c r="B20" s="94"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="41"/>
+      <c r="A20" s="90"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
     </row>
     <row r="21" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="94"/>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="41"/>
+      <c r="A21" s="90"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
     </row>
     <row r="22" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="94"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="41"/>
+      <c r="A22" s="90"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
     </row>
     <row r="23" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="94"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="41"/>
+      <c r="A23" s="90"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
     </row>
     <row r="24" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="94"/>
-      <c r="B24" s="94"/>
-      <c r="C24" s="94"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="41"/>
+      <c r="A24" s="90"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
     </row>
     <row r="25" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="94"/>
-      <c r="B25" s="94"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="41"/>
+      <c r="A25" s="90"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
     </row>
     <row r="26" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="94"/>
-      <c r="B26" s="94"/>
-      <c r="C26" s="94"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="41"/>
+      <c r="A26" s="90"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
     </row>
     <row r="27" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="94"/>
-      <c r="B27" s="94"/>
-      <c r="C27" s="94"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="41"/>
+      <c r="A27" s="90"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
     </row>
     <row r="28" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="94"/>
-      <c r="B28" s="94"/>
-      <c r="C28" s="94"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="41"/>
+      <c r="A28" s="90"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
     </row>
     <row r="29" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="94"/>
-      <c r="B29" s="94"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
+      <c r="A29" s="90"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
     </row>
     <row r="30" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="94"/>
-      <c r="B30" s="94"/>
-      <c r="C30" s="94"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="94"/>
+      <c r="A30" s="90"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
     </row>
     <row r="31" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="94"/>
-      <c r="B31" s="94"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="94"/>
+      <c r="A31" s="90"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
     </row>
     <row r="32" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="94"/>
-      <c r="B32" s="94"/>
-      <c r="C32" s="94"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="94"/>
-      <c r="I32" s="93"/>
+      <c r="A32" s="90"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
     </row>
     <row r="33" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="94"/>
-      <c r="B33" s="94"/>
-      <c r="C33" s="94"/>
-      <c r="D33" s="94"/>
-      <c r="E33" s="94"/>
-      <c r="I33" s="93"/>
-    </row>
-    <row r="34" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I34" s="88"/>
-    </row>
-    <row r="35" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I35" s="88"/>
-    </row>
-    <row r="36" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I36" s="88"/>
-    </row>
-    <row r="37" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I37" s="88"/>
-    </row>
-    <row r="38" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I38" s="88"/>
+      <c r="A33" s="90"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
     </row>
     <row r="39" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I39" s="94"/>
-    </row>
-    <row r="40" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I40" s="88"/>
-    </row>
-    <row r="41" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I41" s="88"/>
-    </row>
-    <row r="42" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I42" s="88"/>
-    </row>
-    <row r="43" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I43" s="88"/>
-    </row>
-    <row r="44" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I44" s="88"/>
+      <c r="I39" s="90"/>
     </row>
     <row r="45" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I45" s="95"/>
+      <c r="I45" s="91"/>
     </row>
     <row r="46" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I46" s="95"/>
-    </row>
-    <row r="47" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I47" s="88"/>
-    </row>
-    <row r="48" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I48" s="88"/>
-    </row>
-    <row r="49" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I49" s="88"/>
-    </row>
-    <row r="50" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I50" s="88"/>
-    </row>
-    <row r="51" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I51" s="88"/>
-    </row>
-    <row r="52" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I52" s="88"/>
-    </row>
-    <row r="53" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I53" s="88"/>
-    </row>
-    <row r="54" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I54" s="88"/>
-    </row>
-    <row r="55" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I55" s="88"/>
-    </row>
-    <row r="56" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I56" s="88"/>
-    </row>
-    <row r="57" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I57" s="88"/>
-    </row>
-    <row r="58" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I58" s="88"/>
-    </row>
-    <row r="59" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I59" s="88"/>
-    </row>
-    <row r="60" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I60" s="88"/>
-    </row>
-    <row r="61" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I61" s="88"/>
-    </row>
-    <row r="62" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I62" s="88"/>
+      <c r="I46" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3227,10 +3123,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C2:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -3244,200 +3140,200 @@
   <sheetData>
     <row r="2" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="139" t="s">
+      <c r="C3" s="137" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="141"/>
-      <c r="L3" s="145" t="s">
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="139"/>
+      <c r="L3" s="143" t="s">
         <v>137</v>
       </c>
-      <c r="M3" s="146"/>
-      <c r="N3" s="147"/>
-      <c r="O3" s="147"/>
-      <c r="P3" s="147"/>
-      <c r="Q3" s="147"/>
-      <c r="R3" s="147"/>
-      <c r="S3" s="147"/>
-      <c r="T3" s="148"/>
+      <c r="M3" s="144"/>
+      <c r="N3" s="145"/>
+      <c r="O3" s="145"/>
+      <c r="P3" s="145"/>
+      <c r="Q3" s="145"/>
+      <c r="R3" s="145"/>
+      <c r="S3" s="145"/>
+      <c r="T3" s="146"/>
     </row>
     <row r="4" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="G4" s="63" t="s">
+      <c r="G4" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="I4" s="65" t="s">
+      <c r="I4" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="L4" s="71" t="s">
+      <c r="L4" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="M4" s="72"/>
+      <c r="M4" s="71"/>
     </row>
     <row r="5" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="48">
+      <c r="C5" s="47">
         <v>10</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="48">
         <v>11</v>
       </c>
-      <c r="E5" s="83">
+      <c r="E5" s="82">
         <v>12</v>
       </c>
-      <c r="F5" s="49">
+      <c r="F5" s="48">
         <v>13</v>
       </c>
-      <c r="G5" s="50">
+      <c r="G5" s="49">
         <v>14</v>
       </c>
-      <c r="H5" s="57">
+      <c r="H5" s="56">
         <v>15</v>
       </c>
-      <c r="I5" s="84">
+      <c r="I5" s="83">
         <v>16</v>
       </c>
-      <c r="L5" s="73" t="s">
+      <c r="L5" s="72" t="s">
         <v>127</v>
       </c>
-      <c r="M5" s="74"/>
+      <c r="M5" s="73"/>
     </row>
     <row r="6" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="43">
+      <c r="C6" s="42">
         <v>17</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="41">
         <v>18</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="41">
         <v>19</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6" s="41">
         <v>20</v>
       </c>
-      <c r="G6" s="51">
+      <c r="G6" s="50">
         <v>21</v>
       </c>
-      <c r="H6" s="55">
+      <c r="H6" s="54">
         <v>22</v>
       </c>
-      <c r="I6" s="44">
+      <c r="I6" s="43">
         <v>23</v>
       </c>
-      <c r="L6" s="75" t="s">
+      <c r="L6" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="M6" s="76"/>
+      <c r="M6" s="75"/>
     </row>
     <row r="7" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="45">
+      <c r="C7" s="44">
         <v>24</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="45">
         <v>25</v>
       </c>
-      <c r="E7" s="149">
+      <c r="E7" s="109">
         <v>26</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="45">
         <v>27</v>
       </c>
-      <c r="G7" s="81">
+      <c r="G7" s="80">
         <v>28</v>
       </c>
-      <c r="H7" s="82">
+      <c r="H7" s="81">
         <v>1</v>
       </c>
-      <c r="I7" s="150">
+      <c r="I7" s="110">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="142" t="s">
+      <c r="C10" s="140" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="143"/>
-      <c r="E10" s="143"/>
-      <c r="F10" s="143"/>
-      <c r="G10" s="143"/>
-      <c r="H10" s="143"/>
-      <c r="I10" s="144"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="142"/>
     </row>
     <row r="11" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="E11" s="67" t="s">
+      <c r="E11" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="F11" s="67" t="s">
+      <c r="F11" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="G11" s="68" t="s">
+      <c r="G11" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="H11" s="69" t="s">
+      <c r="H11" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="I11" s="70" t="s">
+      <c r="I11" s="69" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="12" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="58"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="53">
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="52">
         <v>1</v>
       </c>
-      <c r="I12" s="54">
+      <c r="I12" s="53">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="77">
+      <c r="C13" s="76">
         <v>3</v>
       </c>
-      <c r="D13" s="78">
+      <c r="D13" s="77">
         <v>4</v>
       </c>
-      <c r="E13" s="78">
+      <c r="E13" s="77">
         <v>5</v>
       </c>
-      <c r="F13" s="78">
+      <c r="F13" s="77">
         <v>6</v>
       </c>
-      <c r="G13" s="79">
+      <c r="G13" s="78">
         <v>7</v>
       </c>
-      <c r="H13" s="77">
+      <c r="H13" s="76">
         <v>8</v>
       </c>
-      <c r="I13" s="80">
+      <c r="I13" s="79">
         <v>9</v>
       </c>
       <c r="K13" t="s">
@@ -3445,220 +3341,220 @@
       </c>
     </row>
     <row r="14" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="43">
+      <c r="C14" s="42">
         <v>10</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D14" s="41">
         <v>11</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="41">
         <v>12</v>
       </c>
-      <c r="F14" s="42">
+      <c r="F14" s="41">
         <v>13</v>
       </c>
-      <c r="G14" s="51">
+      <c r="G14" s="50">
         <v>14</v>
       </c>
-      <c r="H14" s="55">
+      <c r="H14" s="54">
         <v>15</v>
       </c>
-      <c r="I14" s="44">
+      <c r="I14" s="43">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="43">
+      <c r="C15" s="42">
         <v>17</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D15" s="41">
         <v>18</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="41">
         <v>19</v>
       </c>
-      <c r="F15" s="42">
+      <c r="F15" s="41">
         <v>20</v>
       </c>
-      <c r="G15" s="51">
+      <c r="G15" s="50">
         <v>21</v>
       </c>
-      <c r="H15" s="55">
+      <c r="H15" s="54">
         <v>22</v>
       </c>
-      <c r="I15" s="44">
+      <c r="I15" s="43">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="43">
+      <c r="C16" s="42">
         <v>24</v>
       </c>
-      <c r="D16" s="42">
+      <c r="D16" s="41">
         <v>25</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="41">
         <v>26</v>
       </c>
-      <c r="F16" s="42">
+      <c r="F16" s="41">
         <v>27</v>
       </c>
-      <c r="G16" s="51">
+      <c r="G16" s="50">
         <v>28</v>
       </c>
-      <c r="H16" s="55">
+      <c r="H16" s="54">
         <v>29</v>
       </c>
-      <c r="I16" s="44">
+      <c r="I16" s="43">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="45">
+      <c r="C17" s="44">
         <v>31</v>
       </c>
-      <c r="D17" s="46">
+      <c r="D17" s="45">
         <v>1</v>
       </c>
-      <c r="E17" s="46">
+      <c r="E17" s="45">
         <v>2</v>
       </c>
-      <c r="F17" s="46">
+      <c r="F17" s="45">
         <v>3</v>
       </c>
-      <c r="G17" s="52">
+      <c r="G17" s="51">
         <v>4</v>
       </c>
-      <c r="H17" s="56">
+      <c r="H17" s="55">
         <v>5</v>
       </c>
-      <c r="I17" s="47">
+      <c r="I17" s="46">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="142" t="s">
+      <c r="C20" s="140" t="s">
         <v>125</v>
       </c>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="144"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="141"/>
+      <c r="I20" s="142"/>
     </row>
     <row r="21" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="D21" s="67" t="s">
+      <c r="D21" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="E21" s="67" t="s">
+      <c r="E21" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="F21" s="67" t="s">
+      <c r="F21" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="G21" s="68" t="s">
+      <c r="G21" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="H21" s="69" t="s">
+      <c r="H21" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="I21" s="70" t="s">
+      <c r="I21" s="69" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="22" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="58"/>
-      <c r="D22" s="59">
+      <c r="C22" s="57"/>
+      <c r="D22" s="58">
         <v>1</v>
       </c>
-      <c r="E22" s="59">
+      <c r="E22" s="58">
         <v>2</v>
       </c>
-      <c r="F22" s="59">
+      <c r="F22" s="58">
         <v>3</v>
       </c>
-      <c r="G22" s="60">
+      <c r="G22" s="59">
         <v>4</v>
       </c>
-      <c r="H22" s="53">
+      <c r="H22" s="52">
         <v>5</v>
       </c>
-      <c r="I22" s="54">
+      <c r="I22" s="53">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="43">
+      <c r="C23" s="42">
         <v>7</v>
       </c>
-      <c r="D23" s="42">
+      <c r="D23" s="41">
         <v>8</v>
       </c>
-      <c r="E23" s="42">
+      <c r="E23" s="41">
         <v>9</v>
       </c>
-      <c r="F23" s="42">
+      <c r="F23" s="41">
         <v>10</v>
       </c>
-      <c r="G23" s="51">
+      <c r="G23" s="50">
         <v>11</v>
       </c>
-      <c r="H23" s="55">
+      <c r="H23" s="54">
         <v>12</v>
       </c>
-      <c r="I23" s="44">
+      <c r="I23" s="43">
         <v>13</v>
       </c>
     </row>
     <row r="24" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="43">
+      <c r="C24" s="42">
         <v>14</v>
       </c>
-      <c r="D24" s="42">
+      <c r="D24" s="41">
         <v>15</v>
       </c>
-      <c r="E24" s="42">
+      <c r="E24" s="41">
         <v>16</v>
       </c>
-      <c r="F24" s="42">
+      <c r="F24" s="41">
         <v>17</v>
       </c>
-      <c r="G24" s="51">
+      <c r="G24" s="50">
         <v>18</v>
       </c>
-      <c r="H24" s="55">
+      <c r="H24" s="54">
         <v>19</v>
       </c>
-      <c r="I24" s="44">
+      <c r="I24" s="43">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="43">
+      <c r="C25" s="42">
         <v>21</v>
       </c>
-      <c r="D25" s="42">
+      <c r="D25" s="41">
         <v>22</v>
       </c>
-      <c r="E25" s="42">
+      <c r="E25" s="41">
         <v>23</v>
       </c>
-      <c r="F25" s="78">
+      <c r="F25" s="77">
         <v>24</v>
       </c>
-      <c r="G25" s="79">
+      <c r="G25" s="78">
         <v>25</v>
       </c>
-      <c r="H25" s="77">
+      <c r="H25" s="76">
         <v>26</v>
       </c>
-      <c r="I25" s="80">
+      <c r="I25" s="79">
         <v>27</v>
       </c>
       <c r="K25" t="s">
@@ -3666,25 +3562,25 @@
       </c>
     </row>
     <row r="26" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="85">
+      <c r="C26" s="84">
         <v>28</v>
       </c>
-      <c r="D26" s="86">
+      <c r="D26" s="85">
         <v>29</v>
       </c>
-      <c r="E26" s="46">
+      <c r="E26" s="45">
         <v>30</v>
       </c>
-      <c r="F26" s="46">
+      <c r="F26" s="45">
         <v>1</v>
       </c>
-      <c r="G26" s="52">
+      <c r="G26" s="51">
         <v>2</v>
       </c>
-      <c r="H26" s="56">
+      <c r="H26" s="55">
         <v>3</v>
       </c>
-      <c r="I26" s="47">
+      <c r="I26" s="46">
         <v>4</v>
       </c>
     </row>

--- a/vak vezet vilagtalant.xlsx
+++ b/vak vezet vilagtalant.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meste\OneDrive\Desktop\Új mappa\Vizsgaremek-D-K-B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\VIZSGAREMEK\Vizsgaremek-D-K-B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5812FB1F-7625-4E4D-957A-7DE379D5AFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C124889-3A93-41A8-BF25-5C92D3BF1611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="172">
   <si>
     <t>192.168.1.0</t>
   </si>
@@ -540,6 +540,18 @@
   </si>
   <si>
     <t>fizikai topológia</t>
+  </si>
+  <si>
+    <t>GRE + ipv6</t>
+  </si>
+  <si>
+    <t>vpn, home office</t>
+  </si>
+  <si>
+    <t>asa, web vpn</t>
+  </si>
+  <si>
+    <t>wlc</t>
   </si>
 </sst>
 </file>
@@ -1372,7 +1384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1638,9 +1650,6 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="15" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1692,15 +1701,51 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1717,42 +1762,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1793,6 +1802,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2136,34 +2154,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="119" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="126" t="s">
+      <c r="B1" s="119"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="127"/>
+      <c r="E1" s="118"/>
       <c r="H1" s="40" t="s">
         <v>89</v>
       </c>
       <c r="I1" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="111" t="s">
+      <c r="J1" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="112"/>
+      <c r="K1" s="111"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="123"/>
+      <c r="C2" s="115"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="H2" s="28" t="s">
@@ -2183,8 +2201,8 @@
       <c r="A3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="124"/>
-      <c r="C3" s="125"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="113"/>
       <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
@@ -2206,10 +2224,10 @@
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="123"/>
+      <c r="C4" s="115"/>
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
       <c r="H4" s="29" t="s">
@@ -2240,10 +2258,10 @@
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="114" t="s">
+      <c r="B6" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="115"/>
+      <c r="C6" s="124"/>
       <c r="D6" s="22" t="s">
         <v>17</v>
       </c>
@@ -2253,32 +2271,32 @@
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="115"/>
+      <c r="C7" s="124"/>
       <c r="D7" s="22" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="132" t="s">
+      <c r="A8" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="130" t="s">
+      <c r="B8" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="131"/>
+      <c r="C8" s="122"/>
       <c r="D8" s="6"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="133"/>
-      <c r="B9" s="124" t="s">
+      <c r="A9" s="126"/>
+      <c r="B9" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="125"/>
+      <c r="C9" s="113"/>
       <c r="D9" s="7" t="s">
         <v>25</v>
       </c>
@@ -2305,7 +2323,7 @@
       <c r="A11" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="116" t="s">
+      <c r="B11" s="127" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -2317,21 +2335,21 @@
       <c r="E11" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="111" t="s">
+      <c r="H11" s="110" t="s">
         <v>129</v>
       </c>
-      <c r="I11" s="113"/>
-      <c r="J11" s="112"/>
-      <c r="K11" s="111" t="s">
+      <c r="I11" s="116"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="L11" s="112"/>
+      <c r="L11" s="111"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="117"/>
+      <c r="B12" s="128"/>
       <c r="C12" s="11" t="s">
         <v>38</v>
       </c>
@@ -2344,10 +2362,10 @@
       <c r="H12" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="114" t="s">
+      <c r="I12" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="115"/>
+      <c r="J12" s="124"/>
       <c r="K12" s="26" t="s">
         <v>8</v>
       </c>
@@ -2357,7 +2375,7 @@
       <c r="A13" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="118"/>
+      <c r="B13" s="129"/>
       <c r="C13" s="13" t="s">
         <v>39</v>
       </c>
@@ -2370,10 +2388,10 @@
       <c r="H13" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="I13" s="114" t="s">
+      <c r="I13" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="115"/>
+      <c r="J13" s="124"/>
       <c r="K13" s="26" t="s">
         <v>8</v>
       </c>
@@ -2383,37 +2401,37 @@
       <c r="H14" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="I14" s="114" t="s">
+      <c r="I14" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="J14" s="115"/>
+      <c r="J14" s="124"/>
       <c r="K14" s="26" t="s">
         <v>8</v>
       </c>
       <c r="L14" s="26"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H15" s="119" t="s">
+      <c r="H15" s="130" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="122" t="s">
+      <c r="I15" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="123"/>
+      <c r="J15" s="115"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:12" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="111" t="s">
+      <c r="A16" s="110" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="113"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="113" t="s">
+      <c r="B16" s="116"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="112"/>
-      <c r="H16" s="120"/>
+      <c r="E16" s="111"/>
+      <c r="H16" s="131"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8" t="s">
         <v>8</v>
@@ -2427,13 +2445,13 @@
       <c r="A17" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="122" t="s">
+      <c r="B17" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="123"/>
+      <c r="C17" s="115"/>
       <c r="D17" s="3"/>
       <c r="E17" s="14"/>
-      <c r="H17" s="120"/>
+      <c r="H17" s="131"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10" t="s">
         <v>63</v>
@@ -2447,13 +2465,13 @@
       <c r="A18" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="124"/>
-      <c r="C18" s="125"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="113"/>
       <c r="D18" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="7"/>
-      <c r="H18" s="120"/>
+      <c r="H18" s="131"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10" t="s">
         <v>64</v>
@@ -2467,13 +2485,13 @@
       <c r="A19" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="122" t="s">
+      <c r="B19" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="123"/>
+      <c r="C19" s="115"/>
       <c r="D19" s="3"/>
       <c r="E19" s="14"/>
-      <c r="H19" s="120"/>
+      <c r="H19" s="131"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10" t="s">
         <v>65</v>
@@ -2487,13 +2505,13 @@
       <c r="A20" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="124"/>
-      <c r="C20" s="125"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="113"/>
       <c r="D20" s="22" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="7"/>
-      <c r="H20" s="121"/>
+      <c r="H20" s="132"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12" t="s">
         <v>66</v>
@@ -2507,16 +2525,16 @@
       <c r="A21" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="122" t="s">
+      <c r="B21" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="123"/>
+      <c r="C21" s="115"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="H21" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="116" t="s">
+      <c r="I21" s="127" t="s">
         <v>26</v>
       </c>
       <c r="J21" s="31" t="s">
@@ -2531,10 +2549,10 @@
       <c r="A22" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="124" t="s">
+      <c r="B22" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="125"/>
+      <c r="C22" s="113"/>
       <c r="D22" s="5" t="s">
         <v>33</v>
       </c>
@@ -2542,7 +2560,7 @@
       <c r="H22" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="I22" s="117"/>
+      <c r="I22" s="128"/>
       <c r="J22" s="21" t="s">
         <v>2</v>
       </c>
@@ -2570,7 +2588,7 @@
       <c r="H23" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="I23" s="118"/>
+      <c r="I23" s="129"/>
       <c r="J23" s="32" t="s">
         <v>68</v>
       </c>
@@ -2583,7 +2601,7 @@
       <c r="A24" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="116" t="s">
+      <c r="B24" s="127" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -2598,7 +2616,7 @@
       <c r="H24" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="I24" s="116" t="s">
+      <c r="I24" s="127" t="s">
         <v>13</v>
       </c>
       <c r="J24" s="31" t="s">
@@ -2615,7 +2633,7 @@
       <c r="A25" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="117"/>
+      <c r="B25" s="128"/>
       <c r="C25" s="10" t="s">
         <v>41</v>
       </c>
@@ -2628,7 +2646,7 @@
       <c r="H25" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="I25" s="117"/>
+      <c r="I25" s="128"/>
       <c r="J25" s="21" t="s">
         <v>81</v>
       </c>
@@ -2643,7 +2661,7 @@
       <c r="A26" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="118"/>
+      <c r="B26" s="129"/>
       <c r="C26" s="12" t="s">
         <v>42</v>
       </c>
@@ -2656,7 +2674,7 @@
       <c r="H26" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="I26" s="118"/>
+      <c r="I26" s="129"/>
       <c r="J26" s="32" t="s">
         <v>82</v>
       </c>
@@ -2704,6 +2722,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="H15:H20"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B24:B26"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B17:C17"/>
@@ -2720,20 +2752,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="H15:H20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2746,7 +2764,7 @@
   <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2777,208 +2795,216 @@
       <c r="E1" s="90"/>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="133" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="147" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="97" t="s">
+      <c r="D2" s="96" t="s">
         <v>107</v>
       </c>
       <c r="E2" s="90"/>
       <c r="F2" s="86"/>
-      <c r="G2" s="106" t="s">
+      <c r="G2" s="105" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="135"/>
-      <c r="B3" s="98" t="s">
+      <c r="A3" s="134"/>
+      <c r="B3" s="148" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="146" t="s">
         <v>158</v>
       </c>
-      <c r="D3" s="100" t="s">
+      <c r="D3" s="99" t="s">
         <v>108</v>
       </c>
       <c r="E3" s="90"/>
       <c r="F3" s="87"/>
-      <c r="G3" s="107" t="s">
+      <c r="G3" s="106" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="135"/>
-      <c r="B4" s="98" t="s">
+      <c r="A4" s="134"/>
+      <c r="B4" s="97" t="s">
         <v>153</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="98" t="s">
         <v>153</v>
       </c>
-      <c r="D4" s="100" t="s">
+      <c r="D4" s="99" t="s">
         <v>153</v>
       </c>
       <c r="E4" s="90"/>
       <c r="F4" s="88"/>
-      <c r="G4" s="108" t="s">
+      <c r="G4" s="107" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="136"/>
-      <c r="B5" s="98" t="s">
+      <c r="A5" s="135"/>
+      <c r="B5" s="97" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="98" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="100" t="s">
+      <c r="D5" s="99" t="s">
         <v>154</v>
       </c>
       <c r="E5" s="90"/>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="103" t="s">
         <v>151</v>
       </c>
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="97" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="99" t="s">
+      <c r="C6" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="100" t="s">
+      <c r="D6" s="99" t="s">
         <v>117</v>
       </c>
       <c r="E6" s="90"/>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="103" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="97" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="99" t="s">
+      <c r="C7" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="100" t="s">
+      <c r="D7" s="99" t="s">
         <v>120</v>
       </c>
       <c r="E7" s="90"/>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="103" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="97" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="99" t="s">
+      <c r="C8" s="98" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="100" t="s">
+      <c r="D8" s="99" t="s">
         <v>121</v>
       </c>
       <c r="E8" s="90"/>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="103" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="97" t="s">
         <v>123</v>
       </c>
-      <c r="C9" s="99" t="s">
+      <c r="C9" s="98" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="100" t="s">
+      <c r="D9" s="99" t="s">
         <v>160</v>
       </c>
       <c r="E9" s="90"/>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="103" t="s">
         <v>144</v>
       </c>
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="97" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="99" t="s">
+      <c r="C10" s="98" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="100" t="s">
+      <c r="D10" s="99" t="s">
         <v>161</v>
       </c>
       <c r="E10" s="90"/>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="103" t="s">
         <v>145</v>
       </c>
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="97" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="99" t="s">
+      <c r="C11" s="98" t="s">
         <v>114</v>
       </c>
-      <c r="D11" s="100" t="s">
+      <c r="D11" s="99" t="s">
         <v>162</v>
       </c>
       <c r="E11" s="90"/>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="104" t="s">
+      <c r="A12" s="103" t="s">
         <v>146</v>
       </c>
-      <c r="B12" s="98"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="100" t="s">
+      <c r="B12" s="97" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="98" t="s">
+        <v>169</v>
+      </c>
+      <c r="D12" s="99" t="s">
         <v>163</v>
       </c>
       <c r="E12" s="90"/>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="104" t="s">
+      <c r="A13" s="103" t="s">
         <v>147</v>
       </c>
-      <c r="B13" s="98"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="100" t="s">
+      <c r="B13" s="97" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="98" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="99" t="s">
         <v>164</v>
       </c>
       <c r="E13" s="90"/>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="104" t="s">
+      <c r="A14" s="103" t="s">
         <v>148</v>
       </c>
-      <c r="B14" s="98"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="100"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="99"/>
       <c r="E14" s="90"/>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="104" t="s">
+      <c r="A15" s="103" t="s">
         <v>149</v>
       </c>
-      <c r="B15" s="98"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="100"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="99"/>
       <c r="E15" s="90"/>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="105" t="s">
+      <c r="A16" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="B16" s="101"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="103"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="102"/>
       <c r="E16" s="90"/>
     </row>
     <row r="17" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3140,26 +3166,26 @@
   <sheetData>
     <row r="2" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="137" t="s">
+      <c r="C3" s="136" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="139"/>
-      <c r="L3" s="143" t="s">
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="138"/>
+      <c r="L3" s="142" t="s">
         <v>137</v>
       </c>
-      <c r="M3" s="144"/>
-      <c r="N3" s="145"/>
-      <c r="O3" s="145"/>
-      <c r="P3" s="145"/>
-      <c r="Q3" s="145"/>
-      <c r="R3" s="145"/>
-      <c r="S3" s="145"/>
-      <c r="T3" s="146"/>
+      <c r="M3" s="143"/>
+      <c r="N3" s="144"/>
+      <c r="O3" s="144"/>
+      <c r="P3" s="144"/>
+      <c r="Q3" s="144"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="144"/>
+      <c r="T3" s="145"/>
     </row>
     <row r="4" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="60" t="s">
@@ -3249,7 +3275,7 @@
       <c r="D7" s="45">
         <v>25</v>
       </c>
-      <c r="E7" s="109">
+      <c r="E7" s="108">
         <v>26</v>
       </c>
       <c r="F7" s="45">
@@ -3261,22 +3287,22 @@
       <c r="H7" s="81">
         <v>1</v>
       </c>
-      <c r="I7" s="110">
+      <c r="I7" s="109">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="140" t="s">
+      <c r="C10" s="139" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="141"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="141"/>
-      <c r="H10" s="141"/>
-      <c r="I10" s="142"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="140"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="141"/>
     </row>
     <row r="11" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="65" t="s">
@@ -3435,15 +3461,15 @@
     <row r="18" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="140" t="s">
+      <c r="C20" s="139" t="s">
         <v>125</v>
       </c>
-      <c r="D20" s="141"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="141"/>
-      <c r="G20" s="141"/>
-      <c r="H20" s="141"/>
-      <c r="I20" s="142"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="140"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="141"/>
     </row>
     <row r="21" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="65" t="s">

--- a/vak vezet vilagtalant.xlsx
+++ b/vak vezet vilagtalant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\VIZSGAREMEK\Vizsgaremek-D-K-B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C124889-3A93-41A8-BF25-5C92D3BF1611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB88D99-0365-41BD-A84F-D98FA15E53A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IP címek" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="209">
   <si>
     <t>192.168.1.0</t>
   </si>
   <si>
-    <t>192.168.1.0/27</t>
-  </si>
-  <si>
     <t>Dolgozók</t>
   </si>
   <si>
@@ -98,33 +95,15 @@
     <t>Üzlethelység</t>
   </si>
   <si>
-    <t>192.168.1.32/27</t>
-  </si>
-  <si>
     <t>Vezetőség</t>
   </si>
   <si>
     <t>192.168.1.64/27</t>
   </si>
   <si>
-    <t>192.168.1.96/27</t>
-  </si>
-  <si>
-    <t>192.168.1.128/29</t>
-  </si>
-  <si>
-    <t>192.168.1.132</t>
-  </si>
-  <si>
     <t>Switchek</t>
   </si>
   <si>
-    <t>192.168.1.136/29</t>
-  </si>
-  <si>
-    <t>192.168.1.137-8-9</t>
-  </si>
-  <si>
     <t>192.168.2.0/26</t>
   </si>
   <si>
@@ -149,18 +128,6 @@
     <t>11.0.0.8/30</t>
   </si>
   <si>
-    <t>S1R1-S1R2</t>
-  </si>
-  <si>
-    <t>S1R2-S1R3</t>
-  </si>
-  <si>
-    <t>S1R1-S1R3</t>
-  </si>
-  <si>
-    <t>S1SW1,2,3</t>
-  </si>
-  <si>
     <t>S2R2 - S2R3</t>
   </si>
   <si>
@@ -188,15 +155,6 @@
     <t>S2R1 g2/0 - S2R3 g2/0</t>
   </si>
   <si>
-    <t>S1R1 g0/0 - S1R2 g0/0</t>
-  </si>
-  <si>
-    <t>S1R2 g1/0 - S1R3 g1/0</t>
-  </si>
-  <si>
-    <t>S1R1 g2/0 - S1R3 g2/0</t>
-  </si>
-  <si>
     <t>192.168.2.104/29</t>
   </si>
   <si>
@@ -353,9 +311,6 @@
     <t>SITE 2</t>
   </si>
   <si>
-    <t>SITE 1</t>
-  </si>
-  <si>
     <t>ip tervezés</t>
   </si>
   <si>
@@ -552,6 +507,162 @@
   </si>
   <si>
     <t>wlc</t>
+  </si>
+  <si>
+    <t>17 sima dolgo</t>
+  </si>
+  <si>
+    <t>7 vezető</t>
+  </si>
+  <si>
+    <t>4 rendszergazda</t>
+  </si>
+  <si>
+    <t>/26</t>
+  </si>
+  <si>
+    <t>/28</t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>32 dolgozo vezetek nelkuli</t>
+  </si>
+  <si>
+    <t>16 vendég vezetek nelkuli</t>
+  </si>
+  <si>
+    <t>/27</t>
+  </si>
+  <si>
+    <t>192.168.1.1</t>
+  </si>
+  <si>
+    <t>192.168.1.63</t>
+  </si>
+  <si>
+    <t>192.168.1.64</t>
+  </si>
+  <si>
+    <t>255.255.255.192</t>
+  </si>
+  <si>
+    <t>192.168.1.62</t>
+  </si>
+  <si>
+    <t>192.168.1.96</t>
+  </si>
+  <si>
+    <t>192.168.1.112</t>
+  </si>
+  <si>
+    <t>192.168.1.128</t>
+  </si>
+  <si>
+    <t>192.168.1.95</t>
+  </si>
+  <si>
+    <t>192.168.1.111</t>
+  </si>
+  <si>
+    <t>192.168.1.127</t>
+  </si>
+  <si>
+    <t>192.168.1.143</t>
+  </si>
+  <si>
+    <t>192.168.1.65</t>
+  </si>
+  <si>
+    <t>192.168.1.94</t>
+  </si>
+  <si>
+    <t>192.168.1.97</t>
+  </si>
+  <si>
+    <t>192.168.1.110</t>
+  </si>
+  <si>
+    <t>192.168.1.113</t>
+  </si>
+  <si>
+    <t>192.168.1.126</t>
+  </si>
+  <si>
+    <t>192.168.1.129</t>
+  </si>
+  <si>
+    <t>192.168.1.142</t>
+  </si>
+  <si>
+    <t>255.255.255.224</t>
+  </si>
+  <si>
+    <t>255.255.255.240</t>
+  </si>
+  <si>
+    <t>192.168.1.0/26</t>
+  </si>
+  <si>
+    <t>Vezeték nélküli címek a vezetőségnek</t>
+  </si>
+  <si>
+    <t>192.168.1.96/28</t>
+  </si>
+  <si>
+    <t>192.168.1.112/28</t>
+  </si>
+  <si>
+    <t>Rendszergazdák + szerverek</t>
+  </si>
+  <si>
+    <t>DHCP + static</t>
+  </si>
+  <si>
+    <t>192.168.1.128/28</t>
+  </si>
+  <si>
+    <t>Vendég vezeték nélküli</t>
+  </si>
+  <si>
+    <t>G1SS1</t>
+  </si>
+  <si>
+    <t>G1SS2</t>
+  </si>
+  <si>
+    <t>G1SS3</t>
+  </si>
+  <si>
+    <t>10.0.0.12/30</t>
+  </si>
+  <si>
+    <t>G1SS1-R1 &lt;-&gt; G1SS1-R2</t>
+  </si>
+  <si>
+    <t>G1SS1-R1 &lt;-&gt; G1SS1-R3</t>
+  </si>
+  <si>
+    <t>G1SS1-R2 &lt;-&gt; G1SS1-R4</t>
+  </si>
+  <si>
+    <t>G1SS1-R3 &lt;-&gt; G1SS1-R4</t>
+  </si>
+  <si>
+    <t>10.0.0.13 , 10.0.0.14</t>
+  </si>
+  <si>
+    <t>G1SS1-R1 g0/2/0 &lt;-&gt; G1SS1-R2 g0/0/0</t>
+  </si>
+  <si>
+    <t>G1SS1-R1 g0/0/0 &lt;-&gt; G1SS1-R3 g0/0/0</t>
+  </si>
+  <si>
+    <t>G1SS1-R2 g0/2/0 &lt;-&gt; G1SS1-R4 g0/2/0</t>
+  </si>
+  <si>
+    <t>G1SS1-R3 g0/1/0 &lt;-&gt; G1SS1-R4 g0/1/0</t>
   </si>
 </sst>
 </file>
@@ -1384,7 +1495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1410,9 +1521,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1422,9 +1530,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1450,12 +1555,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1695,27 +1794,72 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1728,40 +1872,10 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1803,14 +1917,56 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2131,602 +2287,750 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="38" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="38"/>
-    <col min="8" max="8" width="16" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="38" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.28515625" style="38" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="38" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" style="38" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="38"/>
+    <col min="1" max="1" width="24.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="34" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" style="34" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="34" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.28515625" style="34" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="34" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="9.140625" style="34"/>
+    <col min="17" max="17" width="21.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="119" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="117" t="s">
+    <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="130" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="130"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="118"/>
-      <c r="H1" s="40" t="s">
+      <c r="E1" s="129"/>
+      <c r="H1" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="113" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="114"/>
+    </row>
+    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="132" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="150" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="151"/>
+      <c r="D2" s="149" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="H2" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="P2" s="34" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="133"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="5"/>
+      <c r="H3" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="P3" s="34" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="132" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="150" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="151"/>
+      <c r="D4" s="149" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="H4" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="J1" s="110" t="s">
-        <v>91</v>
-      </c>
-      <c r="K1" s="111"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="P4" s="34" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="133"/>
+      <c r="B5" s="152"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" s="157" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="158"/>
+      <c r="D6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="132" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" s="150" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="151"/>
+      <c r="D7" s="149" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" s="160"/>
+    </row>
+    <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="133"/>
+      <c r="B8" s="152"/>
+      <c r="C8" s="153"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="161"/>
+    </row>
+    <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="132" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="154" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" s="155"/>
+      <c r="D9" s="159" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="133"/>
+      <c r="B10" s="156"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="150" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="107" t="s">
+        <v>200</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="H11" s="113" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" s="115"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="113" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="114"/>
+    </row>
+    <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="162"/>
+      <c r="C12" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="116" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="117"/>
+      <c r="K12" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="22"/>
+    </row>
+    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="162"/>
+      <c r="C13" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="117"/>
+      <c r="K13" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="22"/>
+    </row>
+    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="109" t="s">
+        <v>199</v>
+      </c>
+      <c r="B14" s="152"/>
+      <c r="C14" s="106" t="s">
+        <v>203</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="H2" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="I2" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="5" t="s">
+      <c r="J14" s="117"/>
+      <c r="K14" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="22"/>
+    </row>
+    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="121" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="H3" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="114" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="115"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-      <c r="H4" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="I4" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="123" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="124"/>
-      <c r="D6" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="26"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="123" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="124"/>
-      <c r="D7" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="26"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="125" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="121" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="122"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="126"/>
-      <c r="B9" s="112" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="113"/>
-      <c r="D9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="127" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="110" t="s">
-        <v>129</v>
-      </c>
-      <c r="I11" s="116"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="L11" s="111"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="128"/>
-      <c r="C12" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" s="123" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="124"/>
-      <c r="K12" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="L12" s="26"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="129"/>
-      <c r="C13" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="I13" s="123" t="s">
-        <v>9</v>
-      </c>
-      <c r="J13" s="124"/>
-      <c r="K13" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="L13" s="26"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H14" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="I14" s="123" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" s="124"/>
-      <c r="K14" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="26"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H15" s="130" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" s="114" t="s">
-        <v>7</v>
-      </c>
-      <c r="J15" s="115"/>
+      <c r="J15" s="125"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="110" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" s="116"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="116" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="111"/>
-      <c r="H16" s="131"/>
+    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="113" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="115"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="115" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="114"/>
+      <c r="H16" s="122"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="124" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="125"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="12"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="126"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="114" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="115"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="14"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="112"/>
-      <c r="C18" s="113"/>
-      <c r="D18" s="5" t="s">
+      <c r="C19" s="125"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="12"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="126"/>
+      <c r="C20" s="127"/>
+      <c r="D20" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="H18" s="131"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="114" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="115"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="14"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="112"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="H20" s="132"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="114" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="115"/>
+      <c r="C21" s="125"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="H21" s="33" t="s">
+      <c r="H21" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" s="118" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="126" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="127"/>
+      <c r="D22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="H22" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" s="119"/>
+      <c r="J22" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="127" t="s">
-        <v>26</v>
-      </c>
-      <c r="J21" s="31" t="s">
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="C23" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" s="120"/>
+      <c r="J23" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="118" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" s="118" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="119"/>
+      <c r="C25" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="I25" s="119"/>
+      <c r="J25" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="120"/>
+      <c r="C26" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" s="120"/>
+      <c r="J26" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L26" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
+    </row>
+    <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="34" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="B31" s="34">
+        <v>64</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="147" t="s">
+        <v>166</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="G31" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="H31" s="34" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="B32" s="34">
         <v>32</v>
       </c>
-      <c r="B22" s="112" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="113"/>
-      <c r="D22" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="H22" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="I22" s="128"/>
-      <c r="J22" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="L22" s="4"/>
-    </row>
-    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H23" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="I23" s="129"/>
-      <c r="J23" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="L23" s="5"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="127" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H24" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="I24" s="127" t="s">
-        <v>13</v>
-      </c>
-      <c r="J24" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="128"/>
-      <c r="C25" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H25" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="I25" s="128"/>
-      <c r="J25" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="L25" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="129"/>
-      <c r="C26" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="H26" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="I26" s="129"/>
-      <c r="J26" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="L26" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="O32" s="39"/>
-    </row>
-    <row r="33" spans="9:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="O33" s="39"/>
-    </row>
-    <row r="34" spans="9:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="O34" s="39"/>
-    </row>
-    <row r="35" spans="9:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I35" s="39"/>
-      <c r="L35" s="39"/>
-      <c r="O35" s="39"/>
-    </row>
-    <row r="36" spans="9:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I36" s="39"/>
-      <c r="L36" s="39"/>
-      <c r="O36" s="39"/>
-    </row>
-    <row r="37" spans="9:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="O37" s="39"/>
-    </row>
-    <row r="38" spans="9:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I38" s="39"/>
-      <c r="L38" s="39"/>
-      <c r="O38" s="39"/>
+      <c r="C32" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="E32" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="G32" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="H32" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="K32" s="35"/>
+      <c r="N32" s="35"/>
+    </row>
+    <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="B33" s="34">
+        <v>16</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="E33" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="G33" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="H33" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="K33" s="35"/>
+      <c r="N33" s="35"/>
+    </row>
+    <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="B34" s="34">
+        <v>16</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="G34" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="H34" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="K34" s="35"/>
+      <c r="N34" s="35"/>
+    </row>
+    <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="34">
+        <v>16</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="G35" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="H35" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="K35" s="35"/>
+      <c r="N35" s="35"/>
+    </row>
+    <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="O37" s="35"/>
+    </row>
+    <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="O38" s="35"/>
+    </row>
+    <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="O39" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="H15:H20"/>
+  <mergeCells count="35">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="I14:J14"/>
@@ -2736,22 +3040,11 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B24:B26"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="H15:H20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2763,8 +3056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2780,363 +3073,355 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="88" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="89" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="90" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="86"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="134" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="111" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="86"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="101" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="93" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="135"/>
+      <c r="B3" s="112" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="110" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="95" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="86"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="102" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="135"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="95" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="86"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="103" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="136"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="95" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="86"/>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="99" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="93" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="94" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="95" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="86"/>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="99" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="93" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="94" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="95" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="86"/>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="99" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="93" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1" s="94" t="s">
+      <c r="B8" s="93" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="95" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="86"/>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="99" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="90"/>
-    </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="133" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" s="147" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="95" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="96" t="s">
-        <v>107</v>
-      </c>
-      <c r="E2" s="90"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="105" t="s">
+      <c r="B9" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="94" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="95" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" s="86"/>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="99" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="94" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="95" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="86"/>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="99" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="94" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="95" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="86"/>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="99" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="93" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="94" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="95" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" s="86"/>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="99" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="93" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="134"/>
-      <c r="B3" s="148" t="s">
-        <v>167</v>
-      </c>
-      <c r="C3" s="146" t="s">
-        <v>158</v>
-      </c>
-      <c r="D3" s="99" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" s="90"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="106" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="134"/>
-      <c r="B4" s="97" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" s="98" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" s="99" t="s">
-        <v>153</v>
-      </c>
-      <c r="E4" s="90"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="107" t="s">
+      <c r="C13" s="94" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="135"/>
-      <c r="B5" s="97" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" s="98" t="s">
-        <v>154</v>
-      </c>
-      <c r="D5" s="99" t="s">
-        <v>154</v>
-      </c>
-      <c r="E5" s="90"/>
-    </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="103" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="97" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="98" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="99" t="s">
-        <v>117</v>
-      </c>
-      <c r="E6" s="90"/>
-    </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="103" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" s="97" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="98" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="99" t="s">
-        <v>120</v>
-      </c>
-      <c r="E7" s="90"/>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="103" t="s">
-        <v>142</v>
-      </c>
-      <c r="B8" s="97" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="98" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" s="99" t="s">
-        <v>121</v>
-      </c>
-      <c r="E8" s="90"/>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="103" t="s">
-        <v>143</v>
-      </c>
-      <c r="B9" s="97" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="98" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="99" t="s">
-        <v>160</v>
-      </c>
-      <c r="E9" s="90"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="103" t="s">
-        <v>144</v>
-      </c>
-      <c r="B10" s="97" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="98" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" s="99" t="s">
-        <v>161</v>
-      </c>
-      <c r="E10" s="90"/>
-    </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="103" t="s">
-        <v>145</v>
-      </c>
-      <c r="B11" s="97" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="98" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11" s="99" t="s">
-        <v>162</v>
-      </c>
-      <c r="E11" s="90"/>
-    </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="103" t="s">
-        <v>146</v>
-      </c>
-      <c r="B12" s="97" t="s">
-        <v>168</v>
-      </c>
-      <c r="C12" s="98" t="s">
-        <v>169</v>
-      </c>
-      <c r="D12" s="99" t="s">
-        <v>163</v>
-      </c>
-      <c r="E12" s="90"/>
-    </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="103" t="s">
-        <v>147</v>
-      </c>
-      <c r="B13" s="97" t="s">
-        <v>170</v>
-      </c>
-      <c r="C13" s="98" t="s">
-        <v>171</v>
-      </c>
-      <c r="D13" s="99" t="s">
-        <v>164</v>
-      </c>
-      <c r="E13" s="90"/>
+      <c r="D13" s="95" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" s="86"/>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="103" t="s">
-        <v>148</v>
-      </c>
-      <c r="B14" s="97"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="90"/>
+      <c r="A14" s="99" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="93"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="86"/>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="103" t="s">
-        <v>149</v>
-      </c>
-      <c r="B15" s="97"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="90"/>
+      <c r="A15" s="99" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="93"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="86"/>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="104" t="s">
-        <v>150</v>
-      </c>
-      <c r="B16" s="100"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="90"/>
+      <c r="A16" s="100" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="96"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="86"/>
     </row>
     <row r="17" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="90"/>
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="89"/>
-      <c r="N17" s="89"/>
+      <c r="A17" s="86"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="85"/>
     </row>
     <row r="18" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="90"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
+      <c r="A18" s="86"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="86"/>
     </row>
     <row r="19" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="90"/>
-      <c r="B19" s="90"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
+      <c r="A19" s="86"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
     </row>
     <row r="20" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="90"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
+      <c r="A20" s="86"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
     </row>
     <row r="21" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="90"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
+      <c r="A21" s="86"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
     </row>
     <row r="22" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="90"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
+      <c r="A22" s="86"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
     </row>
     <row r="23" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="90"/>
-      <c r="B23" s="90"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
     </row>
     <row r="24" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="90"/>
-      <c r="B24" s="90"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
+      <c r="A24" s="86"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
     </row>
     <row r="25" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="90"/>
-      <c r="B25" s="90"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
+      <c r="A25" s="86"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
     </row>
     <row r="26" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="90"/>
-      <c r="B26" s="90"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
+      <c r="A26" s="86"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
     </row>
     <row r="27" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="90"/>
-      <c r="B27" s="90"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
+      <c r="A27" s="86"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
     </row>
     <row r="28" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="90"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
+      <c r="A28" s="86"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
     </row>
     <row r="29" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="90"/>
-      <c r="B29" s="90"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
+      <c r="A29" s="86"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
     </row>
     <row r="30" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="90"/>
-      <c r="B30" s="90"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
+      <c r="A30" s="86"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
     </row>
     <row r="31" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="90"/>
-      <c r="B31" s="90"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
+      <c r="A31" s="86"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
     </row>
     <row r="32" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="90"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
+      <c r="A32" s="86"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
     </row>
     <row r="33" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="90"/>
-      <c r="B33" s="90"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="90"/>
+      <c r="A33" s="86"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
     </row>
     <row r="39" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I39" s="90"/>
+      <c r="I39" s="86"/>
     </row>
     <row r="45" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I45" s="91"/>
+      <c r="I45" s="87"/>
     </row>
     <row r="46" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I46" s="91"/>
+      <c r="I46" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3166,447 +3451,447 @@
   <sheetData>
     <row r="2" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="136" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="138"/>
-      <c r="L3" s="142" t="s">
-        <v>137</v>
-      </c>
-      <c r="M3" s="143"/>
-      <c r="N3" s="144"/>
-      <c r="O3" s="144"/>
-      <c r="P3" s="144"/>
-      <c r="Q3" s="144"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="144"/>
-      <c r="T3" s="145"/>
+      <c r="C3" s="137" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="139"/>
+      <c r="L3" s="143" t="s">
+        <v>122</v>
+      </c>
+      <c r="M3" s="144"/>
+      <c r="N3" s="145"/>
+      <c r="O3" s="145"/>
+      <c r="P3" s="145"/>
+      <c r="Q3" s="145"/>
+      <c r="R3" s="145"/>
+      <c r="S3" s="145"/>
+      <c r="T3" s="146"/>
     </row>
     <row r="4" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="60" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" s="61" t="s">
-        <v>131</v>
-      </c>
-      <c r="E4" s="61" t="s">
-        <v>132</v>
-      </c>
-      <c r="F4" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="G4" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="H4" s="63" t="s">
-        <v>135</v>
-      </c>
-      <c r="I4" s="64" t="s">
-        <v>136</v>
-      </c>
-      <c r="L4" s="70" t="s">
-        <v>138</v>
-      </c>
-      <c r="M4" s="71"/>
+      <c r="C4" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="I4" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="L4" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="M4" s="67"/>
     </row>
     <row r="5" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="47">
+      <c r="C5" s="43">
         <v>10</v>
       </c>
-      <c r="D5" s="48">
+      <c r="D5" s="44">
         <v>11</v>
       </c>
-      <c r="E5" s="82">
+      <c r="E5" s="78">
         <v>12</v>
       </c>
-      <c r="F5" s="48">
+      <c r="F5" s="44">
         <v>13</v>
       </c>
-      <c r="G5" s="49">
+      <c r="G5" s="45">
         <v>14</v>
       </c>
-      <c r="H5" s="56">
+      <c r="H5" s="52">
         <v>15</v>
       </c>
-      <c r="I5" s="83">
+      <c r="I5" s="79">
         <v>16</v>
       </c>
-      <c r="L5" s="72" t="s">
-        <v>127</v>
-      </c>
-      <c r="M5" s="73"/>
+      <c r="L5" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="M5" s="69"/>
     </row>
     <row r="6" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="42">
+      <c r="C6" s="38">
         <v>17</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="37">
         <v>18</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="37">
         <v>19</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="37">
         <v>20</v>
       </c>
-      <c r="G6" s="50">
+      <c r="G6" s="46">
         <v>21</v>
       </c>
-      <c r="H6" s="54">
+      <c r="H6" s="50">
         <v>22</v>
       </c>
-      <c r="I6" s="43">
+      <c r="I6" s="39">
         <v>23</v>
       </c>
-      <c r="L6" s="74" t="s">
-        <v>128</v>
-      </c>
-      <c r="M6" s="75"/>
+      <c r="L6" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="M6" s="71"/>
     </row>
     <row r="7" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="44">
+      <c r="C7" s="40">
         <v>24</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="41">
         <v>25</v>
       </c>
-      <c r="E7" s="108">
+      <c r="E7" s="104">
         <v>26</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="41">
         <v>27</v>
       </c>
-      <c r="G7" s="80">
+      <c r="G7" s="76">
         <v>28</v>
       </c>
-      <c r="H7" s="81">
+      <c r="H7" s="77">
         <v>1</v>
       </c>
-      <c r="I7" s="109">
+      <c r="I7" s="105">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="139" t="s">
+      <c r="C10" s="140" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="142"/>
+    </row>
+    <row r="11" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="140"/>
-      <c r="E10" s="140"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="141"/>
-    </row>
-    <row r="11" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="65" t="s">
-        <v>130</v>
-      </c>
-      <c r="D11" s="66" t="s">
-        <v>131</v>
-      </c>
-      <c r="E11" s="66" t="s">
-        <v>132</v>
-      </c>
-      <c r="F11" s="66" t="s">
-        <v>133</v>
-      </c>
-      <c r="G11" s="67" t="s">
-        <v>134</v>
-      </c>
-      <c r="H11" s="68" t="s">
-        <v>135</v>
-      </c>
-      <c r="I11" s="69" t="s">
-        <v>136</v>
+      <c r="D11" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="H11" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="I11" s="65" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="52">
+      <c r="C12" s="53"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="48">
         <v>1</v>
       </c>
-      <c r="I12" s="53">
+      <c r="I12" s="49">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="76">
+      <c r="C13" s="72">
         <v>3</v>
       </c>
-      <c r="D13" s="77">
+      <c r="D13" s="73">
         <v>4</v>
       </c>
-      <c r="E13" s="77">
+      <c r="E13" s="73">
         <v>5</v>
       </c>
-      <c r="F13" s="77">
+      <c r="F13" s="73">
         <v>6</v>
       </c>
-      <c r="G13" s="78">
+      <c r="G13" s="74">
         <v>7</v>
       </c>
-      <c r="H13" s="76">
+      <c r="H13" s="72">
         <v>8</v>
       </c>
-      <c r="I13" s="79">
+      <c r="I13" s="75">
         <v>9</v>
       </c>
       <c r="K13" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="42">
+      <c r="C14" s="38">
         <v>10</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="37">
         <v>11</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="37">
         <v>12</v>
       </c>
-      <c r="F14" s="41">
+      <c r="F14" s="37">
         <v>13</v>
       </c>
-      <c r="G14" s="50">
+      <c r="G14" s="46">
         <v>14</v>
       </c>
-      <c r="H14" s="54">
+      <c r="H14" s="50">
         <v>15</v>
       </c>
-      <c r="I14" s="43">
+      <c r="I14" s="39">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="42">
+      <c r="C15" s="38">
         <v>17</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="37">
         <v>18</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E15" s="37">
         <v>19</v>
       </c>
-      <c r="F15" s="41">
+      <c r="F15" s="37">
         <v>20</v>
       </c>
-      <c r="G15" s="50">
+      <c r="G15" s="46">
         <v>21</v>
       </c>
-      <c r="H15" s="54">
+      <c r="H15" s="50">
         <v>22</v>
       </c>
-      <c r="I15" s="43">
+      <c r="I15" s="39">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="42">
+      <c r="C16" s="38">
         <v>24</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="37">
         <v>25</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="37">
         <v>26</v>
       </c>
-      <c r="F16" s="41">
+      <c r="F16" s="37">
         <v>27</v>
       </c>
-      <c r="G16" s="50">
+      <c r="G16" s="46">
         <v>28</v>
       </c>
-      <c r="H16" s="54">
+      <c r="H16" s="50">
         <v>29</v>
       </c>
-      <c r="I16" s="43">
+      <c r="I16" s="39">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="44">
+      <c r="C17" s="40">
         <v>31</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="41">
         <v>1</v>
       </c>
-      <c r="E17" s="45">
+      <c r="E17" s="41">
         <v>2</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="41">
         <v>3</v>
       </c>
-      <c r="G17" s="51">
+      <c r="G17" s="47">
         <v>4</v>
       </c>
-      <c r="H17" s="55">
+      <c r="H17" s="51">
         <v>5</v>
       </c>
-      <c r="I17" s="46">
+      <c r="I17" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="139" t="s">
-        <v>125</v>
-      </c>
-      <c r="D20" s="140"/>
-      <c r="E20" s="140"/>
-      <c r="F20" s="140"/>
-      <c r="G20" s="140"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="141"/>
+      <c r="C20" s="140" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="141"/>
+      <c r="I20" s="142"/>
     </row>
     <row r="21" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="65" t="s">
-        <v>130</v>
-      </c>
-      <c r="D21" s="66" t="s">
-        <v>131</v>
-      </c>
-      <c r="E21" s="66" t="s">
-        <v>132</v>
-      </c>
-      <c r="F21" s="66" t="s">
-        <v>133</v>
-      </c>
-      <c r="G21" s="67" t="s">
-        <v>134</v>
-      </c>
-      <c r="H21" s="68" t="s">
-        <v>135</v>
-      </c>
-      <c r="I21" s="69" t="s">
-        <v>136</v>
+      <c r="C21" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="H21" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="I21" s="65" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="57"/>
-      <c r="D22" s="58">
+      <c r="C22" s="53"/>
+      <c r="D22" s="54">
         <v>1</v>
       </c>
-      <c r="E22" s="58">
+      <c r="E22" s="54">
         <v>2</v>
       </c>
-      <c r="F22" s="58">
+      <c r="F22" s="54">
         <v>3</v>
       </c>
-      <c r="G22" s="59">
+      <c r="G22" s="55">
         <v>4</v>
       </c>
-      <c r="H22" s="52">
+      <c r="H22" s="48">
         <v>5</v>
       </c>
-      <c r="I22" s="53">
+      <c r="I22" s="49">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="42">
+      <c r="C23" s="38">
         <v>7</v>
       </c>
-      <c r="D23" s="41">
+      <c r="D23" s="37">
         <v>8</v>
       </c>
-      <c r="E23" s="41">
+      <c r="E23" s="37">
         <v>9</v>
       </c>
-      <c r="F23" s="41">
+      <c r="F23" s="37">
         <v>10</v>
       </c>
-      <c r="G23" s="50">
+      <c r="G23" s="46">
         <v>11</v>
       </c>
-      <c r="H23" s="54">
+      <c r="H23" s="50">
         <v>12</v>
       </c>
-      <c r="I23" s="43">
+      <c r="I23" s="39">
         <v>13</v>
       </c>
     </row>
     <row r="24" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="42">
+      <c r="C24" s="38">
         <v>14</v>
       </c>
-      <c r="D24" s="41">
+      <c r="D24" s="37">
         <v>15</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24" s="37">
         <v>16</v>
       </c>
-      <c r="F24" s="41">
+      <c r="F24" s="37">
         <v>17</v>
       </c>
-      <c r="G24" s="50">
+      <c r="G24" s="46">
         <v>18</v>
       </c>
-      <c r="H24" s="54">
+      <c r="H24" s="50">
         <v>19</v>
       </c>
-      <c r="I24" s="43">
+      <c r="I24" s="39">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="42">
+      <c r="C25" s="38">
         <v>21</v>
       </c>
-      <c r="D25" s="41">
+      <c r="D25" s="37">
         <v>22</v>
       </c>
-      <c r="E25" s="41">
+      <c r="E25" s="37">
         <v>23</v>
       </c>
-      <c r="F25" s="77">
+      <c r="F25" s="73">
         <v>24</v>
       </c>
-      <c r="G25" s="78">
+      <c r="G25" s="74">
         <v>25</v>
       </c>
-      <c r="H25" s="76">
+      <c r="H25" s="72">
         <v>26</v>
       </c>
-      <c r="I25" s="79">
+      <c r="I25" s="75">
         <v>27</v>
       </c>
       <c r="K25" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="84">
+      <c r="C26" s="80">
         <v>28</v>
       </c>
-      <c r="D26" s="85">
+      <c r="D26" s="81">
         <v>29</v>
       </c>
-      <c r="E26" s="45">
+      <c r="E26" s="41">
         <v>30</v>
       </c>
-      <c r="F26" s="45">
+      <c r="F26" s="41">
         <v>1</v>
       </c>
-      <c r="G26" s="51">
+      <c r="G26" s="47">
         <v>2</v>
       </c>
-      <c r="H26" s="55">
+      <c r="H26" s="51">
         <v>3</v>
       </c>
-      <c r="I26" s="46">
+      <c r="I26" s="42">
         <v>4</v>
       </c>
     </row>

--- a/vak vezet vilagtalant.xlsx
+++ b/vak vezet vilagtalant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\VIZSGAREMEK\Vizsgaremek-D-K-B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB88D99-0365-41BD-A84F-D98FA15E53A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9E5B53-077E-48EB-BF91-879D1587516B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IP címek" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="153">
   <si>
     <t>192.168.1.0</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Dolgozók</t>
   </si>
   <si>
-    <t>30 kiosztható</t>
-  </si>
-  <si>
     <t>192.168.2.0</t>
   </si>
   <si>
@@ -56,12 +53,6 @@
     <t>DHCP a szervertől</t>
   </si>
   <si>
-    <t>Szerverek</t>
-  </si>
-  <si>
-    <t>DHCP</t>
-  </si>
-  <si>
     <t>WLC</t>
   </si>
   <si>
@@ -86,183 +77,12 @@
     <t>10.0.0.9 , 10.0.0.10</t>
   </si>
   <si>
-    <t>dhcp gondolom</t>
-  </si>
-  <si>
-    <t>62 kiosztható</t>
-  </si>
-  <si>
-    <t>Üzlethelység</t>
-  </si>
-  <si>
     <t>Vezetőség</t>
   </si>
   <si>
     <t>192.168.1.64/27</t>
   </si>
   <si>
-    <t>Switchek</t>
-  </si>
-  <si>
-    <t>192.168.2.0/26</t>
-  </si>
-  <si>
-    <t>192.168.2.64/27</t>
-  </si>
-  <si>
-    <t>192.168.2.96/29</t>
-  </si>
-  <si>
-    <t>6 kiosztható</t>
-  </si>
-  <si>
-    <t>192.168.2.98</t>
-  </si>
-  <si>
-    <t>11.0.0.0/30</t>
-  </si>
-  <si>
-    <t>11.0.0.4/30</t>
-  </si>
-  <si>
-    <t>11.0.0.8/30</t>
-  </si>
-  <si>
-    <t>S2R2 - S2R3</t>
-  </si>
-  <si>
-    <t>S2R1 - S2R3</t>
-  </si>
-  <si>
-    <t>S2R1 - S2R2</t>
-  </si>
-  <si>
-    <t>11.0.0.1 , 11.0.0.2</t>
-  </si>
-  <si>
-    <t>11.0.0.5 , 11.0.0.6</t>
-  </si>
-  <si>
-    <t>11.0.0.9 , 11.0.0.10</t>
-  </si>
-  <si>
-    <t>S2R1 g0/0 - S2R2 g0/0</t>
-  </si>
-  <si>
-    <t>S2R2 g1/0 - S2R3 g1/0</t>
-  </si>
-  <si>
-    <t>S2R1 g2/0 - S2R3 g2/0</t>
-  </si>
-  <si>
-    <t>192.168.2.104/29</t>
-  </si>
-  <si>
-    <t>S2SW1,2,3</t>
-  </si>
-  <si>
-    <t>192.168.2.107-8-9</t>
-  </si>
-  <si>
-    <t>Felügyelet vlan</t>
-  </si>
-  <si>
-    <t>192.168.3.0/26</t>
-  </si>
-  <si>
-    <t>192.168.3.64/26</t>
-  </si>
-  <si>
-    <t>192.168.3.128/27</t>
-  </si>
-  <si>
-    <t>192.168.3.160/28</t>
-  </si>
-  <si>
-    <t>192.168.3.176/29</t>
-  </si>
-  <si>
-    <t>192.168.3.184/29</t>
-  </si>
-  <si>
-    <t>FTP</t>
-  </si>
-  <si>
-    <t>MAIL</t>
-  </si>
-  <si>
-    <t>DNS</t>
-  </si>
-  <si>
-    <t>WEB</t>
-  </si>
-  <si>
-    <t>192.168.3.192/29</t>
-  </si>
-  <si>
-    <t>Szerverszoba</t>
-  </si>
-  <si>
-    <t>192.168.3.163</t>
-  </si>
-  <si>
-    <t>192.168.3.164</t>
-  </si>
-  <si>
-    <t>192.168.3.165</t>
-  </si>
-  <si>
-    <t>192.168.3.166</t>
-  </si>
-  <si>
-    <t>192.168.3.167</t>
-  </si>
-  <si>
-    <t>192.168.3.178</t>
-  </si>
-  <si>
-    <t>192.168.3.186</t>
-  </si>
-  <si>
-    <t>192.168.3.194</t>
-  </si>
-  <si>
-    <t>12.0.0.0/30</t>
-  </si>
-  <si>
-    <t>12.0.0.4/30</t>
-  </si>
-  <si>
-    <t>12.0.0.8/30</t>
-  </si>
-  <si>
-    <t>S3R1 - S3R2</t>
-  </si>
-  <si>
-    <t>S3R2 - S3R3</t>
-  </si>
-  <si>
-    <t>S3R1 - S3R3</t>
-  </si>
-  <si>
-    <t>12.0.0.1 - 12.0.0.2</t>
-  </si>
-  <si>
-    <t>12.0.0.5 - 12.0.0.6</t>
-  </si>
-  <si>
-    <t>12.0.0.9 - 12.0.0.10</t>
-  </si>
-  <si>
-    <t>S3R1 g0/0 - S3R2 g0/0</t>
-  </si>
-  <si>
-    <t>S3R2 g1/0 - S3R3 g1/0</t>
-  </si>
-  <si>
-    <t>S3R1 g2/0 - S3R3 g2/0</t>
-  </si>
-  <si>
     <t>20.20.20.0</t>
   </si>
   <si>
@@ -308,9 +128,6 @@
     <t>ISP 1 - ISP 3</t>
   </si>
   <si>
-    <t>SITE 2</t>
-  </si>
-  <si>
     <t>ip tervezés</t>
   </si>
   <si>
@@ -629,9 +446,6 @@
     <t>G1SS1</t>
   </si>
   <si>
-    <t>G1SS2</t>
-  </si>
-  <si>
     <t>G1SS3</t>
   </si>
   <si>
@@ -663,6 +477,24 @@
   </si>
   <si>
     <t>G1SS1-R3 g0/1/0 &lt;-&gt; G1SS1-R4 g0/1/0</t>
+  </si>
+  <si>
+    <t>4gep</t>
+  </si>
+  <si>
+    <t>4telefon</t>
+  </si>
+  <si>
+    <t>1 ap</t>
+  </si>
+  <si>
+    <t>1 sw</t>
+  </si>
+  <si>
+    <t>1 router</t>
+  </si>
+  <si>
+    <t>1 szerver</t>
   </si>
 </sst>
 </file>
@@ -1815,20 +1647,95 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1839,6 +1746,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1846,36 +1759,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1916,57 +1799,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2287,10 +2119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2312,552 +2144,393 @@
     <col min="18" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="130" t="s">
-        <v>196</v>
-      </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="128" t="s">
+    <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="139" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="139"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="129"/>
+      <c r="E1" s="138"/>
       <c r="H1" s="36" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="J1" s="113" t="s">
-        <v>77</v>
-      </c>
-      <c r="K1" s="114"/>
-    </row>
-    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="132" t="s">
-        <v>188</v>
-      </c>
-      <c r="B2" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="130" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="131"/>
+    </row>
+    <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="116" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="151"/>
-      <c r="D2" s="149" t="s">
-        <v>5</v>
+      <c r="C2" s="121"/>
+      <c r="D2" s="123" t="s">
+        <v>4</v>
       </c>
       <c r="E2" s="3"/>
       <c r="H2" s="24" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="P2" s="34" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="133"/>
-      <c r="B3" s="152"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="148"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="117"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="124"/>
       <c r="E3" s="5"/>
       <c r="H3" s="24" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="P3" s="34" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="132" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="150" t="s">
-        <v>189</v>
-      </c>
-      <c r="C4" s="151"/>
-      <c r="D4" s="149" t="s">
-        <v>8</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="116" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="118" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="121"/>
+      <c r="D4" s="123" t="s">
+        <v>5</v>
       </c>
       <c r="E4" s="4"/>
       <c r="H4" s="25" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="P4" s="34" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="133"/>
-      <c r="B5" s="152"/>
-      <c r="C5" s="153"/>
-      <c r="D5" s="148"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="117"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="124"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B6" s="157" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="158"/>
+        <v>129</v>
+      </c>
+      <c r="B6" s="141" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="142"/>
       <c r="D6" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="116" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="118" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="121"/>
+      <c r="D7" s="123" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="114"/>
+    </row>
+    <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="117"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="115"/>
+    </row>
+    <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="116" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="125" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="126"/>
+      <c r="D9" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="132" t="s">
-        <v>191</v>
-      </c>
-      <c r="B7" s="150" t="s">
-        <v>192</v>
-      </c>
-      <c r="C7" s="151"/>
-      <c r="D7" s="149" t="s">
-        <v>193</v>
-      </c>
-      <c r="E7" s="160"/>
-    </row>
-    <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="133"/>
-      <c r="B8" s="152"/>
-      <c r="C8" s="153"/>
-      <c r="D8" s="148"/>
-      <c r="E8" s="161"/>
-    </row>
-    <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="132" t="s">
-        <v>194</v>
-      </c>
-      <c r="B9" s="154" t="s">
-        <v>195</v>
-      </c>
-      <c r="C9" s="155"/>
-      <c r="D9" s="159" t="s">
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="117"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="108" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="118" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="107" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H11" s="130" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="136"/>
+      <c r="J11" s="131"/>
+      <c r="K11" s="130" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" s="131"/>
+    </row>
+    <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="119"/>
+      <c r="C12" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H12" s="32"/>
+      <c r="I12" s="146"/>
+      <c r="J12" s="147"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+    </row>
+    <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="133"/>
-      <c r="B10" s="156"/>
-      <c r="C10" s="163"/>
-      <c r="D10" s="159"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="150" t="s">
+      <c r="B13" s="119"/>
+      <c r="C13" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="107" t="s">
-        <v>200</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="H11" s="113" t="s">
-        <v>114</v>
-      </c>
-      <c r="I11" s="115"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="113" t="s">
-        <v>4</v>
-      </c>
-      <c r="L11" s="114"/>
-    </row>
-    <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="162"/>
-      <c r="C12" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="H12" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="116" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="117"/>
-      <c r="K12" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="L12" s="22"/>
-    </row>
-    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="162"/>
-      <c r="C13" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>15</v>
-      </c>
       <c r="E13" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="H13" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="J13" s="117"/>
-      <c r="K13" s="22" t="s">
-        <v>7</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="H13" s="32"/>
+      <c r="I13" s="146"/>
+      <c r="J13" s="147"/>
+      <c r="K13" s="22"/>
       <c r="L13" s="22"/>
     </row>
-    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="109" t="s">
-        <v>199</v>
-      </c>
-      <c r="B14" s="152"/>
+        <v>137</v>
+      </c>
+      <c r="B14" s="120"/>
       <c r="C14" s="106" t="s">
-        <v>203</v>
+        <v>141</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H14" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" s="116" t="s">
-        <v>1</v>
-      </c>
-      <c r="J14" s="117"/>
-      <c r="K14" s="22" t="s">
-        <v>7</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="H14" s="32"/>
+      <c r="I14" s="146"/>
+      <c r="J14" s="147"/>
+      <c r="K14" s="22"/>
       <c r="L14" s="22"/>
     </row>
-    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H15" s="121" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" s="124" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" s="125"/>
+    <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="148"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="135"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="113" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" s="115"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="115" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="114"/>
-      <c r="H16" s="122"/>
+    <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="130" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="136"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="136" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="131"/>
+      <c r="H16" s="149"/>
       <c r="I16" s="8"/>
-      <c r="J16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="124" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="125"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="135"/>
       <c r="D17" s="3"/>
       <c r="E17" s="12"/>
-      <c r="H17" s="122"/>
+      <c r="H17" s="149"/>
       <c r="I17" s="9"/>
-      <c r="J17" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="J17" s="9"/>
+      <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="126"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="A18" s="24"/>
+      <c r="B18" s="132"/>
+      <c r="C18" s="133"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="7"/>
-      <c r="H18" s="122"/>
+      <c r="H18" s="149"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="J18" s="9"/>
+      <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="124" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="125"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="135"/>
       <c r="D19" s="3"/>
       <c r="E19" s="12"/>
-      <c r="H19" s="122"/>
+      <c r="H19" s="149"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="J19" s="9"/>
+      <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="126"/>
-      <c r="C20" s="127"/>
-      <c r="D20" s="20" t="s">
-        <v>16</v>
-      </c>
+      <c r="A20" s="25"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="133"/>
+      <c r="D20" s="20"/>
       <c r="E20" s="7"/>
-      <c r="H20" s="123"/>
+      <c r="H20" s="150"/>
       <c r="I20" s="11"/>
-      <c r="J20" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="J20" s="11"/>
+      <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
     <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="124" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="125"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="135"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="H21" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" s="118" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="H21" s="29"/>
+      <c r="I21" s="143"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
     <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="126" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="127"/>
-      <c r="D22" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="A22" s="25"/>
+      <c r="B22" s="132"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="H22" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="I22" s="119"/>
-      <c r="J22" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>61</v>
-      </c>
+      <c r="H22" s="30"/>
+      <c r="I22" s="144"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
     <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H23" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="I23" s="120"/>
-      <c r="J23" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>62</v>
-      </c>
+      <c r="A23" s="24"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="6"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="145"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="5"/>
       <c r="L23" s="5"/>
     </row>
     <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="118" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="I24" s="118" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="L24" s="13" t="s">
-        <v>72</v>
-      </c>
+      <c r="A24" s="23"/>
+      <c r="B24" s="143"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="13"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="143"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="13"/>
     </row>
     <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="119"/>
-      <c r="C25" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="I25" s="119"/>
-      <c r="J25" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="L25" s="14" t="s">
-        <v>73</v>
-      </c>
+      <c r="A25" s="24"/>
+      <c r="B25" s="144"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="14"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="144"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="14"/>
     </row>
     <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="120"/>
-      <c r="C26" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="I26" s="120"/>
-      <c r="J26" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="L26" s="15" t="s">
-        <v>74</v>
-      </c>
+      <c r="A26" s="25"/>
+      <c r="B26" s="145"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="15"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="145"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="15"/>
     </row>
     <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="34" t="s">
-        <v>162</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="B31" s="34">
         <v>64</v>
@@ -2865,163 +2538,186 @@
       <c r="C31" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D31" s="147" t="s">
-        <v>166</v>
+      <c r="D31" s="113" t="s">
+        <v>105</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="F31" s="34" t="s">
-        <v>167</v>
+        <v>106</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="H31" s="34" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="34" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="B32" s="34">
         <v>32</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>178</v>
+        <v>117</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>179</v>
+        <v>118</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>174</v>
+        <v>113</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>186</v>
+        <v>125</v>
       </c>
       <c r="H32" s="34" t="s">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="K32" s="35"/>
       <c r="N32" s="35"/>
     </row>
     <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="34" t="s">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="B33" s="34">
         <v>16</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="E33" s="34" t="s">
-        <v>181</v>
+        <v>120</v>
       </c>
       <c r="F33" s="34" t="s">
-        <v>175</v>
+        <v>114</v>
       </c>
       <c r="G33" s="34" t="s">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="H33" s="34" t="s">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="K33" s="35"/>
       <c r="N33" s="35"/>
     </row>
     <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="34" t="s">
-        <v>159</v>
+        <v>98</v>
       </c>
       <c r="B34" s="34">
         <v>16</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>172</v>
+        <v>111</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>176</v>
+        <v>115</v>
       </c>
       <c r="G34" s="34" t="s">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="H34" s="34" t="s">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="K34" s="35"/>
       <c r="N34" s="35"/>
     </row>
     <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="34" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="B35" s="34">
         <v>16</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>173</v>
+        <v>112</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="E35" s="34" t="s">
-        <v>185</v>
+        <v>124</v>
       </c>
       <c r="F35" s="34" t="s">
-        <v>177</v>
+        <v>116</v>
       </c>
       <c r="G35" s="34" t="s">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="H35" s="34" t="s">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="K35" s="35"/>
       <c r="N35" s="35"/>
     </row>
     <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="34" t="s">
+        <v>147</v>
+      </c>
       <c r="I37" s="35"/>
       <c r="L37" s="35"/>
       <c r="O37" s="35"/>
     </row>
     <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="34" t="s">
+        <v>148</v>
+      </c>
       <c r="I38" s="35"/>
       <c r="L38" s="35"/>
       <c r="O38" s="35"/>
     </row>
     <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="34" t="s">
+        <v>149</v>
+      </c>
       <c r="I39" s="35"/>
       <c r="L39" s="35"/>
       <c r="O39" s="35"/>
     </row>
+    <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="34" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="34" t="s">
+        <v>152</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="H15:H20"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B17:C17"/>
@@ -3031,20 +2727,21 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B24:B26"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="H15:H20"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B2:C3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3056,8 +2753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3074,200 +2771,200 @@
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="88" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="C1" s="89" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="D1" s="90" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="E1" s="86"/>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="134" t="s">
-        <v>137</v>
+      <c r="A2" s="151" t="s">
+        <v>76</v>
       </c>
       <c r="B2" s="111" t="s">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="C2" s="91" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="D2" s="92" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="E2" s="86"/>
       <c r="F2" s="82"/>
       <c r="G2" s="101" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="135"/>
+      <c r="A3" s="152"/>
       <c r="B3" s="112" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
       <c r="C3" s="110" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="D3" s="95" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="E3" s="86"/>
       <c r="F3" s="83"/>
       <c r="G3" s="102" t="s">
-        <v>142</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="135"/>
+      <c r="A4" s="152"/>
       <c r="B4" s="93"/>
       <c r="C4" s="94"/>
       <c r="D4" s="95" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="E4" s="86"/>
       <c r="F4" s="84"/>
       <c r="G4" s="103" t="s">
-        <v>141</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="136"/>
+      <c r="A5" s="153"/>
       <c r="B5" s="93"/>
       <c r="C5" s="94"/>
       <c r="D5" s="95" t="s">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="E5" s="86"/>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="99" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="B6" s="93" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="C6" s="94" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="D6" s="95" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="E6" s="86"/>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="99" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="B7" s="93" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="C7" s="94" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="D7" s="95" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="E7" s="86"/>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="99" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="B8" s="93" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="C8" s="94" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="D8" s="95" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="E8" s="86"/>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="99" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="B9" s="93" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="C9" s="94" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="D9" s="95" t="s">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="E9" s="86"/>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="99" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="B10" s="93" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="C10" s="94" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="D10" s="95" t="s">
-        <v>146</v>
+        <v>85</v>
       </c>
       <c r="E10" s="86"/>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="99" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="B11" s="93" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="C11" s="94" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="D11" s="95" t="s">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="E11" s="86"/>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="99" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="B12" s="93" t="s">
-        <v>153</v>
+        <v>92</v>
       </c>
       <c r="C12" s="94" t="s">
-        <v>154</v>
+        <v>93</v>
       </c>
       <c r="D12" s="95" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="E12" s="86"/>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="99" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="B13" s="93" t="s">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="C13" s="94" t="s">
-        <v>156</v>
+        <v>95</v>
       </c>
       <c r="D13" s="95" t="s">
-        <v>149</v>
+        <v>88</v>
       </c>
       <c r="E13" s="86"/>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="99" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="B14" s="93"/>
       <c r="C14" s="94"/>
@@ -3276,7 +2973,7 @@
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="99" t="s">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="B15" s="93"/>
       <c r="C15" s="94"/>
@@ -3285,7 +2982,7 @@
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="100" t="s">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="B16" s="96"/>
       <c r="C16" s="97"/>
@@ -3451,51 +3148,51 @@
   <sheetData>
     <row r="2" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="137" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="139"/>
-      <c r="L3" s="143" t="s">
-        <v>122</v>
-      </c>
-      <c r="M3" s="144"/>
-      <c r="N3" s="145"/>
-      <c r="O3" s="145"/>
-      <c r="P3" s="145"/>
-      <c r="Q3" s="145"/>
-      <c r="R3" s="145"/>
-      <c r="S3" s="145"/>
-      <c r="T3" s="146"/>
+      <c r="C3" s="154" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="156"/>
+      <c r="L3" s="160" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" s="161"/>
+      <c r="N3" s="162"/>
+      <c r="O3" s="162"/>
+      <c r="P3" s="162"/>
+      <c r="Q3" s="162"/>
+      <c r="R3" s="162"/>
+      <c r="S3" s="162"/>
+      <c r="T3" s="163"/>
     </row>
     <row r="4" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="56" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="D4" s="57" t="s">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="E4" s="57" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="F4" s="57" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="G4" s="58" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="H4" s="59" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="I4" s="60" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="L4" s="66" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="M4" s="67"/>
     </row>
@@ -3522,7 +3219,7 @@
         <v>16</v>
       </c>
       <c r="L5" s="68" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="M5" s="69"/>
     </row>
@@ -3549,7 +3246,7 @@
         <v>23</v>
       </c>
       <c r="L6" s="70" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="M6" s="71"/>
     </row>
@@ -3579,37 +3276,37 @@
     <row r="8" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="140" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="141"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="141"/>
-      <c r="H10" s="141"/>
-      <c r="I10" s="142"/>
+      <c r="C10" s="157" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="158"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="159"/>
     </row>
     <row r="11" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="61" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="E11" s="62" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="F11" s="62" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="G11" s="63" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="H11" s="64" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="I11" s="65" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3648,7 +3345,7 @@
         <v>9</v>
       </c>
       <c r="K13" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3746,37 +3443,37 @@
     <row r="18" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="140" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" s="141"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="141"/>
-      <c r="G20" s="141"/>
-      <c r="H20" s="141"/>
-      <c r="I20" s="142"/>
+      <c r="C20" s="157" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="158"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="158"/>
+      <c r="I20" s="159"/>
     </row>
     <row r="21" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="61" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="D21" s="62" t="s">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="E21" s="62" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="F21" s="62" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="G21" s="63" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="H21" s="64" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="I21" s="65" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3869,7 +3566,7 @@
         <v>27</v>
       </c>
       <c r="K25" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/vak vezet vilagtalant.xlsx
+++ b/vak vezet vilagtalant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\VIZSGAREMEK\Vizsgaremek-D-K-B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9E5B53-077E-48EB-BF91-879D1587516B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B125BAE1-6364-4A70-9B12-4C5DD232B5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7320" yWindow="-120" windowWidth="21480" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IP címek" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="214">
   <si>
     <t>192.168.1.0</t>
   </si>
@@ -197,9 +197,6 @@
     <t>Kolos</t>
   </si>
   <si>
-    <t>SITE 3</t>
-  </si>
-  <si>
     <t>Hétfő</t>
   </si>
   <si>
@@ -272,9 +269,6 @@
     <t>igényfelmérés</t>
   </si>
   <si>
-    <t>igényfelmérés megvalósítás</t>
-  </si>
-  <si>
     <t>Tanárúr megnézte, rábólintott</t>
   </si>
   <si>
@@ -479,15 +473,6 @@
     <t>G1SS1-R3 g0/1/0 &lt;-&gt; G1SS1-R4 g0/1/0</t>
   </si>
   <si>
-    <t>4gep</t>
-  </si>
-  <si>
-    <t>4telefon</t>
-  </si>
-  <si>
-    <t>1 ap</t>
-  </si>
-  <si>
     <t>1 sw</t>
   </si>
   <si>
@@ -495,6 +480,204 @@
   </si>
   <si>
     <t>1 szerver</t>
+  </si>
+  <si>
+    <t>vezetek nelkuli vendeg</t>
+  </si>
+  <si>
+    <t>dolgozoi vezetek nelkuli</t>
+  </si>
+  <si>
+    <t>4gep + 4 telefon +sw+server</t>
+  </si>
+  <si>
+    <t>192.168.3.16</t>
+  </si>
+  <si>
+    <t>192.168.3.32</t>
+  </si>
+  <si>
+    <t>192.168.3.48</t>
+  </si>
+  <si>
+    <t>192.168.3.15</t>
+  </si>
+  <si>
+    <t>192.168.3.31</t>
+  </si>
+  <si>
+    <t>192.168.3.47</t>
+  </si>
+  <si>
+    <t>192.168.3.1</t>
+  </si>
+  <si>
+    <t>192.168.3.17</t>
+  </si>
+  <si>
+    <t>192.168.3.33</t>
+  </si>
+  <si>
+    <t>192.168.3.46</t>
+  </si>
+  <si>
+    <t>192.168.3.30</t>
+  </si>
+  <si>
+    <t>192.168.3.14</t>
+  </si>
+  <si>
+    <t>192.168.3.0/28</t>
+  </si>
+  <si>
+    <t>DHCP</t>
+  </si>
+  <si>
+    <t>192.192.168.16/28</t>
+  </si>
+  <si>
+    <t>server + switch + router + PC + IPphone</t>
+  </si>
+  <si>
+    <t>G1SS2</t>
+  </si>
+  <si>
+    <t>szerverek + sw +router + admin</t>
+  </si>
+  <si>
+    <t>vendég vezeték nélküli</t>
+  </si>
+  <si>
+    <t>192.168.2.128</t>
+  </si>
+  <si>
+    <t>192.168.2.192</t>
+  </si>
+  <si>
+    <t>192.168.2.208</t>
+  </si>
+  <si>
+    <t>192.168.2.127</t>
+  </si>
+  <si>
+    <t>192.168.2.191</t>
+  </si>
+  <si>
+    <t>192.168.2.207</t>
+  </si>
+  <si>
+    <t>192.168.2.1</t>
+  </si>
+  <si>
+    <t>192.168.2.126</t>
+  </si>
+  <si>
+    <t>192.168.2.129</t>
+  </si>
+  <si>
+    <t>192.168.2.193</t>
+  </si>
+  <si>
+    <t>192.168.2.190</t>
+  </si>
+  <si>
+    <t>192.168.2.206</t>
+  </si>
+  <si>
+    <t>255.255.255.128</t>
+  </si>
+  <si>
+    <t>/25</t>
+  </si>
+  <si>
+    <t>192.168.2.0/25</t>
+  </si>
+  <si>
+    <t>Dolgozok</t>
+  </si>
+  <si>
+    <t>192.168.2.128/26</t>
+  </si>
+  <si>
+    <t>Vezetek nelküli, dolgozok</t>
+  </si>
+  <si>
+    <t>192.168.2.192/28</t>
+  </si>
+  <si>
+    <t>Felugyelet</t>
+  </si>
+  <si>
+    <t>G1SS2-R1 &lt;-&gt; G1SS2-R2</t>
+  </si>
+  <si>
+    <t>11.0.0.1 , 11.0.0.2</t>
+  </si>
+  <si>
+    <t>11.0.0.0/30</t>
+  </si>
+  <si>
+    <t>G1SS2-R1 &lt;-&gt; G1SS2-R3</t>
+  </si>
+  <si>
+    <t>11.0.0.5 , 11.0.0.6</t>
+  </si>
+  <si>
+    <t>G1SS2-R1 g0/0/0 &lt;-&gt; G1SS2-R3 g0/0/0</t>
+  </si>
+  <si>
+    <t>G1SS2-R1 g0/1/0 &lt;-&gt; G1SS2-R2 g0/1/0</t>
+  </si>
+  <si>
+    <t>G1SS2-R2 &lt;-&gt; G1SS2-R3</t>
+  </si>
+  <si>
+    <t>11.0.0.9 , 11.0.0.10</t>
+  </si>
+  <si>
+    <t>G1SS2-R2 g0/2/0 &lt;-&gt; G1SS2-R3 g0/2/0</t>
+  </si>
+  <si>
+    <t>11.0.0.8/30</t>
+  </si>
+  <si>
+    <t>11.0.0.4/30</t>
+  </si>
+  <si>
+    <t>22.22.22.0/30</t>
+  </si>
+  <si>
+    <t>22.22.22.1-2</t>
+  </si>
+  <si>
+    <t>ISP 1 - G1SS1-R4</t>
+  </si>
+  <si>
+    <t>22.22.22.4/30</t>
+  </si>
+  <si>
+    <t>22.22.22.5-6</t>
+  </si>
+  <si>
+    <t>ISP 2 - G1SS2-R1</t>
+  </si>
+  <si>
+    <t>22.22.22.8/30</t>
+  </si>
+  <si>
+    <t>22.22.22.9-10</t>
+  </si>
+  <si>
+    <t>ISP 3 - G1SS3-R1</t>
+  </si>
+  <si>
+    <t>44.55.66.0/29</t>
+  </si>
+  <si>
+    <t>Külső szerver + asa</t>
+  </si>
+  <si>
+    <t>44.55.66.2,3</t>
   </si>
 </sst>
 </file>
@@ -641,7 +824,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -819,45 +1002,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1310,24 +1454,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1350,18 +1481,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1374,18 +1496,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1407,21 +1517,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1437,64 +1532,76 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1503,66 +1610,54 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1581,13 +1676,19 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1596,55 +1697,46 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1662,114 +1754,117 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1798,6 +1893,54 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2119,68 +2262,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" style="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" style="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="34" customWidth="1"/>
-    <col min="5" max="5" width="36.85546875" style="34" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="34" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="34" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.28515625" style="34" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="34" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="9.140625" style="34"/>
-    <col min="17" max="17" width="21.85546875" style="34" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="34"/>
+    <col min="1" max="1" width="24.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="22" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" style="22" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="22" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" style="22" customWidth="1"/>
+    <col min="10" max="10" width="33.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="9.140625" style="22"/>
+    <col min="17" max="17" width="21.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="139" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="137" t="s">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="122" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="122"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="138"/>
-      <c r="H1" s="36" t="s">
+      <c r="E1" s="121"/>
+      <c r="H1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="130" t="s">
+      <c r="J1" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="131"/>
-    </row>
-    <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="116" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="118" t="s">
+      <c r="K1" s="118"/>
+    </row>
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="126" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="123" t="s">
+      <c r="C2" s="131"/>
+      <c r="D2" s="128" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="21" t="s">
         <v>18</v>
       </c>
       <c r="J2" s="4" t="s">
@@ -2190,16 +2333,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="117"/>
-      <c r="B3" s="120"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="124"/>
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="127"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="129"/>
       <c r="E3" s="5"/>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="21" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -2209,22 +2352,22 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="116" t="s">
+    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="118" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="121"/>
-      <c r="D4" s="123" t="s">
+      <c r="B4" s="130" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="131"/>
+      <c r="D4" s="128" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="19" t="s">
         <v>20</v>
       </c>
       <c r="J4" s="5" t="s">
@@ -2234,514 +2377,699 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="117"/>
-      <c r="B5" s="120"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="124"/>
+    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="127"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="129"/>
       <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="I5" s="110"/>
+      <c r="J5" s="163" t="s">
+        <v>203</v>
+      </c>
+      <c r="K5" s="105" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="125"/>
+      <c r="D6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="H6" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="I6" s="111"/>
+      <c r="J6" s="164" t="s">
+        <v>206</v>
+      </c>
+      <c r="K6" s="107" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="126" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="130" t="s">
         <v>129</v>
       </c>
-      <c r="B6" s="141" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="142"/>
-      <c r="D6" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="116" t="s">
+      <c r="C7" s="131"/>
+      <c r="D7" s="128" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="118" t="s">
+      <c r="E7" s="101"/>
+      <c r="H7" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="I7" s="112"/>
+      <c r="J7" s="165" t="s">
+        <v>209</v>
+      </c>
+      <c r="K7" s="106" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="127"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="102"/>
+      <c r="H8" s="166" t="s">
+        <v>211</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="J8" s="167" t="s">
+        <v>213</v>
+      </c>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="126" t="s">
         <v>131</v>
       </c>
-      <c r="C7" s="121"/>
-      <c r="D7" s="123" t="s">
+      <c r="B9" s="134" t="s">
         <v>132</v>
       </c>
-      <c r="E7" s="114"/>
-    </row>
-    <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="117"/>
-      <c r="B8" s="120"/>
-      <c r="C8" s="122"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="115"/>
-    </row>
-    <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="116" t="s">
-        <v>133</v>
-      </c>
-      <c r="B9" s="125" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" s="126"/>
-      <c r="D9" s="129" t="s">
+      <c r="C9" s="135"/>
+      <c r="D9" s="138" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="117"/>
-      <c r="B10" s="127"/>
-      <c r="C10" s="128"/>
-      <c r="D10" s="129"/>
+    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="127"/>
+      <c r="B10" s="136"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="138"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="108" t="s">
+    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="118" t="s">
+      <c r="B11" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="107" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" s="16" t="s">
+      <c r="C11" s="94" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="H11" s="130" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="136"/>
-      <c r="J11" s="131"/>
-      <c r="K11" s="130" t="s">
-        <v>3</v>
-      </c>
-      <c r="L11" s="131"/>
-    </row>
-    <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="119"/>
-      <c r="C12" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D12" s="17" t="s">
+      <c r="B12" s="139"/>
+      <c r="C12" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="H12" s="32"/>
-      <c r="I12" s="146"/>
-      <c r="J12" s="147"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-    </row>
-    <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="119"/>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="139"/>
+      <c r="C13" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="96" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="132"/>
+      <c r="C14" s="93" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="E14" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="117" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" s="119"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="117" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="118"/>
+    </row>
+    <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="B17" s="113" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" s="114"/>
+      <c r="D17" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="B18" s="113" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" s="114"/>
+      <c r="D18" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="B19" s="113" t="s">
+        <v>189</v>
+      </c>
+      <c r="C19" s="114"/>
+      <c r="D19" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="103" t="s">
+        <v>192</v>
+      </c>
+      <c r="B20" s="130" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="109" t="s">
+        <v>190</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B21" s="139"/>
+      <c r="C21" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="104" t="s">
+        <v>200</v>
+      </c>
+      <c r="B22" s="132"/>
+      <c r="C22" s="108" t="s">
+        <v>197</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="154" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" s="155"/>
+      <c r="C24" s="156"/>
+      <c r="D24" s="155" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="156"/>
+    </row>
+    <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="160" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" s="113" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="114"/>
+      <c r="D25" s="161" t="s">
+        <v>164</v>
+      </c>
+      <c r="E25" s="162" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="158" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="115" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" s="116"/>
+      <c r="D26" s="102" t="s">
+        <v>164</v>
+      </c>
+      <c r="E26" s="159"/>
+    </row>
+    <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="103"/>
+      <c r="B27" s="130" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="109"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="139"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="139"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="104"/>
+      <c r="B30" s="132"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K31" s="23"/>
+      <c r="N31" s="23"/>
+    </row>
+    <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="K32" s="23"/>
+      <c r="N32" s="23"/>
+    </row>
+    <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="22">
+        <v>64</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="100" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="K33" s="23"/>
+      <c r="N33" s="23"/>
+    </row>
+    <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="22">
+        <v>32</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="K34" s="23"/>
+      <c r="N34" s="23"/>
+    </row>
+    <row r="35" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="22">
+        <v>16</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="I35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="O35" s="23"/>
+    </row>
+    <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="22">
+        <v>16</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="I36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="O36" s="23"/>
+    </row>
+    <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="22">
+        <v>16</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="H37" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="I37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="O37" s="23"/>
+    </row>
+    <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="157" t="s">
+        <v>150</v>
+      </c>
+      <c r="B39" s="22">
+        <v>16</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="H39" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40" s="22">
+        <v>16</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="G40" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="H40" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B41" s="22">
+        <v>16</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="G41" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="H41" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="H13" s="32"/>
-      <c r="I13" s="146"/>
-      <c r="J13" s="147"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-    </row>
-    <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="109" t="s">
-        <v>137</v>
-      </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="106" t="s">
-        <v>141</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="C42" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="H14" s="32"/>
-      <c r="I14" s="146"/>
-      <c r="J14" s="147"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-    </row>
-    <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H15" s="148"/>
-      <c r="I15" s="134"/>
-      <c r="J15" s="135"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="130" t="s">
-        <v>136</v>
-      </c>
-      <c r="B16" s="136"/>
-      <c r="C16" s="131"/>
-      <c r="D16" s="136" t="s">
+    </row>
+    <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="22">
+        <v>72</v>
+      </c>
+      <c r="B47" s="22">
+        <v>128</v>
+      </c>
+      <c r="C47" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="131"/>
-      <c r="H16" s="149"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="134"/>
-      <c r="C17" s="135"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="12"/>
-      <c r="H17" s="149"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="132"/>
-      <c r="C18" s="133"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="7"/>
-      <c r="H18" s="149"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
-      <c r="B19" s="134"/>
-      <c r="C19" s="135"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="12"/>
-      <c r="H19" s="149"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
-      <c r="B20" s="132"/>
-      <c r="C20" s="133"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="7"/>
-      <c r="H20" s="150"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="134"/>
-      <c r="C21" s="135"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="143"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
-      <c r="B22" s="132"/>
-      <c r="C22" s="133"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="144"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-    </row>
-    <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="6"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="145"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-    </row>
-    <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="143"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="13"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="143"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="13"/>
-    </row>
-    <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="144"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="14"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="144"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="14"/>
-    </row>
-    <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
-      <c r="B26" s="145"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="15"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="145"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="15"/>
-    </row>
-    <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="B31" s="34">
+      <c r="D47" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="G47" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="H47" s="22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B48" s="22">
         <v>64</v>
       </c>
-      <c r="C31" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" s="113" t="s">
-        <v>105</v>
-      </c>
-      <c r="E31" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="F31" s="34" t="s">
+      <c r="C48" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="G48" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="G31" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="H31" s="34" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="B32" s="34">
-        <v>32</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="D32" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="E32" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="F32" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="G32" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="H32" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="K32" s="35"/>
-      <c r="N32" s="35"/>
-    </row>
-    <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
+      <c r="H48" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="B33" s="34">
+    </row>
+    <row r="49" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B49" s="22">
         <v>16</v>
       </c>
-      <c r="C33" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="D33" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="E33" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="F33" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="G33" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="H33" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="K33" s="35"/>
-      <c r="N33" s="35"/>
-    </row>
-    <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
+      <c r="C49" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="G49" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="H49" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B34" s="34">
-        <v>16</v>
-      </c>
-      <c r="C34" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="D34" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="E34" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="F34" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="G34" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="H34" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="K34" s="35"/>
-      <c r="N34" s="35"/>
-    </row>
-    <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="B35" s="34">
-        <v>16</v>
-      </c>
-      <c r="C35" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="D35" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="E35" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="F35" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="G35" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="H35" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="K35" s="35"/>
-      <c r="N35" s="35"/>
-    </row>
-    <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="I37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="O37" s="35"/>
-    </row>
-    <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="I38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="O38" s="35"/>
-    </row>
-    <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="I39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="O39" s="35"/>
-    </row>
-    <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="34" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="34" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="34" t="s">
-        <v>152</v>
+    </row>
+    <row r="50" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="22" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="H15:H20"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B9:C10"/>
+  <mergeCells count="28">
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B7:C8"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2751,10 +3079,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2769,360 +3097,351 @@
     <col min="14" max="14" width="38.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="74"/>
+    </row>
+    <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="140" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="98" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="152" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="74"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="88" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="141"/>
+      <c r="B3" s="99" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="97" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="74"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="89" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="141"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="153" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="74"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="90" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="86" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="74"/>
+    </row>
+    <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="89" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="89" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="90" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="86"/>
-    </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="151" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="111" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="91" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="92" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="101" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="152"/>
-      <c r="B3" s="112" t="s">
+      <c r="B6" s="80" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="74"/>
+    </row>
+    <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="80" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="74"/>
+    </row>
+    <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="82" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="74"/>
+    </row>
+    <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="74"/>
+    </row>
+    <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="86" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="74"/>
+    </row>
+    <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="110" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="95" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="86"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="102" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="152"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="95" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="86"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="103" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="153"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="95" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="86"/>
-    </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="93" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="94" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="95" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="86"/>
-    </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="99" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="94" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="86"/>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="99" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="93" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="94" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="95" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="86"/>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="99" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="93" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="94" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="95" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="86"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="99" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="93" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="94" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="95" t="s">
+      <c r="D11" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="86"/>
-    </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="99" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="94" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="95" t="s">
+      <c r="E11" s="74"/>
+    </row>
+    <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="86"/>
-    </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="99" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="93" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="94" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="95" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="86"/>
-    </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="99" t="s">
+      <c r="E12" s="74"/>
+    </row>
+    <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="93" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="95" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" s="86"/>
-    </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="99" t="s">
+      <c r="B13" s="80"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="74"/>
+    </row>
+    <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="93"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="86"/>
-    </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="99" t="s">
+      <c r="B14" s="80"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="74"/>
+    </row>
+    <row r="15" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="93"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="86"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="96"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="86"/>
-    </row>
-    <row r="17" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="86"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="85"/>
-    </row>
-    <row r="18" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="86"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-    </row>
-    <row r="19" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="86"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-    </row>
-    <row r="20" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="86"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-    </row>
-    <row r="21" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="86"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-    </row>
-    <row r="22" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="86"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-    </row>
-    <row r="23" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-    </row>
-    <row r="24" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="86"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-    </row>
-    <row r="25" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="86"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-    </row>
-    <row r="26" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="86"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-    </row>
-    <row r="27" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="86"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-    </row>
-    <row r="28" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="86"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-    </row>
-    <row r="29" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="86"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-    </row>
-    <row r="30" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="86"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-    </row>
-    <row r="31" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="86"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
-    </row>
-    <row r="32" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="86"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
-    </row>
-    <row r="33" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="86"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="86"/>
-    </row>
-    <row r="39" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I39" s="86"/>
-    </row>
-    <row r="45" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I45" s="87"/>
-    </row>
-    <row r="46" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I46" s="87"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="74"/>
+    </row>
+    <row r="16" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="74"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="73"/>
+    </row>
+    <row r="17" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="74"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+    </row>
+    <row r="18" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="74"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+    </row>
+    <row r="19" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="74"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+    </row>
+    <row r="20" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="74"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+    </row>
+    <row r="21" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="74"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+    </row>
+    <row r="22" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="74"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+    </row>
+    <row r="23" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="74"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+    </row>
+    <row r="24" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="74"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+    </row>
+    <row r="25" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="74"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+    </row>
+    <row r="26" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="74"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+    </row>
+    <row r="27" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="74"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+    </row>
+    <row r="28" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="74"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+    </row>
+    <row r="29" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="74"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+    </row>
+    <row r="30" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="74"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+    </row>
+    <row r="31" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="74"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+    </row>
+    <row r="32" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="74"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+    </row>
+    <row r="38" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I38" s="74"/>
+    </row>
+    <row r="44" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I44" s="75"/>
+    </row>
+    <row r="45" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I45" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A2:A4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3148,447 +3467,447 @@
   <sheetData>
     <row r="2" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="154" t="s">
+      <c r="C3" s="142" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="156"/>
-      <c r="L3" s="160" t="s">
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="144"/>
+      <c r="L3" s="148" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="149"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="150"/>
+      <c r="S3" s="150"/>
+      <c r="T3" s="151"/>
+    </row>
+    <row r="4" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="M3" s="161"/>
-      <c r="N3" s="162"/>
-      <c r="O3" s="162"/>
-      <c r="P3" s="162"/>
-      <c r="Q3" s="162"/>
-      <c r="R3" s="162"/>
-      <c r="S3" s="162"/>
-      <c r="T3" s="163"/>
-    </row>
-    <row r="4" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="L4" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" s="67"/>
+      <c r="M4" s="55"/>
     </row>
     <row r="5" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="43">
+      <c r="C5" s="31">
         <v>10</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="32">
         <v>11</v>
       </c>
-      <c r="E5" s="78">
+      <c r="E5" s="66">
         <v>12</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="32">
         <v>13</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="33">
         <v>14</v>
       </c>
-      <c r="H5" s="52">
+      <c r="H5" s="40">
         <v>15</v>
       </c>
-      <c r="I5" s="79">
+      <c r="I5" s="67">
         <v>16</v>
       </c>
-      <c r="L5" s="68" t="s">
+      <c r="L5" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="69"/>
+      <c r="M5" s="57"/>
     </row>
     <row r="6" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="38">
+      <c r="C6" s="26">
         <v>17</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="25">
         <v>18</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="25">
         <v>19</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="25">
         <v>20</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="34">
         <v>21</v>
       </c>
-      <c r="H6" s="50">
+      <c r="H6" s="38">
         <v>22</v>
       </c>
-      <c r="I6" s="39">
+      <c r="I6" s="27">
         <v>23</v>
       </c>
-      <c r="L6" s="70" t="s">
+      <c r="L6" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="71"/>
+      <c r="M6" s="59"/>
     </row>
     <row r="7" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="40">
+      <c r="C7" s="28">
         <v>24</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="29">
         <v>25</v>
       </c>
-      <c r="E7" s="104">
+      <c r="E7" s="91">
         <v>26</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="29">
         <v>27</v>
       </c>
-      <c r="G7" s="76">
+      <c r="G7" s="64">
         <v>28</v>
       </c>
-      <c r="H7" s="77">
+      <c r="H7" s="65">
         <v>1</v>
       </c>
-      <c r="I7" s="105">
+      <c r="I7" s="92">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="157" t="s">
+      <c r="C10" s="145" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="158"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="159"/>
+      <c r="D10" s="146"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="147"/>
     </row>
     <row r="11" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="62" t="s">
+      <c r="E11" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="62" t="s">
+      <c r="F11" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="62" t="s">
+      <c r="G11" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="63" t="s">
+      <c r="H11" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="64" t="s">
+      <c r="I11" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="65" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="12" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="53"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="48">
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="36">
         <v>1</v>
       </c>
-      <c r="I12" s="49">
+      <c r="I12" s="37">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="72">
+      <c r="C13" s="60">
         <v>3</v>
       </c>
-      <c r="D13" s="73">
+      <c r="D13" s="61">
         <v>4</v>
       </c>
-      <c r="E13" s="73">
+      <c r="E13" s="61">
         <v>5</v>
       </c>
-      <c r="F13" s="73">
+      <c r="F13" s="61">
         <v>6</v>
       </c>
-      <c r="G13" s="74">
+      <c r="G13" s="62">
         <v>7</v>
       </c>
-      <c r="H13" s="72">
+      <c r="H13" s="60">
         <v>8</v>
       </c>
-      <c r="I13" s="75">
+      <c r="I13" s="63">
         <v>9</v>
       </c>
       <c r="K13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="38">
+      <c r="C14" s="26">
         <v>10</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="25">
         <v>11</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E14" s="25">
         <v>12</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="25">
         <v>13</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G14" s="34">
         <v>14</v>
       </c>
-      <c r="H14" s="50">
+      <c r="H14" s="38">
         <v>15</v>
       </c>
-      <c r="I14" s="39">
+      <c r="I14" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="38">
+      <c r="C15" s="26">
         <v>17</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="25">
         <v>18</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="25">
         <v>19</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="25">
         <v>20</v>
       </c>
-      <c r="G15" s="46">
+      <c r="G15" s="34">
         <v>21</v>
       </c>
-      <c r="H15" s="50">
+      <c r="H15" s="38">
         <v>22</v>
       </c>
-      <c r="I15" s="39">
+      <c r="I15" s="27">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="38">
+      <c r="C16" s="26">
         <v>24</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D16" s="25">
         <v>25</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E16" s="25">
         <v>26</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="25">
         <v>27</v>
       </c>
-      <c r="G16" s="46">
+      <c r="G16" s="34">
         <v>28</v>
       </c>
-      <c r="H16" s="50">
+      <c r="H16" s="38">
         <v>29</v>
       </c>
-      <c r="I16" s="39">
+      <c r="I16" s="27">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="40">
+      <c r="C17" s="28">
         <v>31</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="29">
         <v>1</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="29">
         <v>2</v>
       </c>
-      <c r="F17" s="41">
+      <c r="F17" s="29">
         <v>3</v>
       </c>
-      <c r="G17" s="47">
+      <c r="G17" s="35">
         <v>4</v>
       </c>
-      <c r="H17" s="51">
+      <c r="H17" s="39">
         <v>5</v>
       </c>
-      <c r="I17" s="42">
+      <c r="I17" s="30">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="157" t="s">
+      <c r="C20" s="145" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="158"/>
-      <c r="E20" s="158"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="158"/>
-      <c r="H20" s="158"/>
-      <c r="I20" s="159"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="147"/>
     </row>
     <row r="21" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="61" t="s">
+      <c r="C21" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="62" t="s">
+      <c r="E21" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="62" t="s">
+      <c r="F21" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="62" t="s">
+      <c r="G21" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="G21" s="63" t="s">
+      <c r="H21" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="H21" s="64" t="s">
+      <c r="I21" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="I21" s="65" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="22" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="53"/>
-      <c r="D22" s="54">
+      <c r="C22" s="41"/>
+      <c r="D22" s="42">
         <v>1</v>
       </c>
-      <c r="E22" s="54">
+      <c r="E22" s="42">
         <v>2</v>
       </c>
-      <c r="F22" s="54">
+      <c r="F22" s="42">
         <v>3</v>
       </c>
-      <c r="G22" s="55">
+      <c r="G22" s="43">
         <v>4</v>
       </c>
-      <c r="H22" s="48">
+      <c r="H22" s="36">
         <v>5</v>
       </c>
-      <c r="I22" s="49">
+      <c r="I22" s="37">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="38">
+      <c r="C23" s="26">
         <v>7</v>
       </c>
-      <c r="D23" s="37">
+      <c r="D23" s="25">
         <v>8</v>
       </c>
-      <c r="E23" s="37">
+      <c r="E23" s="25">
         <v>9</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F23" s="25">
         <v>10</v>
       </c>
-      <c r="G23" s="46">
+      <c r="G23" s="34">
         <v>11</v>
       </c>
-      <c r="H23" s="50">
+      <c r="H23" s="38">
         <v>12</v>
       </c>
-      <c r="I23" s="39">
+      <c r="I23" s="27">
         <v>13</v>
       </c>
     </row>
     <row r="24" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="38">
+      <c r="C24" s="26">
         <v>14</v>
       </c>
-      <c r="D24" s="37">
+      <c r="D24" s="25">
         <v>15</v>
       </c>
-      <c r="E24" s="37">
+      <c r="E24" s="25">
         <v>16</v>
       </c>
-      <c r="F24" s="37">
+      <c r="F24" s="25">
         <v>17</v>
       </c>
-      <c r="G24" s="46">
+      <c r="G24" s="34">
         <v>18</v>
       </c>
-      <c r="H24" s="50">
+      <c r="H24" s="38">
         <v>19</v>
       </c>
-      <c r="I24" s="39">
+      <c r="I24" s="27">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="38">
+      <c r="C25" s="26">
         <v>21</v>
       </c>
-      <c r="D25" s="37">
+      <c r="D25" s="25">
         <v>22</v>
       </c>
-      <c r="E25" s="37">
+      <c r="E25" s="25">
         <v>23</v>
       </c>
-      <c r="F25" s="73">
+      <c r="F25" s="61">
         <v>24</v>
       </c>
-      <c r="G25" s="74">
+      <c r="G25" s="62">
         <v>25</v>
       </c>
-      <c r="H25" s="72">
+      <c r="H25" s="60">
         <v>26</v>
       </c>
-      <c r="I25" s="75">
+      <c r="I25" s="63">
         <v>27</v>
       </c>
       <c r="K25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="80">
+      <c r="C26" s="68">
         <v>28</v>
       </c>
-      <c r="D26" s="81">
+      <c r="D26" s="69">
         <v>29</v>
       </c>
-      <c r="E26" s="41">
+      <c r="E26" s="29">
         <v>30</v>
       </c>
-      <c r="F26" s="41">
+      <c r="F26" s="29">
         <v>1</v>
       </c>
-      <c r="G26" s="47">
+      <c r="G26" s="35">
         <v>2</v>
       </c>
-      <c r="H26" s="51">
+      <c r="H26" s="39">
         <v>3</v>
       </c>
-      <c r="I26" s="42">
+      <c r="I26" s="30">
         <v>4</v>
       </c>
     </row>

--- a/vak vezet vilagtalant.xlsx
+++ b/vak vezet vilagtalant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\VIZSGAREMEK\Vizsgaremek-D-K-B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B125BAE1-6364-4A70-9B12-4C5DD232B5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DBF550-FC11-4857-B441-7D5C6E3B0102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7320" yWindow="-120" windowWidth="21480" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="215">
   <si>
     <t>192.168.1.0</t>
   </si>
@@ -678,6 +678,9 @@
   </si>
   <si>
     <t>44.55.66.2,3</t>
+  </si>
+  <si>
+    <t>linux szerver: 192.168.1.116/28</t>
   </si>
 </sst>
 </file>
@@ -1778,16 +1781,85 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1796,7 +1868,13 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1817,29 +1895,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1853,12 +1910,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1893,54 +1944,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2264,8 +2267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2288,35 +2291,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="147" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="120" t="s">
+      <c r="B1" s="147"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="121"/>
+      <c r="E1" s="146"/>
       <c r="H1" s="24" t="s">
         <v>15</v>
       </c>
       <c r="I1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="117" t="s">
+      <c r="J1" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="118"/>
+      <c r="K1" s="141"/>
     </row>
     <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="131" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="128" t="s">
+      <c r="C2" s="133"/>
+      <c r="D2" s="138" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="3"/>
@@ -2334,10 +2337,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="127"/>
-      <c r="B3" s="132"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="129"/>
+      <c r="A3" s="132"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="139"/>
       <c r="E3" s="5"/>
       <c r="H3" s="17" t="s">
         <v>22</v>
@@ -2353,14 +2356,14 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="126" t="s">
+      <c r="A4" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="130" t="s">
+      <c r="B4" s="126" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="131"/>
-      <c r="D4" s="128" t="s">
+      <c r="C4" s="133"/>
+      <c r="D4" s="138" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="4"/>
@@ -2378,16 +2381,16 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="127"/>
-      <c r="B5" s="132"/>
-      <c r="C5" s="133"/>
-      <c r="D5" s="129"/>
+      <c r="A5" s="132"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="139"/>
       <c r="E5" s="4"/>
       <c r="H5" s="16" t="s">
         <v>202</v>
       </c>
       <c r="I5" s="110"/>
-      <c r="J5" s="163" t="s">
+      <c r="J5" s="121" t="s">
         <v>203</v>
       </c>
       <c r="K5" s="105" t="s">
@@ -2398,10 +2401,10 @@
       <c r="A6" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="124" t="s">
+      <c r="B6" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="125"/>
+      <c r="C6" s="150"/>
       <c r="D6" s="13" t="s">
         <v>4</v>
       </c>
@@ -2410,7 +2413,7 @@
         <v>205</v>
       </c>
       <c r="I6" s="111"/>
-      <c r="J6" s="164" t="s">
+      <c r="J6" s="122" t="s">
         <v>206</v>
       </c>
       <c r="K6" s="107" t="s">
@@ -2418,22 +2421,24 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="126" t="s">
+      <c r="A7" s="131" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="130" t="s">
+      <c r="B7" s="126" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="131"/>
-      <c r="D7" s="128" t="s">
+      <c r="C7" s="133"/>
+      <c r="D7" s="138" t="s">
         <v>130</v>
       </c>
-      <c r="E7" s="101"/>
+      <c r="E7" s="101" t="s">
+        <v>214</v>
+      </c>
       <c r="H7" s="18" t="s">
         <v>208</v>
       </c>
       <c r="I7" s="112"/>
-      <c r="J7" s="165" t="s">
+      <c r="J7" s="123" t="s">
         <v>209</v>
       </c>
       <c r="K7" s="106" t="s">
@@ -2441,47 +2446,47 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="127"/>
-      <c r="B8" s="132"/>
-      <c r="C8" s="133"/>
-      <c r="D8" s="129"/>
+      <c r="A8" s="132"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="139"/>
       <c r="E8" s="102"/>
-      <c r="H8" s="166" t="s">
+      <c r="H8" s="124" t="s">
         <v>211</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="J8" s="167" t="s">
+      <c r="J8" s="125" t="s">
         <v>213</v>
       </c>
       <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="126" t="s">
+      <c r="A9" s="131" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="134" t="s">
+      <c r="B9" s="152" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="135"/>
-      <c r="D9" s="138" t="s">
+      <c r="C9" s="153"/>
+      <c r="D9" s="137" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="127"/>
-      <c r="B10" s="136"/>
-      <c r="C10" s="137"/>
-      <c r="D10" s="138"/>
+      <c r="A10" s="132"/>
+      <c r="B10" s="154"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="137"/>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="130" t="s">
+      <c r="B11" s="126" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="94" t="s">
@@ -2498,7 +2503,7 @@
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="139"/>
+      <c r="B12" s="127"/>
       <c r="C12" s="8" t="s">
         <v>137</v>
       </c>
@@ -2513,7 +2518,7 @@
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="139"/>
+      <c r="B13" s="127"/>
       <c r="C13" s="8" t="s">
         <v>138</v>
       </c>
@@ -2528,7 +2533,7 @@
       <c r="A14" s="96" t="s">
         <v>135</v>
       </c>
-      <c r="B14" s="132"/>
+      <c r="B14" s="128"/>
       <c r="C14" s="93" t="s">
         <v>139</v>
       </c>
@@ -2541,24 +2546,24 @@
     </row>
     <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="117" t="s">
+      <c r="A16" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="B16" s="119"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="117" t="s">
+      <c r="B16" s="151"/>
+      <c r="C16" s="141"/>
+      <c r="D16" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="118"/>
+      <c r="E16" s="141"/>
     </row>
     <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="B17" s="113" t="s">
+      <c r="B17" s="135" t="s">
         <v>185</v>
       </c>
-      <c r="C17" s="114"/>
+      <c r="C17" s="136"/>
       <c r="D17" s="15" t="s">
         <v>164</v>
       </c>
@@ -2568,10 +2573,10 @@
       <c r="A18" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="B18" s="113" t="s">
+      <c r="B18" s="135" t="s">
         <v>187</v>
       </c>
-      <c r="C18" s="114"/>
+      <c r="C18" s="136"/>
       <c r="D18" s="15" t="s">
         <v>5</v>
       </c>
@@ -2581,10 +2586,10 @@
       <c r="A19" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="B19" s="113" t="s">
+      <c r="B19" s="135" t="s">
         <v>189</v>
       </c>
-      <c r="C19" s="114"/>
+      <c r="C19" s="136"/>
       <c r="D19" s="15" t="s">
         <v>164</v>
       </c>
@@ -2594,7 +2599,7 @@
       <c r="A20" s="103" t="s">
         <v>192</v>
       </c>
-      <c r="B20" s="130" t="s">
+      <c r="B20" s="126" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="109" t="s">
@@ -2611,7 +2616,7 @@
       <c r="A21" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B21" s="139"/>
+      <c r="B21" s="127"/>
       <c r="C21" s="8" t="s">
         <v>193</v>
       </c>
@@ -2626,7 +2631,7 @@
       <c r="A22" s="104" t="s">
         <v>200</v>
       </c>
-      <c r="B22" s="132"/>
+      <c r="B22" s="128"/>
       <c r="C22" s="108" t="s">
         <v>197</v>
       </c>
@@ -2639,47 +2644,47 @@
     </row>
     <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="154" t="s">
+      <c r="A24" s="144" t="s">
         <v>134</v>
       </c>
-      <c r="B24" s="155"/>
-      <c r="C24" s="156"/>
-      <c r="D24" s="155" t="s">
+      <c r="B24" s="142"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="156"/>
+      <c r="E24" s="143"/>
     </row>
     <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="160" t="s">
+      <c r="A25" s="118" t="s">
         <v>163</v>
       </c>
-      <c r="B25" s="113" t="s">
+      <c r="B25" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="114"/>
-      <c r="D25" s="161" t="s">
+      <c r="C25" s="136"/>
+      <c r="D25" s="119" t="s">
         <v>164</v>
       </c>
-      <c r="E25" s="162" t="s">
+      <c r="E25" s="120" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="158" t="s">
+      <c r="A26" s="116" t="s">
         <v>165</v>
       </c>
-      <c r="B26" s="115" t="s">
+      <c r="B26" s="129" t="s">
         <v>132</v>
       </c>
-      <c r="C26" s="116"/>
+      <c r="C26" s="130"/>
       <c r="D26" s="102" t="s">
         <v>164</v>
       </c>
-      <c r="E26" s="159"/>
+      <c r="E26" s="117"/>
     </row>
     <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="103"/>
-      <c r="B27" s="130" t="s">
+      <c r="B27" s="126" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="109"/>
@@ -2688,21 +2693,21 @@
     </row>
     <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="139"/>
+      <c r="B28" s="127"/>
       <c r="C28" s="8"/>
       <c r="D28" s="11"/>
       <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="139"/>
+      <c r="B29" s="127"/>
       <c r="C29" s="8"/>
       <c r="D29" s="11"/>
       <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="104"/>
-      <c r="B30" s="132"/>
+      <c r="B30" s="128"/>
       <c r="C30" s="108"/>
       <c r="D30" s="12"/>
       <c r="E30" s="7"/>
@@ -2862,7 +2867,7 @@
       <c r="O37" s="23"/>
     </row>
     <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="157" t="s">
+      <c r="A39" s="115" t="s">
         <v>150</v>
       </c>
       <c r="B39" s="22">
@@ -3042,19 +3047,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="J1:K1"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D1:E1"/>
@@ -3070,6 +3062,19 @@
     <mergeCell ref="B9:C10"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B7:C8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3113,7 +3118,7 @@
       <c r="E1" s="74"/>
     </row>
     <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="156" t="s">
         <v>75</v>
       </c>
       <c r="B2" s="98" t="s">
@@ -3122,7 +3127,7 @@
       <c r="C2" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="152" t="s">
+      <c r="D2" s="113" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="74"/>
@@ -3132,7 +3137,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="141"/>
+      <c r="A3" s="157"/>
       <c r="B3" s="99" t="s">
         <v>89</v>
       </c>
@@ -3149,10 +3154,10 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="141"/>
+      <c r="A4" s="157"/>
       <c r="B4" s="80"/>
       <c r="C4" s="81"/>
-      <c r="D4" s="153" t="s">
+      <c r="D4" s="114" t="s">
         <v>76</v>
       </c>
       <c r="E4" s="74"/>
@@ -3467,26 +3472,26 @@
   <sheetData>
     <row r="2" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="142" t="s">
+      <c r="C3" s="158" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="144"/>
-      <c r="L3" s="148" t="s">
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="160"/>
+      <c r="L3" s="164" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="149"/>
-      <c r="N3" s="150"/>
-      <c r="O3" s="150"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="150"/>
-      <c r="S3" s="150"/>
-      <c r="T3" s="151"/>
+      <c r="M3" s="165"/>
+      <c r="N3" s="166"/>
+      <c r="O3" s="166"/>
+      <c r="P3" s="166"/>
+      <c r="Q3" s="166"/>
+      <c r="R3" s="166"/>
+      <c r="S3" s="166"/>
+      <c r="T3" s="167"/>
     </row>
     <row r="4" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="44" t="s">
@@ -3595,15 +3600,15 @@
     <row r="8" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="145" t="s">
+      <c r="C10" s="161" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="146"/>
-      <c r="E10" s="146"/>
-      <c r="F10" s="146"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="147"/>
+      <c r="D10" s="162"/>
+      <c r="E10" s="162"/>
+      <c r="F10" s="162"/>
+      <c r="G10" s="162"/>
+      <c r="H10" s="162"/>
+      <c r="I10" s="163"/>
     </row>
     <row r="11" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="49" t="s">
@@ -3762,15 +3767,15 @@
     <row r="18" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="145" t="s">
+      <c r="C20" s="161" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="146"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="146"/>
-      <c r="H20" s="146"/>
-      <c r="I20" s="147"/>
+      <c r="D20" s="162"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="162"/>
+      <c r="G20" s="162"/>
+      <c r="H20" s="162"/>
+      <c r="I20" s="163"/>
     </row>
     <row r="21" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="49" t="s">

--- a/vak vezet vilagtalant.xlsx
+++ b/vak vezet vilagtalant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\VIZSGAREMEK\Vizsgaremek-D-K-B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DBF550-FC11-4857-B441-7D5C6E3B0102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3811A3-40EE-4F7E-8782-6ADB9BFA3EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="-120" windowWidth="21480" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7320" yWindow="-120" windowWidth="21480" windowHeight="11400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IP címek" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="211">
   <si>
     <t>192.168.1.0</t>
   </si>
@@ -443,36 +443,12 @@
     <t>G1SS3</t>
   </si>
   <si>
-    <t>10.0.0.12/30</t>
-  </si>
-  <si>
     <t>G1SS1-R1 &lt;-&gt; G1SS1-R2</t>
   </si>
   <si>
     <t>G1SS1-R1 &lt;-&gt; G1SS1-R3</t>
   </si>
   <si>
-    <t>G1SS1-R2 &lt;-&gt; G1SS1-R4</t>
-  </si>
-  <si>
-    <t>G1SS1-R3 &lt;-&gt; G1SS1-R4</t>
-  </si>
-  <si>
-    <t>10.0.0.13 , 10.0.0.14</t>
-  </si>
-  <si>
-    <t>G1SS1-R1 g0/2/0 &lt;-&gt; G1SS1-R2 g0/0/0</t>
-  </si>
-  <si>
-    <t>G1SS1-R1 g0/0/0 &lt;-&gt; G1SS1-R3 g0/0/0</t>
-  </si>
-  <si>
-    <t>G1SS1-R2 g0/2/0 &lt;-&gt; G1SS1-R4 g0/2/0</t>
-  </si>
-  <si>
-    <t>G1SS1-R3 g0/1/0 &lt;-&gt; G1SS1-R4 g0/1/0</t>
-  </si>
-  <si>
     <t>1 sw</t>
   </si>
   <si>
@@ -650,9 +626,6 @@
     <t>22.22.22.1-2</t>
   </si>
   <si>
-    <t>ISP 1 - G1SS1-R4</t>
-  </si>
-  <si>
     <t>22.22.22.4/30</t>
   </si>
   <si>
@@ -681,6 +654,21 @@
   </si>
   <si>
     <t>linux szerver: 192.168.1.116/28</t>
+  </si>
+  <si>
+    <t>G1SS1-R2 &lt;-&gt; G1SS1-R3</t>
+  </si>
+  <si>
+    <t>G1SS1-R1 g0/1/0 &lt;-&gt; G1SS1-R3 g0/1/0</t>
+  </si>
+  <si>
+    <t>G1SS1-R2 g0/2/0 &lt;-&gt; G1SS1-R3 g0/2/0</t>
+  </si>
+  <si>
+    <t>G1SS1-R1 g0/0/0 &lt;-&gt; G1SS1-R2 g0/0/0</t>
+  </si>
+  <si>
+    <t>ISP 1 - G1SS1-R3</t>
   </si>
 </sst>
 </file>
@@ -729,7 +717,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -826,6 +814,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="49">
     <border>
@@ -1679,9 +1673,6 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1721,18 +1712,6 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1820,95 +1799,104 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1945,6 +1933,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2265,10 +2259,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2291,35 +2285,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="129" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="145" t="s">
+      <c r="B1" s="129"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="146"/>
+      <c r="E1" s="128"/>
       <c r="H1" s="24" t="s">
         <v>15</v>
       </c>
       <c r="I1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="140" t="s">
+      <c r="J1" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="141"/>
+      <c r="K1" s="136"/>
     </row>
     <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="133" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="138" t="s">
+      <c r="C2" s="143"/>
+      <c r="D2" s="140" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="3"/>
@@ -2337,10 +2331,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="132"/>
-      <c r="B3" s="128"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="139"/>
+      <c r="A3" s="134"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="141"/>
       <c r="E3" s="5"/>
       <c r="H3" s="17" t="s">
         <v>22</v>
@@ -2356,14 +2350,14 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="131" t="s">
+      <c r="A4" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="126" t="s">
+      <c r="B4" s="142" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="133"/>
-      <c r="D4" s="138" t="s">
+      <c r="C4" s="143"/>
+      <c r="D4" s="140" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="4"/>
@@ -2381,422 +2375,436 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="132"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="139"/>
+      <c r="A5" s="134"/>
+      <c r="B5" s="144"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="141"/>
       <c r="E5" s="4"/>
       <c r="H5" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="I5" s="110"/>
-      <c r="J5" s="121" t="s">
-        <v>203</v>
-      </c>
-      <c r="K5" s="105" t="s">
-        <v>204</v>
+        <v>194</v>
+      </c>
+      <c r="I5" s="105"/>
+      <c r="J5" s="116" t="s">
+        <v>195</v>
+      </c>
+      <c r="K5" s="100" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="149" t="s">
+      <c r="B6" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="150"/>
+      <c r="C6" s="132"/>
       <c r="D6" s="13" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="15"/>
       <c r="H6" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="I6" s="106"/>
+      <c r="J6" s="117" t="s">
+        <v>197</v>
+      </c>
+      <c r="K6" s="102" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="133" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="142" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="143"/>
+      <c r="D7" s="140" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="96" t="s">
         <v>205</v>
       </c>
-      <c r="I6" s="111"/>
-      <c r="J6" s="122" t="s">
-        <v>206</v>
-      </c>
-      <c r="K6" s="107" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="131" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" s="126" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="133"/>
-      <c r="D7" s="138" t="s">
-        <v>130</v>
-      </c>
-      <c r="E7" s="101" t="s">
-        <v>214</v>
-      </c>
       <c r="H7" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="I7" s="112"/>
-      <c r="J7" s="123" t="s">
-        <v>209</v>
-      </c>
-      <c r="K7" s="106" t="s">
-        <v>210</v>
+        <v>199</v>
+      </c>
+      <c r="I7" s="107"/>
+      <c r="J7" s="118" t="s">
+        <v>200</v>
+      </c>
+      <c r="K7" s="101" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="132"/>
-      <c r="B8" s="128"/>
-      <c r="C8" s="134"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="102"/>
-      <c r="H8" s="124" t="s">
-        <v>211</v>
+      <c r="A8" s="134"/>
+      <c r="B8" s="144"/>
+      <c r="C8" s="145"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="97"/>
+      <c r="H8" s="119" t="s">
+        <v>202</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="J8" s="125" t="s">
-        <v>213</v>
+        <v>203</v>
+      </c>
+      <c r="J8" s="120" t="s">
+        <v>204</v>
       </c>
       <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="131" t="s">
+      <c r="A9" s="133" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="152" t="s">
+      <c r="B9" s="146" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="153"/>
-      <c r="D9" s="137" t="s">
+      <c r="C9" s="147"/>
+      <c r="D9" s="150" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="132"/>
-      <c r="B10" s="154"/>
-      <c r="C10" s="155"/>
-      <c r="D10" s="137"/>
+      <c r="A10" s="134"/>
+      <c r="B10" s="148"/>
+      <c r="C10" s="149"/>
+      <c r="D10" s="150"/>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="95" t="s">
+      <c r="A11" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="126" t="s">
+      <c r="B11" s="142" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="94" t="s">
-        <v>136</v>
+      <c r="C11" s="104" t="s">
+        <v>135</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="127"/>
+      <c r="B12" s="151"/>
       <c r="C12" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="127"/>
-      <c r="C13" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="B13" s="144"/>
+      <c r="C13" s="121" t="s">
+        <v>206</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="96" t="s">
-        <v>135</v>
-      </c>
-      <c r="B14" s="128"/>
-      <c r="C14" s="93" t="s">
-        <v>139</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="E13" s="15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="135" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" s="137"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="135" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="136"/>
+    </row>
     <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="140" t="s">
-        <v>167</v>
-      </c>
-      <c r="B16" s="151"/>
-      <c r="C16" s="141"/>
-      <c r="D16" s="140" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="141"/>
+      <c r="A16" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" s="138" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" s="139"/>
+      <c r="D16" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16" s="15"/>
     </row>
     <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="B17" s="135" t="s">
-        <v>185</v>
-      </c>
-      <c r="C17" s="136"/>
+        <v>178</v>
+      </c>
+      <c r="B17" s="138" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" s="139"/>
       <c r="D17" s="15" t="s">
-        <v>164</v>
+        <v>5</v>
       </c>
       <c r="E17" s="15"/>
     </row>
     <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="B18" s="138" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" s="139"/>
+      <c r="D18" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="98" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" s="142" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="104" t="s">
+        <v>182</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B20" s="151"/>
+      <c r="C20" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="B18" s="135" t="s">
+      <c r="E20" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C18" s="136"/>
-      <c r="D18" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="15"/>
-    </row>
-    <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="B19" s="135" t="s">
+    </row>
+    <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="99" t="s">
+        <v>192</v>
+      </c>
+      <c r="B21" s="144"/>
+      <c r="C21" s="103" t="s">
         <v>189</v>
       </c>
-      <c r="C19" s="136"/>
-      <c r="D19" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="E19" s="15"/>
-    </row>
-    <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="103" t="s">
-        <v>192</v>
-      </c>
-      <c r="B20" s="126" t="s">
+      <c r="D21" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="126" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" s="124"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="124" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="125"/>
+    </row>
+    <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="113" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" s="138" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="139"/>
+      <c r="D24" s="114" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24" s="115" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="111" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" s="152" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" s="153"/>
+      <c r="D25" s="97" t="s">
+        <v>156</v>
+      </c>
+      <c r="E25" s="112"/>
+    </row>
+    <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="98"/>
+      <c r="B26" s="142" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="109" t="s">
-        <v>190</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B21" s="127"/>
-      <c r="C21" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="104" t="s">
-        <v>200</v>
-      </c>
-      <c r="B22" s="128"/>
-      <c r="C22" s="108" t="s">
-        <v>197</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="144" t="s">
-        <v>134</v>
-      </c>
-      <c r="B24" s="142"/>
-      <c r="C24" s="143"/>
-      <c r="D24" s="142" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="143"/>
-    </row>
-    <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="118" t="s">
-        <v>163</v>
-      </c>
-      <c r="B25" s="135" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="136"/>
-      <c r="D25" s="119" t="s">
-        <v>164</v>
-      </c>
-      <c r="E25" s="120" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="116" t="s">
-        <v>165</v>
-      </c>
-      <c r="B26" s="129" t="s">
-        <v>132</v>
-      </c>
-      <c r="C26" s="130"/>
-      <c r="D26" s="102" t="s">
-        <v>164</v>
-      </c>
-      <c r="E26" s="117"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="9"/>
     </row>
     <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="103"/>
-      <c r="B27" s="126" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="109"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="9"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="151"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="127"/>
+      <c r="B28" s="151"/>
       <c r="C28" s="8"/>
       <c r="D28" s="11"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="127"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="104"/>
-      <c r="B30" s="128"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="7"/>
+    <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="99"/>
+      <c r="B29" s="144"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K30" s="23"/>
+      <c r="N30" s="23"/>
     </row>
     <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
+        <v>99</v>
+      </c>
       <c r="K31" s="23"/>
       <c r="N31" s="23"/>
     </row>
     <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>99</v>
+        <v>94</v>
+      </c>
+      <c r="B32" s="22">
+        <v>64</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>97</v>
       </c>
       <c r="K32" s="23"/>
       <c r="N32" s="23"/>
     </row>
     <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B33" s="22">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33" s="100" t="s">
-        <v>103</v>
+        <v>105</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>115</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K33" s="23"/>
       <c r="N33" s="23"/>
     </row>
-    <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B34" s="22">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="K34" s="23"/>
-      <c r="N34" s="23"/>
-    </row>
-    <row r="35" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="I34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="O34" s="23"/>
+    </row>
+    <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B35" s="22">
         <v>16</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G35" s="22" t="s">
         <v>124</v>
@@ -2810,22 +2818,22 @@
     </row>
     <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B36" s="22">
         <v>16</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G36" s="22" t="s">
         <v>124</v>
@@ -2837,53 +2845,50 @@
       <c r="L36" s="23"/>
       <c r="O36" s="23"/>
     </row>
-    <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="B37" s="22">
+    <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="110" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38" s="22">
         <v>16</v>
       </c>
-      <c r="C37" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="F37" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="G37" s="22" t="s">
+      <c r="C38" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="G38" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="H37" s="22" t="s">
+      <c r="H38" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="I37" s="23"/>
-      <c r="L37" s="23"/>
-      <c r="O37" s="23"/>
     </row>
     <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="115" t="s">
-        <v>150</v>
+      <c r="A39" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="B39" s="22">
         <v>16</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>3</v>
+        <v>143</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G39" s="22" t="s">
         <v>124</v>
@@ -2894,22 +2899,22 @@
     </row>
     <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B40" s="22">
         <v>16</v>
       </c>
       <c r="C40" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="D40" s="22" t="s">
-        <v>158</v>
-      </c>
       <c r="E40" s="22" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G40" s="22" t="s">
         <v>124</v>
@@ -2920,161 +2925,135 @@
     </row>
     <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="B41" s="22">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="E41" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="F41" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="G41" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="H41" s="22" t="s">
-        <v>98</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
-        <v>147</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="22">
+        <v>72</v>
+      </c>
+      <c r="B46" s="22">
+        <v>128</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="G46" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="H46" s="22" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="22">
-        <v>72</v>
+      <c r="A47" s="22" t="s">
+        <v>161</v>
       </c>
       <c r="B47" s="22">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>2</v>
+        <v>162</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="G47" s="22" t="s">
-        <v>182</v>
+        <v>106</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>183</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B48" s="22">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G48" s="22" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="B49" s="22">
-        <v>16</v>
-      </c>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C49" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="D49" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="E49" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="F49" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="G49" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="H49" s="22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="22" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="B4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
     <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B7:C8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3086,8 +3065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3118,199 +3097,199 @@
       <c r="E1" s="74"/>
     </row>
     <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="154" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="166" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="108" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="74"/>
       <c r="F2" s="70"/>
-      <c r="G2" s="88" t="s">
+      <c r="G2" s="87" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="157"/>
-      <c r="B3" s="99" t="s">
+      <c r="A3" s="155"/>
+      <c r="B3" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="81" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="74"/>
       <c r="F3" s="71"/>
-      <c r="G3" s="89" t="s">
+      <c r="G3" s="88" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="157"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="114" t="s">
+      <c r="A4" s="155"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="109" t="s">
         <v>76</v>
       </c>
       <c r="E4" s="74"/>
       <c r="F4" s="72"/>
-      <c r="G4" s="90" t="s">
+      <c r="G4" s="89" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="167" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="82" t="s">
+      <c r="D5" s="81" t="s">
         <v>41</v>
       </c>
       <c r="E5" s="74"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="81" t="s">
+      <c r="C6" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="82" t="s">
+      <c r="D6" s="81" t="s">
         <v>44</v>
       </c>
       <c r="E6" s="74"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="81" t="s">
+      <c r="C7" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="82" t="s">
+      <c r="D7" s="81" t="s">
         <v>45</v>
       </c>
       <c r="E7" s="74"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="82" t="s">
+      <c r="D8" s="81" t="s">
         <v>82</v>
       </c>
       <c r="E8" s="74"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="82" t="s">
+      <c r="D9" s="81" t="s">
         <v>83</v>
       </c>
       <c r="E9" s="74"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="81" t="s">
+      <c r="C10" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="82" t="s">
+      <c r="D10" s="81" t="s">
         <v>84</v>
       </c>
       <c r="E10" s="74"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="82" t="s">
+      <c r="D11" s="81" t="s">
         <v>85</v>
       </c>
       <c r="E11" s="74"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="81" t="s">
+      <c r="C12" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="82" t="s">
+      <c r="D12" s="81" t="s">
         <v>86</v>
       </c>
       <c r="E12" s="74"/>
     </row>
     <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="86" t="s">
+      <c r="A13" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="82"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="81"/>
       <c r="E13" s="74"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="80"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="82"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="81"/>
       <c r="E14" s="74"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="83"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="85"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="84"/>
       <c r="E15" s="74"/>
     </row>
     <row r="16" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3472,26 +3451,26 @@
   <sheetData>
     <row r="2" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="158" t="s">
+      <c r="C3" s="156" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="160"/>
-      <c r="L3" s="164" t="s">
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="158"/>
+      <c r="L3" s="162" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="165"/>
-      <c r="N3" s="166"/>
-      <c r="O3" s="166"/>
-      <c r="P3" s="166"/>
-      <c r="Q3" s="166"/>
-      <c r="R3" s="166"/>
-      <c r="S3" s="166"/>
-      <c r="T3" s="167"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="164"/>
+      <c r="O3" s="164"/>
+      <c r="P3" s="164"/>
+      <c r="Q3" s="164"/>
+      <c r="R3" s="164"/>
+      <c r="S3" s="164"/>
+      <c r="T3" s="165"/>
     </row>
     <row r="4" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="44" t="s">
@@ -3581,7 +3560,7 @@
       <c r="D7" s="29">
         <v>25</v>
       </c>
-      <c r="E7" s="91">
+      <c r="E7" s="90">
         <v>26</v>
       </c>
       <c r="F7" s="29">
@@ -3593,22 +3572,22 @@
       <c r="H7" s="65">
         <v>1</v>
       </c>
-      <c r="I7" s="92">
+      <c r="I7" s="91">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="161" t="s">
+      <c r="C10" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="162"/>
-      <c r="E10" s="162"/>
-      <c r="F10" s="162"/>
-      <c r="G10" s="162"/>
-      <c r="H10" s="162"/>
-      <c r="I10" s="163"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="160"/>
+      <c r="I10" s="161"/>
     </row>
     <row r="11" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="49" t="s">
@@ -3767,15 +3746,15 @@
     <row r="18" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="161" t="s">
+      <c r="C20" s="159" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="162"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="162"/>
-      <c r="G20" s="162"/>
-      <c r="H20" s="162"/>
-      <c r="I20" s="163"/>
+      <c r="D20" s="160"/>
+      <c r="E20" s="160"/>
+      <c r="F20" s="160"/>
+      <c r="G20" s="160"/>
+      <c r="H20" s="160"/>
+      <c r="I20" s="161"/>
     </row>
     <row r="21" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="49" t="s">

--- a/vak vezet vilagtalant.xlsx
+++ b/vak vezet vilagtalant.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\VIZSGAREMEK\Vizsgaremek-D-K-B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Asztali gép\Minden is\Suli\github\Vizsgaremek-D-K-B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3811A3-40EE-4F7E-8782-6ADB9BFA3EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="-120" windowWidth="21480" windowHeight="11400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7320" yWindow="-120" windowWidth="21480" windowHeight="11400" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IP címek" sheetId="1" r:id="rId1"/>
@@ -674,7 +673,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1455,7 +1454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1808,6 +1807,57 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1835,44 +1885,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1889,15 +1903,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1934,11 +1939,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2258,7 +2263,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -2285,35 +2290,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="146" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="127" t="s">
+      <c r="B1" s="146"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="128"/>
+      <c r="E1" s="145"/>
       <c r="H1" s="24" t="s">
         <v>15</v>
       </c>
       <c r="I1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="135" t="s">
+      <c r="J1" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="136"/>
+      <c r="K1" s="131"/>
     </row>
     <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="128" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="142" t="s">
+      <c r="B2" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="143"/>
-      <c r="D2" s="140" t="s">
+      <c r="C2" s="137"/>
+      <c r="D2" s="126" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="3"/>
@@ -2331,10 +2336,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="134"/>
-      <c r="B3" s="144"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="141"/>
+      <c r="A3" s="129"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="127"/>
       <c r="E3" s="5"/>
       <c r="H3" s="17" t="s">
         <v>22</v>
@@ -2350,14 +2355,14 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="142" t="s">
+      <c r="B4" s="132" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="143"/>
-      <c r="D4" s="140" t="s">
+      <c r="C4" s="137"/>
+      <c r="D4" s="126" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="4"/>
@@ -2375,10 +2380,10 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="134"/>
-      <c r="B5" s="144"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="141"/>
+      <c r="A5" s="129"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="127"/>
       <c r="E5" s="4"/>
       <c r="H5" s="16" t="s">
         <v>194</v>
@@ -2395,10 +2400,10 @@
       <c r="A6" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="131" t="s">
+      <c r="B6" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="132"/>
+      <c r="C6" s="149"/>
       <c r="D6" s="13" t="s">
         <v>4</v>
       </c>
@@ -2415,14 +2420,14 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="133" t="s">
+      <c r="A7" s="128" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="142" t="s">
+      <c r="B7" s="132" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="143"/>
-      <c r="D7" s="140" t="s">
+      <c r="C7" s="137"/>
+      <c r="D7" s="126" t="s">
         <v>130</v>
       </c>
       <c r="E7" s="96" t="s">
@@ -2440,10 +2445,10 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="134"/>
-      <c r="B8" s="144"/>
-      <c r="C8" s="145"/>
-      <c r="D8" s="141"/>
+      <c r="A8" s="129"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="127"/>
       <c r="E8" s="97"/>
       <c r="H8" s="119" t="s">
         <v>202</v>
@@ -2457,30 +2462,30 @@
       <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="133" t="s">
+      <c r="A9" s="128" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="146" t="s">
+      <c r="B9" s="151" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="147"/>
-      <c r="D9" s="150" t="s">
+      <c r="C9" s="152"/>
+      <c r="D9" s="155" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="134"/>
-      <c r="B10" s="148"/>
-      <c r="C10" s="149"/>
-      <c r="D10" s="150"/>
+      <c r="A10" s="129"/>
+      <c r="B10" s="153"/>
+      <c r="C10" s="154"/>
+      <c r="D10" s="155"/>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="142" t="s">
+      <c r="B11" s="132" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="104" t="s">
@@ -2497,7 +2502,7 @@
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="151"/>
+      <c r="B12" s="133"/>
       <c r="C12" s="8" t="s">
         <v>136</v>
       </c>
@@ -2512,7 +2517,7 @@
       <c r="A13" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="144"/>
+      <c r="B13" s="134"/>
       <c r="C13" s="121" t="s">
         <v>206</v>
       </c>
@@ -2525,24 +2530,24 @@
     </row>
     <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="135" t="s">
+      <c r="A15" s="130" t="s">
         <v>159</v>
       </c>
-      <c r="B15" s="137"/>
-      <c r="C15" s="136"/>
-      <c r="D15" s="135" t="s">
+      <c r="B15" s="150"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="136"/>
+      <c r="E15" s="131"/>
     </row>
     <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="B16" s="138" t="s">
+      <c r="B16" s="139" t="s">
         <v>177</v>
       </c>
-      <c r="C16" s="139"/>
+      <c r="C16" s="140"/>
       <c r="D16" s="15" t="s">
         <v>156</v>
       </c>
@@ -2552,10 +2557,10 @@
       <c r="A17" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="139" t="s">
         <v>179</v>
       </c>
-      <c r="C17" s="139"/>
+      <c r="C17" s="140"/>
       <c r="D17" s="15" t="s">
         <v>5</v>
       </c>
@@ -2565,10 +2570,10 @@
       <c r="A18" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="B18" s="138" t="s">
+      <c r="B18" s="139" t="s">
         <v>181</v>
       </c>
-      <c r="C18" s="139"/>
+      <c r="C18" s="140"/>
       <c r="D18" s="15" t="s">
         <v>156</v>
       </c>
@@ -2578,7 +2583,7 @@
       <c r="A19" s="98" t="s">
         <v>184</v>
       </c>
-      <c r="B19" s="142" t="s">
+      <c r="B19" s="132" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="104" t="s">
@@ -2595,7 +2600,7 @@
       <c r="A20" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B20" s="151"/>
+      <c r="B20" s="133"/>
       <c r="C20" s="8" t="s">
         <v>185</v>
       </c>
@@ -2610,7 +2615,7 @@
       <c r="A21" s="99" t="s">
         <v>192</v>
       </c>
-      <c r="B21" s="144"/>
+      <c r="B21" s="134"/>
       <c r="C21" s="103" t="s">
         <v>189</v>
       </c>
@@ -2623,24 +2628,24 @@
     </row>
     <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="126" t="s">
+      <c r="A23" s="143" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="124"/>
-      <c r="C23" s="125"/>
-      <c r="D23" s="124" t="s">
+      <c r="B23" s="141"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="125"/>
+      <c r="E23" s="142"/>
     </row>
     <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="113" t="s">
         <v>155</v>
       </c>
-      <c r="B24" s="138" t="s">
+      <c r="B24" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="139"/>
+      <c r="C24" s="140"/>
       <c r="D24" s="114" t="s">
         <v>156</v>
       </c>
@@ -2652,10 +2657,10 @@
       <c r="A25" s="111" t="s">
         <v>157</v>
       </c>
-      <c r="B25" s="152" t="s">
+      <c r="B25" s="135" t="s">
         <v>132</v>
       </c>
-      <c r="C25" s="153"/>
+      <c r="C25" s="136"/>
       <c r="D25" s="97" t="s">
         <v>156</v>
       </c>
@@ -2663,7 +2668,7 @@
     </row>
     <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="98"/>
-      <c r="B26" s="142" t="s">
+      <c r="B26" s="132" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="104"/>
@@ -2672,21 +2677,21 @@
     </row>
     <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="151"/>
+      <c r="B27" s="133"/>
       <c r="C27" s="8"/>
       <c r="D27" s="11"/>
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="151"/>
+      <c r="B28" s="133"/>
       <c r="C28" s="8"/>
       <c r="D28" s="11"/>
       <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="99"/>
-      <c r="B29" s="144"/>
+      <c r="B29" s="134"/>
       <c r="C29" s="103"/>
       <c r="D29" s="12"/>
       <c r="E29" s="7"/>
@@ -3026,6 +3031,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A4:A5"/>
@@ -3042,18 +3059,6 @@
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D9:D10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3062,10 +3067,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -3097,13 +3102,13 @@
       <c r="E1" s="74"/>
     </row>
     <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="156" t="s">
         <v>75</v>
       </c>
       <c r="B2" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="166" t="s">
+      <c r="C2" s="124" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="108" t="s">
@@ -3116,7 +3121,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="155"/>
+      <c r="A3" s="157"/>
       <c r="B3" s="94" t="s">
         <v>89</v>
       </c>
@@ -3133,7 +3138,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="155"/>
+      <c r="A4" s="157"/>
       <c r="B4" s="79"/>
       <c r="C4" s="80"/>
       <c r="D4" s="109" t="s">
@@ -3152,7 +3157,7 @@
       <c r="B5" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="167" t="s">
+      <c r="C5" s="125" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="81" t="s">
@@ -3434,11 +3439,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:T26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3451,26 +3456,26 @@
   <sheetData>
     <row r="2" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="156" t="s">
+      <c r="C3" s="158" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="158"/>
-      <c r="L3" s="162" t="s">
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="160"/>
+      <c r="L3" s="164" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="163"/>
-      <c r="N3" s="164"/>
-      <c r="O3" s="164"/>
-      <c r="P3" s="164"/>
-      <c r="Q3" s="164"/>
-      <c r="R3" s="164"/>
-      <c r="S3" s="164"/>
-      <c r="T3" s="165"/>
+      <c r="M3" s="165"/>
+      <c r="N3" s="166"/>
+      <c r="O3" s="166"/>
+      <c r="P3" s="166"/>
+      <c r="Q3" s="166"/>
+      <c r="R3" s="166"/>
+      <c r="S3" s="166"/>
+      <c r="T3" s="167"/>
     </row>
     <row r="4" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="44" t="s">
@@ -3579,15 +3584,15 @@
     <row r="8" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="159" t="s">
+      <c r="C10" s="161" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="160"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="160"/>
-      <c r="I10" s="161"/>
+      <c r="D10" s="162"/>
+      <c r="E10" s="162"/>
+      <c r="F10" s="162"/>
+      <c r="G10" s="162"/>
+      <c r="H10" s="162"/>
+      <c r="I10" s="163"/>
     </row>
     <row r="11" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="49" t="s">
@@ -3687,7 +3692,7 @@
       <c r="F15" s="25">
         <v>20</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="169">
         <v>21</v>
       </c>
       <c r="H15" s="38">
@@ -3746,15 +3751,15 @@
     <row r="18" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="159" t="s">
+      <c r="C20" s="161" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="160"/>
-      <c r="E20" s="160"/>
-      <c r="F20" s="160"/>
-      <c r="G20" s="160"/>
-      <c r="H20" s="160"/>
-      <c r="I20" s="161"/>
+      <c r="D20" s="162"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="162"/>
+      <c r="G20" s="162"/>
+      <c r="H20" s="162"/>
+      <c r="I20" s="163"/>
     </row>
     <row r="21" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="49" t="s">
@@ -3804,7 +3809,7 @@
       <c r="C23" s="26">
         <v>7</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="168">
         <v>8</v>
       </c>
       <c r="E23" s="25">

--- a/vak vezet vilagtalant.xlsx
+++ b/vak vezet vilagtalant.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Asztali gép\Minden is\Suli\github\Vizsgaremek-D-K-B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\VIZSGAREMEK\Vizsgaremek-D-K-B\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F4F917-1D23-417D-9663-5F407EFC8ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="-120" windowWidth="21480" windowHeight="11400" activeTab="2"/>
+    <workbookView xWindow="7320" yWindow="0" windowWidth="21480" windowHeight="11400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IP címek" sheetId="1" r:id="rId1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="236">
   <si>
     <t>192.168.1.0</t>
   </si>
@@ -668,12 +669,87 @@
   </si>
   <si>
     <t>ISP 1 - G1SS1-R3</t>
+  </si>
+  <si>
+    <t>192.168.1.32</t>
+  </si>
+  <si>
+    <t>192.168.1.31</t>
+  </si>
+  <si>
+    <t>192.168.1.30</t>
+  </si>
+  <si>
+    <t>192.168.1.33</t>
+  </si>
+  <si>
+    <t>vezetoseg voice</t>
+  </si>
+  <si>
+    <t>dolgozo voice</t>
+  </si>
+  <si>
+    <t>192.168.1.144</t>
+  </si>
+  <si>
+    <t>192.168.1.145</t>
+  </si>
+  <si>
+    <t>192.168.1.160</t>
+  </si>
+  <si>
+    <t>192.168.1.159</t>
+  </si>
+  <si>
+    <t>192.168.1.158</t>
+  </si>
+  <si>
+    <t>dolgozok management</t>
+  </si>
+  <si>
+    <t>vezetoseg management</t>
+  </si>
+  <si>
+    <t>/29</t>
+  </si>
+  <si>
+    <t>/30</t>
+  </si>
+  <si>
+    <t>255.255.255.248</t>
+  </si>
+  <si>
+    <t>255.255.255.252</t>
+  </si>
+  <si>
+    <t>192.168.1.168</t>
+  </si>
+  <si>
+    <t>192.168.1.172</t>
+  </si>
+  <si>
+    <t>192.168.1.167</t>
+  </si>
+  <si>
+    <t>192.168.1.171</t>
+  </si>
+  <si>
+    <t>192.168.1.169</t>
+  </si>
+  <si>
+    <t>192.168.1.170</t>
+  </si>
+  <si>
+    <t>192.168.1.161</t>
+  </si>
+  <si>
+    <t>192.168.1.166</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1813,51 +1889,81 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1877,30 +1983,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1937,12 +2019,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2263,18 +2339,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" style="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="22" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" style="22" customWidth="1"/>
     <col min="5" max="5" width="36.85546875" style="22" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" style="22" customWidth="1"/>
@@ -2290,35 +2366,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="156" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="144" t="s">
+      <c r="B1" s="156"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="145"/>
+      <c r="E1" s="155"/>
       <c r="H1" s="24" t="s">
         <v>15</v>
       </c>
       <c r="I1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="130" t="s">
+      <c r="J1" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="131"/>
+      <c r="K1" s="146"/>
     </row>
     <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="143" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="137"/>
-      <c r="D2" s="126" t="s">
+      <c r="C2" s="134"/>
+      <c r="D2" s="131" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="3"/>
@@ -2336,10 +2412,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="129"/>
-      <c r="B3" s="134"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="127"/>
+      <c r="A3" s="144"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="132"/>
       <c r="E3" s="5"/>
       <c r="H3" s="17" t="s">
         <v>22</v>
@@ -2355,14 +2431,14 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="132" t="s">
+      <c r="B4" s="133" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="137"/>
-      <c r="D4" s="126" t="s">
+      <c r="C4" s="134"/>
+      <c r="D4" s="131" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="4"/>
@@ -2380,10 +2456,10 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="129"/>
-      <c r="B5" s="134"/>
-      <c r="C5" s="138"/>
-      <c r="D5" s="127"/>
+      <c r="A5" s="144"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="132"/>
       <c r="E5" s="4"/>
       <c r="H5" s="16" t="s">
         <v>194</v>
@@ -2400,10 +2476,10 @@
       <c r="A6" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="148" t="s">
+      <c r="B6" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="149"/>
+      <c r="C6" s="142"/>
       <c r="D6" s="13" t="s">
         <v>4</v>
       </c>
@@ -2420,14 +2496,14 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="128" t="s">
+      <c r="A7" s="143" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="133" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="126" t="s">
+      <c r="C7" s="134"/>
+      <c r="D7" s="131" t="s">
         <v>130</v>
       </c>
       <c r="E7" s="96" t="s">
@@ -2445,10 +2521,10 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="129"/>
-      <c r="B8" s="134"/>
-      <c r="C8" s="138"/>
-      <c r="D8" s="127"/>
+      <c r="A8" s="144"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="132"/>
       <c r="E8" s="97"/>
       <c r="H8" s="119" t="s">
         <v>202</v>
@@ -2462,30 +2538,30 @@
       <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="128" t="s">
+      <c r="A9" s="143" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="151" t="s">
+      <c r="B9" s="137" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="152"/>
-      <c r="D9" s="155" t="s">
+      <c r="C9" s="138"/>
+      <c r="D9" s="130" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="129"/>
-      <c r="B10" s="153"/>
-      <c r="C10" s="154"/>
-      <c r="D10" s="155"/>
+      <c r="A10" s="144"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="130"/>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="132" t="s">
+      <c r="B11" s="133" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="104" t="s">
@@ -2502,7 +2578,7 @@
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="133"/>
+      <c r="B12" s="148"/>
       <c r="C12" s="8" t="s">
         <v>136</v>
       </c>
@@ -2517,7 +2593,7 @@
       <c r="A13" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="134"/>
+      <c r="B13" s="135"/>
       <c r="C13" s="121" t="s">
         <v>206</v>
       </c>
@@ -2530,24 +2606,24 @@
     </row>
     <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="130" t="s">
+      <c r="A15" s="145" t="s">
         <v>159</v>
       </c>
-      <c r="B15" s="150"/>
-      <c r="C15" s="131"/>
-      <c r="D15" s="130" t="s">
+      <c r="B15" s="147"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="131"/>
+      <c r="E15" s="146"/>
     </row>
     <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="B16" s="139" t="s">
+      <c r="B16" s="128" t="s">
         <v>177</v>
       </c>
-      <c r="C16" s="140"/>
+      <c r="C16" s="129"/>
       <c r="D16" s="15" t="s">
         <v>156</v>
       </c>
@@ -2557,10 +2633,10 @@
       <c r="A17" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="B17" s="139" t="s">
+      <c r="B17" s="128" t="s">
         <v>179</v>
       </c>
-      <c r="C17" s="140"/>
+      <c r="C17" s="129"/>
       <c r="D17" s="15" t="s">
         <v>5</v>
       </c>
@@ -2570,10 +2646,10 @@
       <c r="A18" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="B18" s="139" t="s">
+      <c r="B18" s="128" t="s">
         <v>181</v>
       </c>
-      <c r="C18" s="140"/>
+      <c r="C18" s="129"/>
       <c r="D18" s="15" t="s">
         <v>156</v>
       </c>
@@ -2583,7 +2659,7 @@
       <c r="A19" s="98" t="s">
         <v>184</v>
       </c>
-      <c r="B19" s="132" t="s">
+      <c r="B19" s="133" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="104" t="s">
@@ -2600,7 +2676,7 @@
       <c r="A20" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B20" s="133"/>
+      <c r="B20" s="148"/>
       <c r="C20" s="8" t="s">
         <v>185</v>
       </c>
@@ -2615,7 +2691,7 @@
       <c r="A21" s="99" t="s">
         <v>192</v>
       </c>
-      <c r="B21" s="134"/>
+      <c r="B21" s="135"/>
       <c r="C21" s="103" t="s">
         <v>189</v>
       </c>
@@ -2628,24 +2704,24 @@
     </row>
     <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="143" t="s">
+      <c r="A23" s="153" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="141"/>
-      <c r="C23" s="142"/>
-      <c r="D23" s="141" t="s">
+      <c r="B23" s="151"/>
+      <c r="C23" s="152"/>
+      <c r="D23" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="142"/>
+      <c r="E23" s="152"/>
     </row>
     <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="113" t="s">
         <v>155</v>
       </c>
-      <c r="B24" s="139" t="s">
+      <c r="B24" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="140"/>
+      <c r="C24" s="129"/>
       <c r="D24" s="114" t="s">
         <v>156</v>
       </c>
@@ -2657,10 +2733,10 @@
       <c r="A25" s="111" t="s">
         <v>157</v>
       </c>
-      <c r="B25" s="135" t="s">
+      <c r="B25" s="149" t="s">
         <v>132</v>
       </c>
-      <c r="C25" s="136"/>
+      <c r="C25" s="150"/>
       <c r="D25" s="97" t="s">
         <v>156</v>
       </c>
@@ -2668,7 +2744,7 @@
     </row>
     <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="98"/>
-      <c r="B26" s="132" t="s">
+      <c r="B26" s="133" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="104"/>
@@ -2677,21 +2753,21 @@
     </row>
     <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="133"/>
+      <c r="B27" s="148"/>
       <c r="C27" s="8"/>
       <c r="D27" s="11"/>
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="133"/>
+      <c r="B28" s="148"/>
       <c r="C28" s="8"/>
       <c r="D28" s="11"/>
       <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="99"/>
-      <c r="B29" s="134"/>
+      <c r="B29" s="135"/>
       <c r="C29" s="103"/>
       <c r="D29" s="12"/>
       <c r="E29" s="7"/>
@@ -2712,7 +2788,7 @@
         <v>94</v>
       </c>
       <c r="B32" s="22">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C32" s="22" t="s">
         <v>0</v>
@@ -2721,95 +2797,91 @@
         <v>103</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>107</v>
+        <v>213</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>104</v>
+        <v>212</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K32" s="23"/>
       <c r="N32" s="23"/>
     </row>
     <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>100</v>
+        <v>216</v>
       </c>
       <c r="B33" s="22">
         <v>32</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>115</v>
+        <v>211</v>
+      </c>
+      <c r="D33" s="95" t="s">
+        <v>214</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G33" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="H33" s="22" t="s">
-        <v>102</v>
-      </c>
       <c r="K33" s="23"/>
       <c r="N33" s="23"/>
     </row>
-    <row r="34" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="22">
+        <v>32</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="K34" s="23"/>
+      <c r="N34" s="23"/>
+    </row>
+    <row r="35" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
         <v>95</v>
-      </c>
-      <c r="B34" s="22">
-        <v>16</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="F34" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="G34" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="H34" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="I34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="O34" s="23"/>
-    </row>
-    <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
-        <v>96</v>
       </c>
       <c r="B35" s="22">
         <v>16</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G35" s="22" t="s">
         <v>124</v>
@@ -2823,22 +2895,22 @@
     </row>
     <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>101</v>
+        <v>215</v>
       </c>
       <c r="B36" s="22">
         <v>16</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G36" s="22" t="s">
         <v>124</v>
@@ -2850,24 +2922,53 @@
       <c r="L36" s="23"/>
       <c r="O36" s="23"/>
     </row>
+    <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="22">
+        <v>16</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="H37" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="I37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="O37" s="23"/>
+    </row>
     <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="110" t="s">
-        <v>142</v>
+      <c r="A38" s="22" t="s">
+        <v>101</v>
       </c>
       <c r="B38" s="22">
         <v>16</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>3</v>
+        <v>217</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>149</v>
+        <v>218</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>154</v>
+        <v>221</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>146</v>
+        <v>220</v>
       </c>
       <c r="G38" s="22" t="s">
         <v>124</v>
@@ -2878,173 +2979,242 @@
     </row>
     <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>141</v>
+        <v>222</v>
       </c>
       <c r="B39" s="22">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>143</v>
+        <v>219</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>150</v>
+        <v>234</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>153</v>
+        <v>235</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>147</v>
+        <v>230</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>124</v>
+        <v>226</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="B40" s="22">
+        <v>4</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="G40" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="H40" s="22" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="22" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="110" t="s">
+        <v>142</v>
+      </c>
+      <c r="B43" s="22">
+        <v>16</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="G43" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="H43" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B44" s="22">
+        <v>16</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="G44" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="H44" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="B40" s="22">
+      <c r="B45" s="22">
         <v>16</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C45" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D45" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E45" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="F40" s="22" t="s">
+      <c r="F45" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="G40" s="22" t="s">
+      <c r="G45" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="H40" s="22" t="s">
+      <c r="H45" s="22" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
+    <row r="46" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C46" s="22" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="22">
-        <v>72</v>
-      </c>
-      <c r="B46" s="22">
-        <v>128</v>
-      </c>
-      <c r="C46" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="E46" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="F46" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="G46" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="H46" s="22" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="B47" s="22">
-        <v>64</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="D47" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="E47" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="F47" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="G47" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="H47" s="22" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="22">
+        <v>72</v>
+      </c>
+      <c r="B51" s="22">
+        <v>128</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="F51" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="G51" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="H51" s="22" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52" s="22">
+        <v>64</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="F52" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="G52" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="H52" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="B48" s="22">
+      <c r="B53" s="22">
         <v>16</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C53" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D53" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="E48" s="22" t="s">
+      <c r="E53" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="F48" s="22" t="s">
+      <c r="F53" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="G48" s="22" t="s">
+      <c r="G53" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="H48" s="22" t="s">
+      <c r="H53" s="22" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="22" t="s">
+    <row r="54" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="22" t="s">
         <v>164</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A7:A8"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="B26:B29"/>
@@ -3059,6 +3229,20 @@
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3067,11 +3251,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3102,7 +3286,7 @@
       <c r="E1" s="74"/>
     </row>
     <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="158" t="s">
         <v>75</v>
       </c>
       <c r="B2" s="93" t="s">
@@ -3121,7 +3305,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="157"/>
+      <c r="A3" s="159"/>
       <c r="B3" s="94" t="s">
         <v>89</v>
       </c>
@@ -3138,7 +3322,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="157"/>
+      <c r="A4" s="159"/>
       <c r="B4" s="79"/>
       <c r="C4" s="80"/>
       <c r="D4" s="109" t="s">
@@ -3439,10 +3623,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C2:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -3456,26 +3640,26 @@
   <sheetData>
     <row r="2" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="158" t="s">
+      <c r="C3" s="160" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="160"/>
-      <c r="L3" s="164" t="s">
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="162"/>
+      <c r="L3" s="166" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="165"/>
-      <c r="N3" s="166"/>
-      <c r="O3" s="166"/>
-      <c r="P3" s="166"/>
-      <c r="Q3" s="166"/>
-      <c r="R3" s="166"/>
-      <c r="S3" s="166"/>
-      <c r="T3" s="167"/>
+      <c r="M3" s="167"/>
+      <c r="N3" s="168"/>
+      <c r="O3" s="168"/>
+      <c r="P3" s="168"/>
+      <c r="Q3" s="168"/>
+      <c r="R3" s="168"/>
+      <c r="S3" s="168"/>
+      <c r="T3" s="169"/>
     </row>
     <row r="4" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="44" t="s">
@@ -3584,15 +3768,15 @@
     <row r="8" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="161" t="s">
+      <c r="C10" s="163" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="162"/>
-      <c r="E10" s="162"/>
-      <c r="F10" s="162"/>
-      <c r="G10" s="162"/>
-      <c r="H10" s="162"/>
-      <c r="I10" s="163"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="164"/>
+      <c r="G10" s="164"/>
+      <c r="H10" s="164"/>
+      <c r="I10" s="165"/>
     </row>
     <row r="11" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="49" t="s">
@@ -3692,7 +3876,7 @@
       <c r="F15" s="25">
         <v>20</v>
       </c>
-      <c r="G15" s="169">
+      <c r="G15" s="127">
         <v>21</v>
       </c>
       <c r="H15" s="38">
@@ -3751,15 +3935,15 @@
     <row r="18" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="161" t="s">
+      <c r="C20" s="163" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="162"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="162"/>
-      <c r="G20" s="162"/>
-      <c r="H20" s="162"/>
-      <c r="I20" s="163"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="164"/>
+      <c r="F20" s="164"/>
+      <c r="G20" s="164"/>
+      <c r="H20" s="164"/>
+      <c r="I20" s="165"/>
     </row>
     <row r="21" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="49" t="s">
@@ -3809,7 +3993,7 @@
       <c r="C23" s="26">
         <v>7</v>
       </c>
-      <c r="D23" s="168">
+      <c r="D23" s="126">
         <v>8</v>
       </c>
       <c r="E23" s="25">

--- a/vak vezet vilagtalant.xlsx
+++ b/vak vezet vilagtalant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\VIZSGAREMEK\Vizsgaremek-D-K-B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meste\OneDrive\Desktop\Új mappa\Vizsgaremek-D-K-B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F4F917-1D23-417D-9663-5F407EFC8ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268613E1-A84A-48A0-B291-73B604E3CC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="0" windowWidth="21480" windowHeight="11400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IP címek" sheetId="1" r:id="rId1"/>
@@ -1530,7 +1530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1796,9 +1796,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1811,15 +1808,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1874,15 +1862,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1895,43 +1874,79 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1940,51 +1955,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2020,6 +1990,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2044,9 +2017,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022 téma">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2084,7 +2057,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2190,7 +2163,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2332,7 +2305,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2366,35 +2339,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="139" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="154" t="s">
+      <c r="B1" s="139"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="155"/>
+      <c r="E1" s="138"/>
       <c r="H1" s="24" t="s">
         <v>15</v>
       </c>
       <c r="I1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="145" t="s">
+      <c r="J1" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="146"/>
+      <c r="K1" s="124"/>
     </row>
     <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="131" t="s">
+      <c r="C2" s="130"/>
+      <c r="D2" s="142" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="3"/>
@@ -2412,10 +2385,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="144"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="132"/>
+      <c r="A3" s="122"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="143"/>
       <c r="E3" s="5"/>
       <c r="H3" s="17" t="s">
         <v>22</v>
@@ -2431,14 +2404,14 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="143" t="s">
+      <c r="A4" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="125" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="134"/>
-      <c r="D4" s="131" t="s">
+      <c r="C4" s="130"/>
+      <c r="D4" s="142" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="4"/>
@@ -2456,19 +2429,19 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="144"/>
-      <c r="B5" s="135"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="132"/>
+      <c r="A5" s="122"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="143"/>
       <c r="E5" s="4"/>
       <c r="H5" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="I5" s="105"/>
-      <c r="J5" s="116" t="s">
+      <c r="I5" s="101"/>
+      <c r="J5" s="112" t="s">
         <v>195</v>
       </c>
-      <c r="K5" s="100" t="s">
+      <c r="K5" s="3" t="s">
         <v>210</v>
       </c>
     </row>
@@ -2476,10 +2449,10 @@
       <c r="A6" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="146" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="142"/>
+      <c r="C6" s="147"/>
       <c r="D6" s="13" t="s">
         <v>4</v>
       </c>
@@ -2487,84 +2460,84 @@
       <c r="H6" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="I6" s="106"/>
-      <c r="J6" s="117" t="s">
+      <c r="I6" s="102"/>
+      <c r="J6" s="113" t="s">
         <v>197</v>
       </c>
-      <c r="K6" s="102" t="s">
+      <c r="K6" s="4" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="143" t="s">
+      <c r="A7" s="121" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="125" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="131" t="s">
+      <c r="C7" s="130"/>
+      <c r="D7" s="142" t="s">
         <v>130</v>
       </c>
-      <c r="E7" s="96" t="s">
+      <c r="E7" s="95" t="s">
         <v>205</v>
       </c>
       <c r="H7" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="I7" s="107"/>
-      <c r="J7" s="118" t="s">
+      <c r="I7" s="103"/>
+      <c r="J7" s="114" t="s">
         <v>200</v>
       </c>
-      <c r="K7" s="101" t="s">
+      <c r="K7" s="5" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="144"/>
-      <c r="B8" s="135"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="97"/>
-      <c r="H8" s="119" t="s">
+      <c r="A8" s="122"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="143"/>
+      <c r="E8" s="96"/>
+      <c r="H8" s="115" t="s">
         <v>202</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="J8" s="120" t="s">
+      <c r="J8" s="116" t="s">
         <v>204</v>
       </c>
       <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="143" t="s">
+      <c r="A9" s="121" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="125" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="138"/>
-      <c r="D9" s="130" t="s">
+      <c r="C9" s="130"/>
+      <c r="D9" s="144" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="144"/>
-      <c r="B10" s="139"/>
-      <c r="C10" s="140"/>
-      <c r="D10" s="130"/>
+      <c r="A10" s="122"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="145"/>
+      <c r="D10" s="144"/>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="122" t="s">
+      <c r="A11" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="133" t="s">
+      <c r="B11" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="104" t="s">
+      <c r="C11" s="100" t="s">
         <v>135</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -2578,7 +2551,7 @@
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="148"/>
+      <c r="B12" s="126"/>
       <c r="C12" s="8" t="s">
         <v>136</v>
       </c>
@@ -2590,11 +2563,11 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="123" t="s">
+      <c r="A13" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="135"/>
-      <c r="C13" s="121" t="s">
+      <c r="B13" s="127"/>
+      <c r="C13" s="99" t="s">
         <v>206</v>
       </c>
       <c r="D13" s="12" t="s">
@@ -2606,24 +2579,24 @@
     </row>
     <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="145" t="s">
+      <c r="A15" s="123" t="s">
         <v>159</v>
       </c>
-      <c r="B15" s="147"/>
-      <c r="C15" s="146"/>
-      <c r="D15" s="145" t="s">
+      <c r="B15" s="141"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="146"/>
+      <c r="E15" s="124"/>
     </row>
     <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="B16" s="128" t="s">
+      <c r="B16" s="132" t="s">
         <v>177</v>
       </c>
-      <c r="C16" s="129"/>
+      <c r="C16" s="133"/>
       <c r="D16" s="15" t="s">
         <v>156</v>
       </c>
@@ -2633,10 +2606,10 @@
       <c r="A17" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="B17" s="128" t="s">
+      <c r="B17" s="132" t="s">
         <v>179</v>
       </c>
-      <c r="C17" s="129"/>
+      <c r="C17" s="133"/>
       <c r="D17" s="15" t="s">
         <v>5</v>
       </c>
@@ -2646,23 +2619,23 @@
       <c r="A18" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="B18" s="128" t="s">
+      <c r="B18" s="132" t="s">
         <v>181</v>
       </c>
-      <c r="C18" s="129"/>
+      <c r="C18" s="133"/>
       <c r="D18" s="15" t="s">
         <v>156</v>
       </c>
       <c r="E18" s="15"/>
     </row>
     <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="98" t="s">
+      <c r="A19" s="97" t="s">
         <v>184</v>
       </c>
-      <c r="B19" s="133" t="s">
+      <c r="B19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="104" t="s">
+      <c r="C19" s="100" t="s">
         <v>182</v>
       </c>
       <c r="D19" s="10" t="s">
@@ -2676,7 +2649,7 @@
       <c r="A20" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B20" s="148"/>
+      <c r="B20" s="126"/>
       <c r="C20" s="8" t="s">
         <v>185</v>
       </c>
@@ -2688,11 +2661,11 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="99" t="s">
+      <c r="A21" s="98" t="s">
         <v>192</v>
       </c>
-      <c r="B21" s="135"/>
-      <c r="C21" s="103" t="s">
+      <c r="B21" s="127"/>
+      <c r="C21" s="99" t="s">
         <v>189</v>
       </c>
       <c r="D21" s="12" t="s">
@@ -2704,71 +2677,71 @@
     </row>
     <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="153" t="s">
+      <c r="A23" s="136" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="151"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="151" t="s">
+      <c r="B23" s="134"/>
+      <c r="C23" s="135"/>
+      <c r="D23" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="152"/>
+      <c r="E23" s="135"/>
     </row>
     <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="113" t="s">
+      <c r="A24" s="109" t="s">
         <v>155</v>
       </c>
-      <c r="B24" s="128" t="s">
+      <c r="B24" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="129"/>
-      <c r="D24" s="114" t="s">
+      <c r="C24" s="133"/>
+      <c r="D24" s="110" t="s">
         <v>156</v>
       </c>
-      <c r="E24" s="115" t="s">
+      <c r="E24" s="111" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="111" t="s">
+      <c r="A25" s="107" t="s">
         <v>157</v>
       </c>
-      <c r="B25" s="149" t="s">
+      <c r="B25" s="128" t="s">
         <v>132</v>
       </c>
-      <c r="C25" s="150"/>
-      <c r="D25" s="97" t="s">
+      <c r="C25" s="129"/>
+      <c r="D25" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="E25" s="112"/>
+      <c r="E25" s="108"/>
     </row>
     <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="98"/>
-      <c r="B26" s="133" t="s">
+      <c r="A26" s="97"/>
+      <c r="B26" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="104"/>
+      <c r="C26" s="100"/>
       <c r="D26" s="10"/>
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="148"/>
+      <c r="B27" s="126"/>
       <c r="C27" s="8"/>
       <c r="D27" s="11"/>
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="148"/>
+      <c r="B28" s="126"/>
       <c r="C28" s="8"/>
       <c r="D28" s="11"/>
       <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="99"/>
-      <c r="B29" s="135"/>
-      <c r="C29" s="103"/>
+      <c r="A29" s="98"/>
+      <c r="B29" s="127"/>
+      <c r="C29" s="99"/>
       <c r="D29" s="12"/>
       <c r="E29" s="7"/>
     </row>
@@ -2793,7 +2766,7 @@
       <c r="C32" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="95" t="s">
+      <c r="D32" s="22" t="s">
         <v>103</v>
       </c>
       <c r="E32" s="22" t="s">
@@ -2821,7 +2794,7 @@
       <c r="C33" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="D33" s="95" t="s">
+      <c r="D33" s="22" t="s">
         <v>214</v>
       </c>
       <c r="E33" s="22" t="s">
@@ -3035,7 +3008,7 @@
       </c>
     </row>
     <row r="43" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="110" t="s">
+      <c r="A43" s="106" t="s">
         <v>142</v>
       </c>
       <c r="B43" s="22">
@@ -3215,6 +3188,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D9:D10"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="B26:B29"/>
@@ -3231,18 +3216,6 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3255,7 +3228,7 @@
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3286,16 +3259,16 @@
       <c r="E1" s="74"/>
     </row>
     <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="148" t="s">
         <v>75</v>
       </c>
       <c r="B2" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="108" t="s">
+      <c r="D2" s="104" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="74"/>
@@ -3305,7 +3278,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="159"/>
+      <c r="A3" s="149"/>
       <c r="B3" s="94" t="s">
         <v>89</v>
       </c>
@@ -3322,10 +3295,10 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="159"/>
+      <c r="A4" s="149"/>
       <c r="B4" s="79"/>
       <c r="C4" s="80"/>
-      <c r="D4" s="109" t="s">
+      <c r="D4" s="105" t="s">
         <v>76</v>
       </c>
       <c r="E4" s="74"/>
@@ -3338,10 +3311,10 @@
       <c r="A5" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="160" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="125" t="s">
+      <c r="C5" s="118" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="81" t="s">
@@ -3640,26 +3613,26 @@
   <sheetData>
     <row r="2" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="160" t="s">
+      <c r="C3" s="150" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="162"/>
-      <c r="L3" s="166" t="s">
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="152"/>
+      <c r="L3" s="156" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="167"/>
-      <c r="N3" s="168"/>
-      <c r="O3" s="168"/>
-      <c r="P3" s="168"/>
-      <c r="Q3" s="168"/>
-      <c r="R3" s="168"/>
-      <c r="S3" s="168"/>
-      <c r="T3" s="169"/>
+      <c r="M3" s="157"/>
+      <c r="N3" s="158"/>
+      <c r="O3" s="158"/>
+      <c r="P3" s="158"/>
+      <c r="Q3" s="158"/>
+      <c r="R3" s="158"/>
+      <c r="S3" s="158"/>
+      <c r="T3" s="159"/>
     </row>
     <row r="4" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="44" t="s">
@@ -3768,15 +3741,15 @@
     <row r="8" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="163" t="s">
+      <c r="C10" s="153" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="164"/>
-      <c r="E10" s="164"/>
-      <c r="F10" s="164"/>
-      <c r="G10" s="164"/>
-      <c r="H10" s="164"/>
-      <c r="I10" s="165"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="154"/>
+      <c r="F10" s="154"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="155"/>
     </row>
     <row r="11" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="49" t="s">
@@ -3876,7 +3849,7 @@
       <c r="F15" s="25">
         <v>20</v>
       </c>
-      <c r="G15" s="127">
+      <c r="G15" s="120">
         <v>21</v>
       </c>
       <c r="H15" s="38">
@@ -3935,15 +3908,15 @@
     <row r="18" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="163" t="s">
+      <c r="C20" s="153" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="164"/>
-      <c r="E20" s="164"/>
-      <c r="F20" s="164"/>
-      <c r="G20" s="164"/>
-      <c r="H20" s="164"/>
-      <c r="I20" s="165"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="154"/>
+      <c r="F20" s="154"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="154"/>
+      <c r="I20" s="155"/>
     </row>
     <row r="21" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="49" t="s">
@@ -3993,7 +3966,7 @@
       <c r="C23" s="26">
         <v>7</v>
       </c>
-      <c r="D23" s="126">
+      <c r="D23" s="119">
         <v>8</v>
       </c>
       <c r="E23" s="25">

--- a/vak vezet vilagtalant.xlsx
+++ b/vak vezet vilagtalant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meste\OneDrive\Desktop\Új mappa\Vizsgaremek-D-K-B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268613E1-A84A-48A0-B291-73B604E3CC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDBD84E-9755-4671-B04B-4A10E69C4DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1874,6 +1874,18 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1907,12 +1919,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1934,16 +1940,10 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1955,6 +1955,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1990,9 +1993,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2339,35 +2339,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="141" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="137" t="s">
+      <c r="B1" s="141"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="138"/>
+      <c r="E1" s="140"/>
       <c r="H1" s="24" t="s">
         <v>15</v>
       </c>
       <c r="I1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="123" t="s">
+      <c r="J1" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="124"/>
+      <c r="K1" s="128"/>
     </row>
     <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="125" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="142" t="s">
+      <c r="C2" s="134"/>
+      <c r="D2" s="143" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="3"/>
@@ -2385,10 +2385,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="122"/>
-      <c r="B3" s="127"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="143"/>
+      <c r="A3" s="126"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="144"/>
       <c r="E3" s="5"/>
       <c r="H3" s="17" t="s">
         <v>22</v>
@@ -2404,14 +2404,14 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="121" t="s">
+      <c r="A4" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="125" t="s">
+      <c r="B4" s="129" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="130"/>
-      <c r="D4" s="142" t="s">
+      <c r="C4" s="134"/>
+      <c r="D4" s="143" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="4"/>
@@ -2429,10 +2429,10 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="122"/>
-      <c r="B5" s="127"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="143"/>
+      <c r="A5" s="126"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="144"/>
       <c r="E5" s="4"/>
       <c r="H5" s="16" t="s">
         <v>194</v>
@@ -2469,14 +2469,14 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="125" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="129" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="130"/>
-      <c r="D7" s="142" t="s">
+      <c r="C7" s="134"/>
+      <c r="D7" s="143" t="s">
         <v>130</v>
       </c>
       <c r="E7" s="95" t="s">
@@ -2494,10 +2494,10 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="122"/>
-      <c r="B8" s="127"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="143"/>
+      <c r="A8" s="126"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="144"/>
       <c r="E8" s="96"/>
       <c r="H8" s="115" t="s">
         <v>202</v>
@@ -2511,30 +2511,30 @@
       <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="125" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="125" t="s">
+      <c r="B9" s="129" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="130"/>
-      <c r="D9" s="144" t="s">
+      <c r="C9" s="134"/>
+      <c r="D9" s="124" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="122"/>
-      <c r="B10" s="127"/>
+      <c r="A10" s="126"/>
+      <c r="B10" s="131"/>
       <c r="C10" s="145"/>
-      <c r="D10" s="144"/>
+      <c r="D10" s="124"/>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="125" t="s">
+      <c r="B11" s="129" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="100" t="s">
@@ -2551,7 +2551,7 @@
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="126"/>
+      <c r="B12" s="130"/>
       <c r="C12" s="8" t="s">
         <v>136</v>
       </c>
@@ -2566,7 +2566,7 @@
       <c r="A13" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="127"/>
+      <c r="B13" s="131"/>
       <c r="C13" s="99" t="s">
         <v>206</v>
       </c>
@@ -2579,24 +2579,24 @@
     </row>
     <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="123" t="s">
+      <c r="A15" s="127" t="s">
         <v>159</v>
       </c>
-      <c r="B15" s="141"/>
-      <c r="C15" s="124"/>
-      <c r="D15" s="123" t="s">
+      <c r="B15" s="148"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="124"/>
+      <c r="E15" s="128"/>
     </row>
     <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="B16" s="132" t="s">
+      <c r="B16" s="122" t="s">
         <v>177</v>
       </c>
-      <c r="C16" s="133"/>
+      <c r="C16" s="123"/>
       <c r="D16" s="15" t="s">
         <v>156</v>
       </c>
@@ -2606,10 +2606,10 @@
       <c r="A17" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="B17" s="132" t="s">
+      <c r="B17" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="C17" s="133"/>
+      <c r="C17" s="123"/>
       <c r="D17" s="15" t="s">
         <v>5</v>
       </c>
@@ -2619,10 +2619,10 @@
       <c r="A18" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="B18" s="132" t="s">
+      <c r="B18" s="122" t="s">
         <v>181</v>
       </c>
-      <c r="C18" s="133"/>
+      <c r="C18" s="123"/>
       <c r="D18" s="15" t="s">
         <v>156</v>
       </c>
@@ -2632,7 +2632,7 @@
       <c r="A19" s="97" t="s">
         <v>184</v>
       </c>
-      <c r="B19" s="125" t="s">
+      <c r="B19" s="129" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="100" t="s">
@@ -2649,7 +2649,7 @@
       <c r="A20" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B20" s="126"/>
+      <c r="B20" s="130"/>
       <c r="C20" s="8" t="s">
         <v>185</v>
       </c>
@@ -2664,7 +2664,7 @@
       <c r="A21" s="98" t="s">
         <v>192</v>
       </c>
-      <c r="B21" s="127"/>
+      <c r="B21" s="131"/>
       <c r="C21" s="99" t="s">
         <v>189</v>
       </c>
@@ -2677,24 +2677,24 @@
     </row>
     <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="136" t="s">
+      <c r="A23" s="138" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="134"/>
-      <c r="C23" s="135"/>
-      <c r="D23" s="134" t="s">
+      <c r="B23" s="136"/>
+      <c r="C23" s="137"/>
+      <c r="D23" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="135"/>
+      <c r="E23" s="137"/>
     </row>
     <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="109" t="s">
         <v>155</v>
       </c>
-      <c r="B24" s="132" t="s">
+      <c r="B24" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="133"/>
+      <c r="C24" s="123"/>
       <c r="D24" s="110" t="s">
         <v>156</v>
       </c>
@@ -2706,10 +2706,10 @@
       <c r="A25" s="107" t="s">
         <v>157</v>
       </c>
-      <c r="B25" s="128" t="s">
+      <c r="B25" s="132" t="s">
         <v>132</v>
       </c>
-      <c r="C25" s="129"/>
+      <c r="C25" s="133"/>
       <c r="D25" s="96" t="s">
         <v>156</v>
       </c>
@@ -2717,7 +2717,7 @@
     </row>
     <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="97"/>
-      <c r="B26" s="125" t="s">
+      <c r="B26" s="129" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="100"/>
@@ -2726,21 +2726,21 @@
     </row>
     <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="126"/>
+      <c r="B27" s="130"/>
       <c r="C27" s="8"/>
       <c r="D27" s="11"/>
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="126"/>
+      <c r="B28" s="130"/>
       <c r="C28" s="8"/>
       <c r="D28" s="11"/>
       <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="98"/>
-      <c r="B29" s="127"/>
+      <c r="B29" s="131"/>
       <c r="C29" s="99"/>
       <c r="D29" s="12"/>
       <c r="E29" s="7"/>
@@ -3198,6 +3198,8 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="D15:E15"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="A4:A5"/>
@@ -3214,8 +3216,6 @@
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="D15:E15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3228,7 +3228,7 @@
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3259,7 +3259,7 @@
       <c r="E1" s="74"/>
     </row>
     <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="149" t="s">
         <v>75</v>
       </c>
       <c r="B2" s="93" t="s">
@@ -3278,7 +3278,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="149"/>
+      <c r="A3" s="150"/>
       <c r="B3" s="94" t="s">
         <v>89</v>
       </c>
@@ -3295,7 +3295,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="149"/>
+      <c r="A4" s="150"/>
       <c r="B4" s="79"/>
       <c r="C4" s="80"/>
       <c r="D4" s="105" t="s">
@@ -3311,7 +3311,7 @@
       <c r="A5" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="160" t="s">
+      <c r="B5" s="121" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="118" t="s">
@@ -3326,7 +3326,7 @@
       <c r="A6" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="121" t="s">
         <v>81</v>
       </c>
       <c r="C6" s="80" t="s">
@@ -3613,26 +3613,26 @@
   <sheetData>
     <row r="2" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="150" t="s">
+      <c r="C3" s="151" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="152"/>
-      <c r="L3" s="156" t="s">
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="153"/>
+      <c r="L3" s="157" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="157"/>
-      <c r="N3" s="158"/>
-      <c r="O3" s="158"/>
-      <c r="P3" s="158"/>
-      <c r="Q3" s="158"/>
-      <c r="R3" s="158"/>
-      <c r="S3" s="158"/>
-      <c r="T3" s="159"/>
+      <c r="M3" s="158"/>
+      <c r="N3" s="159"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="159"/>
+      <c r="Q3" s="159"/>
+      <c r="R3" s="159"/>
+      <c r="S3" s="159"/>
+      <c r="T3" s="160"/>
     </row>
     <row r="4" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="44" t="s">
@@ -3741,15 +3741,15 @@
     <row r="8" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="153" t="s">
+      <c r="C10" s="154" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="154"/>
-      <c r="E10" s="154"/>
-      <c r="F10" s="154"/>
-      <c r="G10" s="154"/>
-      <c r="H10" s="154"/>
-      <c r="I10" s="155"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="155"/>
+      <c r="I10" s="156"/>
     </row>
     <row r="11" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="49" t="s">
@@ -3908,15 +3908,15 @@
     <row r="18" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="153" t="s">
+      <c r="C20" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="154"/>
-      <c r="E20" s="154"/>
-      <c r="F20" s="154"/>
-      <c r="G20" s="154"/>
-      <c r="H20" s="154"/>
-      <c r="I20" s="155"/>
+      <c r="D20" s="155"/>
+      <c r="E20" s="155"/>
+      <c r="F20" s="155"/>
+      <c r="G20" s="155"/>
+      <c r="H20" s="155"/>
+      <c r="I20" s="156"/>
     </row>
     <row r="21" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="49" t="s">

--- a/vak vezet vilagtalant.xlsx
+++ b/vak vezet vilagtalant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meste\OneDrive\Desktop\Új mappa\Vizsgaremek-D-K-B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\VIZSGAREMEK\Vizsgaremek-D-K-B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDBD84E-9755-4671-B04B-4A10E69C4DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B257A5-3966-4947-929B-5FFA6871E188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13230" yWindow="525" windowWidth="21480" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IP címek" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="248">
   <si>
     <t>192.168.1.0</t>
   </si>
@@ -329,9 +329,6 @@
     <t>4 rendszergazda</t>
   </si>
   <si>
-    <t>/26</t>
-  </si>
-  <si>
     <t>/28</t>
   </si>
   <si>
@@ -356,9 +353,6 @@
     <t>192.168.1.64</t>
   </si>
   <si>
-    <t>255.255.255.192</t>
-  </si>
-  <si>
     <t>192.168.1.62</t>
   </si>
   <si>
@@ -518,30 +512,12 @@
     <t>G1SS2</t>
   </si>
   <si>
-    <t>szerverek + sw +router + admin</t>
-  </si>
-  <si>
-    <t>vendég vezeték nélküli</t>
-  </si>
-  <si>
     <t>192.168.2.128</t>
   </si>
   <si>
-    <t>192.168.2.192</t>
-  </si>
-  <si>
-    <t>192.168.2.208</t>
-  </si>
-  <si>
     <t>192.168.2.127</t>
   </si>
   <si>
-    <t>192.168.2.191</t>
-  </si>
-  <si>
-    <t>192.168.2.207</t>
-  </si>
-  <si>
     <t>192.168.2.1</t>
   </si>
   <si>
@@ -551,21 +527,6 @@
     <t>192.168.2.129</t>
   </si>
   <si>
-    <t>192.168.2.193</t>
-  </si>
-  <si>
-    <t>192.168.2.190</t>
-  </si>
-  <si>
-    <t>192.168.2.206</t>
-  </si>
-  <si>
-    <t>255.255.255.128</t>
-  </si>
-  <si>
-    <t>/25</t>
-  </si>
-  <si>
     <t>192.168.2.0/25</t>
   </si>
   <si>
@@ -744,6 +705,81 @@
   </si>
   <si>
     <t>192.168.1.166</t>
+  </si>
+  <si>
+    <t>17 dolgozo</t>
+  </si>
+  <si>
+    <t>17 ip telefon</t>
+  </si>
+  <si>
+    <t>management</t>
+  </si>
+  <si>
+    <t>wireless dolgozok</t>
+  </si>
+  <si>
+    <t>wireless vendeg</t>
+  </si>
+  <si>
+    <t>tesztelo helyseg</t>
+  </si>
+  <si>
+    <t>192.168.2.32</t>
+  </si>
+  <si>
+    <t>192.168.2.64</t>
+  </si>
+  <si>
+    <t>192.168.2.96</t>
+  </si>
+  <si>
+    <t>192.168.2.144</t>
+  </si>
+  <si>
+    <t>192.168.2.160</t>
+  </si>
+  <si>
+    <t>192.168.2.31</t>
+  </si>
+  <si>
+    <t>192.168.2.63</t>
+  </si>
+  <si>
+    <t>192.168.2.95</t>
+  </si>
+  <si>
+    <t>192.168.2.143</t>
+  </si>
+  <si>
+    <t>192.168.2.159</t>
+  </si>
+  <si>
+    <t>192.168.2.33</t>
+  </si>
+  <si>
+    <t>192.168.2.65</t>
+  </si>
+  <si>
+    <t>192.168.2.97</t>
+  </si>
+  <si>
+    <t>192.168.2.145</t>
+  </si>
+  <si>
+    <t>192.168.2.30</t>
+  </si>
+  <si>
+    <t>192.168.2.62</t>
+  </si>
+  <si>
+    <t>192.168.2.94</t>
+  </si>
+  <si>
+    <t>192.168.2.142</t>
+  </si>
+  <si>
+    <t>192.168.2.158</t>
   </si>
 </sst>
 </file>
@@ -1877,48 +1913,66 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1938,24 +1992,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2017,9 +2053,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022 téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2057,7 +2093,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2163,7 +2199,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2305,7 +2341,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2313,10 +2349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O54"/>
+  <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2339,35 +2375,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="141" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="139" t="s">
+      <c r="A1" s="147" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="147"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="140"/>
+      <c r="E1" s="146"/>
       <c r="H1" s="24" t="s">
         <v>15</v>
       </c>
       <c r="I1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="127" t="s">
+      <c r="J1" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="128"/>
+      <c r="K1" s="135"/>
     </row>
     <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="125" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="129" t="s">
+      <c r="A2" s="136" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="143" t="s">
+      <c r="C2" s="125"/>
+      <c r="D2" s="122" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="3"/>
@@ -2385,10 +2421,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="126"/>
-      <c r="B3" s="131"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="144"/>
+      <c r="A3" s="137"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="123"/>
       <c r="E3" s="5"/>
       <c r="H3" s="17" t="s">
         <v>22</v>
@@ -2404,14 +2440,14 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="125" t="s">
+      <c r="A4" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="129" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="134"/>
-      <c r="D4" s="143" t="s">
+      <c r="B4" s="124" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="125"/>
+      <c r="D4" s="122" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="4"/>
@@ -2429,187 +2465,187 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="126"/>
-      <c r="B5" s="131"/>
-      <c r="C5" s="135"/>
-      <c r="D5" s="144"/>
+      <c r="A5" s="137"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="123"/>
       <c r="E5" s="4"/>
       <c r="H5" s="16" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="I5" s="101"/>
       <c r="J5" s="112" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="146" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="147"/>
+      <c r="C6" s="132"/>
       <c r="D6" s="13" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="15"/>
       <c r="H6" s="17" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="I6" s="102"/>
       <c r="J6" s="113" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="136" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="124" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="125"/>
+      <c r="D7" s="122" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="129" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="143" t="s">
-        <v>130</v>
-      </c>
       <c r="E7" s="95" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="I7" s="103"/>
       <c r="J7" s="114" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="126"/>
-      <c r="B8" s="131"/>
-      <c r="C8" s="135"/>
-      <c r="D8" s="144"/>
+      <c r="A8" s="137"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="123"/>
       <c r="E8" s="96"/>
       <c r="H8" s="115" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="J8" s="116" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="125" t="s">
-        <v>131</v>
-      </c>
-      <c r="B9" s="129" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="134"/>
-      <c r="D9" s="124" t="s">
+      <c r="A9" s="136" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="124" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="125"/>
+      <c r="D9" s="138" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="126"/>
-      <c r="B10" s="131"/>
-      <c r="C10" s="145"/>
-      <c r="D10" s="124"/>
+      <c r="A10" s="137"/>
+      <c r="B10" s="126"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="138"/>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="129" t="s">
+      <c r="B11" s="124" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="100" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="130"/>
+      <c r="B12" s="139"/>
       <c r="C12" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="131"/>
+      <c r="B13" s="126"/>
       <c r="C13" s="99" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="127" t="s">
-        <v>159</v>
-      </c>
-      <c r="B15" s="148"/>
-      <c r="C15" s="128"/>
-      <c r="D15" s="127" t="s">
+      <c r="A15" s="133" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="134"/>
+      <c r="C15" s="135"/>
+      <c r="D15" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="128"/>
+      <c r="E15" s="135"/>
     </row>
     <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="B16" s="122" t="s">
-        <v>177</v>
-      </c>
-      <c r="C16" s="123"/>
+        <v>163</v>
+      </c>
+      <c r="B16" s="129" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="130"/>
       <c r="D16" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E16" s="15"/>
     </row>
     <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="B17" s="122" t="s">
-        <v>179</v>
-      </c>
-      <c r="C17" s="123"/>
+        <v>165</v>
+      </c>
+      <c r="B17" s="129" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" s="130"/>
       <c r="D17" s="15" t="s">
         <v>5</v>
       </c>
@@ -2617,107 +2653,107 @@
     </row>
     <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="B18" s="122" t="s">
-        <v>181</v>
-      </c>
-      <c r="C18" s="123"/>
+        <v>167</v>
+      </c>
+      <c r="B18" s="129" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="130"/>
       <c r="D18" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E18" s="15"/>
     </row>
     <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="97" t="s">
-        <v>184</v>
-      </c>
-      <c r="B19" s="129" t="s">
+        <v>171</v>
+      </c>
+      <c r="B19" s="124" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="100" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B20" s="130"/>
+        <v>180</v>
+      </c>
+      <c r="B20" s="139"/>
       <c r="C20" s="8" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="98" t="s">
-        <v>192</v>
-      </c>
-      <c r="B21" s="131"/>
+        <v>179</v>
+      </c>
+      <c r="B21" s="126"/>
       <c r="C21" s="99" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="138" t="s">
-        <v>134</v>
-      </c>
-      <c r="B23" s="136"/>
-      <c r="C23" s="137"/>
-      <c r="D23" s="136" t="s">
+      <c r="A23" s="144" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="142"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="137"/>
+      <c r="E23" s="143"/>
     </row>
     <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="109" t="s">
-        <v>155</v>
-      </c>
-      <c r="B24" s="122" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="123"/>
+      <c r="C24" s="130"/>
       <c r="D24" s="110" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" s="111" t="s">
         <v>156</v>
-      </c>
-      <c r="E24" s="111" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="107" t="s">
-        <v>157</v>
-      </c>
-      <c r="B25" s="132" t="s">
-        <v>132</v>
-      </c>
-      <c r="C25" s="133"/>
+        <v>155</v>
+      </c>
+      <c r="B25" s="140" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="141"/>
       <c r="D25" s="96" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E25" s="108"/>
     </row>
     <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="97"/>
-      <c r="B26" s="129" t="s">
+      <c r="B26" s="124" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="100"/>
@@ -2726,21 +2762,21 @@
     </row>
     <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="130"/>
+      <c r="B27" s="139"/>
       <c r="C27" s="8"/>
       <c r="D27" s="11"/>
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="130"/>
+      <c r="B28" s="139"/>
       <c r="C28" s="8"/>
       <c r="D28" s="11"/>
       <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="98"/>
-      <c r="B29" s="131"/>
+      <c r="B29" s="126"/>
       <c r="C29" s="99"/>
       <c r="D29" s="12"/>
       <c r="E29" s="7"/>
@@ -2751,7 +2787,7 @@
     </row>
     <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K31" s="23"/>
       <c r="N31" s="23"/>
@@ -2767,72 +2803,72 @@
         <v>0</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K32" s="23"/>
       <c r="N32" s="23"/>
     </row>
     <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B33" s="22">
         <v>32</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K33" s="23"/>
       <c r="N33" s="23"/>
     </row>
     <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B34" s="22">
         <v>32</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K34" s="23"/>
       <c r="N34" s="23"/>
@@ -2845,22 +2881,22 @@
         <v>16</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I35" s="23"/>
       <c r="L35" s="23"/>
@@ -2868,28 +2904,28 @@
     </row>
     <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="B36" s="22">
         <v>16</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I36" s="23"/>
       <c r="L36" s="23"/>
@@ -2903,22 +2939,22 @@
         <v>16</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E37" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="G37" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="F37" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="G37" s="22" t="s">
-        <v>124</v>
-      </c>
       <c r="H37" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I37" s="23"/>
       <c r="L37" s="23"/>
@@ -2926,90 +2962,90 @@
     </row>
     <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B38" s="22">
         <v>16</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="B39" s="22">
         <v>8</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="B40" s="22">
         <v>4</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="G40" s="22" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="22" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="106" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B43" s="22">
         <v>16</v>
@@ -3018,188 +3054,254 @@
         <v>3</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G43" s="22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B44" s="22">
         <v>16</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H44" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B45" s="22">
         <v>16</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G45" s="22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="22">
-        <v>72</v>
+      <c r="A51" s="22" t="s">
+        <v>223</v>
       </c>
       <c r="B51" s="22">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="C51" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>169</v>
+        <v>243</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>165</v>
+        <v>234</v>
       </c>
       <c r="G51" s="22" t="s">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c r="H51" s="22" t="s">
-        <v>175</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="B52" s="22">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>162</v>
+        <v>229</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>172</v>
+        <v>244</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>166</v>
+        <v>235</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="B53" s="22">
+        <v>32</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="G53" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="H53" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="B54" s="22">
+        <v>32</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="F54" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="G54" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="H54" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="B55" s="22">
         <v>16</v>
       </c>
-      <c r="C53" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="D53" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="E53" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="F53" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="G53" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="H53" s="22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="22" t="s">
-        <v>164</v>
+      <c r="C55" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="F55" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="G55" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="H55" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="B56" s="22">
+        <v>16</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="F56" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="G56" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="H56" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="22" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="D15:E15"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="A4:A5"/>
@@ -3216,6 +3318,18 @@
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="D15:E15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3227,7 +3341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>

--- a/vak vezet vilagtalant.xlsx
+++ b/vak vezet vilagtalant.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\VIZSGAREMEK\Vizsgaremek-D-K-B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Asztali gép\Minden is\Suli\github\Vizsgaremek-D-K-B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B257A5-3966-4947-929B-5FFA6871E188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13230" yWindow="525" windowWidth="21480" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13230" yWindow="525" windowWidth="21480" windowHeight="11400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IP címek" sheetId="1" r:id="rId1"/>
@@ -785,7 +784,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1913,85 +1912,85 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2348,10 +2347,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
@@ -2375,35 +2374,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="141" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="145" t="s">
+      <c r="B1" s="141"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="146"/>
+      <c r="E1" s="140"/>
       <c r="H1" s="24" t="s">
         <v>15</v>
       </c>
       <c r="I1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="133" t="s">
+      <c r="J1" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="135"/>
+      <c r="K1" s="128"/>
     </row>
     <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="125" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="125"/>
-      <c r="D2" s="122" t="s">
+      <c r="C2" s="134"/>
+      <c r="D2" s="143" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="3"/>
@@ -2421,10 +2420,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="137"/>
-      <c r="B3" s="126"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="123"/>
+      <c r="A3" s="126"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="144"/>
       <c r="E3" s="5"/>
       <c r="H3" s="17" t="s">
         <v>22</v>
@@ -2440,14 +2439,14 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="136" t="s">
+      <c r="A4" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="124" t="s">
+      <c r="B4" s="129" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="125"/>
-      <c r="D4" s="122" t="s">
+      <c r="C4" s="134"/>
+      <c r="D4" s="143" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="4"/>
@@ -2465,10 +2464,10 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="137"/>
-      <c r="B5" s="126"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="123"/>
+      <c r="A5" s="126"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="144"/>
       <c r="E5" s="4"/>
       <c r="H5" s="16" t="s">
         <v>181</v>
@@ -2485,10 +2484,10 @@
       <c r="A6" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="131" t="s">
+      <c r="B6" s="146" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="132"/>
+      <c r="C6" s="147"/>
       <c r="D6" s="13" t="s">
         <v>4</v>
       </c>
@@ -2505,14 +2504,14 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="136" t="s">
+      <c r="A7" s="125" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="124" t="s">
+      <c r="B7" s="129" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="125"/>
-      <c r="D7" s="122" t="s">
+      <c r="C7" s="134"/>
+      <c r="D7" s="143" t="s">
         <v>128</v>
       </c>
       <c r="E7" s="95" t="s">
@@ -2530,10 +2529,10 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="137"/>
-      <c r="B8" s="126"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="123"/>
+      <c r="A8" s="126"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="144"/>
       <c r="E8" s="96"/>
       <c r="H8" s="115" t="s">
         <v>189</v>
@@ -2547,30 +2546,30 @@
       <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="136" t="s">
+      <c r="A9" s="125" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="129" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="125"/>
-      <c r="D9" s="138" t="s">
+      <c r="C9" s="134"/>
+      <c r="D9" s="124" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="137"/>
-      <c r="B10" s="126"/>
-      <c r="C10" s="128"/>
-      <c r="D10" s="138"/>
+      <c r="A10" s="126"/>
+      <c r="B10" s="131"/>
+      <c r="C10" s="145"/>
+      <c r="D10" s="124"/>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="124" t="s">
+      <c r="B11" s="129" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="100" t="s">
@@ -2587,7 +2586,7 @@
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="139"/>
+      <c r="B12" s="130"/>
       <c r="C12" s="8" t="s">
         <v>134</v>
       </c>
@@ -2602,7 +2601,7 @@
       <c r="A13" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="126"/>
+      <c r="B13" s="131"/>
       <c r="C13" s="99" t="s">
         <v>193</v>
       </c>
@@ -2615,24 +2614,24 @@
     </row>
     <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="133" t="s">
+      <c r="A15" s="127" t="s">
         <v>157</v>
       </c>
-      <c r="B15" s="134"/>
-      <c r="C15" s="135"/>
-      <c r="D15" s="133" t="s">
+      <c r="B15" s="148"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="135"/>
+      <c r="E15" s="128"/>
     </row>
     <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="B16" s="129" t="s">
+      <c r="B16" s="122" t="s">
         <v>164</v>
       </c>
-      <c r="C16" s="130"/>
+      <c r="C16" s="123"/>
       <c r="D16" s="15" t="s">
         <v>154</v>
       </c>
@@ -2642,10 +2641,10 @@
       <c r="A17" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="B17" s="129" t="s">
+      <c r="B17" s="122" t="s">
         <v>166</v>
       </c>
-      <c r="C17" s="130"/>
+      <c r="C17" s="123"/>
       <c r="D17" s="15" t="s">
         <v>5</v>
       </c>
@@ -2655,10 +2654,10 @@
       <c r="A18" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="B18" s="129" t="s">
+      <c r="B18" s="122" t="s">
         <v>168</v>
       </c>
-      <c r="C18" s="130"/>
+      <c r="C18" s="123"/>
       <c r="D18" s="15" t="s">
         <v>154</v>
       </c>
@@ -2668,7 +2667,7 @@
       <c r="A19" s="97" t="s">
         <v>171</v>
       </c>
-      <c r="B19" s="124" t="s">
+      <c r="B19" s="129" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="100" t="s">
@@ -2685,7 +2684,7 @@
       <c r="A20" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B20" s="139"/>
+      <c r="B20" s="130"/>
       <c r="C20" s="8" t="s">
         <v>172</v>
       </c>
@@ -2700,7 +2699,7 @@
       <c r="A21" s="98" t="s">
         <v>179</v>
       </c>
-      <c r="B21" s="126"/>
+      <c r="B21" s="131"/>
       <c r="C21" s="99" t="s">
         <v>176</v>
       </c>
@@ -2713,24 +2712,24 @@
     </row>
     <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="144" t="s">
+      <c r="A23" s="138" t="s">
         <v>132</v>
       </c>
-      <c r="B23" s="142"/>
-      <c r="C23" s="143"/>
-      <c r="D23" s="142" t="s">
+      <c r="B23" s="136"/>
+      <c r="C23" s="137"/>
+      <c r="D23" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="143"/>
+      <c r="E23" s="137"/>
     </row>
     <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="109" t="s">
         <v>153</v>
       </c>
-      <c r="B24" s="129" t="s">
+      <c r="B24" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="130"/>
+      <c r="C24" s="123"/>
       <c r="D24" s="110" t="s">
         <v>154</v>
       </c>
@@ -2742,10 +2741,10 @@
       <c r="A25" s="107" t="s">
         <v>155</v>
       </c>
-      <c r="B25" s="140" t="s">
+      <c r="B25" s="132" t="s">
         <v>130</v>
       </c>
-      <c r="C25" s="141"/>
+      <c r="C25" s="133"/>
       <c r="D25" s="96" t="s">
         <v>154</v>
       </c>
@@ -2753,7 +2752,7 @@
     </row>
     <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="97"/>
-      <c r="B26" s="124" t="s">
+      <c r="B26" s="129" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="100"/>
@@ -2762,21 +2761,21 @@
     </row>
     <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="139"/>
+      <c r="B27" s="130"/>
       <c r="C27" s="8"/>
       <c r="D27" s="11"/>
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="139"/>
+      <c r="B28" s="130"/>
       <c r="C28" s="8"/>
       <c r="D28" s="11"/>
       <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="98"/>
-      <c r="B29" s="126"/>
+      <c r="B29" s="131"/>
       <c r="C29" s="99"/>
       <c r="D29" s="12"/>
       <c r="E29" s="7"/>
@@ -3302,6 +3301,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="D15:E15"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="A4:A5"/>
@@ -3318,18 +3329,6 @@
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="D15:E15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3338,11 +3337,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3431,7 +3430,7 @@
       <c r="C5" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="81" t="s">
+      <c r="D5" s="105" t="s">
         <v>41</v>
       </c>
       <c r="E5" s="74"/>
@@ -3446,7 +3445,7 @@
       <c r="C6" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="81" t="s">
+      <c r="D6" s="105" t="s">
         <v>44</v>
       </c>
       <c r="E6" s="74"/>
@@ -3710,11 +3709,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:T26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/vak vezet vilagtalant.xlsx
+++ b/vak vezet vilagtalant.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Asztali gép\Minden is\Suli\github\Vizsgaremek-D-K-B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\VIZSGAREMEK\Vizsgaremek-D-K-B\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2705A870-6604-4CCE-A386-A6AE185156F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13230" yWindow="525" windowWidth="21480" windowHeight="11400" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IP címek" sheetId="1" r:id="rId1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="258">
   <si>
     <t>192.168.1.0</t>
   </si>
@@ -779,12 +780,42 @@
   </si>
   <si>
     <t>192.168.2.158</t>
+  </si>
+  <si>
+    <t>192.168.2.161</t>
+  </si>
+  <si>
+    <t>192.168.2.162</t>
+  </si>
+  <si>
+    <t>192.168.2.163</t>
+  </si>
+  <si>
+    <t>voice</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>wireless</t>
+  </si>
+  <si>
+    <t>192.168.3.24</t>
+  </si>
+  <si>
+    <t>192.168.3.28</t>
+  </si>
+  <si>
+    <t>192.168.3.23</t>
+  </si>
+  <si>
+    <t>192.168.3.27</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1912,48 +1943,66 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1973,24 +2022,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2347,11 +2378,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2374,35 +2405,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="147" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="139" t="s">
+      <c r="B1" s="147"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="140"/>
+      <c r="E1" s="146"/>
       <c r="H1" s="24" t="s">
         <v>15</v>
       </c>
       <c r="I1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="127" t="s">
+      <c r="J1" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="128"/>
+      <c r="K1" s="135"/>
     </row>
     <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="136" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="143" t="s">
+      <c r="C2" s="125"/>
+      <c r="D2" s="122" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="3"/>
@@ -2420,10 +2451,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="126"/>
-      <c r="B3" s="131"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="144"/>
+      <c r="A3" s="137"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="123"/>
       <c r="E3" s="5"/>
       <c r="H3" s="17" t="s">
         <v>22</v>
@@ -2439,14 +2470,14 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="125" t="s">
+      <c r="A4" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="129" t="s">
+      <c r="B4" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="134"/>
-      <c r="D4" s="143" t="s">
+      <c r="C4" s="125"/>
+      <c r="D4" s="122" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="4"/>
@@ -2464,10 +2495,10 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="126"/>
-      <c r="B5" s="131"/>
-      <c r="C5" s="135"/>
-      <c r="D5" s="144"/>
+      <c r="A5" s="137"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="123"/>
       <c r="E5" s="4"/>
       <c r="H5" s="16" t="s">
         <v>181</v>
@@ -2484,10 +2515,10 @@
       <c r="A6" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="146" t="s">
+      <c r="B6" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="147"/>
+      <c r="C6" s="132"/>
       <c r="D6" s="13" t="s">
         <v>4</v>
       </c>
@@ -2504,14 +2535,14 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="136" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="129" t="s">
+      <c r="B7" s="124" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="143" t="s">
+      <c r="C7" s="125"/>
+      <c r="D7" s="122" t="s">
         <v>128</v>
       </c>
       <c r="E7" s="95" t="s">
@@ -2529,10 +2560,10 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="126"/>
-      <c r="B8" s="131"/>
-      <c r="C8" s="135"/>
-      <c r="D8" s="144"/>
+      <c r="A8" s="137"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="123"/>
       <c r="E8" s="96"/>
       <c r="H8" s="115" t="s">
         <v>189</v>
@@ -2546,30 +2577,30 @@
       <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="125" t="s">
+      <c r="A9" s="136" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="129" t="s">
+      <c r="B9" s="124" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="134"/>
-      <c r="D9" s="124" t="s">
+      <c r="C9" s="125"/>
+      <c r="D9" s="138" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="126"/>
-      <c r="B10" s="131"/>
-      <c r="C10" s="145"/>
-      <c r="D10" s="124"/>
+      <c r="A10" s="137"/>
+      <c r="B10" s="126"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="138"/>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="129" t="s">
+      <c r="B11" s="124" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="100" t="s">
@@ -2586,7 +2617,7 @@
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="130"/>
+      <c r="B12" s="139"/>
       <c r="C12" s="8" t="s">
         <v>134</v>
       </c>
@@ -2601,7 +2632,7 @@
       <c r="A13" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="131"/>
+      <c r="B13" s="126"/>
       <c r="C13" s="99" t="s">
         <v>193</v>
       </c>
@@ -2614,24 +2645,24 @@
     </row>
     <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="127" t="s">
+      <c r="A15" s="133" t="s">
         <v>157</v>
       </c>
-      <c r="B15" s="148"/>
-      <c r="C15" s="128"/>
-      <c r="D15" s="127" t="s">
+      <c r="B15" s="134"/>
+      <c r="C15" s="135"/>
+      <c r="D15" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="128"/>
+      <c r="E15" s="135"/>
     </row>
     <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="129" t="s">
         <v>164</v>
       </c>
-      <c r="C16" s="123"/>
+      <c r="C16" s="130"/>
       <c r="D16" s="15" t="s">
         <v>154</v>
       </c>
@@ -2641,10 +2672,10 @@
       <c r="A17" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="B17" s="122" t="s">
+      <c r="B17" s="129" t="s">
         <v>166</v>
       </c>
-      <c r="C17" s="123"/>
+      <c r="C17" s="130"/>
       <c r="D17" s="15" t="s">
         <v>5</v>
       </c>
@@ -2654,10 +2685,10 @@
       <c r="A18" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="B18" s="122" t="s">
+      <c r="B18" s="129" t="s">
         <v>168</v>
       </c>
-      <c r="C18" s="123"/>
+      <c r="C18" s="130"/>
       <c r="D18" s="15" t="s">
         <v>154</v>
       </c>
@@ -2667,7 +2698,7 @@
       <c r="A19" s="97" t="s">
         <v>171</v>
       </c>
-      <c r="B19" s="129" t="s">
+      <c r="B19" s="124" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="100" t="s">
@@ -2684,7 +2715,7 @@
       <c r="A20" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B20" s="130"/>
+      <c r="B20" s="139"/>
       <c r="C20" s="8" t="s">
         <v>172</v>
       </c>
@@ -2699,7 +2730,7 @@
       <c r="A21" s="98" t="s">
         <v>179</v>
       </c>
-      <c r="B21" s="131"/>
+      <c r="B21" s="126"/>
       <c r="C21" s="99" t="s">
         <v>176</v>
       </c>
@@ -2712,24 +2743,24 @@
     </row>
     <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="138" t="s">
+      <c r="A23" s="144" t="s">
         <v>132</v>
       </c>
-      <c r="B23" s="136"/>
-      <c r="C23" s="137"/>
-      <c r="D23" s="136" t="s">
+      <c r="B23" s="142"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="137"/>
+      <c r="E23" s="143"/>
     </row>
     <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="109" t="s">
         <v>153</v>
       </c>
-      <c r="B24" s="122" t="s">
+      <c r="B24" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="123"/>
+      <c r="C24" s="130"/>
       <c r="D24" s="110" t="s">
         <v>154</v>
       </c>
@@ -2741,10 +2772,10 @@
       <c r="A25" s="107" t="s">
         <v>155</v>
       </c>
-      <c r="B25" s="132" t="s">
+      <c r="B25" s="140" t="s">
         <v>130</v>
       </c>
-      <c r="C25" s="133"/>
+      <c r="C25" s="141"/>
       <c r="D25" s="96" t="s">
         <v>154</v>
       </c>
@@ -2752,7 +2783,7 @@
     </row>
     <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="97"/>
-      <c r="B26" s="129" t="s">
+      <c r="B26" s="124" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="100"/>
@@ -2761,21 +2792,21 @@
     </row>
     <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="130"/>
+      <c r="B27" s="139"/>
       <c r="C27" s="8"/>
       <c r="D27" s="11"/>
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="130"/>
+      <c r="B28" s="139"/>
       <c r="C28" s="8"/>
       <c r="D28" s="11"/>
       <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="98"/>
-      <c r="B29" s="131"/>
+      <c r="B29" s="126"/>
       <c r="C29" s="99"/>
       <c r="D29" s="12"/>
       <c r="E29" s="7"/>
@@ -3298,21 +3329,121 @@
       <c r="C57" s="22" t="s">
         <v>233</v>
       </c>
+      <c r="D57" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="F57" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="G57" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="H57" s="22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="B60" s="22">
+        <v>16</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="22">
+        <v>1</v>
+      </c>
+      <c r="E60" s="22">
+        <v>14</v>
+      </c>
+      <c r="F60" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="G60" s="22">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="B61" s="22">
+        <v>8</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D61" s="22">
+        <v>17</v>
+      </c>
+      <c r="E61" s="22">
+        <v>22</v>
+      </c>
+      <c r="F61" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="G61" s="22">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="B62" s="22">
+        <v>4</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="D62" s="22">
+        <v>25</v>
+      </c>
+      <c r="E62" s="22">
+        <v>26</v>
+      </c>
+      <c r="F62" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="G62" s="22">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="B63" s="22">
+        <v>4</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="D63" s="22">
+        <v>29</v>
+      </c>
+      <c r="E63" s="22">
+        <v>30</v>
+      </c>
+      <c r="F63" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="G63" s="22">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C64" s="22" t="s">
+        <v>142</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="D15:E15"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="A4:A5"/>
@@ -3329,6 +3460,18 @@
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="D15:E15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3337,11 +3480,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3442,7 +3585,7 @@
       <c r="B6" s="121" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="92" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="105" t="s">
@@ -3457,7 +3600,7 @@
       <c r="B7" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="92" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="81" t="s">
@@ -3472,7 +3615,7 @@
       <c r="B8" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="92" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="81" t="s">
@@ -3487,7 +3630,7 @@
       <c r="B9" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="92" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="81" t="s">
@@ -3709,7 +3852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C2:T26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">

--- a/vak vezet vilagtalant.xlsx
+++ b/vak vezet vilagtalant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\VIZSGAREMEK\Vizsgaremek-D-K-B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meste\OneDrive\Desktop\Új mappa\Vizsgaremek-D-K-B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2705A870-6604-4CCE-A386-A6AE185156F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E29C8EA-7A0C-446B-8DA8-91E085DA9FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29940" yWindow="2370" windowWidth="14895" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IP címek" sheetId="1" r:id="rId1"/>
@@ -816,7 +816,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -857,8 +857,15 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -961,6 +968,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="49">
     <border>
@@ -1596,7 +1609,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1943,85 +1956,85 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2058,6 +2071,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2083,9 +2105,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022 téma">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2123,7 +2145,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2229,7 +2251,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2371,7 +2393,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2381,7 +2403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
@@ -2405,35 +2427,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="141" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="145" t="s">
+      <c r="B1" s="141"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="146"/>
+      <c r="E1" s="140"/>
       <c r="H1" s="24" t="s">
         <v>15</v>
       </c>
       <c r="I1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="133" t="s">
+      <c r="J1" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="135"/>
+      <c r="K1" s="128"/>
     </row>
     <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="125" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="125"/>
-      <c r="D2" s="122" t="s">
+      <c r="C2" s="134"/>
+      <c r="D2" s="143" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="3"/>
@@ -2451,10 +2473,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="137"/>
-      <c r="B3" s="126"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="123"/>
+      <c r="A3" s="126"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="144"/>
       <c r="E3" s="5"/>
       <c r="H3" s="17" t="s">
         <v>22</v>
@@ -2470,14 +2492,14 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="136" t="s">
+      <c r="A4" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="124" t="s">
+      <c r="B4" s="129" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="125"/>
-      <c r="D4" s="122" t="s">
+      <c r="C4" s="134"/>
+      <c r="D4" s="143" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="4"/>
@@ -2495,10 +2517,10 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="137"/>
-      <c r="B5" s="126"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="123"/>
+      <c r="A5" s="126"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="144"/>
       <c r="E5" s="4"/>
       <c r="H5" s="16" t="s">
         <v>181</v>
@@ -2515,10 +2537,10 @@
       <c r="A6" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="131" t="s">
+      <c r="B6" s="146" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="132"/>
+      <c r="C6" s="147"/>
       <c r="D6" s="13" t="s">
         <v>4</v>
       </c>
@@ -2535,14 +2557,14 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="136" t="s">
+      <c r="A7" s="125" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="124" t="s">
+      <c r="B7" s="129" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="125"/>
-      <c r="D7" s="122" t="s">
+      <c r="C7" s="134"/>
+      <c r="D7" s="143" t="s">
         <v>128</v>
       </c>
       <c r="E7" s="95" t="s">
@@ -2560,10 +2582,10 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="137"/>
-      <c r="B8" s="126"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="123"/>
+      <c r="A8" s="126"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="144"/>
       <c r="E8" s="96"/>
       <c r="H8" s="115" t="s">
         <v>189</v>
@@ -2577,30 +2599,30 @@
       <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="136" t="s">
+      <c r="A9" s="125" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="129" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="125"/>
-      <c r="D9" s="138" t="s">
+      <c r="C9" s="134"/>
+      <c r="D9" s="124" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="137"/>
-      <c r="B10" s="126"/>
-      <c r="C10" s="128"/>
-      <c r="D10" s="138"/>
+      <c r="A10" s="126"/>
+      <c r="B10" s="131"/>
+      <c r="C10" s="145"/>
+      <c r="D10" s="124"/>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="124" t="s">
+      <c r="B11" s="129" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="100" t="s">
@@ -2617,7 +2639,7 @@
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="139"/>
+      <c r="B12" s="130"/>
       <c r="C12" s="8" t="s">
         <v>134</v>
       </c>
@@ -2632,7 +2654,7 @@
       <c r="A13" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="126"/>
+      <c r="B13" s="131"/>
       <c r="C13" s="99" t="s">
         <v>193</v>
       </c>
@@ -2645,24 +2667,24 @@
     </row>
     <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="133" t="s">
+      <c r="A15" s="127" t="s">
         <v>157</v>
       </c>
-      <c r="B15" s="134"/>
-      <c r="C15" s="135"/>
-      <c r="D15" s="133" t="s">
+      <c r="B15" s="148"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="135"/>
+      <c r="E15" s="128"/>
     </row>
     <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="B16" s="129" t="s">
+      <c r="B16" s="122" t="s">
         <v>164</v>
       </c>
-      <c r="C16" s="130"/>
+      <c r="C16" s="123"/>
       <c r="D16" s="15" t="s">
         <v>154</v>
       </c>
@@ -2672,10 +2694,10 @@
       <c r="A17" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="B17" s="129" t="s">
+      <c r="B17" s="122" t="s">
         <v>166</v>
       </c>
-      <c r="C17" s="130"/>
+      <c r="C17" s="123"/>
       <c r="D17" s="15" t="s">
         <v>5</v>
       </c>
@@ -2685,10 +2707,10 @@
       <c r="A18" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="B18" s="129" t="s">
+      <c r="B18" s="122" t="s">
         <v>168</v>
       </c>
-      <c r="C18" s="130"/>
+      <c r="C18" s="123"/>
       <c r="D18" s="15" t="s">
         <v>154</v>
       </c>
@@ -2698,7 +2720,7 @@
       <c r="A19" s="97" t="s">
         <v>171</v>
       </c>
-      <c r="B19" s="124" t="s">
+      <c r="B19" s="129" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="100" t="s">
@@ -2715,7 +2737,7 @@
       <c r="A20" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B20" s="139"/>
+      <c r="B20" s="130"/>
       <c r="C20" s="8" t="s">
         <v>172</v>
       </c>
@@ -2730,7 +2752,7 @@
       <c r="A21" s="98" t="s">
         <v>179</v>
       </c>
-      <c r="B21" s="126"/>
+      <c r="B21" s="131"/>
       <c r="C21" s="99" t="s">
         <v>176</v>
       </c>
@@ -2743,24 +2765,24 @@
     </row>
     <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="144" t="s">
+      <c r="A23" s="138" t="s">
         <v>132</v>
       </c>
-      <c r="B23" s="142"/>
-      <c r="C23" s="143"/>
-      <c r="D23" s="142" t="s">
+      <c r="B23" s="136"/>
+      <c r="C23" s="137"/>
+      <c r="D23" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="143"/>
+      <c r="E23" s="137"/>
     </row>
     <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="109" t="s">
         <v>153</v>
       </c>
-      <c r="B24" s="129" t="s">
+      <c r="B24" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="130"/>
+      <c r="C24" s="123"/>
       <c r="D24" s="110" t="s">
         <v>154</v>
       </c>
@@ -2772,10 +2794,10 @@
       <c r="A25" s="107" t="s">
         <v>155</v>
       </c>
-      <c r="B25" s="140" t="s">
+      <c r="B25" s="132" t="s">
         <v>130</v>
       </c>
-      <c r="C25" s="141"/>
+      <c r="C25" s="133"/>
       <c r="D25" s="96" t="s">
         <v>154</v>
       </c>
@@ -2783,7 +2805,7 @@
     </row>
     <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="97"/>
-      <c r="B26" s="124" t="s">
+      <c r="B26" s="129" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="100"/>
@@ -2792,21 +2814,21 @@
     </row>
     <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="139"/>
+      <c r="B27" s="130"/>
       <c r="C27" s="8"/>
       <c r="D27" s="11"/>
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="139"/>
+      <c r="B28" s="130"/>
       <c r="C28" s="8"/>
       <c r="D28" s="11"/>
       <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="98"/>
-      <c r="B29" s="126"/>
+      <c r="B29" s="131"/>
       <c r="C29" s="99"/>
       <c r="D29" s="12"/>
       <c r="E29" s="7"/>
@@ -3444,6 +3466,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="D15:E15"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="A4:A5"/>
@@ -3460,18 +3494,6 @@
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="D15:E15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3484,7 +3506,7 @@
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3597,7 +3619,7 @@
       <c r="A7" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="94" t="s">
         <v>46</v>
       </c>
       <c r="C7" s="92" t="s">
@@ -3612,7 +3634,7 @@
       <c r="A8" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="94" t="s">
         <v>47</v>
       </c>
       <c r="C8" s="92" t="s">
@@ -3855,8 +3877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C2:T26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4128,13 +4150,13 @@
       <c r="F16" s="25">
         <v>27</v>
       </c>
-      <c r="G16" s="34">
+      <c r="G16" s="161">
         <v>28</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H16" s="162">
         <v>29</v>
       </c>
-      <c r="I16" s="27">
+      <c r="I16" s="163">
         <v>30</v>
       </c>
     </row>

--- a/vak vezet vilagtalant.xlsx
+++ b/vak vezet vilagtalant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meste\OneDrive\Desktop\Új mappa\Vizsgaremek-D-K-B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E29C8EA-7A0C-446B-8DA8-91E085DA9FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AD1FB3-8BF3-45A4-AC46-9341B8AE0ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29940" yWindow="2370" windowWidth="14895" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4530" yWindow="1305" windowWidth="14895" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IP címek" sheetId="1" r:id="rId1"/>
@@ -1956,48 +1956,75 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2017,24 +2044,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2071,15 +2080,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2427,35 +2427,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="150" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="139" t="s">
+      <c r="B1" s="150"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="140"/>
+      <c r="E1" s="149"/>
       <c r="H1" s="24" t="s">
         <v>15</v>
       </c>
       <c r="I1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="127" t="s">
+      <c r="J1" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="128"/>
+      <c r="K1" s="138"/>
     </row>
     <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="139" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="143" t="s">
+      <c r="C2" s="128"/>
+      <c r="D2" s="125" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="3"/>
@@ -2473,10 +2473,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="126"/>
-      <c r="B3" s="131"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="144"/>
+      <c r="A3" s="140"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="126"/>
       <c r="E3" s="5"/>
       <c r="H3" s="17" t="s">
         <v>22</v>
@@ -2492,14 +2492,14 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="125" t="s">
+      <c r="A4" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="129" t="s">
+      <c r="B4" s="127" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="134"/>
-      <c r="D4" s="143" t="s">
+      <c r="C4" s="128"/>
+      <c r="D4" s="125" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="4"/>
@@ -2517,10 +2517,10 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="126"/>
-      <c r="B5" s="131"/>
-      <c r="C5" s="135"/>
-      <c r="D5" s="144"/>
+      <c r="A5" s="140"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="126"/>
       <c r="E5" s="4"/>
       <c r="H5" s="16" t="s">
         <v>181</v>
@@ -2537,10 +2537,10 @@
       <c r="A6" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="146" t="s">
+      <c r="B6" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="147"/>
+      <c r="C6" s="135"/>
       <c r="D6" s="13" t="s">
         <v>4</v>
       </c>
@@ -2557,14 +2557,14 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="139" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="129" t="s">
+      <c r="B7" s="127" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="143" t="s">
+      <c r="C7" s="128"/>
+      <c r="D7" s="125" t="s">
         <v>128</v>
       </c>
       <c r="E7" s="95" t="s">
@@ -2582,10 +2582,10 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="126"/>
-      <c r="B8" s="131"/>
-      <c r="C8" s="135"/>
-      <c r="D8" s="144"/>
+      <c r="A8" s="140"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="126"/>
       <c r="E8" s="96"/>
       <c r="H8" s="115" t="s">
         <v>189</v>
@@ -2599,30 +2599,30 @@
       <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="125" t="s">
+      <c r="A9" s="139" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="129" t="s">
+      <c r="B9" s="127" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="134"/>
-      <c r="D9" s="124" t="s">
+      <c r="C9" s="128"/>
+      <c r="D9" s="141" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="126"/>
-      <c r="B10" s="131"/>
-      <c r="C10" s="145"/>
-      <c r="D10" s="124"/>
+      <c r="A10" s="140"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="141"/>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="129" t="s">
+      <c r="B11" s="127" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="100" t="s">
@@ -2639,7 +2639,7 @@
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="130"/>
+      <c r="B12" s="142"/>
       <c r="C12" s="8" t="s">
         <v>134</v>
       </c>
@@ -2654,7 +2654,7 @@
       <c r="A13" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="131"/>
+      <c r="B13" s="129"/>
       <c r="C13" s="99" t="s">
         <v>193</v>
       </c>
@@ -2667,24 +2667,24 @@
     </row>
     <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="127" t="s">
+      <c r="A15" s="136" t="s">
         <v>157</v>
       </c>
-      <c r="B15" s="148"/>
-      <c r="C15" s="128"/>
-      <c r="D15" s="127" t="s">
+      <c r="B15" s="137"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="128"/>
+      <c r="E15" s="138"/>
     </row>
     <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="132" t="s">
         <v>164</v>
       </c>
-      <c r="C16" s="123"/>
+      <c r="C16" s="133"/>
       <c r="D16" s="15" t="s">
         <v>154</v>
       </c>
@@ -2694,10 +2694,10 @@
       <c r="A17" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="B17" s="122" t="s">
+      <c r="B17" s="132" t="s">
         <v>166</v>
       </c>
-      <c r="C17" s="123"/>
+      <c r="C17" s="133"/>
       <c r="D17" s="15" t="s">
         <v>5</v>
       </c>
@@ -2707,10 +2707,10 @@
       <c r="A18" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="B18" s="122" t="s">
+      <c r="B18" s="132" t="s">
         <v>168</v>
       </c>
-      <c r="C18" s="123"/>
+      <c r="C18" s="133"/>
       <c r="D18" s="15" t="s">
         <v>154</v>
       </c>
@@ -2720,7 +2720,7 @@
       <c r="A19" s="97" t="s">
         <v>171</v>
       </c>
-      <c r="B19" s="129" t="s">
+      <c r="B19" s="127" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="100" t="s">
@@ -2737,7 +2737,7 @@
       <c r="A20" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B20" s="130"/>
+      <c r="B20" s="142"/>
       <c r="C20" s="8" t="s">
         <v>172</v>
       </c>
@@ -2752,7 +2752,7 @@
       <c r="A21" s="98" t="s">
         <v>179</v>
       </c>
-      <c r="B21" s="131"/>
+      <c r="B21" s="129"/>
       <c r="C21" s="99" t="s">
         <v>176</v>
       </c>
@@ -2765,24 +2765,24 @@
     </row>
     <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="138" t="s">
+      <c r="A23" s="147" t="s">
         <v>132</v>
       </c>
-      <c r="B23" s="136"/>
-      <c r="C23" s="137"/>
-      <c r="D23" s="136" t="s">
+      <c r="B23" s="145"/>
+      <c r="C23" s="146"/>
+      <c r="D23" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="137"/>
+      <c r="E23" s="146"/>
     </row>
     <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="109" t="s">
         <v>153</v>
       </c>
-      <c r="B24" s="122" t="s">
+      <c r="B24" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="123"/>
+      <c r="C24" s="133"/>
       <c r="D24" s="110" t="s">
         <v>154</v>
       </c>
@@ -2794,10 +2794,10 @@
       <c r="A25" s="107" t="s">
         <v>155</v>
       </c>
-      <c r="B25" s="132" t="s">
+      <c r="B25" s="143" t="s">
         <v>130</v>
       </c>
-      <c r="C25" s="133"/>
+      <c r="C25" s="144"/>
       <c r="D25" s="96" t="s">
         <v>154</v>
       </c>
@@ -2805,7 +2805,7 @@
     </row>
     <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="97"/>
-      <c r="B26" s="129" t="s">
+      <c r="B26" s="127" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="100"/>
@@ -2814,21 +2814,21 @@
     </row>
     <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="130"/>
+      <c r="B27" s="142"/>
       <c r="C27" s="8"/>
       <c r="D27" s="11"/>
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="130"/>
+      <c r="B28" s="142"/>
       <c r="C28" s="8"/>
       <c r="D28" s="11"/>
       <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="98"/>
-      <c r="B29" s="131"/>
+      <c r="B29" s="129"/>
       <c r="C29" s="99"/>
       <c r="D29" s="12"/>
       <c r="E29" s="7"/>
@@ -3466,18 +3466,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="D15:E15"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="A4:A5"/>
@@ -3494,6 +3482,18 @@
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="D15:E15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3505,8 +3505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3537,7 +3537,7 @@
       <c r="E1" s="74"/>
     </row>
     <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="152" t="s">
         <v>75</v>
       </c>
       <c r="B2" s="93" t="s">
@@ -3556,7 +3556,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="150"/>
+      <c r="A3" s="153"/>
       <c r="B3" s="94" t="s">
         <v>89</v>
       </c>
@@ -3573,7 +3573,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="150"/>
+      <c r="A4" s="153"/>
       <c r="B4" s="79"/>
       <c r="C4" s="80"/>
       <c r="D4" s="105" t="s">
@@ -3649,8 +3649,8 @@
       <c r="A9" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="79" t="s">
-        <v>48</v>
+      <c r="B9" s="121" t="s">
+        <v>43</v>
       </c>
       <c r="C9" s="92" t="s">
         <v>42</v>
@@ -3665,7 +3665,7 @@
         <v>68</v>
       </c>
       <c r="B10" s="79" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="C10" s="80" t="s">
         <v>38</v>
@@ -3680,7 +3680,7 @@
         <v>69</v>
       </c>
       <c r="B11" s="79" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="C11" s="80" t="s">
         <v>91</v>
@@ -3705,20 +3705,20 @@
       </c>
       <c r="E12" s="74"/>
     </row>
-    <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="79"/>
+      <c r="B13" s="82"/>
       <c r="C13" s="80"/>
       <c r="D13" s="81"/>
       <c r="E13" s="74"/>
     </row>
-    <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="79"/>
+      <c r="B14" s="82"/>
       <c r="C14" s="80"/>
       <c r="D14" s="81"/>
       <c r="E14" s="74"/>
@@ -3877,7 +3877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C2:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -3891,26 +3891,26 @@
   <sheetData>
     <row r="2" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="151" t="s">
+      <c r="C3" s="154" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="153"/>
-      <c r="L3" s="157" t="s">
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="156"/>
+      <c r="L3" s="160" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="158"/>
-      <c r="N3" s="159"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="159"/>
-      <c r="Q3" s="159"/>
-      <c r="R3" s="159"/>
-      <c r="S3" s="159"/>
-      <c r="T3" s="160"/>
+      <c r="M3" s="161"/>
+      <c r="N3" s="162"/>
+      <c r="O3" s="162"/>
+      <c r="P3" s="162"/>
+      <c r="Q3" s="162"/>
+      <c r="R3" s="162"/>
+      <c r="S3" s="162"/>
+      <c r="T3" s="163"/>
     </row>
     <row r="4" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="44" t="s">
@@ -4019,15 +4019,15 @@
     <row r="8" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="154" t="s">
+      <c r="C10" s="157" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="155"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="155"/>
-      <c r="G10" s="155"/>
-      <c r="H10" s="155"/>
-      <c r="I10" s="156"/>
+      <c r="D10" s="158"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="159"/>
     </row>
     <row r="11" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="49" t="s">
@@ -4150,13 +4150,13 @@
       <c r="F16" s="25">
         <v>27</v>
       </c>
-      <c r="G16" s="161">
+      <c r="G16" s="122">
         <v>28</v>
       </c>
-      <c r="H16" s="162">
+      <c r="H16" s="123">
         <v>29</v>
       </c>
-      <c r="I16" s="163">
+      <c r="I16" s="124">
         <v>30</v>
       </c>
     </row>
@@ -4186,15 +4186,15 @@
     <row r="18" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="154" t="s">
+      <c r="C20" s="157" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="155"/>
-      <c r="E20" s="155"/>
-      <c r="F20" s="155"/>
-      <c r="G20" s="155"/>
-      <c r="H20" s="155"/>
-      <c r="I20" s="156"/>
+      <c r="D20" s="158"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="158"/>
+      <c r="I20" s="159"/>
     </row>
     <row r="21" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="49" t="s">

--- a/vak vezet vilagtalant.xlsx
+++ b/vak vezet vilagtalant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meste\OneDrive\Desktop\Új mappa\Vizsgaremek-D-K-B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AD1FB3-8BF3-45A4-AC46-9341B8AE0ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F192F9-A02F-4C82-BECE-B87F3B2C79B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4530" yWindow="1305" windowWidth="14895" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4530" yWindow="1305" windowWidth="14895" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IP címek" sheetId="1" r:id="rId1"/>
@@ -1609,7 +1609,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1965,85 +1965,85 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2080,6 +2080,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2427,35 +2436,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="144" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="148" t="s">
+      <c r="B1" s="144"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="149"/>
+      <c r="E1" s="143"/>
       <c r="H1" s="24" t="s">
         <v>15</v>
       </c>
       <c r="I1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="136" t="s">
+      <c r="J1" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="138"/>
+      <c r="K1" s="131"/>
     </row>
     <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="128" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="128"/>
-      <c r="D2" s="125" t="s">
+      <c r="C2" s="137"/>
+      <c r="D2" s="146" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="3"/>
@@ -2473,10 +2482,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="140"/>
-      <c r="B3" s="129"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="126"/>
+      <c r="A3" s="129"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="147"/>
       <c r="E3" s="5"/>
       <c r="H3" s="17" t="s">
         <v>22</v>
@@ -2492,14 +2501,14 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="127" t="s">
+      <c r="B4" s="132" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="128"/>
-      <c r="D4" s="125" t="s">
+      <c r="C4" s="137"/>
+      <c r="D4" s="146" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="4"/>
@@ -2517,10 +2526,10 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="140"/>
-      <c r="B5" s="129"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="126"/>
+      <c r="A5" s="129"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="147"/>
       <c r="E5" s="4"/>
       <c r="H5" s="16" t="s">
         <v>181</v>
@@ -2537,10 +2546,10 @@
       <c r="A6" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="134" t="s">
+      <c r="B6" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="135"/>
+      <c r="C6" s="150"/>
       <c r="D6" s="13" t="s">
         <v>4</v>
       </c>
@@ -2557,14 +2566,14 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="139" t="s">
+      <c r="A7" s="128" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="132" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="128"/>
-      <c r="D7" s="125" t="s">
+      <c r="C7" s="137"/>
+      <c r="D7" s="146" t="s">
         <v>128</v>
       </c>
       <c r="E7" s="95" t="s">
@@ -2582,10 +2591,10 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="140"/>
-      <c r="B8" s="129"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="126"/>
+      <c r="A8" s="129"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="147"/>
       <c r="E8" s="96"/>
       <c r="H8" s="115" t="s">
         <v>189</v>
@@ -2599,30 +2608,30 @@
       <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="139" t="s">
+      <c r="A9" s="128" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="127" t="s">
+      <c r="B9" s="132" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="128"/>
-      <c r="D9" s="141" t="s">
+      <c r="C9" s="137"/>
+      <c r="D9" s="127" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="140"/>
-      <c r="B10" s="129"/>
-      <c r="C10" s="131"/>
-      <c r="D10" s="141"/>
+      <c r="A10" s="129"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="148"/>
+      <c r="D10" s="127"/>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="127" t="s">
+      <c r="B11" s="132" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="100" t="s">
@@ -2639,7 +2648,7 @@
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="142"/>
+      <c r="B12" s="133"/>
       <c r="C12" s="8" t="s">
         <v>134</v>
       </c>
@@ -2654,7 +2663,7 @@
       <c r="A13" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="129"/>
+      <c r="B13" s="134"/>
       <c r="C13" s="99" t="s">
         <v>193</v>
       </c>
@@ -2667,24 +2676,24 @@
     </row>
     <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="136" t="s">
+      <c r="A15" s="130" t="s">
         <v>157</v>
       </c>
-      <c r="B15" s="137"/>
-      <c r="C15" s="138"/>
-      <c r="D15" s="136" t="s">
+      <c r="B15" s="151"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="138"/>
+      <c r="E15" s="131"/>
     </row>
     <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="B16" s="132" t="s">
+      <c r="B16" s="125" t="s">
         <v>164</v>
       </c>
-      <c r="C16" s="133"/>
+      <c r="C16" s="126"/>
       <c r="D16" s="15" t="s">
         <v>154</v>
       </c>
@@ -2694,10 +2703,10 @@
       <c r="A17" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="B17" s="132" t="s">
+      <c r="B17" s="125" t="s">
         <v>166</v>
       </c>
-      <c r="C17" s="133"/>
+      <c r="C17" s="126"/>
       <c r="D17" s="15" t="s">
         <v>5</v>
       </c>
@@ -2707,10 +2716,10 @@
       <c r="A18" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="B18" s="132" t="s">
+      <c r="B18" s="125" t="s">
         <v>168</v>
       </c>
-      <c r="C18" s="133"/>
+      <c r="C18" s="126"/>
       <c r="D18" s="15" t="s">
         <v>154</v>
       </c>
@@ -2720,7 +2729,7 @@
       <c r="A19" s="97" t="s">
         <v>171</v>
       </c>
-      <c r="B19" s="127" t="s">
+      <c r="B19" s="132" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="100" t="s">
@@ -2737,7 +2746,7 @@
       <c r="A20" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B20" s="142"/>
+      <c r="B20" s="133"/>
       <c r="C20" s="8" t="s">
         <v>172</v>
       </c>
@@ -2752,7 +2761,7 @@
       <c r="A21" s="98" t="s">
         <v>179</v>
       </c>
-      <c r="B21" s="129"/>
+      <c r="B21" s="134"/>
       <c r="C21" s="99" t="s">
         <v>176</v>
       </c>
@@ -2765,24 +2774,24 @@
     </row>
     <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="147" t="s">
+      <c r="A23" s="141" t="s">
         <v>132</v>
       </c>
-      <c r="B23" s="145"/>
-      <c r="C23" s="146"/>
-      <c r="D23" s="145" t="s">
+      <c r="B23" s="139"/>
+      <c r="C23" s="140"/>
+      <c r="D23" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="146"/>
+      <c r="E23" s="140"/>
     </row>
     <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="109" t="s">
         <v>153</v>
       </c>
-      <c r="B24" s="132" t="s">
+      <c r="B24" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="133"/>
+      <c r="C24" s="126"/>
       <c r="D24" s="110" t="s">
         <v>154</v>
       </c>
@@ -2794,10 +2803,10 @@
       <c r="A25" s="107" t="s">
         <v>155</v>
       </c>
-      <c r="B25" s="143" t="s">
+      <c r="B25" s="135" t="s">
         <v>130</v>
       </c>
-      <c r="C25" s="144"/>
+      <c r="C25" s="136"/>
       <c r="D25" s="96" t="s">
         <v>154</v>
       </c>
@@ -2805,7 +2814,7 @@
     </row>
     <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="97"/>
-      <c r="B26" s="127" t="s">
+      <c r="B26" s="132" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="100"/>
@@ -2814,21 +2823,21 @@
     </row>
     <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="142"/>
+      <c r="B27" s="133"/>
       <c r="C27" s="8"/>
       <c r="D27" s="11"/>
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="142"/>
+      <c r="B28" s="133"/>
       <c r="C28" s="8"/>
       <c r="D28" s="11"/>
       <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="98"/>
-      <c r="B29" s="129"/>
+      <c r="B29" s="134"/>
       <c r="C29" s="99"/>
       <c r="D29" s="12"/>
       <c r="E29" s="7"/>
@@ -3466,6 +3475,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="D15:E15"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="A4:A5"/>
@@ -3482,18 +3503,6 @@
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="D15:E15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3505,8 +3514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3877,8 +3886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C2:T26"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4173,13 +4182,13 @@
       <c r="F17" s="29">
         <v>3</v>
       </c>
-      <c r="G17" s="35">
+      <c r="G17" s="164">
         <v>4</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H17" s="165">
         <v>5</v>
       </c>
-      <c r="I17" s="30">
+      <c r="I17" s="166">
         <v>6</v>
       </c>
     </row>

--- a/vak vezet vilagtalant.xlsx
+++ b/vak vezet vilagtalant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meste\OneDrive\Desktop\Új mappa\Vizsgaremek-D-K-B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F192F9-A02F-4C82-BECE-B87F3B2C79B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180CB572-3942-47C7-BC39-7EDD0A4CE864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4530" yWindow="1305" windowWidth="14895" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4530" yWindow="1305" windowWidth="14895" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IP címek" sheetId="1" r:id="rId1"/>
@@ -314,9 +314,6 @@
     <t>vpn, home office</t>
   </si>
   <si>
-    <t>asa, web vpn</t>
-  </si>
-  <si>
     <t>wlc</t>
   </si>
   <si>
@@ -810,6 +807,9 @@
   </si>
   <si>
     <t>192.168.3.27</t>
+  </si>
+  <si>
+    <t>asa</t>
   </si>
 </sst>
 </file>
@@ -1609,7 +1609,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1965,6 +1965,21 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2080,15 +2095,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2436,35 +2442,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="144" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="142" t="s">
+      <c r="A1" s="149" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="149"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="143"/>
+      <c r="E1" s="148"/>
       <c r="H1" s="24" t="s">
         <v>15</v>
       </c>
       <c r="I1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="130" t="s">
+      <c r="J1" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="131"/>
+      <c r="K1" s="136"/>
     </row>
     <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="128" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="132" t="s">
+      <c r="A2" s="133" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="137"/>
-      <c r="D2" s="146" t="s">
+      <c r="C2" s="142"/>
+      <c r="D2" s="151" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="3"/>
@@ -2482,10 +2488,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="129"/>
-      <c r="B3" s="134"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="147"/>
+      <c r="A3" s="134"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="152"/>
       <c r="E3" s="5"/>
       <c r="H3" s="17" t="s">
         <v>22</v>
@@ -2501,14 +2507,14 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="132" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="137"/>
-      <c r="D4" s="146" t="s">
+      <c r="B4" s="137" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="142"/>
+      <c r="D4" s="151" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="4"/>
@@ -2526,187 +2532,187 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="129"/>
-      <c r="B5" s="134"/>
-      <c r="C5" s="138"/>
-      <c r="D5" s="147"/>
+      <c r="A5" s="134"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="152"/>
       <c r="E5" s="4"/>
       <c r="H5" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I5" s="101"/>
       <c r="J5" s="112" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B6" s="149" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="150"/>
+      <c r="C6" s="155"/>
       <c r="D6" s="13" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="15"/>
       <c r="H6" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I6" s="102"/>
       <c r="J6" s="113" t="s">
+        <v>183</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="K6" s="4" t="s">
+    </row>
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="133" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="137" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="142"/>
+      <c r="D7" s="151" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="95" t="s">
+        <v>191</v>
+      </c>
+      <c r="H7" s="18" t="s">
         <v>185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="128" t="s">
-        <v>126</v>
-      </c>
-      <c r="B7" s="132" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="146" t="s">
-        <v>128</v>
-      </c>
-      <c r="E7" s="95" t="s">
-        <v>192</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>186</v>
       </c>
       <c r="I7" s="103"/>
       <c r="J7" s="114" t="s">
+        <v>186</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>188</v>
-      </c>
     </row>
     <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="129"/>
-      <c r="B8" s="134"/>
-      <c r="C8" s="138"/>
-      <c r="D8" s="147"/>
+      <c r="A8" s="134"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="143"/>
+      <c r="D8" s="152"/>
       <c r="E8" s="96"/>
       <c r="H8" s="115" t="s">
+        <v>188</v>
+      </c>
+      <c r="I8" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="J8" s="116" t="s">
         <v>190</v>
       </c>
-      <c r="J8" s="116" t="s">
-        <v>191</v>
-      </c>
       <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="128" t="s">
+      <c r="A9" s="133" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="137" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="132" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="137"/>
-      <c r="D9" s="127" t="s">
+      <c r="C9" s="142"/>
+      <c r="D9" s="132" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="129"/>
-      <c r="B10" s="134"/>
-      <c r="C10" s="148"/>
-      <c r="D10" s="127"/>
+      <c r="A10" s="134"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="153"/>
+      <c r="D10" s="132"/>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="132" t="s">
+      <c r="B11" s="137" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="100" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="133"/>
+      <c r="B12" s="138"/>
       <c r="C12" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="134"/>
+      <c r="B13" s="139"/>
       <c r="C13" s="99" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="130" t="s">
-        <v>157</v>
-      </c>
-      <c r="B15" s="151"/>
-      <c r="C15" s="131"/>
-      <c r="D15" s="130" t="s">
+      <c r="A15" s="135" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" s="156"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="131"/>
+      <c r="E15" s="136"/>
     </row>
     <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="130" t="s">
         <v>163</v>
       </c>
-      <c r="B16" s="125" t="s">
-        <v>164</v>
-      </c>
-      <c r="C16" s="126"/>
+      <c r="C16" s="131"/>
       <c r="D16" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E16" s="15"/>
     </row>
     <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" s="130" t="s">
         <v>165</v>
       </c>
-      <c r="B17" s="125" t="s">
-        <v>166</v>
-      </c>
-      <c r="C17" s="126"/>
+      <c r="C17" s="131"/>
       <c r="D17" s="15" t="s">
         <v>5</v>
       </c>
@@ -2714,107 +2720,107 @@
     </row>
     <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" s="130" t="s">
         <v>167</v>
       </c>
-      <c r="B18" s="125" t="s">
-        <v>168</v>
-      </c>
-      <c r="C18" s="126"/>
+      <c r="C18" s="131"/>
       <c r="D18" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E18" s="15"/>
     </row>
     <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="97" t="s">
-        <v>171</v>
-      </c>
-      <c r="B19" s="132" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" s="137" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="100" t="s">
+        <v>168</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>170</v>
-      </c>
       <c r="E19" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B20" s="133"/>
+        <v>179</v>
+      </c>
+      <c r="B20" s="138"/>
       <c r="C20" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="E20" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="98" t="s">
-        <v>179</v>
-      </c>
-      <c r="B21" s="134"/>
+        <v>178</v>
+      </c>
+      <c r="B21" s="139"/>
       <c r="C21" s="99" t="s">
+        <v>175</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="E21" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="141" t="s">
-        <v>132</v>
-      </c>
-      <c r="B23" s="139"/>
-      <c r="C23" s="140"/>
-      <c r="D23" s="139" t="s">
+      <c r="A23" s="146" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="144"/>
+      <c r="C23" s="145"/>
+      <c r="D23" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="140"/>
+      <c r="E23" s="145"/>
     </row>
     <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="109" t="s">
+        <v>152</v>
+      </c>
+      <c r="B24" s="130" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="131"/>
+      <c r="D24" s="110" t="s">
         <v>153</v>
       </c>
-      <c r="B24" s="125" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="126"/>
-      <c r="D24" s="110" t="s">
-        <v>154</v>
-      </c>
       <c r="E24" s="111" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="107" t="s">
-        <v>155</v>
-      </c>
-      <c r="B25" s="135" t="s">
-        <v>130</v>
-      </c>
-      <c r="C25" s="136"/>
+        <v>154</v>
+      </c>
+      <c r="B25" s="140" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="141"/>
       <c r="D25" s="96" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E25" s="108"/>
     </row>
     <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="97"/>
-      <c r="B26" s="132" t="s">
+      <c r="B26" s="137" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="100"/>
@@ -2823,21 +2829,21 @@
     </row>
     <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="133"/>
+      <c r="B27" s="138"/>
       <c r="C27" s="8"/>
       <c r="D27" s="11"/>
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="133"/>
+      <c r="B28" s="138"/>
       <c r="C28" s="8"/>
       <c r="D28" s="11"/>
       <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="98"/>
-      <c r="B29" s="134"/>
+      <c r="B29" s="139"/>
       <c r="C29" s="99"/>
       <c r="D29" s="12"/>
       <c r="E29" s="7"/>
@@ -2848,14 +2854,14 @@
     </row>
     <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K31" s="23"/>
       <c r="N31" s="23"/>
     </row>
     <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B32" s="22">
         <v>32</v>
@@ -2864,100 +2870,100 @@
         <v>0</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K32" s="23"/>
       <c r="N32" s="23"/>
     </row>
     <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B33" s="22">
         <v>32</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K33" s="23"/>
       <c r="N33" s="23"/>
     </row>
     <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B34" s="22">
         <v>32</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="E34" s="22" t="s">
-        <v>114</v>
-      </c>
       <c r="F34" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K34" s="23"/>
       <c r="N34" s="23"/>
     </row>
     <row r="35" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B35" s="22">
         <v>16</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="E35" s="22" t="s">
-        <v>116</v>
-      </c>
       <c r="F35" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I35" s="23"/>
       <c r="L35" s="23"/>
@@ -2965,28 +2971,28 @@
     </row>
     <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B36" s="22">
         <v>16</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="E36" s="22" t="s">
-        <v>118</v>
-      </c>
       <c r="F36" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I36" s="23"/>
       <c r="L36" s="23"/>
@@ -2994,28 +3000,28 @@
     </row>
     <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B37" s="22">
         <v>16</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D37" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="E37" s="22" t="s">
-        <v>120</v>
-      </c>
       <c r="F37" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I37" s="23"/>
       <c r="L37" s="23"/>
@@ -3023,90 +3029,90 @@
     </row>
     <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B38" s="22">
         <v>16</v>
       </c>
       <c r="C38" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="D38" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="D38" s="22" t="s">
-        <v>205</v>
-      </c>
       <c r="E38" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B39" s="22">
         <v>8</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D39" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="E39" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="E39" s="22" t="s">
-        <v>222</v>
-      </c>
       <c r="F39" s="22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B40" s="22">
         <v>4</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D40" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="E40" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="E40" s="22" t="s">
-        <v>220</v>
-      </c>
       <c r="F40" s="22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G40" s="22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="106" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B43" s="22">
         <v>16</v>
@@ -3115,94 +3121,94 @@
         <v>3</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G43" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B44" s="22">
         <v>16</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H44" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B45" s="22">
         <v>16</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D45" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="E45" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="E45" s="22" t="s">
-        <v>150</v>
-      </c>
       <c r="F45" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G45" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B51" s="22">
         <v>32</v>
@@ -3211,174 +3217,174 @@
         <v>2</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G51" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H51" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B52" s="22">
         <v>32</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B53" s="22">
         <v>32</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G53" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B54" s="22">
         <v>32</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B55" s="22">
         <v>16</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G55" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H55" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B56" s="22">
         <v>16</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H56" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C57" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D57" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="E57" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="E57" s="22" t="s">
+      <c r="F57" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="F57" s="22" t="s">
-        <v>250</v>
-      </c>
       <c r="G57" s="22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H57" s="22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B60" s="22">
         <v>16</v>
@@ -3393,7 +3399,7 @@
         <v>14</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G60" s="22">
         <v>240</v>
@@ -3401,13 +3407,13 @@
     </row>
     <row r="61" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B61" s="22">
         <v>8</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D61" s="22">
         <v>17</v>
@@ -3416,7 +3422,7 @@
         <v>22</v>
       </c>
       <c r="F61" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G61" s="22">
         <v>248</v>
@@ -3424,13 +3430,13 @@
     </row>
     <row r="62" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B62" s="22">
         <v>4</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D62" s="22">
         <v>25</v>
@@ -3439,7 +3445,7 @@
         <v>26</v>
       </c>
       <c r="F62" s="22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G62" s="22">
         <v>252</v>
@@ -3447,13 +3453,13 @@
     </row>
     <row r="63" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B63" s="22">
         <v>4</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D63" s="22">
         <v>29</v>
@@ -3462,7 +3468,7 @@
         <v>30</v>
       </c>
       <c r="F63" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G63" s="22">
         <v>252</v>
@@ -3470,7 +3476,7 @@
     </row>
     <row r="64" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C64" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3514,8 +3520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3546,7 +3552,7 @@
       <c r="E1" s="74"/>
     </row>
     <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="157" t="s">
         <v>75</v>
       </c>
       <c r="B2" s="93" t="s">
@@ -3565,7 +3571,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="153"/>
+      <c r="A3" s="158"/>
       <c r="B3" s="94" t="s">
         <v>89</v>
       </c>
@@ -3582,7 +3588,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="153"/>
+      <c r="A4" s="158"/>
       <c r="B4" s="79"/>
       <c r="C4" s="80"/>
       <c r="D4" s="105" t="s">
@@ -3673,10 +3679,10 @@
       <c r="A10" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="121" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="118" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="81" t="s">
@@ -3689,7 +3695,7 @@
         <v>69</v>
       </c>
       <c r="B11" s="79" t="s">
-        <v>48</v>
+        <v>257</v>
       </c>
       <c r="C11" s="80" t="s">
         <v>91</v>
@@ -3704,21 +3710,21 @@
         <v>70</v>
       </c>
       <c r="B12" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="80" t="s">
         <v>92</v>
-      </c>
-      <c r="C12" s="80" t="s">
-        <v>93</v>
       </c>
       <c r="D12" s="81" t="s">
         <v>86</v>
       </c>
       <c r="E12" s="74"/>
     </row>
-    <row r="13" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="82"/>
+      <c r="B13" s="80"/>
       <c r="C13" s="80"/>
       <c r="D13" s="81"/>
       <c r="E13" s="74"/>
@@ -3886,8 +3892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C2:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3900,26 +3906,26 @@
   <sheetData>
     <row r="2" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="154" t="s">
+      <c r="C3" s="159" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="156"/>
-      <c r="L3" s="160" t="s">
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="161"/>
+      <c r="L3" s="165" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="161"/>
-      <c r="N3" s="162"/>
-      <c r="O3" s="162"/>
-      <c r="P3" s="162"/>
-      <c r="Q3" s="162"/>
-      <c r="R3" s="162"/>
-      <c r="S3" s="162"/>
-      <c r="T3" s="163"/>
+      <c r="M3" s="166"/>
+      <c r="N3" s="167"/>
+      <c r="O3" s="167"/>
+      <c r="P3" s="167"/>
+      <c r="Q3" s="167"/>
+      <c r="R3" s="167"/>
+      <c r="S3" s="167"/>
+      <c r="T3" s="168"/>
     </row>
     <row r="4" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="44" t="s">
@@ -4028,15 +4034,15 @@
     <row r="8" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="157" t="s">
+      <c r="C10" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="158"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="159"/>
+      <c r="D10" s="163"/>
+      <c r="E10" s="163"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="164"/>
     </row>
     <row r="11" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="49" t="s">
@@ -4182,28 +4188,28 @@
       <c r="F17" s="29">
         <v>3</v>
       </c>
-      <c r="G17" s="164">
+      <c r="G17" s="125">
         <v>4</v>
       </c>
-      <c r="H17" s="165">
+      <c r="H17" s="126">
         <v>5</v>
       </c>
-      <c r="I17" s="166">
+      <c r="I17" s="127">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="157" t="s">
+      <c r="C20" s="162" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="158"/>
-      <c r="E20" s="158"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="158"/>
-      <c r="H20" s="158"/>
-      <c r="I20" s="159"/>
+      <c r="D20" s="163"/>
+      <c r="E20" s="163"/>
+      <c r="F20" s="163"/>
+      <c r="G20" s="163"/>
+      <c r="H20" s="163"/>
+      <c r="I20" s="164"/>
     </row>
     <row r="21" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="49" t="s">
@@ -4285,10 +4291,10 @@
       <c r="F24" s="25">
         <v>17</v>
       </c>
-      <c r="G24" s="34">
+      <c r="G24" s="128">
         <v>18</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="129">
         <v>19</v>
       </c>
       <c r="I24" s="27">

--- a/vak vezet vilagtalant.xlsx
+++ b/vak vezet vilagtalant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meste\OneDrive\Desktop\Új mappa\Vizsgaremek-D-K-B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180CB572-3942-47C7-BC39-7EDD0A4CE864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F85D14F-E6D8-49A7-994C-4C9ACFB511D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4530" yWindow="1305" windowWidth="14895" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -311,9 +311,6 @@
     <t>GRE + ipv6</t>
   </si>
   <si>
-    <t>vpn, home office</t>
-  </si>
-  <si>
     <t>wlc</t>
   </si>
   <si>
@@ -809,7 +806,10 @@
     <t>192.168.3.27</t>
   </si>
   <si>
-    <t>asa</t>
+    <t>asa, vpn, home office</t>
+  </si>
+  <si>
+    <t>portsecurity</t>
   </si>
 </sst>
 </file>
@@ -975,7 +975,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1592,24 +1592,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1836,9 +1823,6 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1980,48 +1964,66 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2041,24 +2043,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2442,35 +2426,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="149" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="147" t="s">
+      <c r="A1" s="154" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="154"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="148"/>
+      <c r="E1" s="153"/>
       <c r="H1" s="24" t="s">
         <v>15</v>
       </c>
       <c r="I1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="135" t="s">
+      <c r="J1" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="136"/>
+      <c r="K1" s="142"/>
     </row>
     <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="133" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="137" t="s">
+      <c r="A2" s="143" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="142"/>
-      <c r="D2" s="151" t="s">
+      <c r="C2" s="132"/>
+      <c r="D2" s="129" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="3"/>
@@ -2488,10 +2472,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="134"/>
-      <c r="B3" s="139"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="152"/>
+      <c r="A3" s="144"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="130"/>
       <c r="E3" s="5"/>
       <c r="H3" s="17" t="s">
         <v>22</v>
@@ -2507,14 +2491,14 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="137" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="142"/>
-      <c r="D4" s="151" t="s">
+      <c r="B4" s="131" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="132"/>
+      <c r="D4" s="129" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="4"/>
@@ -2532,187 +2516,187 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="134"/>
-      <c r="B5" s="139"/>
-      <c r="C5" s="143"/>
-      <c r="D5" s="152"/>
+      <c r="A5" s="144"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="130"/>
       <c r="E5" s="4"/>
       <c r="H5" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="I5" s="100"/>
+      <c r="J5" s="111" t="s">
         <v>180</v>
       </c>
-      <c r="I5" s="101"/>
-      <c r="J5" s="112" t="s">
-        <v>181</v>
-      </c>
       <c r="K5" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B6" s="154" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="155"/>
+      <c r="C6" s="139"/>
       <c r="D6" s="13" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="15"/>
       <c r="H6" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="I6" s="101"/>
+      <c r="J6" s="112" t="s">
         <v>182</v>
       </c>
-      <c r="I6" s="102"/>
-      <c r="J6" s="113" t="s">
+      <c r="K6" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="K6" s="4" t="s">
+    </row>
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="143" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="131" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="132"/>
+      <c r="D7" s="129" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="94" t="s">
+        <v>190</v>
+      </c>
+      <c r="H7" s="18" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="133" t="s">
-        <v>125</v>
-      </c>
-      <c r="B7" s="137" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="142"/>
-      <c r="D7" s="151" t="s">
+      <c r="I7" s="102"/>
+      <c r="J7" s="113" t="s">
+        <v>185</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="144"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="95"/>
+      <c r="H8" s="114" t="s">
+        <v>187</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="J8" s="115" t="s">
+        <v>189</v>
+      </c>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="143" t="s">
         <v>127</v>
       </c>
-      <c r="E7" s="95" t="s">
-        <v>191</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="I7" s="103"/>
-      <c r="J7" s="114" t="s">
-        <v>186</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="134"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="143"/>
-      <c r="D8" s="152"/>
-      <c r="E8" s="96"/>
-      <c r="H8" s="115" t="s">
-        <v>188</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="J8" s="116" t="s">
-        <v>190</v>
-      </c>
-      <c r="K8" s="15"/>
-    </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="133" t="s">
+      <c r="B9" s="131" t="s">
         <v>128</v>
       </c>
-      <c r="B9" s="137" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" s="142"/>
-      <c r="D9" s="132" t="s">
+      <c r="C9" s="132"/>
+      <c r="D9" s="145" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="134"/>
-      <c r="B10" s="139"/>
-      <c r="C10" s="153"/>
-      <c r="D10" s="132"/>
+      <c r="A10" s="144"/>
+      <c r="B10" s="133"/>
+      <c r="C10" s="135"/>
+      <c r="D10" s="145"/>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="97" t="s">
+      <c r="A11" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="137" t="s">
+      <c r="B11" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="100" t="s">
-        <v>132</v>
+      <c r="C11" s="99" t="s">
+        <v>131</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="138"/>
+      <c r="B12" s="146"/>
       <c r="C12" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="98" t="s">
+      <c r="A13" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="139"/>
-      <c r="C13" s="99" t="s">
-        <v>192</v>
+      <c r="B13" s="133"/>
+      <c r="C13" s="98" t="s">
+        <v>191</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="135" t="s">
-        <v>156</v>
-      </c>
-      <c r="B15" s="156"/>
-      <c r="C15" s="136"/>
-      <c r="D15" s="135" t="s">
+      <c r="A15" s="140" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="141"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="136"/>
+      <c r="E15" s="142"/>
     </row>
     <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" s="136" t="s">
         <v>162</v>
       </c>
-      <c r="B16" s="130" t="s">
-        <v>163</v>
-      </c>
-      <c r="C16" s="131"/>
+      <c r="C16" s="137"/>
       <c r="D16" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E16" s="15"/>
     </row>
     <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="B17" s="136" t="s">
         <v>164</v>
       </c>
-      <c r="B17" s="130" t="s">
-        <v>165</v>
-      </c>
-      <c r="C17" s="131"/>
+      <c r="C17" s="137"/>
       <c r="D17" s="15" t="s">
         <v>5</v>
       </c>
@@ -2720,131 +2704,131 @@
     </row>
     <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" s="136" t="s">
         <v>166</v>
       </c>
-      <c r="B18" s="130" t="s">
+      <c r="C18" s="137"/>
+      <c r="D18" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="96" t="s">
+        <v>169</v>
+      </c>
+      <c r="B19" s="131" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="99" t="s">
         <v>167</v>
       </c>
-      <c r="C18" s="131"/>
-      <c r="D18" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="E18" s="15"/>
-    </row>
-    <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="97" t="s">
-        <v>170</v>
-      </c>
-      <c r="B19" s="137" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="100" t="s">
+      <c r="D19" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>169</v>
-      </c>
       <c r="E19" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B20" s="138"/>
+        <v>178</v>
+      </c>
+      <c r="B20" s="146"/>
       <c r="C20" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="E20" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>173</v>
-      </c>
     </row>
     <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="98" t="s">
-        <v>178</v>
-      </c>
-      <c r="B21" s="139"/>
-      <c r="C21" s="99" t="s">
+      <c r="A21" s="97" t="s">
+        <v>177</v>
+      </c>
+      <c r="B21" s="133"/>
+      <c r="C21" s="98" t="s">
+        <v>174</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="E21" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="146" t="s">
-        <v>131</v>
-      </c>
-      <c r="B23" s="144"/>
-      <c r="C23" s="145"/>
-      <c r="D23" s="144" t="s">
+      <c r="A23" s="151" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="149"/>
+      <c r="C23" s="150"/>
+      <c r="D23" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="145"/>
+      <c r="E23" s="150"/>
     </row>
     <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="109" t="s">
+      <c r="A24" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" s="136" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="137"/>
+      <c r="D24" s="109" t="s">
         <v>152</v>
       </c>
-      <c r="B24" s="130" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="131"/>
-      <c r="D24" s="110" t="s">
+      <c r="E24" s="110" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="106" t="s">
         <v>153</v>
       </c>
-      <c r="E24" s="111" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="107" t="s">
-        <v>154</v>
-      </c>
-      <c r="B25" s="140" t="s">
-        <v>129</v>
-      </c>
-      <c r="C25" s="141"/>
-      <c r="D25" s="96" t="s">
-        <v>153</v>
-      </c>
-      <c r="E25" s="108"/>
+      <c r="B25" s="147" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="148"/>
+      <c r="D25" s="95" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" s="107"/>
     </row>
     <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="97"/>
-      <c r="B26" s="137" t="s">
+      <c r="A26" s="96"/>
+      <c r="B26" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="100"/>
+      <c r="C26" s="99"/>
       <c r="D26" s="10"/>
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="138"/>
+      <c r="B27" s="146"/>
       <c r="C27" s="8"/>
       <c r="D27" s="11"/>
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="138"/>
+      <c r="B28" s="146"/>
       <c r="C28" s="8"/>
       <c r="D28" s="11"/>
       <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="98"/>
-      <c r="B29" s="139"/>
-      <c r="C29" s="99"/>
+      <c r="A29" s="97"/>
+      <c r="B29" s="133"/>
+      <c r="C29" s="98"/>
       <c r="D29" s="12"/>
       <c r="E29" s="7"/>
     </row>
@@ -2854,14 +2838,14 @@
     </row>
     <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K31" s="23"/>
       <c r="N31" s="23"/>
     </row>
     <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B32" s="22">
         <v>32</v>
@@ -2870,100 +2854,100 @@
         <v>0</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K32" s="23"/>
       <c r="N32" s="23"/>
     </row>
     <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B33" s="22">
         <v>32</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K33" s="23"/>
       <c r="N33" s="23"/>
     </row>
     <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B34" s="22">
         <v>32</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="E34" s="22" t="s">
-        <v>113</v>
-      </c>
       <c r="F34" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K34" s="23"/>
       <c r="N34" s="23"/>
     </row>
     <row r="35" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B35" s="22">
         <v>16</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E35" s="22" t="s">
-        <v>115</v>
-      </c>
       <c r="F35" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I35" s="23"/>
       <c r="L35" s="23"/>
@@ -2971,28 +2955,28 @@
     </row>
     <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B36" s="22">
         <v>16</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D36" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="E36" s="22" t="s">
-        <v>117</v>
-      </c>
       <c r="F36" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I36" s="23"/>
       <c r="L36" s="23"/>
@@ -3000,28 +2984,28 @@
     </row>
     <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B37" s="22">
         <v>16</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D37" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="E37" s="22" t="s">
-        <v>119</v>
-      </c>
       <c r="F37" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I37" s="23"/>
       <c r="L37" s="23"/>
@@ -3029,90 +3013,90 @@
     </row>
     <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B38" s="22">
         <v>16</v>
       </c>
       <c r="C38" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="D38" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="D38" s="22" t="s">
-        <v>204</v>
-      </c>
       <c r="E38" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B39" s="22">
         <v>8</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D39" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="E39" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="E39" s="22" t="s">
-        <v>221</v>
-      </c>
       <c r="F39" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B40" s="22">
         <v>4</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D40" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="E40" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="E40" s="22" t="s">
-        <v>219</v>
-      </c>
       <c r="F40" s="22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G40" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="106" t="s">
-        <v>139</v>
+      <c r="A43" s="105" t="s">
+        <v>138</v>
       </c>
       <c r="B43" s="22">
         <v>16</v>
@@ -3121,94 +3105,94 @@
         <v>3</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G43" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B44" s="22">
         <v>16</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H44" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B45" s="22">
         <v>16</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E45" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="E45" s="22" t="s">
-        <v>149</v>
-      </c>
       <c r="F45" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G45" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B51" s="22">
         <v>32</v>
@@ -3217,174 +3201,174 @@
         <v>2</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G51" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H51" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B52" s="22">
         <v>32</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B53" s="22">
         <v>32</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G53" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B54" s="22">
         <v>32</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B55" s="22">
         <v>16</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G55" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H55" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B56" s="22">
         <v>16</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H56" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C57" s="22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D57" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="E57" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="E57" s="22" t="s">
+      <c r="F57" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="F57" s="22" t="s">
-        <v>249</v>
-      </c>
       <c r="G57" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H57" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B60" s="22">
         <v>16</v>
@@ -3399,7 +3383,7 @@
         <v>14</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G60" s="22">
         <v>240</v>
@@ -3407,13 +3391,13 @@
     </row>
     <row r="61" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B61" s="22">
         <v>8</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D61" s="22">
         <v>17</v>
@@ -3422,7 +3406,7 @@
         <v>22</v>
       </c>
       <c r="F61" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G61" s="22">
         <v>248</v>
@@ -3430,13 +3414,13 @@
     </row>
     <row r="62" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B62" s="22">
         <v>4</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D62" s="22">
         <v>25</v>
@@ -3445,7 +3429,7 @@
         <v>26</v>
       </c>
       <c r="F62" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G62" s="22">
         <v>252</v>
@@ -3453,13 +3437,13 @@
     </row>
     <row r="63" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B63" s="22">
         <v>4</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D63" s="22">
         <v>29</v>
@@ -3468,7 +3452,7 @@
         <v>30</v>
       </c>
       <c r="F63" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G63" s="22">
         <v>252</v>
@@ -3476,23 +3460,11 @@
     </row>
     <row r="64" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C64" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="D15:E15"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="A4:A5"/>
@@ -3509,6 +3481,18 @@
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="D15:E15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3521,7 +3505,7 @@
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3552,30 +3536,30 @@
       <c r="E1" s="74"/>
     </row>
     <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="156" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="117" t="s">
+      <c r="C2" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="104" t="s">
+      <c r="D2" s="103" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="74"/>
       <c r="F2" s="70"/>
-      <c r="G2" s="87" t="s">
+      <c r="G2" s="86" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="158"/>
-      <c r="B3" s="94" t="s">
+      <c r="A3" s="157"/>
+      <c r="B3" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="91" t="s">
         <v>80</v>
       </c>
       <c r="D3" s="81" t="s">
@@ -3583,61 +3567,61 @@
       </c>
       <c r="E3" s="74"/>
       <c r="F3" s="71"/>
-      <c r="G3" s="88" t="s">
+      <c r="G3" s="87" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="158"/>
+      <c r="A4" s="157"/>
       <c r="B4" s="79"/>
       <c r="C4" s="80"/>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="104" t="s">
         <v>76</v>
       </c>
       <c r="E4" s="74"/>
       <c r="F4" s="72"/>
-      <c r="G4" s="89" t="s">
+      <c r="G4" s="88" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="121" t="s">
+      <c r="B5" s="120" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="104" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="74"/>
+    </row>
+    <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="84" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="118" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="105" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="74"/>
-    </row>
-    <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="85" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="121" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="105" t="s">
+      <c r="D6" s="104" t="s">
         <v>44</v>
       </c>
       <c r="E6" s="74"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="94" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="92" t="s">
+      <c r="B7" s="120" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" s="91" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="81" t="s">
@@ -3646,13 +3630,13 @@
       <c r="E7" s="74"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="94" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="92" t="s">
+      <c r="B8" s="120" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="91" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="81" t="s">
@@ -3661,13 +3645,13 @@
       <c r="E8" s="74"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="85" t="s">
+      <c r="A9" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="121" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="92" t="s">
+      <c r="B9" s="93" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="91" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="81" t="s">
@@ -3676,13 +3660,13 @@
       <c r="E9" s="74"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="121" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="118" t="s">
+      <c r="B10" s="93" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="117" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="81" t="s">
@@ -3691,14 +3675,14 @@
       <c r="E10" s="74"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="79" t="s">
-        <v>257</v>
+      <c r="B11" s="120" t="s">
+        <v>90</v>
       </c>
       <c r="C11" s="80" t="s">
-        <v>91</v>
+        <v>256</v>
       </c>
       <c r="D11" s="81" t="s">
         <v>85</v>
@@ -3706,14 +3690,14 @@
       <c r="E11" s="74"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="120" t="s">
         <v>48</v>
       </c>
       <c r="C12" s="80" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="81" t="s">
         <v>86</v>
@@ -3721,7 +3705,7 @@
       <c r="E12" s="74"/>
     </row>
     <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="84" t="s">
         <v>71</v>
       </c>
       <c r="B13" s="80"/>
@@ -3729,22 +3713,22 @@
       <c r="D13" s="81"/>
       <c r="E13" s="74"/>
     </row>
-    <row r="14" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="85" t="s">
+    <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="82"/>
+      <c r="B14" s="80"/>
       <c r="C14" s="80"/>
       <c r="D14" s="81"/>
       <c r="E14" s="74"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="85" t="s">
         <v>73</v>
       </c>
       <c r="B15" s="82"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="84"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="83"/>
       <c r="E15" s="74"/>
     </row>
     <row r="16" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3906,26 +3890,26 @@
   <sheetData>
     <row r="2" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="159" t="s">
+      <c r="C3" s="158" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="161"/>
-      <c r="L3" s="165" t="s">
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="160"/>
+      <c r="L3" s="164" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="166"/>
-      <c r="N3" s="167"/>
-      <c r="O3" s="167"/>
-      <c r="P3" s="167"/>
-      <c r="Q3" s="167"/>
-      <c r="R3" s="167"/>
-      <c r="S3" s="167"/>
-      <c r="T3" s="168"/>
+      <c r="M3" s="165"/>
+      <c r="N3" s="166"/>
+      <c r="O3" s="166"/>
+      <c r="P3" s="166"/>
+      <c r="Q3" s="166"/>
+      <c r="R3" s="166"/>
+      <c r="S3" s="166"/>
+      <c r="T3" s="167"/>
     </row>
     <row r="4" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="44" t="s">
@@ -4015,7 +3999,7 @@
       <c r="D7" s="29">
         <v>25</v>
       </c>
-      <c r="E7" s="90">
+      <c r="E7" s="89">
         <v>26</v>
       </c>
       <c r="F7" s="29">
@@ -4027,22 +4011,22 @@
       <c r="H7" s="65">
         <v>1</v>
       </c>
-      <c r="I7" s="91">
+      <c r="I7" s="90">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="162" t="s">
+      <c r="C10" s="161" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="163"/>
-      <c r="E10" s="163"/>
-      <c r="F10" s="163"/>
-      <c r="G10" s="163"/>
-      <c r="H10" s="163"/>
-      <c r="I10" s="164"/>
+      <c r="D10" s="162"/>
+      <c r="E10" s="162"/>
+      <c r="F10" s="162"/>
+      <c r="G10" s="162"/>
+      <c r="H10" s="162"/>
+      <c r="I10" s="163"/>
     </row>
     <row r="11" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="49" t="s">
@@ -4142,7 +4126,7 @@
       <c r="F15" s="25">
         <v>20</v>
       </c>
-      <c r="G15" s="120">
+      <c r="G15" s="119">
         <v>21</v>
       </c>
       <c r="H15" s="38">
@@ -4165,13 +4149,13 @@
       <c r="F16" s="25">
         <v>27</v>
       </c>
-      <c r="G16" s="122">
+      <c r="G16" s="121">
         <v>28</v>
       </c>
-      <c r="H16" s="123">
+      <c r="H16" s="122">
         <v>29</v>
       </c>
-      <c r="I16" s="124">
+      <c r="I16" s="123">
         <v>30</v>
       </c>
     </row>
@@ -4188,28 +4172,28 @@
       <c r="F17" s="29">
         <v>3</v>
       </c>
-      <c r="G17" s="125">
+      <c r="G17" s="124">
         <v>4</v>
       </c>
-      <c r="H17" s="126">
+      <c r="H17" s="125">
         <v>5</v>
       </c>
-      <c r="I17" s="127">
+      <c r="I17" s="126">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="162" t="s">
+      <c r="C20" s="161" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="163"/>
-      <c r="E20" s="163"/>
-      <c r="F20" s="163"/>
-      <c r="G20" s="163"/>
-      <c r="H20" s="163"/>
-      <c r="I20" s="164"/>
+      <c r="D20" s="162"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="162"/>
+      <c r="G20" s="162"/>
+      <c r="H20" s="162"/>
+      <c r="I20" s="163"/>
     </row>
     <row r="21" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="49" t="s">
@@ -4259,7 +4243,7 @@
       <c r="C23" s="26">
         <v>7</v>
       </c>
-      <c r="D23" s="119">
+      <c r="D23" s="118">
         <v>8</v>
       </c>
       <c r="E23" s="25">
@@ -4291,10 +4275,10 @@
       <c r="F24" s="25">
         <v>17</v>
       </c>
-      <c r="G24" s="128">
+      <c r="G24" s="127">
         <v>18</v>
       </c>
-      <c r="H24" s="129">
+      <c r="H24" s="128">
         <v>19</v>
       </c>
       <c r="I24" s="27">

--- a/vak vezet vilagtalant.xlsx
+++ b/vak vezet vilagtalant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meste\OneDrive\Desktop\Új mappa\Vizsgaremek-D-K-B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bence\Documents\GitHub\Vizsgaremek-D-K-B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F85D14F-E6D8-49A7-994C-4C9ACFB511D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1BB7C6-2110-4C8C-A60D-F51637AB7B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4530" yWindow="1305" windowWidth="14895" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IP címek" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="260">
   <si>
     <t>192.168.1.0</t>
   </si>
@@ -779,12 +779,6 @@
     <t>192.168.2.161</t>
   </si>
   <si>
-    <t>192.168.2.162</t>
-  </si>
-  <si>
-    <t>192.168.2.163</t>
-  </si>
-  <si>
     <t>voice</t>
   </si>
   <si>
@@ -810,6 +804,18 @@
   </si>
   <si>
     <t>portsecurity</t>
+  </si>
+  <si>
+    <t>192.168.2.176</t>
+  </si>
+  <si>
+    <t>192.168.2.175</t>
+  </si>
+  <si>
+    <t>192.168.2.174</t>
+  </si>
+  <si>
+    <t>--</t>
   </si>
 </sst>
 </file>
@@ -1964,85 +1970,85 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2104,9 +2110,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022 téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2144,7 +2150,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2250,7 +2256,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2392,7 +2398,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2402,59 +2408,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J63" sqref="J63"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="22" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="22" customWidth="1"/>
-    <col min="5" max="5" width="36.85546875" style="22" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="22" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.81640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="19.7265625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="36.81640625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="16.7265625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" style="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="22" customWidth="1"/>
-    <col min="10" max="10" width="33.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="9.140625" style="22"/>
-    <col min="17" max="17" width="21.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="22"/>
+    <col min="9" max="9" width="18.1796875" style="22" customWidth="1"/>
+    <col min="10" max="10" width="33.26953125" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.26953125" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.7265625" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="9.1796875" style="22"/>
+    <col min="17" max="17" width="21.81640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.1796875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="154" t="s">
+    <row r="1" spans="1:11" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="148" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="152" t="s">
+      <c r="B1" s="148"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="153"/>
+      <c r="E1" s="147"/>
       <c r="H1" s="24" t="s">
         <v>15</v>
       </c>
       <c r="I1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="140" t="s">
+      <c r="J1" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="142"/>
-    </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="143" t="s">
+      <c r="K1" s="135"/>
+    </row>
+    <row r="2" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="132" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="131" t="s">
+      <c r="B2" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="129" t="s">
+      <c r="C2" s="141"/>
+      <c r="D2" s="150" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="3"/>
@@ -2471,11 +2477,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="144"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="130"/>
+    <row r="3" spans="1:11" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="133"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="151"/>
       <c r="E3" s="5"/>
       <c r="H3" s="17" t="s">
         <v>22</v>
@@ -2490,15 +2496,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="143" t="s">
+    <row r="4" spans="1:11" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="136" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="132"/>
-      <c r="D4" s="129" t="s">
+      <c r="C4" s="141"/>
+      <c r="D4" s="150" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="4"/>
@@ -2515,11 +2521,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="144"/>
-      <c r="B5" s="133"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="130"/>
+    <row r="5" spans="1:11" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="133"/>
+      <c r="B5" s="138"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="151"/>
       <c r="E5" s="4"/>
       <c r="H5" s="16" t="s">
         <v>179</v>
@@ -2532,14 +2538,14 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="138" t="s">
+      <c r="B6" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="139"/>
+      <c r="C6" s="154"/>
       <c r="D6" s="13" t="s">
         <v>4</v>
       </c>
@@ -2555,15 +2561,15 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="143" t="s">
+    <row r="7" spans="1:11" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="132" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="131" t="s">
+      <c r="B7" s="136" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="129" t="s">
+      <c r="C7" s="141"/>
+      <c r="D7" s="150" t="s">
         <v>126</v>
       </c>
       <c r="E7" s="94" t="s">
@@ -2580,11 +2586,11 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="144"/>
-      <c r="B8" s="133"/>
-      <c r="C8" s="134"/>
-      <c r="D8" s="130"/>
+    <row r="8" spans="1:11" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="133"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="142"/>
+      <c r="D8" s="151"/>
       <c r="E8" s="95"/>
       <c r="H8" s="114" t="s">
         <v>187</v>
@@ -2597,31 +2603,31 @@
       </c>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="143" t="s">
+    <row r="9" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="132" t="s">
         <v>127</v>
       </c>
-      <c r="B9" s="131" t="s">
+      <c r="B9" s="136" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="132"/>
-      <c r="D9" s="145" t="s">
+      <c r="C9" s="141"/>
+      <c r="D9" s="131" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="144"/>
-      <c r="B10" s="133"/>
-      <c r="C10" s="135"/>
-      <c r="D10" s="145"/>
+    <row r="10" spans="1:11" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="133"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="152"/>
+      <c r="D10" s="131"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="136" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="99" t="s">
@@ -2634,11 +2640,11 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="146"/>
+      <c r="B12" s="137"/>
       <c r="C12" s="8" t="s">
         <v>132</v>
       </c>
@@ -2649,11 +2655,11 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="133"/>
+      <c r="B13" s="138"/>
       <c r="C13" s="98" t="s">
         <v>191</v>
       </c>
@@ -2664,62 +2670,62 @@
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="140" t="s">
+    <row r="14" spans="1:11" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:11" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="134" t="s">
         <v>155</v>
       </c>
-      <c r="B15" s="141"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="140" t="s">
+      <c r="B15" s="155"/>
+      <c r="C15" s="135"/>
+      <c r="D15" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="142"/>
-    </row>
-    <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="135"/>
+    </row>
+    <row r="16" spans="1:11" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="B16" s="136" t="s">
+      <c r="B16" s="129" t="s">
         <v>162</v>
       </c>
-      <c r="C16" s="137"/>
+      <c r="C16" s="130"/>
       <c r="D16" s="15" t="s">
         <v>152</v>
       </c>
       <c r="E16" s="15"/>
     </row>
-    <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="B17" s="136" t="s">
+      <c r="B17" s="129" t="s">
         <v>164</v>
       </c>
-      <c r="C17" s="137"/>
+      <c r="C17" s="130"/>
       <c r="D17" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="15"/>
     </row>
-    <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="B18" s="136" t="s">
+      <c r="B18" s="129" t="s">
         <v>166</v>
       </c>
-      <c r="C18" s="137"/>
+      <c r="C18" s="130"/>
       <c r="D18" s="15" t="s">
         <v>152</v>
       </c>
       <c r="E18" s="15"/>
     </row>
-    <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="96" t="s">
         <v>169</v>
       </c>
-      <c r="B19" s="131" t="s">
+      <c r="B19" s="136" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="99" t="s">
@@ -2732,11 +2738,11 @@
         <v>173</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B20" s="146"/>
+      <c r="B20" s="137"/>
       <c r="C20" s="8" t="s">
         <v>170</v>
       </c>
@@ -2747,11 +2753,11 @@
         <v>172</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="97" t="s">
         <v>177</v>
       </c>
-      <c r="B21" s="133"/>
+      <c r="B21" s="138"/>
       <c r="C21" s="98" t="s">
         <v>174</v>
       </c>
@@ -2762,26 +2768,26 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="151" t="s">
+    <row r="22" spans="1:14" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="23" spans="1:14" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="145" t="s">
         <v>130</v>
       </c>
-      <c r="B23" s="149"/>
-      <c r="C23" s="150"/>
-      <c r="D23" s="149" t="s">
+      <c r="B23" s="143"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="150"/>
-    </row>
-    <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="144"/>
+    </row>
+    <row r="24" spans="1:14" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="108" t="s">
         <v>151</v>
       </c>
-      <c r="B24" s="136" t="s">
+      <c r="B24" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="137"/>
+      <c r="C24" s="130"/>
       <c r="D24" s="109" t="s">
         <v>152</v>
       </c>
@@ -2789,61 +2795,61 @@
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="106" t="s">
         <v>153</v>
       </c>
-      <c r="B25" s="147" t="s">
+      <c r="B25" s="139" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="148"/>
+      <c r="C25" s="140"/>
       <c r="D25" s="95" t="s">
         <v>152</v>
       </c>
       <c r="E25" s="107"/>
     </row>
-    <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="96"/>
-      <c r="B26" s="131" t="s">
+      <c r="B26" s="136" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="99"/>
       <c r="D26" s="10"/>
       <c r="E26" s="9"/>
     </row>
-    <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
-      <c r="B27" s="146"/>
+      <c r="B27" s="137"/>
       <c r="C27" s="8"/>
       <c r="D27" s="11"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
-      <c r="B28" s="146"/>
+      <c r="B28" s="137"/>
       <c r="C28" s="8"/>
       <c r="D28" s="11"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="97"/>
-      <c r="B29" s="133"/>
+      <c r="B29" s="138"/>
       <c r="C29" s="98"/>
       <c r="D29" s="12"/>
       <c r="E29" s="7"/>
     </row>
-    <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K30" s="23"/>
       <c r="N30" s="23"/>
     </row>
-    <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="22" t="s">
         <v>96</v>
       </c>
       <c r="K31" s="23"/>
       <c r="N31" s="23"/>
     </row>
-    <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="22" t="s">
         <v>92</v>
       </c>
@@ -2871,7 +2877,7 @@
       <c r="K32" s="23"/>
       <c r="N32" s="23"/>
     </row>
-    <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="22" t="s">
         <v>201</v>
       </c>
@@ -2896,7 +2902,7 @@
       <c r="K33" s="23"/>
       <c r="N33" s="23"/>
     </row>
-    <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="22" t="s">
         <v>97</v>
       </c>
@@ -2924,7 +2930,7 @@
       <c r="K34" s="23"/>
       <c r="N34" s="23"/>
     </row>
-    <row r="35" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="22" t="s">
         <v>93</v>
       </c>
@@ -2953,7 +2959,7 @@
       <c r="L35" s="23"/>
       <c r="O35" s="23"/>
     </row>
-    <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="22" t="s">
         <v>200</v>
       </c>
@@ -2982,7 +2988,7 @@
       <c r="L36" s="23"/>
       <c r="O36" s="23"/>
     </row>
-    <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="22" t="s">
         <v>94</v>
       </c>
@@ -3011,7 +3017,7 @@
       <c r="L37" s="23"/>
       <c r="O37" s="23"/>
     </row>
-    <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="22" t="s">
         <v>98</v>
       </c>
@@ -3037,7 +3043,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="22" t="s">
         <v>207</v>
       </c>
@@ -3063,7 +3069,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="22" t="s">
         <v>208</v>
       </c>
@@ -3089,12 +3095,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C41" s="22" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" s="105" t="s">
         <v>138</v>
       </c>
@@ -3120,7 +3126,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="22" t="s">
         <v>137</v>
       </c>
@@ -3146,7 +3152,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="22" t="s">
         <v>136</v>
       </c>
@@ -3172,7 +3178,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="22" t="s">
         <v>133</v>
       </c>
@@ -3180,17 +3186,17 @@
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="22" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="22" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="22" t="s">
         <v>221</v>
       </c>
@@ -3216,7 +3222,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="22" t="s">
         <v>222</v>
       </c>
@@ -3242,9 +3248,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="22" t="s">
-        <v>224</v>
+    <row r="53" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="23" t="s">
+        <v>259</v>
       </c>
       <c r="B53" s="22">
         <v>32</v>
@@ -3268,7 +3274,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="22" t="s">
         <v>226</v>
       </c>
@@ -3294,7 +3300,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="22" t="s">
         <v>223</v>
       </c>
@@ -3320,9 +3326,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B56" s="22">
         <v>16</v>
@@ -3346,7 +3352,13 @@
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="B57" s="22">
+        <v>16</v>
+      </c>
       <c r="C57" s="22" t="s">
         <v>231</v>
       </c>
@@ -3354,21 +3366,29 @@
         <v>246</v>
       </c>
       <c r="E57" s="22" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="F57" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="G57" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="H57" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="22">
+        <v>16</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="22" t="s">
         <v>248</v>
-      </c>
-      <c r="G57" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="H57" s="22" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="22" t="s">
-        <v>250</v>
       </c>
       <c r="B60" s="22">
         <v>16</v>
@@ -3389,9 +3409,9 @@
         <v>240</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="22" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B61" s="22">
         <v>8</v>
@@ -3406,13 +3426,13 @@
         <v>22</v>
       </c>
       <c r="F61" s="22" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G61" s="22">
         <v>248</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="22" t="s">
         <v>223</v>
       </c>
@@ -3420,7 +3440,7 @@
         <v>4</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D62" s="22">
         <v>25</v>
@@ -3429,21 +3449,21 @@
         <v>26</v>
       </c>
       <c r="F62" s="22" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G62" s="22">
         <v>252</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="22" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B63" s="22">
         <v>4</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D63" s="22">
         <v>29</v>
@@ -3458,13 +3478,25 @@
         <v>252</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C64" s="22" t="s">
         <v>140</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="D15:E15"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="A4:A5"/>
@@ -3481,18 +3513,6 @@
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="D15:E15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3504,23 +3524,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="4" width="30.7109375" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="12" width="30.7109375" customWidth="1"/>
-    <col min="13" max="13" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7265625" customWidth="1"/>
+    <col min="2" max="4" width="30.7265625" customWidth="1"/>
+    <col min="7" max="7" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7265625" customWidth="1"/>
+    <col min="9" max="9" width="15.7265625" customWidth="1"/>
+    <col min="10" max="12" width="30.7265625" customWidth="1"/>
+    <col min="13" max="13" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="76" t="s">
         <v>63</v>
       </c>
@@ -3535,7 +3555,7 @@
       </c>
       <c r="E1" s="74"/>
     </row>
-    <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="156" t="s">
         <v>75</v>
       </c>
@@ -3554,7 +3574,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="157"/>
       <c r="B3" s="93" t="s">
         <v>89</v>
@@ -3571,7 +3591,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="157"/>
       <c r="B4" s="79"/>
       <c r="C4" s="80"/>
@@ -3584,7 +3604,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="84" t="s">
         <v>74</v>
       </c>
@@ -3599,7 +3619,7 @@
       </c>
       <c r="E5" s="74"/>
     </row>
-    <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="84" t="s">
         <v>64</v>
       </c>
@@ -3614,12 +3634,12 @@
       </c>
       <c r="E6" s="74"/>
     </row>
-    <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="84" t="s">
         <v>65</v>
       </c>
       <c r="B7" s="120" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C7" s="91" t="s">
         <v>37</v>
@@ -3629,7 +3649,7 @@
       </c>
       <c r="E7" s="74"/>
     </row>
-    <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="84" t="s">
         <v>66</v>
       </c>
@@ -3644,7 +3664,7 @@
       </c>
       <c r="E8" s="74"/>
     </row>
-    <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="84" t="s">
         <v>67</v>
       </c>
@@ -3659,7 +3679,7 @@
       </c>
       <c r="E9" s="74"/>
     </row>
-    <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="84" t="s">
         <v>68</v>
       </c>
@@ -3674,7 +3694,7 @@
       </c>
       <c r="E10" s="74"/>
     </row>
-    <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="84" t="s">
         <v>69</v>
       </c>
@@ -3682,14 +3702,14 @@
         <v>90</v>
       </c>
       <c r="C11" s="80" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D11" s="81" t="s">
         <v>85</v>
       </c>
       <c r="E11" s="74"/>
     </row>
-    <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="84" t="s">
         <v>70</v>
       </c>
@@ -3704,7 +3724,7 @@
       </c>
       <c r="E12" s="74"/>
     </row>
-    <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="84" t="s">
         <v>71</v>
       </c>
@@ -3713,7 +3733,7 @@
       <c r="D13" s="81"/>
       <c r="E13" s="74"/>
     </row>
-    <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="84" t="s">
         <v>72</v>
       </c>
@@ -3722,7 +3742,7 @@
       <c r="D14" s="81"/>
       <c r="E14" s="74"/>
     </row>
-    <row r="15" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="85" t="s">
         <v>73</v>
       </c>
@@ -3731,7 +3751,7 @@
       <c r="D15" s="83"/>
       <c r="E15" s="74"/>
     </row>
-    <row r="16" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="74"/>
       <c r="B16" s="74"/>
       <c r="C16" s="74"/>
@@ -3741,125 +3761,125 @@
       <c r="M16" s="73"/>
       <c r="N16" s="73"/>
     </row>
-    <row r="17" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="74"/>
       <c r="B17" s="74"/>
       <c r="C17" s="74"/>
       <c r="D17" s="74"/>
       <c r="E17" s="74"/>
     </row>
-    <row r="18" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="74"/>
       <c r="B18" s="74"/>
       <c r="C18" s="74"/>
       <c r="D18" s="74"/>
       <c r="E18" s="74"/>
     </row>
-    <row r="19" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="74"/>
       <c r="B19" s="74"/>
       <c r="C19" s="74"/>
       <c r="D19" s="74"/>
       <c r="E19" s="74"/>
     </row>
-    <row r="20" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="74"/>
       <c r="B20" s="74"/>
       <c r="C20" s="74"/>
       <c r="D20" s="74"/>
       <c r="E20" s="74"/>
     </row>
-    <row r="21" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="74"/>
       <c r="B21" s="74"/>
       <c r="C21" s="74"/>
       <c r="D21" s="74"/>
       <c r="E21" s="74"/>
     </row>
-    <row r="22" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="74"/>
       <c r="B22" s="74"/>
       <c r="C22" s="74"/>
       <c r="D22" s="74"/>
       <c r="E22" s="74"/>
     </row>
-    <row r="23" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="74"/>
       <c r="B23" s="74"/>
       <c r="C23" s="74"/>
       <c r="D23" s="74"/>
       <c r="E23" s="74"/>
     </row>
-    <row r="24" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="74"/>
       <c r="B24" s="74"/>
       <c r="C24" s="74"/>
       <c r="D24" s="74"/>
       <c r="E24" s="74"/>
     </row>
-    <row r="25" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="74"/>
       <c r="B25" s="74"/>
       <c r="C25" s="74"/>
       <c r="D25" s="74"/>
       <c r="E25" s="74"/>
     </row>
-    <row r="26" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="74"/>
       <c r="B26" s="74"/>
       <c r="C26" s="74"/>
       <c r="D26" s="74"/>
       <c r="E26" s="74"/>
     </row>
-    <row r="27" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="74"/>
       <c r="B27" s="74"/>
       <c r="C27" s="74"/>
       <c r="D27" s="74"/>
       <c r="E27" s="74"/>
     </row>
-    <row r="28" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="74"/>
       <c r="B28" s="74"/>
       <c r="C28" s="74"/>
       <c r="D28" s="74"/>
       <c r="E28" s="74"/>
     </row>
-    <row r="29" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="74"/>
       <c r="B29" s="74"/>
       <c r="C29" s="74"/>
       <c r="D29" s="74"/>
       <c r="E29" s="74"/>
     </row>
-    <row r="30" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="74"/>
       <c r="B30" s="74"/>
       <c r="C30" s="74"/>
       <c r="D30" s="74"/>
       <c r="E30" s="74"/>
     </row>
-    <row r="31" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="74"/>
       <c r="B31" s="74"/>
       <c r="C31" s="74"/>
       <c r="D31" s="74"/>
       <c r="E31" s="74"/>
     </row>
-    <row r="32" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="74"/>
       <c r="B32" s="74"/>
       <c r="C32" s="74"/>
       <c r="D32" s="74"/>
       <c r="E32" s="74"/>
     </row>
-    <row r="38" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="9:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I38" s="74"/>
     </row>
-    <row r="44" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="9:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I44" s="75"/>
     </row>
-    <row r="45" spans="9:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="9:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I45" s="75"/>
     </row>
   </sheetData>
@@ -3880,16 +3900,16 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="10.7265625" customWidth="1"/>
+    <col min="11" max="11" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:20" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="3:20" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C3" s="158" t="s">
         <v>33</v>
       </c>
@@ -3911,7 +3931,7 @@
       <c r="S3" s="166"/>
       <c r="T3" s="167"/>
     </row>
-    <row r="4" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:20" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C4" s="44" t="s">
         <v>53</v>
       </c>
@@ -3938,7 +3958,7 @@
       </c>
       <c r="M4" s="55"/>
     </row>
-    <row r="5" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:20" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="31">
         <v>10</v>
       </c>
@@ -3965,7 +3985,7 @@
       </c>
       <c r="M5" s="57"/>
     </row>
-    <row r="6" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:20" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C6" s="26">
         <v>17</v>
       </c>
@@ -3992,7 +4012,7 @@
       </c>
       <c r="M6" s="59"/>
     </row>
-    <row r="7" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:20" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C7" s="28">
         <v>24</v>
       </c>
@@ -4015,9 +4035,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:20" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="3:20" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="3:20" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="161" t="s">
         <v>39</v>
       </c>
@@ -4028,7 +4048,7 @@
       <c r="H10" s="162"/>
       <c r="I10" s="163"/>
     </row>
-    <row r="11" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:20" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="49" t="s">
         <v>53</v>
       </c>
@@ -4051,7 +4071,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:20" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C12" s="41"/>
       <c r="D12" s="42"/>
       <c r="E12" s="42"/>
@@ -4064,7 +4084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:20" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C13" s="60">
         <v>3</v>
       </c>
@@ -4090,7 +4110,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:20" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C14" s="26">
         <v>10</v>
       </c>
@@ -4113,7 +4133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:20" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C15" s="26">
         <v>17</v>
       </c>
@@ -4136,7 +4156,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:20" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C16" s="26">
         <v>24</v>
       </c>
@@ -4159,7 +4179,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:11" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C17" s="28">
         <v>31</v>
       </c>
@@ -4182,9 +4202,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="3:11" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="20" spans="3:11" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C20" s="161" t="s">
         <v>49</v>
       </c>
@@ -4195,7 +4215,7 @@
       <c r="H20" s="162"/>
       <c r="I20" s="163"/>
     </row>
-    <row r="21" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:11" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C21" s="49" t="s">
         <v>53</v>
       </c>
@@ -4218,7 +4238,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C22" s="41"/>
       <c r="D22" s="42">
         <v>1</v>
@@ -4239,7 +4259,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C23" s="26">
         <v>7</v>
       </c>
@@ -4262,7 +4282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C24" s="26">
         <v>14</v>
       </c>
@@ -4285,7 +4305,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C25" s="26">
         <v>21</v>
       </c>
@@ -4311,7 +4331,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="3:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:11" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C26" s="68">
         <v>28</v>
       </c>
